--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -1787,6 +1787,490 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1877,493 +2361,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2527,6 +2527,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3980,50 +3983,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>96051</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>47041</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1536807" y="6727532"/>
-          <a:ext cx="3833028" cy="1245932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4293,7 +4252,7 @@
   <dimension ref="A1:BC65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35:BC51"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4312,22 +4271,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4339,54 +4298,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="135" t="s">
+      <c r="Z1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="125"/>
+      <c r="BB1" s="125"/>
+      <c r="BC1" s="125"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4404,47 +4363,47 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="211" t="s">
+      <c r="AG2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
-      <c r="AM2" s="211"/>
-      <c r="AN2" s="211"/>
-      <c r="AO2" s="211"/>
-      <c r="AP2" s="211"/>
-      <c r="AQ2" s="211"/>
-      <c r="AR2" s="211"/>
-      <c r="AS2" s="211"/>
-      <c r="AT2" s="211"/>
-      <c r="AU2" s="211"/>
-      <c r="AV2" s="211"/>
-      <c r="AW2" s="211"/>
-      <c r="AX2" s="211"/>
-      <c r="AY2" s="211"/>
-      <c r="AZ2" s="211"/>
-      <c r="BA2" s="211"/>
-      <c r="BB2" s="211"/>
-      <c r="BC2" s="211"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
@@ -4480,20 +4439,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4516,41 +4475,41 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="159" t="s">
+      <c r="AM4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="215"/>
-      <c r="AW4" s="212"/>
-      <c r="AX4" s="213"/>
-      <c r="AY4" s="213"/>
-      <c r="AZ4" s="213"/>
-      <c r="BA4" s="213"/>
-      <c r="BB4" s="213"/>
-      <c r="BC4" s="214"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="49"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
@@ -4585,20 +4544,20 @@
       <c r="AV5" s="38"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4622,52 +4581,52 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="159" t="s">
+      <c r="AM6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="154"/>
-      <c r="AO6" s="154"/>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="154"/>
-      <c r="AR6" s="154"/>
-      <c r="AS6" s="154"/>
-      <c r="AT6" s="154"/>
-      <c r="AU6" s="154"/>
-      <c r="AV6" s="215"/>
-      <c r="AW6" s="208"/>
-      <c r="AX6" s="209"/>
-      <c r="AY6" s="209"/>
-      <c r="AZ6" s="209"/>
-      <c r="BA6" s="209"/>
-      <c r="BB6" s="209"/>
-      <c r="BC6" s="210"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="45"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
       <c r="O7" s="31"/>
-      <c r="P7" s="153" t="s">
+      <c r="P7" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="155"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="137"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -4687,31 +4646,31 @@
       <c r="AV7" s="38"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="156">
+      <c r="P8" s="138">
         <v>1</v>
       </c>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="158"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="140"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4720,41 +4679,41 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="159" t="s">
+      <c r="AM8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="154"/>
-      <c r="AO8" s="154"/>
-      <c r="AP8" s="154"/>
-      <c r="AQ8" s="154"/>
-      <c r="AR8" s="154"/>
-      <c r="AS8" s="154"/>
-      <c r="AT8" s="154"/>
-      <c r="AU8" s="154"/>
-      <c r="AV8" s="215"/>
-      <c r="AW8" s="208"/>
-      <c r="AX8" s="209"/>
-      <c r="AY8" s="209"/>
-      <c r="AZ8" s="209"/>
-      <c r="BA8" s="209"/>
-      <c r="BB8" s="209"/>
-      <c r="BC8" s="210"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="45"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
       <c r="O9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="32"/>
@@ -4765,31 +4724,31 @@
       <c r="AE9" s="32"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="159" t="s">
+      <c r="P10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="32"/>
@@ -4798,50 +4757,50 @@
       <c r="AC10" s="32"/>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
-      <c r="AM10" s="161" t="s">
+      <c r="AM10" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AN10" s="161"/>
-      <c r="AO10" s="161"/>
-      <c r="AP10" s="161"/>
-      <c r="AQ10" s="161"/>
-      <c r="AR10" s="161"/>
-      <c r="AS10" s="161"/>
-      <c r="AT10" s="161"/>
-      <c r="AU10" s="161"/>
-      <c r="AV10" s="161"/>
-      <c r="AW10" s="161"/>
-      <c r="AX10" s="161"/>
-      <c r="AY10" s="161"/>
-      <c r="AZ10" s="161"/>
-      <c r="BA10" s="161"/>
-      <c r="BB10" s="161"/>
-      <c r="BC10" s="161"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="32"/>
       <c r="Z11" s="32"/>
@@ -4850,23 +4809,23 @@
       <c r="AC11" s="32"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
-      <c r="AM11" s="161"/>
-      <c r="AN11" s="161"/>
-      <c r="AO11" s="161"/>
-      <c r="AP11" s="161"/>
-      <c r="AQ11" s="161"/>
-      <c r="AR11" s="161"/>
-      <c r="AS11" s="161"/>
-      <c r="AT11" s="161"/>
-      <c r="AU11" s="161"/>
-      <c r="AV11" s="161"/>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="161"/>
-      <c r="AY11" s="161"/>
-      <c r="AZ11" s="161"/>
-      <c r="BA11" s="161"/>
-      <c r="BB11" s="161"/>
-      <c r="BC11" s="161"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="33"/>
@@ -4892,336 +4851,336 @@
       <c r="AJ12" s="39"/>
       <c r="AK12" s="39"/>
       <c r="AL12" s="39"/>
-      <c r="AM12" s="160" t="s">
+      <c r="AM12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="160"/>
-      <c r="AP12" s="160"/>
-      <c r="AQ12" s="160"/>
-      <c r="AR12" s="160"/>
-      <c r="AS12" s="160"/>
-      <c r="AT12" s="160"/>
-      <c r="AU12" s="160"/>
-      <c r="AV12" s="160"/>
-      <c r="AW12" s="160"/>
-      <c r="AX12" s="160"/>
-      <c r="AY12" s="160"/>
-      <c r="AZ12" s="160"/>
-      <c r="BA12" s="160"/>
-      <c r="BB12" s="160"/>
-      <c r="BC12" s="160"/>
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="141"/>
+      <c r="AP12" s="141"/>
+      <c r="AQ12" s="141"/>
+      <c r="AR12" s="141"/>
+      <c r="AS12" s="141"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
+      <c r="AV12" s="141"/>
+      <c r="AW12" s="141"/>
+      <c r="AX12" s="141"/>
+      <c r="AY12" s="141"/>
+      <c r="AZ12" s="141"/>
+      <c r="BA12" s="141"/>
+      <c r="BB12" s="141"/>
+      <c r="BC12" s="141"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="167"/>
-      <c r="AK13" s="167"/>
-      <c r="AL13" s="167"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="167"/>
-      <c r="AO13" s="167"/>
-      <c r="AP13" s="167"/>
-      <c r="AQ13" s="167"/>
-      <c r="AR13" s="167"/>
-      <c r="AS13" s="163"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="163"/>
-      <c r="AX13" s="163"/>
-      <c r="AY13" s="163"/>
-      <c r="AZ13" s="163"/>
-      <c r="BA13" s="163"/>
-      <c r="BB13" s="163"/>
-      <c r="BC13" s="164"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="147"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="147"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="143"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
+      <c r="AY13" s="143"/>
+      <c r="AZ13" s="143"/>
+      <c r="BA13" s="143"/>
+      <c r="BB13" s="143"/>
+      <c r="BC13" s="144"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="148" t="s">
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="136" t="s">
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="148" t="s">
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="148"/>
-      <c r="AN14" s="148"/>
-      <c r="AO14" s="148"/>
-      <c r="AP14" s="148"/>
-      <c r="AQ14" s="148"/>
-      <c r="AR14" s="148"/>
-      <c r="AS14" s="148"/>
-      <c r="AT14" s="136" t="s">
+      <c r="AM14" s="134"/>
+      <c r="AN14" s="134"/>
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="134"/>
+      <c r="AQ14" s="134"/>
+      <c r="AR14" s="134"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="136"/>
-      <c r="BB14" s="136"/>
-      <c r="BC14" s="227"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="66"/>
+      <c r="BA14" s="66"/>
+      <c r="BB14" s="66"/>
+      <c r="BC14" s="67"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="165"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="149"/>
-      <c r="AN15" s="149"/>
-      <c r="AO15" s="149"/>
-      <c r="AP15" s="149"/>
-      <c r="AQ15" s="149"/>
-      <c r="AR15" s="149"/>
-      <c r="AS15" s="149"/>
-      <c r="AT15" s="149"/>
-      <c r="AU15" s="149"/>
-      <c r="AV15" s="149"/>
-      <c r="AW15" s="149"/>
-      <c r="AX15" s="149"/>
-      <c r="AY15" s="149"/>
-      <c r="AZ15" s="149"/>
-      <c r="BA15" s="149"/>
-      <c r="BB15" s="149"/>
-      <c r="BC15" s="181"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="106"/>
+      <c r="AJ15" s="106"/>
+      <c r="AK15" s="106"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="106"/>
+      <c r="AN15" s="106"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="106"/>
+      <c r="AY15" s="106"/>
+      <c r="AZ15" s="106"/>
+      <c r="BA15" s="106"/>
+      <c r="BB15" s="106"/>
+      <c r="BC15" s="107"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="136" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="151" t="s">
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="136" t="s">
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136" t="s">
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="136"/>
-      <c r="AN16" s="194"/>
-      <c r="AO16" s="189" t="s">
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="123"/>
+      <c r="AO16" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="190"/>
-      <c r="AQ16" s="190"/>
-      <c r="AR16" s="190"/>
-      <c r="AS16" s="190"/>
-      <c r="AT16" s="190"/>
-      <c r="AU16" s="190"/>
-      <c r="AV16" s="190"/>
-      <c r="AW16" s="190"/>
-      <c r="AX16" s="190"/>
-      <c r="AY16" s="190"/>
-      <c r="AZ16" s="190"/>
-      <c r="BA16" s="190"/>
-      <c r="BB16" s="190"/>
-      <c r="BC16" s="191"/>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="119"/>
+      <c r="AV16" s="119"/>
+      <c r="AW16" s="119"/>
+      <c r="AX16" s="119"/>
+      <c r="AY16" s="119"/>
+      <c r="AZ16" s="119"/>
+      <c r="BA16" s="119"/>
+      <c r="BB16" s="119"/>
+      <c r="BC16" s="120"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="146"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="146"/>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="146"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="145"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="192"/>
-      <c r="AP17" s="188"/>
-      <c r="AQ17" s="188"/>
-      <c r="AR17" s="188"/>
-      <c r="AS17" s="188"/>
-      <c r="AT17" s="188"/>
-      <c r="AU17" s="188"/>
-      <c r="AV17" s="188"/>
-      <c r="AW17" s="188"/>
-      <c r="AX17" s="188"/>
-      <c r="AY17" s="188"/>
-      <c r="AZ17" s="188"/>
-      <c r="BA17" s="188"/>
-      <c r="BB17" s="188"/>
-      <c r="BC17" s="193"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="109"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="109"/>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="132"/>
+      <c r="AM17" s="109"/>
+      <c r="AN17" s="133"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="117"/>
+      <c r="AR17" s="117"/>
+      <c r="AS17" s="117"/>
+      <c r="AT17" s="117"/>
+      <c r="AU17" s="117"/>
+      <c r="AV17" s="117"/>
+      <c r="AW17" s="117"/>
+      <c r="AX17" s="117"/>
+      <c r="AY17" s="117"/>
+      <c r="AZ17" s="117"/>
+      <c r="BA17" s="117"/>
+      <c r="BB17" s="117"/>
+      <c r="BC17" s="122"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5237,19 +5196,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5263,686 +5222,686 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="119"/>
-      <c r="AM19" s="139" t="s">
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="150"/>
+      <c r="AD19" s="150"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="150"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="150"/>
+      <c r="AJ19" s="150"/>
+      <c r="AK19" s="151"/>
+      <c r="AM19" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="140"/>
-      <c r="AO19" s="140"/>
-      <c r="AP19" s="140"/>
-      <c r="AQ19" s="140"/>
-      <c r="AR19" s="140"/>
-      <c r="AS19" s="140"/>
-      <c r="AT19" s="140"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
-      <c r="AY19" s="140"/>
-      <c r="AZ19" s="140"/>
-      <c r="BA19" s="140"/>
-      <c r="BB19" s="140"/>
-      <c r="BC19" s="141"/>
+      <c r="AN19" s="127"/>
+      <c r="AO19" s="127"/>
+      <c r="AP19" s="127"/>
+      <c r="AQ19" s="127"/>
+      <c r="AR19" s="127"/>
+      <c r="AS19" s="127"/>
+      <c r="AT19" s="127"/>
+      <c r="AU19" s="127"/>
+      <c r="AV19" s="127"/>
+      <c r="AW19" s="127"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="127"/>
+      <c r="AZ19" s="127"/>
+      <c r="BA19" s="127"/>
+      <c r="BB19" s="127"/>
+      <c r="BC19" s="128"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123" t="s">
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123" t="s">
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="152"/>
-      <c r="AM20" s="169"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170"/>
-      <c r="AQ20" s="170"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="170"/>
-      <c r="AT20" s="170"/>
-      <c r="AU20" s="170"/>
-      <c r="AV20" s="170"/>
-      <c r="AW20" s="170"/>
-      <c r="AX20" s="170"/>
-      <c r="AY20" s="170"/>
-      <c r="AZ20" s="170"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="170"/>
-      <c r="BC20" s="171"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="124"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="124"/>
+      <c r="AK20" s="135"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="94"/>
+      <c r="BB20" s="94"/>
+      <c r="BC20" s="95"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="231"/>
-      <c r="X21" s="231"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="231"/>
-      <c r="AA21" s="231"/>
-      <c r="AB21" s="231"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="125"/>
-      <c r="AM21" s="172"/>
-      <c r="AN21" s="173"/>
-      <c r="AO21" s="173"/>
-      <c r="AP21" s="173"/>
-      <c r="AQ21" s="173"/>
-      <c r="AR21" s="173"/>
-      <c r="AS21" s="173"/>
-      <c r="AT21" s="173"/>
-      <c r="AU21" s="173"/>
-      <c r="AV21" s="173"/>
-      <c r="AW21" s="173"/>
-      <c r="AX21" s="173"/>
-      <c r="AY21" s="173"/>
-      <c r="AZ21" s="173"/>
-      <c r="BA21" s="173"/>
-      <c r="BB21" s="173"/>
-      <c r="BC21" s="174"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="75"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="97"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="97"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="97"/>
+      <c r="AW21" s="97"/>
+      <c r="AX21" s="97"/>
+      <c r="AY21" s="97"/>
+      <c r="AZ21" s="97"/>
+      <c r="BA21" s="97"/>
+      <c r="BB21" s="97"/>
+      <c r="BC21" s="98"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="232"/>
-      <c r="X22" s="232"/>
-      <c r="Y22" s="232"/>
-      <c r="Z22" s="232"/>
-      <c r="AA22" s="232"/>
-      <c r="AB22" s="232"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="125"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="75"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="232"/>
-      <c r="X23" s="232"/>
-      <c r="Y23" s="232"/>
-      <c r="Z23" s="232"/>
-      <c r="AA23" s="232"/>
-      <c r="AB23" s="232"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="125"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="75"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="142" t="s">
+      <c r="AM23" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="143"/>
-      <c r="AO23" s="143"/>
-      <c r="AP23" s="143"/>
-      <c r="AQ23" s="143"/>
-      <c r="AR23" s="143"/>
-      <c r="AS23" s="143"/>
-      <c r="AT23" s="143"/>
-      <c r="AU23" s="143"/>
-      <c r="AV23" s="143"/>
-      <c r="AW23" s="143"/>
-      <c r="AX23" s="143"/>
-      <c r="AY23" s="143"/>
-      <c r="AZ23" s="143"/>
-      <c r="BA23" s="143"/>
-      <c r="BB23" s="143"/>
-      <c r="BC23" s="144"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="130"/>
+      <c r="AP23" s="130"/>
+      <c r="AQ23" s="130"/>
+      <c r="AR23" s="130"/>
+      <c r="AS23" s="130"/>
+      <c r="AT23" s="130"/>
+      <c r="AU23" s="130"/>
+      <c r="AV23" s="130"/>
+      <c r="AW23" s="130"/>
+      <c r="AX23" s="130"/>
+      <c r="AY23" s="130"/>
+      <c r="AZ23" s="130"/>
+      <c r="BA23" s="130"/>
+      <c r="BB23" s="130"/>
+      <c r="BC23" s="131"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="232"/>
-      <c r="X24" s="232"/>
-      <c r="Y24" s="232"/>
-      <c r="Z24" s="232"/>
-      <c r="AA24" s="232"/>
-      <c r="AB24" s="232"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="230"/>
-      <c r="AM24" s="182" t="s">
+      <c r="A24" s="158"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="183"/>
-      <c r="AO24" s="183"/>
-      <c r="AP24" s="183"/>
-      <c r="AQ24" s="183"/>
-      <c r="AR24" s="184" t="s">
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="184"/>
-      <c r="AT24" s="184"/>
-      <c r="AU24" s="184"/>
-      <c r="AV24" s="184"/>
-      <c r="AW24" s="184"/>
-      <c r="AX24" s="184"/>
-      <c r="AY24" s="175" t="s">
+      <c r="AS24" s="112"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="112"/>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="175"/>
-      <c r="BA24" s="175"/>
-      <c r="BB24" s="175"/>
-      <c r="BC24" s="176"/>
+      <c r="AZ24" s="99"/>
+      <c r="BA24" s="99"/>
+      <c r="BB24" s="99"/>
+      <c r="BC24" s="100"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="232"/>
-      <c r="X25" s="232"/>
-      <c r="Y25" s="232"/>
-      <c r="Z25" s="232"/>
-      <c r="AA25" s="232"/>
-      <c r="AB25" s="232"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="125"/>
-      <c r="AL25" s="230"/>
-      <c r="AM25" s="223"/>
-      <c r="AN25" s="224"/>
-      <c r="AO25" s="224"/>
-      <c r="AP25" s="224"/>
-      <c r="AQ25" s="224"/>
-      <c r="AR25" s="225"/>
-      <c r="AS25" s="225"/>
-      <c r="AT25" s="225"/>
-      <c r="AU25" s="225"/>
-      <c r="AV25" s="225"/>
-      <c r="AW25" s="225"/>
-      <c r="AX25" s="225"/>
-      <c r="AY25" s="216"/>
-      <c r="AZ25" s="216"/>
-      <c r="BA25" s="216"/>
-      <c r="BB25" s="216"/>
-      <c r="BC25" s="217"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="54"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="233"/>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="233"/>
-      <c r="Z26" s="233"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="233"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="125"/>
-      <c r="AL26" s="230"/>
-      <c r="AM26" s="137"/>
-      <c r="AN26" s="138"/>
-      <c r="AO26" s="138"/>
-      <c r="AP26" s="138"/>
-      <c r="AQ26" s="138"/>
-      <c r="AR26" s="226"/>
-      <c r="AS26" s="226"/>
-      <c r="AT26" s="226"/>
-      <c r="AU26" s="226"/>
-      <c r="AV26" s="226"/>
-      <c r="AW26" s="226"/>
-      <c r="AX26" s="226"/>
-      <c r="AY26" s="218"/>
-      <c r="AZ26" s="218"/>
-      <c r="BA26" s="218"/>
-      <c r="BB26" s="218"/>
-      <c r="BC26" s="219"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="55"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="55"/>
+      <c r="BC26" s="56"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="186" t="s">
+      <c r="B27" s="153"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="121">
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="115"/>
+      <c r="W27" s="115"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="115"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="72">
         <v>0</v>
       </c>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="122"/>
-      <c r="AL27" s="230"/>
-      <c r="AM27" s="228" t="s">
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="228"/>
-      <c r="AO27" s="228"/>
-      <c r="AP27" s="228"/>
-      <c r="AQ27" s="228"/>
-      <c r="AR27" s="228"/>
-      <c r="AS27" s="228"/>
-      <c r="AT27" s="228"/>
-      <c r="AU27" s="228"/>
-      <c r="AV27" s="228"/>
-      <c r="AW27" s="228"/>
-      <c r="AX27" s="228"/>
-      <c r="AY27" s="228"/>
-      <c r="AZ27" s="228"/>
-      <c r="BA27" s="228"/>
-      <c r="BB27" s="228"/>
-      <c r="BC27" s="228"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="AL28" s="230"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="161"/>
-      <c r="AO28" s="161"/>
-      <c r="AP28" s="161"/>
-      <c r="AQ28" s="161"/>
-      <c r="AR28" s="161"/>
-      <c r="AS28" s="161"/>
-      <c r="AT28" s="161"/>
-      <c r="AU28" s="161"/>
-      <c r="AV28" s="161"/>
-      <c r="AW28" s="161"/>
-      <c r="AX28" s="161"/>
-      <c r="AY28" s="161"/>
-      <c r="AZ28" s="161"/>
-      <c r="BA28" s="161"/>
-      <c r="BB28" s="161"/>
-      <c r="BC28" s="161"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="178"/>
-      <c r="AL29" s="230"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="161"/>
-      <c r="AO29" s="161"/>
-      <c r="AP29" s="161"/>
-      <c r="AQ29" s="161"/>
-      <c r="AR29" s="161"/>
-      <c r="AS29" s="161"/>
-      <c r="AT29" s="161"/>
-      <c r="AU29" s="161"/>
-      <c r="AV29" s="161"/>
-      <c r="AW29" s="161"/>
-      <c r="AX29" s="161"/>
-      <c r="AY29" s="161"/>
-      <c r="AZ29" s="161"/>
-      <c r="BA29" s="161"/>
-      <c r="BB29" s="161"/>
-      <c r="BC29" s="161"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="102"/>
+      <c r="AG29" s="102"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="69"/>
+      <c r="BC29" s="69"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="179"/>
-      <c r="T30" s="179" t="s">
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="179"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="179"/>
-      <c r="X30" s="179"/>
-      <c r="Y30" s="179"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="179" t="s">
+      <c r="AC30" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="179"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="179"/>
-      <c r="AJ30" s="179"/>
-      <c r="AK30" s="180"/>
-      <c r="AL30" s="230"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="161"/>
-      <c r="AO30" s="161"/>
-      <c r="AP30" s="161"/>
-      <c r="AQ30" s="161"/>
-      <c r="AR30" s="161"/>
-      <c r="AS30" s="161"/>
-      <c r="AT30" s="161"/>
-      <c r="AU30" s="161"/>
-      <c r="AV30" s="161"/>
-      <c r="AW30" s="161"/>
-      <c r="AX30" s="161"/>
-      <c r="AY30" s="161"/>
-      <c r="AZ30" s="161"/>
-      <c r="BA30" s="161"/>
-      <c r="BB30" s="161"/>
-      <c r="BC30" s="161"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="104"/>
+      <c r="AJ30" s="104"/>
+      <c r="AK30" s="105"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="69"/>
+      <c r="AN30" s="69"/>
+      <c r="AO30" s="69"/>
+      <c r="AP30" s="69"/>
+      <c r="AQ30" s="69"/>
+      <c r="AR30" s="69"/>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="69"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="69"/>
+      <c r="AZ30" s="69"/>
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="69"/>
+      <c r="BC30" s="69"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -5982,24 +5941,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="230"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="161"/>
-      <c r="AO31" s="161"/>
-      <c r="AP31" s="161"/>
-      <c r="AQ31" s="161"/>
-      <c r="AR31" s="161"/>
-      <c r="AS31" s="161"/>
-      <c r="AT31" s="161"/>
-      <c r="AU31" s="161"/>
-      <c r="AV31" s="161"/>
-      <c r="AW31" s="161"/>
-      <c r="AX31" s="161"/>
-      <c r="AY31" s="161"/>
-      <c r="AZ31" s="161"/>
-      <c r="BA31" s="161"/>
-      <c r="BB31" s="161"/>
-      <c r="BC31" s="161"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="69"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="69"/>
+      <c r="AQ31" s="69"/>
+      <c r="AR31" s="69"/>
+      <c r="AS31" s="69"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="69"/>
+      <c r="AZ31" s="69"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -6020,254 +5979,254 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="120" t="s">
+      <c r="S32" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="121">
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="152"/>
+      <c r="AC32" s="72">
         <v>0</v>
       </c>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="230"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="161"/>
-      <c r="AO32" s="161"/>
-      <c r="AP32" s="161"/>
-      <c r="AQ32" s="161"/>
-      <c r="AR32" s="161"/>
-      <c r="AS32" s="161"/>
-      <c r="AT32" s="161"/>
-      <c r="AU32" s="161"/>
-      <c r="AV32" s="161"/>
-      <c r="AW32" s="161"/>
-      <c r="AX32" s="161"/>
-      <c r="AY32" s="161"/>
-      <c r="AZ32" s="161"/>
-      <c r="BA32" s="161"/>
-      <c r="BB32" s="161"/>
-      <c r="BC32" s="161"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="69"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="69"/>
+      <c r="AQ32" s="69"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="69"/>
+      <c r="AZ32" s="69"/>
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
+      <c r="BC32" s="69"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="168"/>
-      <c r="AH33" s="168"/>
-      <c r="AI33" s="168"/>
-      <c r="AJ33" s="168"/>
-      <c r="AK33" s="168"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="229"/>
-      <c r="AN33" s="229"/>
-      <c r="AO33" s="229"/>
-      <c r="AP33" s="229"/>
-      <c r="AQ33" s="229"/>
-      <c r="AR33" s="229"/>
-      <c r="AS33" s="229"/>
-      <c r="AT33" s="229"/>
-      <c r="AU33" s="229"/>
-      <c r="AV33" s="229"/>
-      <c r="AW33" s="229"/>
-      <c r="AX33" s="229"/>
-      <c r="AY33" s="229"/>
-      <c r="AZ33" s="229"/>
-      <c r="BA33" s="229"/>
-      <c r="BB33" s="229"/>
-      <c r="BC33" s="229"/>
+      <c r="AM33" s="70"/>
+      <c r="AN33" s="70"/>
+      <c r="AO33" s="70"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="70"/>
+      <c r="AS33" s="70"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="70"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="70"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="70"/>
+      <c r="BA33" s="70"/>
+      <c r="BB33" s="70"/>
+      <c r="BC33" s="70"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="196"/>
-      <c r="N34" s="196"/>
-      <c r="O34" s="196"/>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="196"/>
-      <c r="R34" s="196"/>
-      <c r="S34" s="196"/>
-      <c r="T34" s="196"/>
-      <c r="U34" s="196"/>
-      <c r="V34" s="196"/>
-      <c r="W34" s="196"/>
-      <c r="X34" s="196"/>
-      <c r="Y34" s="196"/>
-      <c r="Z34" s="196"/>
-      <c r="AA34" s="196"/>
-      <c r="AB34" s="196"/>
-      <c r="AC34" s="196"/>
-      <c r="AD34" s="196"/>
-      <c r="AE34" s="196"/>
-      <c r="AF34" s="196"/>
-      <c r="AG34" s="196"/>
-      <c r="AH34" s="196"/>
-      <c r="AI34" s="196"/>
-      <c r="AJ34" s="196"/>
-      <c r="AK34" s="197"/>
-      <c r="AM34" s="220" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="80"/>
+      <c r="AD34" s="80"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="80"/>
+      <c r="AK34" s="81"/>
+      <c r="AM34" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="221"/>
-      <c r="AO34" s="221"/>
-      <c r="AP34" s="221"/>
-      <c r="AQ34" s="221"/>
-      <c r="AR34" s="221"/>
-      <c r="AS34" s="221"/>
-      <c r="AT34" s="221"/>
-      <c r="AU34" s="221"/>
-      <c r="AV34" s="221"/>
-      <c r="AW34" s="221"/>
-      <c r="AX34" s="221"/>
-      <c r="AY34" s="221"/>
-      <c r="AZ34" s="221"/>
-      <c r="BA34" s="221"/>
-      <c r="BB34" s="221"/>
-      <c r="BC34" s="222"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="58"/>
+      <c r="AS34" s="58"/>
+      <c r="AT34" s="58"/>
+      <c r="AU34" s="58"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="58"/>
+      <c r="AX34" s="58"/>
+      <c r="AY34" s="58"/>
+      <c r="AZ34" s="58"/>
+      <c r="BA34" s="58"/>
+      <c r="BB34" s="58"/>
+      <c r="BC34" s="59"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="198" t="s">
+      <c r="A35" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="199"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="199"/>
-      <c r="O35" s="199"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="199"/>
-      <c r="S35" s="199"/>
-      <c r="T35" s="199"/>
-      <c r="U35" s="199"/>
-      <c r="V35" s="199"/>
-      <c r="W35" s="199"/>
-      <c r="X35" s="199"/>
-      <c r="Y35" s="199"/>
-      <c r="Z35" s="199"/>
-      <c r="AA35" s="199"/>
-      <c r="AB35" s="199"/>
-      <c r="AC35" s="199"/>
-      <c r="AD35" s="199"/>
-      <c r="AE35" s="199"/>
-      <c r="AF35" s="199"/>
-      <c r="AG35" s="199"/>
-      <c r="AH35" s="199"/>
-      <c r="AI35" s="199"/>
-      <c r="AJ35" s="199"/>
-      <c r="AK35" s="206"/>
-      <c r="AM35" s="44" t="s">
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="83"/>
+      <c r="AJ35" s="83"/>
+      <c r="AK35" s="89"/>
+      <c r="AM35" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="45"/>
-      <c r="AP35" s="45"/>
-      <c r="AQ35" s="45"/>
-      <c r="AR35" s="45"/>
-      <c r="AS35" s="45"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="45"/>
-      <c r="AV35" s="45"/>
-      <c r="AW35" s="45"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="45"/>
-      <c r="BA35" s="45"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="46"/>
+      <c r="AN35" s="207"/>
+      <c r="AO35" s="207"/>
+      <c r="AP35" s="207"/>
+      <c r="AQ35" s="207"/>
+      <c r="AR35" s="207"/>
+      <c r="AS35" s="207"/>
+      <c r="AT35" s="207"/>
+      <c r="AU35" s="207"/>
+      <c r="AV35" s="207"/>
+      <c r="AW35" s="207"/>
+      <c r="AX35" s="207"/>
+      <c r="AY35" s="207"/>
+      <c r="AZ35" s="207"/>
+      <c r="BA35" s="207"/>
+      <c r="BB35" s="207"/>
+      <c r="BC35" s="208"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="202">
+      <c r="A36" s="86">
         <f>SUM(P36:P41)</f>
-        <v>130.1</v>
-      </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
+        <v>158.69999999999999</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="73" t="s">
+      <c r="L36" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="71">
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="88">
         <v>29.8</v>
       </c>
-      <c r="Q36" s="71"/>
+      <c r="Q36" s="88"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
@@ -6288,48 +6247,48 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="47"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="48"/>
-      <c r="AU36" s="48"/>
-      <c r="AV36" s="48"/>
-      <c r="AW36" s="48"/>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="48"/>
-      <c r="AZ36" s="48"/>
-      <c r="BA36" s="48"/>
-      <c r="BB36" s="48"/>
-      <c r="BC36" s="49"/>
+      <c r="AM36" s="209"/>
+      <c r="AN36" s="210"/>
+      <c r="AO36" s="210"/>
+      <c r="AP36" s="210"/>
+      <c r="AQ36" s="210"/>
+      <c r="AR36" s="210"/>
+      <c r="AS36" s="210"/>
+      <c r="AT36" s="210"/>
+      <c r="AU36" s="210"/>
+      <c r="AV36" s="210"/>
+      <c r="AW36" s="210"/>
+      <c r="AX36" s="210"/>
+      <c r="AY36" s="210"/>
+      <c r="AZ36" s="210"/>
+      <c r="BA36" s="210"/>
+      <c r="BB36" s="210"/>
+      <c r="BC36" s="211"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="200" t="s">
+      <c r="A37" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="73" t="s">
+      <c r="L37" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="71">
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="88">
         <v>31.5</v>
       </c>
-      <c r="Q37" s="71"/>
+      <c r="Q37" s="88"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -6351,49 +6310,49 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="48"/>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="48"/>
-      <c r="AZ37" s="48"/>
-      <c r="BA37" s="48"/>
-      <c r="BB37" s="48"/>
-      <c r="BC37" s="49"/>
+      <c r="AM37" s="209"/>
+      <c r="AN37" s="210"/>
+      <c r="AO37" s="210"/>
+      <c r="AP37" s="210"/>
+      <c r="AQ37" s="210"/>
+      <c r="AR37" s="210"/>
+      <c r="AS37" s="210"/>
+      <c r="AT37" s="210"/>
+      <c r="AU37" s="210"/>
+      <c r="AV37" s="210"/>
+      <c r="AW37" s="210"/>
+      <c r="AX37" s="210"/>
+      <c r="AY37" s="210"/>
+      <c r="AZ37" s="210"/>
+      <c r="BA37" s="210"/>
+      <c r="BB37" s="210"/>
+      <c r="BC37" s="211"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="204">
+      <c r="A38" s="41">
         <f>A36-A40</f>
-        <v>96.1</v>
-      </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
+        <v>124.69999999999999</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="73" t="s">
+      <c r="L38" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="207">
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="90">
         <v>34.799999999999997</v>
       </c>
-      <c r="Q38" s="207"/>
+      <c r="Q38" s="90"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -6415,44 +6374,44 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="47"/>
-      <c r="AN38" s="48"/>
-      <c r="AO38" s="48"/>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="48"/>
-      <c r="AV38" s="48"/>
-      <c r="AW38" s="48"/>
-      <c r="AX38" s="48"/>
-      <c r="AY38" s="48"/>
-      <c r="AZ38" s="48"/>
-      <c r="BA38" s="48"/>
-      <c r="BB38" s="48"/>
-      <c r="BC38" s="49"/>
+      <c r="AM38" s="209"/>
+      <c r="AN38" s="210"/>
+      <c r="AO38" s="210"/>
+      <c r="AP38" s="210"/>
+      <c r="AQ38" s="210"/>
+      <c r="AR38" s="210"/>
+      <c r="AS38" s="210"/>
+      <c r="AT38" s="210"/>
+      <c r="AU38" s="210"/>
+      <c r="AV38" s="210"/>
+      <c r="AW38" s="210"/>
+      <c r="AX38" s="210"/>
+      <c r="AY38" s="210"/>
+      <c r="AZ38" s="210"/>
+      <c r="BA38" s="210"/>
+      <c r="BB38" s="210"/>
+      <c r="BC38" s="211"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="200" t="s">
+      <c r="A39" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="73" t="s">
+      <c r="L39" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
       <c r="P39" s="27">
         <v>34</v>
       </c>
@@ -6477,46 +6436,48 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="48"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="48"/>
-      <c r="AZ39" s="48"/>
-      <c r="BA39" s="48"/>
-      <c r="BB39" s="48"/>
-      <c r="BC39" s="49"/>
+      <c r="AM39" s="209"/>
+      <c r="AN39" s="210"/>
+      <c r="AO39" s="210"/>
+      <c r="AP39" s="210"/>
+      <c r="AQ39" s="210"/>
+      <c r="AR39" s="210"/>
+      <c r="AS39" s="210"/>
+      <c r="AT39" s="210"/>
+      <c r="AU39" s="210"/>
+      <c r="AV39" s="210"/>
+      <c r="AW39" s="210"/>
+      <c r="AX39" s="210"/>
+      <c r="AY39" s="210"/>
+      <c r="AZ39" s="210"/>
+      <c r="BA39" s="210"/>
+      <c r="BB39" s="210"/>
+      <c r="BC39" s="211"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="204">
+      <c r="A40" s="41">
         <f>P39</f>
         <v>34</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="73" t="s">
+      <c r="L40" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="27"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="27">
+        <v>28.6</v>
+      </c>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
@@ -6538,44 +6499,44 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="48"/>
-      <c r="AO40" s="48"/>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="48"/>
-      <c r="AV40" s="48"/>
-      <c r="AW40" s="48"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="48"/>
-      <c r="AZ40" s="48"/>
-      <c r="BA40" s="48"/>
-      <c r="BB40" s="48"/>
-      <c r="BC40" s="49"/>
+      <c r="AM40" s="209"/>
+      <c r="AN40" s="210"/>
+      <c r="AO40" s="210"/>
+      <c r="AP40" s="210"/>
+      <c r="AQ40" s="210"/>
+      <c r="AR40" s="210"/>
+      <c r="AS40" s="210"/>
+      <c r="AT40" s="210"/>
+      <c r="AU40" s="210"/>
+      <c r="AV40" s="210"/>
+      <c r="AW40" s="210"/>
+      <c r="AX40" s="210"/>
+      <c r="AY40" s="210"/>
+      <c r="AZ40" s="210"/>
+      <c r="BA40" s="210"/>
+      <c r="BB40" s="210"/>
+      <c r="BC40" s="211"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="201"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="73" t="s">
+      <c r="L41" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
@@ -6598,37 +6559,37 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="48"/>
-      <c r="AO41" s="48"/>
-      <c r="AP41" s="48"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="48"/>
-      <c r="AS41" s="48"/>
-      <c r="AT41" s="48"/>
-      <c r="AU41" s="48"/>
-      <c r="AV41" s="48"/>
-      <c r="AW41" s="48"/>
-      <c r="AX41" s="48"/>
-      <c r="AY41" s="48"/>
-      <c r="AZ41" s="48"/>
-      <c r="BA41" s="48"/>
-      <c r="BB41" s="48"/>
-      <c r="BC41" s="49"/>
+      <c r="AM41" s="209"/>
+      <c r="AN41" s="210"/>
+      <c r="AO41" s="210"/>
+      <c r="AP41" s="210"/>
+      <c r="AQ41" s="210"/>
+      <c r="AR41" s="210"/>
+      <c r="AS41" s="210"/>
+      <c r="AT41" s="210"/>
+      <c r="AU41" s="210"/>
+      <c r="AV41" s="210"/>
+      <c r="AW41" s="210"/>
+      <c r="AX41" s="210"/>
+      <c r="AY41" s="210"/>
+      <c r="AZ41" s="210"/>
+      <c r="BA41" s="210"/>
+      <c r="BB41" s="210"/>
+      <c r="BC41" s="211"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="204">
+      <c r="A42" s="41">
         <f>AVERAGE(P36:P41)</f>
-        <v>32.524999999999999</v>
-      </c>
-      <c r="B42" s="205"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
+        <v>31.74</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -6641,11 +6602,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
+      <c r="V42" s="233"/>
+      <c r="W42" s="233"/>
+      <c r="X42" s="233"/>
+      <c r="Y42" s="233"/>
+      <c r="Z42" s="233"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -6657,784 +6618,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="48"/>
-      <c r="AO42" s="48"/>
-      <c r="AP42" s="48"/>
-      <c r="AQ42" s="48"/>
-      <c r="AR42" s="48"/>
-      <c r="AS42" s="48"/>
-      <c r="AT42" s="48"/>
-      <c r="AU42" s="48"/>
-      <c r="AV42" s="48"/>
-      <c r="AW42" s="48"/>
-      <c r="AX42" s="48"/>
-      <c r="AY42" s="48"/>
-      <c r="AZ42" s="48"/>
-      <c r="BA42" s="48"/>
-      <c r="BB42" s="48"/>
-      <c r="BC42" s="49"/>
+      <c r="AM42" s="209"/>
+      <c r="AN42" s="210"/>
+      <c r="AO42" s="210"/>
+      <c r="AP42" s="210"/>
+      <c r="AQ42" s="210"/>
+      <c r="AR42" s="210"/>
+      <c r="AS42" s="210"/>
+      <c r="AT42" s="210"/>
+      <c r="AU42" s="210"/>
+      <c r="AV42" s="210"/>
+      <c r="AW42" s="210"/>
+      <c r="AX42" s="210"/>
+      <c r="AY42" s="210"/>
+      <c r="AZ42" s="210"/>
+      <c r="BA42" s="210"/>
+      <c r="BB42" s="210"/>
+      <c r="BC42" s="211"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="69"/>
-      <c r="AB43" s="69"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="69"/>
-      <c r="AG43" s="69"/>
-      <c r="AH43" s="69"/>
-      <c r="AI43" s="69"/>
-      <c r="AJ43" s="69"/>
-      <c r="AK43" s="69"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="231"/>
+      <c r="K43" s="231"/>
+      <c r="L43" s="231"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="231"/>
+      <c r="O43" s="231"/>
+      <c r="P43" s="231"/>
+      <c r="Q43" s="231"/>
+      <c r="R43" s="231"/>
+      <c r="S43" s="231"/>
+      <c r="T43" s="231"/>
+      <c r="U43" s="231"/>
+      <c r="V43" s="231"/>
+      <c r="W43" s="231"/>
+      <c r="X43" s="231"/>
+      <c r="Y43" s="231"/>
+      <c r="Z43" s="231"/>
+      <c r="AA43" s="231"/>
+      <c r="AB43" s="231"/>
+      <c r="AC43" s="231"/>
+      <c r="AD43" s="231"/>
+      <c r="AE43" s="231"/>
+      <c r="AF43" s="231"/>
+      <c r="AG43" s="231"/>
+      <c r="AH43" s="231"/>
+      <c r="AI43" s="231"/>
+      <c r="AJ43" s="231"/>
+      <c r="AK43" s="231"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="48"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="48"/>
-      <c r="AT43" s="48"/>
-      <c r="AU43" s="48"/>
-      <c r="AV43" s="48"/>
-      <c r="AW43" s="48"/>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="48"/>
-      <c r="AZ43" s="48"/>
-      <c r="BA43" s="48"/>
-      <c r="BB43" s="48"/>
-      <c r="BC43" s="49"/>
+      <c r="AM43" s="209"/>
+      <c r="AN43" s="210"/>
+      <c r="AO43" s="210"/>
+      <c r="AP43" s="210"/>
+      <c r="AQ43" s="210"/>
+      <c r="AR43" s="210"/>
+      <c r="AS43" s="210"/>
+      <c r="AT43" s="210"/>
+      <c r="AU43" s="210"/>
+      <c r="AV43" s="210"/>
+      <c r="AW43" s="210"/>
+      <c r="AX43" s="210"/>
+      <c r="AY43" s="210"/>
+      <c r="AZ43" s="210"/>
+      <c r="BA43" s="210"/>
+      <c r="BB43" s="210"/>
+      <c r="BC43" s="211"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="70"/>
-      <c r="AB44" s="70"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="70"/>
-      <c r="AE44" s="70"/>
-      <c r="AF44" s="70"/>
-      <c r="AG44" s="70"/>
-      <c r="AH44" s="70"/>
-      <c r="AI44" s="70"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="70"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="232"/>
+      <c r="C44" s="232"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="232"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="232"/>
+      <c r="L44" s="232"/>
+      <c r="M44" s="232"/>
+      <c r="N44" s="232"/>
+      <c r="O44" s="232"/>
+      <c r="P44" s="232"/>
+      <c r="Q44" s="232"/>
+      <c r="R44" s="232"/>
+      <c r="S44" s="232"/>
+      <c r="T44" s="232"/>
+      <c r="U44" s="232"/>
+      <c r="V44" s="232"/>
+      <c r="W44" s="232"/>
+      <c r="X44" s="232"/>
+      <c r="Y44" s="232"/>
+      <c r="Z44" s="232"/>
+      <c r="AA44" s="232"/>
+      <c r="AB44" s="232"/>
+      <c r="AC44" s="232"/>
+      <c r="AD44" s="232"/>
+      <c r="AE44" s="232"/>
+      <c r="AF44" s="232"/>
+      <c r="AG44" s="232"/>
+      <c r="AH44" s="232"/>
+      <c r="AI44" s="232"/>
+      <c r="AJ44" s="232"/>
+      <c r="AK44" s="232"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="48"/>
-      <c r="AV44" s="48"/>
-      <c r="AW44" s="48"/>
-      <c r="AX44" s="48"/>
-      <c r="AY44" s="48"/>
-      <c r="AZ44" s="48"/>
-      <c r="BA44" s="48"/>
-      <c r="BB44" s="48"/>
-      <c r="BC44" s="49"/>
+      <c r="AM44" s="209"/>
+      <c r="AN44" s="210"/>
+      <c r="AO44" s="210"/>
+      <c r="AP44" s="210"/>
+      <c r="AQ44" s="210"/>
+      <c r="AR44" s="210"/>
+      <c r="AS44" s="210"/>
+      <c r="AT44" s="210"/>
+      <c r="AU44" s="210"/>
+      <c r="AV44" s="210"/>
+      <c r="AW44" s="210"/>
+      <c r="AX44" s="210"/>
+      <c r="AY44" s="210"/>
+      <c r="AZ44" s="210"/>
+      <c r="BA44" s="210"/>
+      <c r="BB44" s="210"/>
+      <c r="BC44" s="211"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
-      <c r="AI45" s="59"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="60"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="221"/>
+      <c r="P45" s="221"/>
+      <c r="Q45" s="221"/>
+      <c r="R45" s="221"/>
+      <c r="S45" s="221"/>
+      <c r="T45" s="221"/>
+      <c r="U45" s="221"/>
+      <c r="V45" s="221"/>
+      <c r="W45" s="221"/>
+      <c r="X45" s="221"/>
+      <c r="Y45" s="221"/>
+      <c r="Z45" s="221"/>
+      <c r="AA45" s="221"/>
+      <c r="AB45" s="221"/>
+      <c r="AC45" s="221"/>
+      <c r="AD45" s="221"/>
+      <c r="AE45" s="221"/>
+      <c r="AF45" s="221"/>
+      <c r="AG45" s="221"/>
+      <c r="AH45" s="221"/>
+      <c r="AI45" s="221"/>
+      <c r="AJ45" s="221"/>
+      <c r="AK45" s="222"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="48"/>
-      <c r="AO45" s="48"/>
-      <c r="AP45" s="48"/>
-      <c r="AQ45" s="48"/>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="48"/>
-      <c r="AT45" s="48"/>
-      <c r="AU45" s="48"/>
-      <c r="AV45" s="48"/>
-      <c r="AW45" s="48"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="48"/>
-      <c r="AZ45" s="48"/>
-      <c r="BA45" s="48"/>
-      <c r="BB45" s="48"/>
-      <c r="BC45" s="49"/>
+      <c r="AM45" s="209"/>
+      <c r="AN45" s="210"/>
+      <c r="AO45" s="210"/>
+      <c r="AP45" s="210"/>
+      <c r="AQ45" s="210"/>
+      <c r="AR45" s="210"/>
+      <c r="AS45" s="210"/>
+      <c r="AT45" s="210"/>
+      <c r="AU45" s="210"/>
+      <c r="AV45" s="210"/>
+      <c r="AW45" s="210"/>
+      <c r="AX45" s="210"/>
+      <c r="AY45" s="210"/>
+      <c r="AZ45" s="210"/>
+      <c r="BA45" s="210"/>
+      <c r="BB45" s="210"/>
+      <c r="BC45" s="211"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42" t="s">
+      <c r="B46" s="204"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42" t="s">
+      <c r="K46" s="204"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="204"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="42"/>
-      <c r="AC46" s="42" t="s">
+      <c r="U46" s="204"/>
+      <c r="V46" s="204"/>
+      <c r="W46" s="204"/>
+      <c r="X46" s="204"/>
+      <c r="Y46" s="204"/>
+      <c r="Z46" s="204"/>
+      <c r="AA46" s="204"/>
+      <c r="AB46" s="204"/>
+      <c r="AC46" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="43"/>
-      <c r="AM46" s="47"/>
-      <c r="AN46" s="48"/>
-      <c r="AO46" s="48"/>
-      <c r="AP46" s="48"/>
-      <c r="AQ46" s="48"/>
-      <c r="AR46" s="48"/>
-      <c r="AS46" s="48"/>
-      <c r="AT46" s="48"/>
-      <c r="AU46" s="48"/>
-      <c r="AV46" s="48"/>
-      <c r="AW46" s="48"/>
-      <c r="AX46" s="48"/>
-      <c r="AY46" s="48"/>
-      <c r="AZ46" s="48"/>
-      <c r="BA46" s="48"/>
-      <c r="BB46" s="48"/>
-      <c r="BC46" s="49"/>
+      <c r="AD46" s="204"/>
+      <c r="AE46" s="204"/>
+      <c r="AF46" s="204"/>
+      <c r="AG46" s="204"/>
+      <c r="AH46" s="204"/>
+      <c r="AI46" s="204"/>
+      <c r="AJ46" s="204"/>
+      <c r="AK46" s="205"/>
+      <c r="AM46" s="209"/>
+      <c r="AN46" s="210"/>
+      <c r="AO46" s="210"/>
+      <c r="AP46" s="210"/>
+      <c r="AQ46" s="210"/>
+      <c r="AR46" s="210"/>
+      <c r="AS46" s="210"/>
+      <c r="AT46" s="210"/>
+      <c r="AU46" s="210"/>
+      <c r="AV46" s="210"/>
+      <c r="AW46" s="210"/>
+      <c r="AX46" s="210"/>
+      <c r="AY46" s="210"/>
+      <c r="AZ46" s="210"/>
+      <c r="BA46" s="210"/>
+      <c r="BB46" s="210"/>
+      <c r="BC46" s="211"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
-      <c r="B47" s="41">
+      <c r="B47" s="203">
         <v>100000</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="41">
+      <c r="J47" s="203">
         <v>3000</v>
       </c>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41">
+      <c r="K47" s="203"/>
+      <c r="L47" s="203"/>
+      <c r="M47" s="203"/>
+      <c r="N47" s="203"/>
+      <c r="O47" s="203"/>
+      <c r="P47" s="203"/>
+      <c r="Q47" s="203"/>
+      <c r="R47" s="203"/>
+      <c r="S47" s="203"/>
+      <c r="T47" s="203">
         <v>8000</v>
       </c>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="67">
+      <c r="U47" s="203"/>
+      <c r="V47" s="203"/>
+      <c r="W47" s="203"/>
+      <c r="X47" s="203"/>
+      <c r="Y47" s="203"/>
+      <c r="Z47" s="203"/>
+      <c r="AA47" s="203"/>
+      <c r="AB47" s="203"/>
+      <c r="AC47" s="229">
         <v>8000</v>
       </c>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="67"/>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="68"/>
-      <c r="AM47" s="47"/>
-      <c r="AN47" s="48"/>
-      <c r="AO47" s="48"/>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="48"/>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="48"/>
-      <c r="AV47" s="48"/>
-      <c r="AW47" s="48"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="48"/>
-      <c r="AZ47" s="48"/>
-      <c r="BA47" s="48"/>
-      <c r="BB47" s="48"/>
-      <c r="BC47" s="49"/>
+      <c r="AD47" s="229"/>
+      <c r="AE47" s="229"/>
+      <c r="AF47" s="229"/>
+      <c r="AG47" s="229"/>
+      <c r="AH47" s="229"/>
+      <c r="AI47" s="229"/>
+      <c r="AJ47" s="229"/>
+      <c r="AK47" s="230"/>
+      <c r="AM47" s="209"/>
+      <c r="AN47" s="210"/>
+      <c r="AO47" s="210"/>
+      <c r="AP47" s="210"/>
+      <c r="AQ47" s="210"/>
+      <c r="AR47" s="210"/>
+      <c r="AS47" s="210"/>
+      <c r="AT47" s="210"/>
+      <c r="AU47" s="210"/>
+      <c r="AV47" s="210"/>
+      <c r="AW47" s="210"/>
+      <c r="AX47" s="210"/>
+      <c r="AY47" s="210"/>
+      <c r="AZ47" s="210"/>
+      <c r="BA47" s="210"/>
+      <c r="BB47" s="210"/>
+      <c r="BC47" s="211"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="42" t="s">
+      <c r="B48" s="217"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="217"/>
+      <c r="I48" s="217"/>
+      <c r="J48" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42" t="s">
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="204"/>
+      <c r="O48" s="204"/>
+      <c r="P48" s="204"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
+      <c r="S48" s="204"/>
+      <c r="T48" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42" t="s">
+      <c r="U48" s="204"/>
+      <c r="V48" s="204"/>
+      <c r="W48" s="204"/>
+      <c r="X48" s="204"/>
+      <c r="Y48" s="204"/>
+      <c r="Z48" s="204"/>
+      <c r="AA48" s="204"/>
+      <c r="AB48" s="204"/>
+      <c r="AC48" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="43"/>
-      <c r="AM48" s="47"/>
-      <c r="AN48" s="48"/>
-      <c r="AO48" s="48"/>
-      <c r="AP48" s="48"/>
-      <c r="AQ48" s="48"/>
-      <c r="AR48" s="48"/>
-      <c r="AS48" s="48"/>
-      <c r="AT48" s="48"/>
-      <c r="AU48" s="48"/>
-      <c r="AV48" s="48"/>
-      <c r="AW48" s="48"/>
-      <c r="AX48" s="48"/>
-      <c r="AY48" s="48"/>
-      <c r="AZ48" s="48"/>
-      <c r="BA48" s="48"/>
-      <c r="BB48" s="48"/>
-      <c r="BC48" s="49"/>
+      <c r="AD48" s="204"/>
+      <c r="AE48" s="204"/>
+      <c r="AF48" s="204"/>
+      <c r="AG48" s="204"/>
+      <c r="AH48" s="204"/>
+      <c r="AI48" s="204"/>
+      <c r="AJ48" s="204"/>
+      <c r="AK48" s="205"/>
+      <c r="AM48" s="209"/>
+      <c r="AN48" s="210"/>
+      <c r="AO48" s="210"/>
+      <c r="AP48" s="210"/>
+      <c r="AQ48" s="210"/>
+      <c r="AR48" s="210"/>
+      <c r="AS48" s="210"/>
+      <c r="AT48" s="210"/>
+      <c r="AU48" s="210"/>
+      <c r="AV48" s="210"/>
+      <c r="AW48" s="210"/>
+      <c r="AX48" s="210"/>
+      <c r="AY48" s="210"/>
+      <c r="AZ48" s="210"/>
+      <c r="BA48" s="210"/>
+      <c r="BB48" s="210"/>
+      <c r="BC48" s="211"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56">
+      <c r="A49" s="218">
         <v>500</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41">
+      <c r="B49" s="203"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="203">
         <v>8000</v>
       </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41">
+      <c r="K49" s="203"/>
+      <c r="L49" s="203"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="203"/>
+      <c r="O49" s="203"/>
+      <c r="P49" s="203"/>
+      <c r="Q49" s="203"/>
+      <c r="R49" s="203"/>
+      <c r="S49" s="203"/>
+      <c r="T49" s="203">
         <v>16000</v>
       </c>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41" t="s">
+      <c r="U49" s="203"/>
+      <c r="V49" s="203"/>
+      <c r="W49" s="203"/>
+      <c r="X49" s="203"/>
+      <c r="Y49" s="203"/>
+      <c r="Z49" s="203"/>
+      <c r="AA49" s="203"/>
+      <c r="AB49" s="203"/>
+      <c r="AC49" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="53"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="48"/>
-      <c r="AO49" s="48"/>
-      <c r="AP49" s="48"/>
-      <c r="AQ49" s="48"/>
-      <c r="AR49" s="48"/>
-      <c r="AS49" s="48"/>
-      <c r="AT49" s="48"/>
-      <c r="AU49" s="48"/>
-      <c r="AV49" s="48"/>
-      <c r="AW49" s="48"/>
-      <c r="AX49" s="48"/>
-      <c r="AY49" s="48"/>
-      <c r="AZ49" s="48"/>
-      <c r="BA49" s="48"/>
-      <c r="BB49" s="48"/>
-      <c r="BC49" s="49"/>
+      <c r="AD49" s="203"/>
+      <c r="AE49" s="203"/>
+      <c r="AF49" s="203"/>
+      <c r="AG49" s="203"/>
+      <c r="AH49" s="203"/>
+      <c r="AI49" s="203"/>
+      <c r="AJ49" s="203"/>
+      <c r="AK49" s="215"/>
+      <c r="AM49" s="209"/>
+      <c r="AN49" s="210"/>
+      <c r="AO49" s="210"/>
+      <c r="AP49" s="210"/>
+      <c r="AQ49" s="210"/>
+      <c r="AR49" s="210"/>
+      <c r="AS49" s="210"/>
+      <c r="AT49" s="210"/>
+      <c r="AU49" s="210"/>
+      <c r="AV49" s="210"/>
+      <c r="AW49" s="210"/>
+      <c r="AX49" s="210"/>
+      <c r="AY49" s="210"/>
+      <c r="AZ49" s="210"/>
+      <c r="BA49" s="210"/>
+      <c r="BB49" s="210"/>
+      <c r="BC49" s="211"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="63"/>
-      <c r="AM50" s="47"/>
-      <c r="AN50" s="48"/>
-      <c r="AO50" s="48"/>
-      <c r="AP50" s="48"/>
-      <c r="AQ50" s="48"/>
-      <c r="AR50" s="48"/>
-      <c r="AS50" s="48"/>
-      <c r="AT50" s="48"/>
-      <c r="AU50" s="48"/>
-      <c r="AV50" s="48"/>
-      <c r="AW50" s="48"/>
-      <c r="AX50" s="48"/>
-      <c r="AY50" s="48"/>
-      <c r="AZ50" s="48"/>
-      <c r="BA50" s="48"/>
-      <c r="BB50" s="48"/>
-      <c r="BC50" s="49"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="224"/>
+      <c r="G50" s="224"/>
+      <c r="H50" s="224"/>
+      <c r="I50" s="224"/>
+      <c r="J50" s="224"/>
+      <c r="K50" s="224"/>
+      <c r="L50" s="224"/>
+      <c r="M50" s="224"/>
+      <c r="N50" s="224"/>
+      <c r="O50" s="224"/>
+      <c r="P50" s="224"/>
+      <c r="Q50" s="224"/>
+      <c r="R50" s="224"/>
+      <c r="S50" s="224"/>
+      <c r="T50" s="224"/>
+      <c r="U50" s="224"/>
+      <c r="V50" s="224"/>
+      <c r="W50" s="224"/>
+      <c r="X50" s="224"/>
+      <c r="Y50" s="224"/>
+      <c r="Z50" s="224"/>
+      <c r="AA50" s="224"/>
+      <c r="AB50" s="224"/>
+      <c r="AC50" s="224"/>
+      <c r="AD50" s="224"/>
+      <c r="AE50" s="224"/>
+      <c r="AF50" s="224"/>
+      <c r="AG50" s="224"/>
+      <c r="AH50" s="224"/>
+      <c r="AI50" s="224"/>
+      <c r="AJ50" s="224"/>
+      <c r="AK50" s="225"/>
+      <c r="AM50" s="209"/>
+      <c r="AN50" s="210"/>
+      <c r="AO50" s="210"/>
+      <c r="AP50" s="210"/>
+      <c r="AQ50" s="210"/>
+      <c r="AR50" s="210"/>
+      <c r="AS50" s="210"/>
+      <c r="AT50" s="210"/>
+      <c r="AU50" s="210"/>
+      <c r="AV50" s="210"/>
+      <c r="AW50" s="210"/>
+      <c r="AX50" s="210"/>
+      <c r="AY50" s="210"/>
+      <c r="AZ50" s="210"/>
+      <c r="BA50" s="210"/>
+      <c r="BB50" s="210"/>
+      <c r="BC50" s="211"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65"/>
-      <c r="AC51" s="65"/>
-      <c r="AD51" s="65"/>
-      <c r="AE51" s="65"/>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65"/>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="65"/>
-      <c r="AJ51" s="65"/>
-      <c r="AK51" s="66"/>
-      <c r="AM51" s="50"/>
-      <c r="AN51" s="51"/>
-      <c r="AO51" s="51"/>
-      <c r="AP51" s="51"/>
-      <c r="AQ51" s="51"/>
-      <c r="AR51" s="51"/>
-      <c r="AS51" s="51"/>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="51"/>
-      <c r="AV51" s="51"/>
-      <c r="AW51" s="51"/>
-      <c r="AX51" s="51"/>
-      <c r="AY51" s="51"/>
-      <c r="AZ51" s="51"/>
-      <c r="BA51" s="51"/>
-      <c r="BB51" s="51"/>
-      <c r="BC51" s="52"/>
+      <c r="A51" s="226"/>
+      <c r="B51" s="227"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="227"/>
+      <c r="I51" s="227"/>
+      <c r="J51" s="227"/>
+      <c r="K51" s="227"/>
+      <c r="L51" s="227"/>
+      <c r="M51" s="227"/>
+      <c r="N51" s="227"/>
+      <c r="O51" s="227"/>
+      <c r="P51" s="227"/>
+      <c r="Q51" s="227"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="227"/>
+      <c r="T51" s="227"/>
+      <c r="U51" s="227"/>
+      <c r="V51" s="227"/>
+      <c r="W51" s="227"/>
+      <c r="X51" s="227"/>
+      <c r="Y51" s="227"/>
+      <c r="Z51" s="227"/>
+      <c r="AA51" s="227"/>
+      <c r="AB51" s="227"/>
+      <c r="AC51" s="227"/>
+      <c r="AD51" s="227"/>
+      <c r="AE51" s="227"/>
+      <c r="AF51" s="227"/>
+      <c r="AG51" s="227"/>
+      <c r="AH51" s="227"/>
+      <c r="AI51" s="227"/>
+      <c r="AJ51" s="227"/>
+      <c r="AK51" s="228"/>
+      <c r="AM51" s="212"/>
+      <c r="AN51" s="213"/>
+      <c r="AO51" s="213"/>
+      <c r="AP51" s="213"/>
+      <c r="AQ51" s="213"/>
+      <c r="AR51" s="213"/>
+      <c r="AS51" s="213"/>
+      <c r="AT51" s="213"/>
+      <c r="AU51" s="213"/>
+      <c r="AV51" s="213"/>
+      <c r="AW51" s="213"/>
+      <c r="AX51" s="213"/>
+      <c r="AY51" s="213"/>
+      <c r="AZ51" s="213"/>
+      <c r="BA51" s="213"/>
+      <c r="BB51" s="213"/>
+      <c r="BC51" s="214"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="196"/>
+      <c r="M52" s="196"/>
+      <c r="N52" s="196"/>
+      <c r="O52" s="196"/>
+      <c r="P52" s="196"/>
+      <c r="Q52" s="196"/>
+      <c r="R52" s="196"/>
+      <c r="S52" s="196"/>
+      <c r="T52" s="196"/>
+      <c r="U52" s="196"/>
       <c r="V52" s="35"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
+      <c r="A53" s="197"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="197"/>
+      <c r="L53" s="197"/>
+      <c r="M53" s="197"/>
+      <c r="N53" s="197"/>
+      <c r="O53" s="197"/>
+      <c r="P53" s="197"/>
+      <c r="Q53" s="197"/>
+      <c r="R53" s="197"/>
+      <c r="S53" s="197"/>
+      <c r="T53" s="197"/>
+      <c r="U53" s="197"/>
       <c r="V53" s="36"/>
-      <c r="W53" s="110" t="s">
+      <c r="W53" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="111"/>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="111"/>
-      <c r="AA53" s="111"/>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="111"/>
-      <c r="AE53" s="111"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="112"/>
-      <c r="AI53" s="113" t="s">
+      <c r="X53" s="199"/>
+      <c r="Y53" s="199"/>
+      <c r="Z53" s="199"/>
+      <c r="AA53" s="199"/>
+      <c r="AB53" s="199"/>
+      <c r="AC53" s="199"/>
+      <c r="AD53" s="199"/>
+      <c r="AE53" s="199"/>
+      <c r="AF53" s="199"/>
+      <c r="AG53" s="200"/>
+      <c r="AI53" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="114"/>
-      <c r="AK53" s="114"/>
-      <c r="AL53" s="114"/>
-      <c r="AM53" s="114"/>
-      <c r="AN53" s="114"/>
-      <c r="AO53" s="114"/>
-      <c r="AP53" s="114"/>
-      <c r="AQ53" s="114"/>
-      <c r="AR53" s="114"/>
-      <c r="AS53" s="114"/>
-      <c r="AT53" s="114"/>
-      <c r="AU53" s="114"/>
-      <c r="AV53" s="114"/>
-      <c r="AW53" s="114"/>
-      <c r="AX53" s="114"/>
-      <c r="AY53" s="114"/>
-      <c r="AZ53" s="114"/>
-      <c r="BA53" s="114"/>
-      <c r="BB53" s="114"/>
-      <c r="BC53" s="115"/>
+      <c r="AJ53" s="102"/>
+      <c r="AK53" s="102"/>
+      <c r="AL53" s="102"/>
+      <c r="AM53" s="102"/>
+      <c r="AN53" s="102"/>
+      <c r="AO53" s="102"/>
+      <c r="AP53" s="102"/>
+      <c r="AQ53" s="102"/>
+      <c r="AR53" s="102"/>
+      <c r="AS53" s="102"/>
+      <c r="AT53" s="102"/>
+      <c r="AU53" s="102"/>
+      <c r="AV53" s="102"/>
+      <c r="AW53" s="102"/>
+      <c r="AX53" s="102"/>
+      <c r="AY53" s="102"/>
+      <c r="AZ53" s="102"/>
+      <c r="BA53" s="102"/>
+      <c r="BB53" s="102"/>
+      <c r="BC53" s="202"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
+      <c r="A54" s="197"/>
+      <c r="B54" s="197"/>
+      <c r="C54" s="197"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="197"/>
+      <c r="F54" s="197"/>
+      <c r="G54" s="197"/>
+      <c r="H54" s="197"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="197"/>
+      <c r="M54" s="197"/>
+      <c r="N54" s="197"/>
+      <c r="O54" s="197"/>
+      <c r="P54" s="197"/>
+      <c r="Q54" s="197"/>
+      <c r="R54" s="197"/>
+      <c r="S54" s="197"/>
+      <c r="T54" s="197"/>
+      <c r="U54" s="197"/>
       <c r="V54" s="36"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="90"/>
-      <c r="AA54" s="90"/>
-      <c r="AB54" s="90"/>
-      <c r="AC54" s="90"/>
-      <c r="AD54" s="90"/>
-      <c r="AE54" s="90"/>
-      <c r="AF54" s="90"/>
-      <c r="AG54" s="91"/>
-      <c r="AI54" s="98" t="s">
+      <c r="W54" s="177"/>
+      <c r="X54" s="178"/>
+      <c r="Y54" s="178"/>
+      <c r="Z54" s="178"/>
+      <c r="AA54" s="178"/>
+      <c r="AB54" s="178"/>
+      <c r="AC54" s="178"/>
+      <c r="AD54" s="178"/>
+      <c r="AE54" s="178"/>
+      <c r="AF54" s="178"/>
+      <c r="AG54" s="179"/>
+      <c r="AI54" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="99"/>
-      <c r="AK54" s="99"/>
-      <c r="AL54" s="99"/>
-      <c r="AM54" s="99"/>
-      <c r="AN54" s="99"/>
-      <c r="AO54" s="99"/>
-      <c r="AP54" s="99"/>
-      <c r="AQ54" s="99"/>
-      <c r="AR54" s="99"/>
-      <c r="AS54" s="99"/>
-      <c r="AT54" s="99"/>
-      <c r="AU54" s="99"/>
-      <c r="AV54" s="99"/>
-      <c r="AW54" s="99"/>
-      <c r="AX54" s="99"/>
-      <c r="AY54" s="99"/>
-      <c r="AZ54" s="99"/>
-      <c r="BA54" s="99"/>
-      <c r="BB54" s="99"/>
-      <c r="BC54" s="100"/>
+      <c r="AJ54" s="187"/>
+      <c r="AK54" s="187"/>
+      <c r="AL54" s="187"/>
+      <c r="AM54" s="187"/>
+      <c r="AN54" s="187"/>
+      <c r="AO54" s="187"/>
+      <c r="AP54" s="187"/>
+      <c r="AQ54" s="187"/>
+      <c r="AR54" s="187"/>
+      <c r="AS54" s="187"/>
+      <c r="AT54" s="187"/>
+      <c r="AU54" s="187"/>
+      <c r="AV54" s="187"/>
+      <c r="AW54" s="187"/>
+      <c r="AX54" s="187"/>
+      <c r="AY54" s="187"/>
+      <c r="AZ54" s="187"/>
+      <c r="BA54" s="187"/>
+      <c r="BB54" s="187"/>
+      <c r="BC54" s="188"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="92"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="93"/>
-      <c r="Z55" s="93"/>
-      <c r="AA55" s="93"/>
-      <c r="AB55" s="93"/>
-      <c r="AC55" s="93"/>
-      <c r="AD55" s="93"/>
-      <c r="AE55" s="93"/>
-      <c r="AF55" s="93"/>
-      <c r="AG55" s="94"/>
-      <c r="AI55" s="101"/>
-      <c r="AJ55" s="102"/>
-      <c r="AK55" s="102"/>
-      <c r="AL55" s="102"/>
-      <c r="AM55" s="102"/>
-      <c r="AN55" s="102"/>
-      <c r="AO55" s="102"/>
-      <c r="AP55" s="102"/>
-      <c r="AQ55" s="102"/>
-      <c r="AR55" s="102"/>
-      <c r="AS55" s="102"/>
-      <c r="AT55" s="102"/>
-      <c r="AU55" s="102"/>
-      <c r="AV55" s="102"/>
-      <c r="AW55" s="102"/>
-      <c r="AX55" s="102"/>
-      <c r="AY55" s="102"/>
-      <c r="AZ55" s="102"/>
-      <c r="BA55" s="102"/>
-      <c r="BB55" s="102"/>
-      <c r="BC55" s="103"/>
+      <c r="W55" s="180"/>
+      <c r="X55" s="181"/>
+      <c r="Y55" s="181"/>
+      <c r="Z55" s="181"/>
+      <c r="AA55" s="181"/>
+      <c r="AB55" s="181"/>
+      <c r="AC55" s="181"/>
+      <c r="AD55" s="181"/>
+      <c r="AE55" s="181"/>
+      <c r="AF55" s="181"/>
+      <c r="AG55" s="182"/>
+      <c r="AI55" s="189"/>
+      <c r="AJ55" s="190"/>
+      <c r="AK55" s="190"/>
+      <c r="AL55" s="190"/>
+      <c r="AM55" s="190"/>
+      <c r="AN55" s="190"/>
+      <c r="AO55" s="190"/>
+      <c r="AP55" s="190"/>
+      <c r="AQ55" s="190"/>
+      <c r="AR55" s="190"/>
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="191"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="92"/>
-      <c r="X56" s="93"/>
-      <c r="Y56" s="93"/>
-      <c r="Z56" s="93"/>
-      <c r="AA56" s="93"/>
-      <c r="AB56" s="93"/>
-      <c r="AC56" s="93"/>
-      <c r="AD56" s="93"/>
-      <c r="AE56" s="93"/>
-      <c r="AF56" s="93"/>
-      <c r="AG56" s="94"/>
-      <c r="AI56" s="104" t="s">
+      <c r="W56" s="180"/>
+      <c r="X56" s="181"/>
+      <c r="Y56" s="181"/>
+      <c r="Z56" s="181"/>
+      <c r="AA56" s="181"/>
+      <c r="AB56" s="181"/>
+      <c r="AC56" s="181"/>
+      <c r="AD56" s="181"/>
+      <c r="AE56" s="181"/>
+      <c r="AF56" s="181"/>
+      <c r="AG56" s="182"/>
+      <c r="AI56" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="105"/>
-      <c r="AK56" s="105"/>
-      <c r="AL56" s="105"/>
-      <c r="AM56" s="105"/>
-      <c r="AN56" s="105"/>
-      <c r="AO56" s="105"/>
-      <c r="AP56" s="105"/>
-      <c r="AQ56" s="105"/>
-      <c r="AR56" s="105"/>
-      <c r="AS56" s="105"/>
-      <c r="AT56" s="105"/>
-      <c r="AU56" s="105"/>
-      <c r="AV56" s="105"/>
-      <c r="AW56" s="105"/>
-      <c r="AX56" s="105"/>
-      <c r="AY56" s="105"/>
-      <c r="AZ56" s="105"/>
-      <c r="BA56" s="105"/>
-      <c r="BB56" s="105"/>
-      <c r="BC56" s="106"/>
+      <c r="AJ56" s="193"/>
+      <c r="AK56" s="193"/>
+      <c r="AL56" s="193"/>
+      <c r="AM56" s="193"/>
+      <c r="AN56" s="193"/>
+      <c r="AO56" s="193"/>
+      <c r="AP56" s="193"/>
+      <c r="AQ56" s="193"/>
+      <c r="AR56" s="193"/>
+      <c r="AS56" s="193"/>
+      <c r="AT56" s="193"/>
+      <c r="AU56" s="193"/>
+      <c r="AV56" s="193"/>
+      <c r="AW56" s="193"/>
+      <c r="AX56" s="193"/>
+      <c r="AY56" s="193"/>
+      <c r="AZ56" s="193"/>
+      <c r="BA56" s="193"/>
+      <c r="BB56" s="193"/>
+      <c r="BC56" s="194"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7451,290 +7412,417 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="92"/>
-      <c r="X57" s="93"/>
-      <c r="Y57" s="93"/>
-      <c r="Z57" s="93"/>
-      <c r="AA57" s="93"/>
-      <c r="AB57" s="93"/>
-      <c r="AC57" s="93"/>
-      <c r="AD57" s="93"/>
-      <c r="AE57" s="93"/>
-      <c r="AF57" s="93"/>
-      <c r="AG57" s="94"/>
-      <c r="AI57" s="101"/>
-      <c r="AJ57" s="102"/>
-      <c r="AK57" s="102"/>
-      <c r="AL57" s="102"/>
-      <c r="AM57" s="102"/>
-      <c r="AN57" s="102"/>
-      <c r="AO57" s="102"/>
-      <c r="AP57" s="102"/>
-      <c r="AQ57" s="102"/>
-      <c r="AR57" s="102"/>
-      <c r="AS57" s="102"/>
-      <c r="AT57" s="102"/>
-      <c r="AU57" s="102"/>
-      <c r="AV57" s="102"/>
-      <c r="AW57" s="102"/>
-      <c r="AX57" s="102"/>
-      <c r="AY57" s="102"/>
-      <c r="AZ57" s="102"/>
-      <c r="BA57" s="102"/>
-      <c r="BB57" s="102"/>
-      <c r="BC57" s="103"/>
+      <c r="W57" s="180"/>
+      <c r="X57" s="181"/>
+      <c r="Y57" s="181"/>
+      <c r="Z57" s="181"/>
+      <c r="AA57" s="181"/>
+      <c r="AB57" s="181"/>
+      <c r="AC57" s="181"/>
+      <c r="AD57" s="181"/>
+      <c r="AE57" s="181"/>
+      <c r="AF57" s="181"/>
+      <c r="AG57" s="182"/>
+      <c r="AI57" s="189"/>
+      <c r="AJ57" s="190"/>
+      <c r="AK57" s="190"/>
+      <c r="AL57" s="190"/>
+      <c r="AM57" s="190"/>
+      <c r="AN57" s="190"/>
+      <c r="AO57" s="190"/>
+      <c r="AP57" s="190"/>
+      <c r="AQ57" s="190"/>
+      <c r="AR57" s="190"/>
+      <c r="AS57" s="190"/>
+      <c r="AT57" s="190"/>
+      <c r="AU57" s="190"/>
+      <c r="AV57" s="190"/>
+      <c r="AW57" s="190"/>
+      <c r="AX57" s="190"/>
+      <c r="AY57" s="190"/>
+      <c r="AZ57" s="190"/>
+      <c r="BA57" s="190"/>
+      <c r="BB57" s="190"/>
+      <c r="BC57" s="191"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="107"/>
-      <c r="O58" s="107"/>
-      <c r="W58" s="95"/>
-      <c r="X58" s="96"/>
-      <c r="Y58" s="96"/>
-      <c r="Z58" s="96"/>
-      <c r="AA58" s="96"/>
-      <c r="AB58" s="96"/>
-      <c r="AC58" s="96"/>
-      <c r="AD58" s="96"/>
-      <c r="AE58" s="96"/>
-      <c r="AF58" s="96"/>
-      <c r="AG58" s="97"/>
-      <c r="AI58" s="104" t="s">
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="195"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="195"/>
+      <c r="W58" s="183"/>
+      <c r="X58" s="184"/>
+      <c r="Y58" s="184"/>
+      <c r="Z58" s="184"/>
+      <c r="AA58" s="184"/>
+      <c r="AB58" s="184"/>
+      <c r="AC58" s="184"/>
+      <c r="AD58" s="184"/>
+      <c r="AE58" s="184"/>
+      <c r="AF58" s="184"/>
+      <c r="AG58" s="185"/>
+      <c r="AI58" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="105"/>
-      <c r="AK58" s="105"/>
-      <c r="AL58" s="105"/>
-      <c r="AM58" s="105"/>
-      <c r="AN58" s="105"/>
-      <c r="AO58" s="105"/>
-      <c r="AP58" s="105"/>
-      <c r="AQ58" s="105"/>
-      <c r="AR58" s="105"/>
-      <c r="AS58" s="105"/>
-      <c r="AT58" s="105"/>
-      <c r="AU58" s="105"/>
-      <c r="AV58" s="105"/>
-      <c r="AW58" s="105"/>
-      <c r="AX58" s="105"/>
-      <c r="AY58" s="105"/>
-      <c r="AZ58" s="105"/>
-      <c r="BA58" s="105"/>
-      <c r="BB58" s="105"/>
-      <c r="BC58" s="106"/>
+      <c r="AJ58" s="193"/>
+      <c r="AK58" s="193"/>
+      <c r="AL58" s="193"/>
+      <c r="AM58" s="193"/>
+      <c r="AN58" s="193"/>
+      <c r="AO58" s="193"/>
+      <c r="AP58" s="193"/>
+      <c r="AQ58" s="193"/>
+      <c r="AR58" s="193"/>
+      <c r="AS58" s="193"/>
+      <c r="AT58" s="193"/>
+      <c r="AU58" s="193"/>
+      <c r="AV58" s="193"/>
+      <c r="AW58" s="193"/>
+      <c r="AX58" s="193"/>
+      <c r="AY58" s="193"/>
+      <c r="AZ58" s="193"/>
+      <c r="BA58" s="193"/>
+      <c r="BB58" s="193"/>
+      <c r="BC58" s="194"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="162"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="162"/>
+      <c r="M59" s="162"/>
+      <c r="N59" s="162"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="75" t="s">
+      <c r="S59" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="75"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="75"/>
-      <c r="W59" s="75"/>
-      <c r="X59" s="75"/>
-      <c r="Y59" s="75"/>
-      <c r="Z59" s="75"/>
-      <c r="AA59" s="75"/>
-      <c r="AB59" s="75"/>
-      <c r="AC59" s="75"/>
-      <c r="AD59" s="75"/>
-      <c r="AE59" s="75"/>
-      <c r="AI59" s="76"/>
-      <c r="AJ59" s="77"/>
-      <c r="AK59" s="77"/>
-      <c r="AL59" s="77"/>
-      <c r="AM59" s="77"/>
-      <c r="AN59" s="77"/>
-      <c r="AO59" s="77"/>
-      <c r="AP59" s="77"/>
-      <c r="AQ59" s="77"/>
-      <c r="AR59" s="77"/>
-      <c r="AS59" s="77"/>
-      <c r="AT59" s="77"/>
-      <c r="AU59" s="77"/>
-      <c r="AV59" s="77"/>
-      <c r="AW59" s="77"/>
-      <c r="AX59" s="77"/>
-      <c r="AY59" s="77"/>
-      <c r="AZ59" s="77"/>
-      <c r="BA59" s="77"/>
-      <c r="BB59" s="77"/>
-      <c r="BC59" s="78"/>
+      <c r="T59" s="163"/>
+      <c r="U59" s="163"/>
+      <c r="V59" s="163"/>
+      <c r="W59" s="163"/>
+      <c r="X59" s="163"/>
+      <c r="Y59" s="163"/>
+      <c r="Z59" s="163"/>
+      <c r="AA59" s="163"/>
+      <c r="AB59" s="163"/>
+      <c r="AC59" s="163"/>
+      <c r="AD59" s="163"/>
+      <c r="AE59" s="163"/>
+      <c r="AI59" s="164"/>
+      <c r="AJ59" s="165"/>
+      <c r="AK59" s="165"/>
+      <c r="AL59" s="165"/>
+      <c r="AM59" s="165"/>
+      <c r="AN59" s="165"/>
+      <c r="AO59" s="165"/>
+      <c r="AP59" s="165"/>
+      <c r="AQ59" s="165"/>
+      <c r="AR59" s="165"/>
+      <c r="AS59" s="165"/>
+      <c r="AT59" s="165"/>
+      <c r="AU59" s="165"/>
+      <c r="AV59" s="165"/>
+      <c r="AW59" s="165"/>
+      <c r="AX59" s="165"/>
+      <c r="AY59" s="165"/>
+      <c r="AZ59" s="165"/>
+      <c r="BA59" s="165"/>
+      <c r="BB59" s="165"/>
+      <c r="BC59" s="166"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="162"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="75"/>
-      <c r="U60" s="75"/>
-      <c r="V60" s="75"/>
-      <c r="W60" s="75"/>
-      <c r="X60" s="75"/>
-      <c r="Y60" s="75"/>
-      <c r="Z60" s="75"/>
-      <c r="AA60" s="75"/>
-      <c r="AB60" s="75"/>
-      <c r="AC60" s="75"/>
-      <c r="AD60" s="75"/>
-      <c r="AE60" s="75"/>
+      <c r="S60" s="163"/>
+      <c r="T60" s="163"/>
+      <c r="U60" s="163"/>
+      <c r="V60" s="163"/>
+      <c r="W60" s="163"/>
+      <c r="X60" s="163"/>
+      <c r="Y60" s="163"/>
+      <c r="Z60" s="163"/>
+      <c r="AA60" s="163"/>
+      <c r="AB60" s="163"/>
+      <c r="AC60" s="163"/>
+      <c r="AD60" s="163"/>
+      <c r="AE60" s="163"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
-      <c r="Z61" s="75"/>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="75"/>
-      <c r="AE61" s="75"/>
-      <c r="AI61" s="79" t="s">
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="162"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="162"/>
+      <c r="M61" s="162"/>
+      <c r="N61" s="162"/>
+      <c r="S61" s="163"/>
+      <c r="T61" s="163"/>
+      <c r="U61" s="163"/>
+      <c r="V61" s="163"/>
+      <c r="W61" s="163"/>
+      <c r="X61" s="163"/>
+      <c r="Y61" s="163"/>
+      <c r="Z61" s="163"/>
+      <c r="AA61" s="163"/>
+      <c r="AB61" s="163"/>
+      <c r="AC61" s="163"/>
+      <c r="AD61" s="163"/>
+      <c r="AE61" s="163"/>
+      <c r="AI61" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="79"/>
-      <c r="AK61" s="79"/>
-      <c r="AL61" s="79"/>
-      <c r="AM61" s="79"/>
-      <c r="AN61" s="79"/>
-      <c r="AO61" s="79"/>
-      <c r="AP61" s="79"/>
-      <c r="AQ61" s="79"/>
-      <c r="AR61" s="79"/>
-      <c r="AS61" s="79"/>
-      <c r="AT61" s="79"/>
-      <c r="AU61" s="81">
+      <c r="AJ61" s="167"/>
+      <c r="AK61" s="167"/>
+      <c r="AL61" s="167"/>
+      <c r="AM61" s="167"/>
+      <c r="AN61" s="167"/>
+      <c r="AO61" s="167"/>
+      <c r="AP61" s="167"/>
+      <c r="AQ61" s="167"/>
+      <c r="AR61" s="167"/>
+      <c r="AS61" s="167"/>
+      <c r="AT61" s="167"/>
+      <c r="AU61" s="169">
         <v>0</v>
       </c>
-      <c r="AV61" s="82"/>
-      <c r="AW61" s="82"/>
-      <c r="AX61" s="82"/>
-      <c r="AY61" s="82"/>
-      <c r="AZ61" s="82"/>
-      <c r="BA61" s="82"/>
-      <c r="BB61" s="82"/>
-      <c r="BC61" s="83"/>
+      <c r="AV61" s="170"/>
+      <c r="AW61" s="170"/>
+      <c r="AX61" s="170"/>
+      <c r="AY61" s="170"/>
+      <c r="AZ61" s="170"/>
+      <c r="BA61" s="170"/>
+      <c r="BB61" s="170"/>
+      <c r="BC61" s="171"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="87" t="s">
+      <c r="B62" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-      <c r="S62" s="88" t="s">
+      <c r="C62" s="175"/>
+      <c r="D62" s="175"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="175"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="175"/>
+      <c r="M62" s="175"/>
+      <c r="N62" s="175"/>
+      <c r="S62" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AI62" s="80"/>
-      <c r="AJ62" s="80"/>
-      <c r="AK62" s="80"/>
-      <c r="AL62" s="80"/>
-      <c r="AM62" s="80"/>
-      <c r="AN62" s="80"/>
-      <c r="AO62" s="80"/>
-      <c r="AP62" s="80"/>
-      <c r="AQ62" s="80"/>
-      <c r="AR62" s="80"/>
-      <c r="AS62" s="80"/>
-      <c r="AT62" s="80"/>
-      <c r="AU62" s="84"/>
-      <c r="AV62" s="85"/>
-      <c r="AW62" s="85"/>
-      <c r="AX62" s="85"/>
-      <c r="AY62" s="85"/>
-      <c r="AZ62" s="85"/>
-      <c r="BA62" s="85"/>
-      <c r="BB62" s="85"/>
-      <c r="BC62" s="86"/>
+      <c r="T62" s="176"/>
+      <c r="U62" s="176"/>
+      <c r="V62" s="176"/>
+      <c r="W62" s="176"/>
+      <c r="X62" s="176"/>
+      <c r="Y62" s="176"/>
+      <c r="Z62" s="176"/>
+      <c r="AA62" s="176"/>
+      <c r="AB62" s="176"/>
+      <c r="AC62" s="176"/>
+      <c r="AD62" s="176"/>
+      <c r="AE62" s="176"/>
+      <c r="AI62" s="168"/>
+      <c r="AJ62" s="168"/>
+      <c r="AK62" s="168"/>
+      <c r="AL62" s="168"/>
+      <c r="AM62" s="168"/>
+      <c r="AN62" s="168"/>
+      <c r="AO62" s="168"/>
+      <c r="AP62" s="168"/>
+      <c r="AQ62" s="168"/>
+      <c r="AR62" s="168"/>
+      <c r="AS62" s="168"/>
+      <c r="AT62" s="168"/>
+      <c r="AU62" s="172"/>
+      <c r="AV62" s="173"/>
+      <c r="AW62" s="173"/>
+      <c r="AX62" s="173"/>
+      <c r="AY62" s="173"/>
+      <c r="AZ62" s="173"/>
+      <c r="BA62" s="173"/>
+      <c r="BB62" s="173"/>
+      <c r="BC62" s="174"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="J49:S49"/>
+    <mergeCell ref="T48:AB48"/>
+    <mergeCell ref="T49:AB49"/>
+    <mergeCell ref="AC48:AK48"/>
+    <mergeCell ref="AM35:BC51"/>
+    <mergeCell ref="AC46:AK46"/>
+    <mergeCell ref="AC49:AK49"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="J46:S46"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="A45:AK45"/>
+    <mergeCell ref="A50:AK51"/>
+    <mergeCell ref="AC47:AK47"/>
+    <mergeCell ref="A43:AK44"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="B59:N61"/>
+    <mergeCell ref="S59:AE61"/>
+    <mergeCell ref="AI59:BC59"/>
+    <mergeCell ref="AI61:AT62"/>
+    <mergeCell ref="AU61:BC62"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="S62:AE62"/>
+    <mergeCell ref="W54:AG58"/>
+    <mergeCell ref="AI54:BC54"/>
+    <mergeCell ref="AI55:BC55"/>
+    <mergeCell ref="AI56:BC56"/>
+    <mergeCell ref="AI57:BC57"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="AI58:BC58"/>
+    <mergeCell ref="A52:U54"/>
+    <mergeCell ref="W53:AG53"/>
+    <mergeCell ref="AI53:BC53"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="A19:AK19"/>
+    <mergeCell ref="S32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="A27:R28"/>
+    <mergeCell ref="N21:V21"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="N23:V23"/>
+    <mergeCell ref="N24:V24"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="Z1:BC1"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="AM19:BC19"/>
+    <mergeCell ref="AM23:BC23"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AL14:AS14"/>
+    <mergeCell ref="AL15:AS15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="P11:W11"/>
+    <mergeCell ref="AM12:BC12"/>
+    <mergeCell ref="AM10:BC11"/>
+    <mergeCell ref="A1:N11"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AS13:BC13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A13:AR13"/>
+    <mergeCell ref="I14:AA14"/>
+    <mergeCell ref="A33:AK33"/>
+    <mergeCell ref="AM20:BC21"/>
+    <mergeCell ref="AY24:BC24"/>
+    <mergeCell ref="A29:AK29"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AT15:BC15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="I15:AA15"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="AO16:BC16"/>
+    <mergeCell ref="AO17:BC17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="A34:AK34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J35:AK35"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="AW6:BC6"/>
     <mergeCell ref="AG2:BC2"/>
@@ -7759,133 +7847,6 @@
     <mergeCell ref="W24:AB24"/>
     <mergeCell ref="W25:AB25"/>
     <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="A34:AK34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A33:AK33"/>
-    <mergeCell ref="AM20:BC21"/>
-    <mergeCell ref="AY24:BC24"/>
-    <mergeCell ref="A29:AK29"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AT15:BC15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="I15:AA15"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="S27:AB27"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="AO16:BC16"/>
-    <mergeCell ref="AO17:BC17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="Z1:BC1"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="AM19:BC19"/>
-    <mergeCell ref="AM23:BC23"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AL14:AS14"/>
-    <mergeCell ref="AL15:AS15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="AM12:BC12"/>
-    <mergeCell ref="AM10:BC11"/>
-    <mergeCell ref="A1:N11"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AS13:BC13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A13:AR13"/>
-    <mergeCell ref="I14:AA14"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="A19:AK19"/>
-    <mergeCell ref="S32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="A27:R28"/>
-    <mergeCell ref="N21:V21"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="N23:V23"/>
-    <mergeCell ref="N24:V24"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="B59:N61"/>
-    <mergeCell ref="S59:AE61"/>
-    <mergeCell ref="AI59:BC59"/>
-    <mergeCell ref="AI61:AT62"/>
-    <mergeCell ref="AU61:BC62"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="S62:AE62"/>
-    <mergeCell ref="W54:AG58"/>
-    <mergeCell ref="AI54:BC54"/>
-    <mergeCell ref="AI55:BC55"/>
-    <mergeCell ref="AI56:BC56"/>
-    <mergeCell ref="AI57:BC57"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="AI58:BC58"/>
-    <mergeCell ref="A52:U54"/>
-    <mergeCell ref="W53:AG53"/>
-    <mergeCell ref="AI53:BC53"/>
-    <mergeCell ref="J49:S49"/>
-    <mergeCell ref="T48:AB48"/>
-    <mergeCell ref="T49:AB49"/>
-    <mergeCell ref="AC48:AK48"/>
-    <mergeCell ref="AM35:BC51"/>
-    <mergeCell ref="AC46:AK46"/>
-    <mergeCell ref="AC49:AK49"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="J46:S46"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="A45:AK45"/>
-    <mergeCell ref="A50:AK51"/>
-    <mergeCell ref="AC47:AK47"/>
-    <mergeCell ref="A43:AK44"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L41:O41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>

--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -1693,7 +1693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1745,47 +1745,533 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1793,6 +2279,12 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,12 +2306,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1850,19 +2336,10 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1871,27 +2348,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1899,471 +2361,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2530,6 +2527,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3955,16 +3955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>124498</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36575</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>176674</xdr:rowOff>
+      <xdr:rowOff>154694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>58918</xdr:colOff>
+      <xdr:colOff>117534</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>135287</xdr:rowOff>
+      <xdr:rowOff>113307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4251,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:AK44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4271,22 +4271,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4298,54 +4298,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="125" t="s">
+      <c r="Z1" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="125"/>
-      <c r="BA1" s="125"/>
-      <c r="BB1" s="125"/>
-      <c r="BC1" s="125"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="134"/>
+      <c r="BA1" s="134"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="134"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4363,64 +4363,64 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="210"/>
+      <c r="AJ2" s="210"/>
+      <c r="AK2" s="210"/>
+      <c r="AL2" s="210"/>
+      <c r="AM2" s="210"/>
+      <c r="AN2" s="210"/>
+      <c r="AO2" s="210"/>
+      <c r="AP2" s="210"/>
+      <c r="AQ2" s="210"/>
+      <c r="AR2" s="210"/>
+      <c r="AS2" s="210"/>
+      <c r="AT2" s="210"/>
+      <c r="AU2" s="210"/>
+      <c r="AV2" s="210"/>
+      <c r="AW2" s="210"/>
+      <c r="AX2" s="210"/>
+      <c r="AY2" s="210"/>
+      <c r="AZ2" s="210"/>
+      <c r="BA2" s="210"/>
+      <c r="BB2" s="210"/>
+      <c r="BC2" s="210"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
+      <c r="A3" s="161"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
@@ -4439,20 +4439,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4475,89 +4475,89 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="49"/>
+      <c r="AN4" s="153"/>
+      <c r="AO4" s="153"/>
+      <c r="AP4" s="153"/>
+      <c r="AQ4" s="153"/>
+      <c r="AR4" s="153"/>
+      <c r="AS4" s="153"/>
+      <c r="AT4" s="153"/>
+      <c r="AU4" s="153"/>
+      <c r="AV4" s="214"/>
+      <c r="AW4" s="211"/>
+      <c r="AX4" s="212"/>
+      <c r="AY4" s="212"/>
+      <c r="AZ4" s="212"/>
+      <c r="BA4" s="212"/>
+      <c r="BB4" s="212"/>
+      <c r="BC4" s="213"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="142"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4566,111 +4566,111 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="50" t="s">
+      <c r="AM6" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="43"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="45"/>
+      <c r="AN6" s="153"/>
+      <c r="AO6" s="153"/>
+      <c r="AP6" s="153"/>
+      <c r="AQ6" s="153"/>
+      <c r="AR6" s="153"/>
+      <c r="AS6" s="153"/>
+      <c r="AT6" s="153"/>
+      <c r="AU6" s="153"/>
+      <c r="AV6" s="214"/>
+      <c r="AW6" s="207"/>
+      <c r="AX6" s="208"/>
+      <c r="AY6" s="208"/>
+      <c r="AZ6" s="208"/>
+      <c r="BA6" s="208"/>
+      <c r="BB6" s="208"/>
+      <c r="BC6" s="209"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="142"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="136" t="s">
+      <c r="A7" s="161"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="142"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="138">
+      <c r="P8" s="155">
         <v>1</v>
       </c>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="140"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="157"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4679,508 +4679,508 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="50" t="s">
+      <c r="AM8" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="43"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="45"/>
+      <c r="AN8" s="153"/>
+      <c r="AO8" s="153"/>
+      <c r="AP8" s="153"/>
+      <c r="AQ8" s="153"/>
+      <c r="AR8" s="153"/>
+      <c r="AS8" s="153"/>
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="153"/>
+      <c r="AV8" s="214"/>
+      <c r="AW8" s="207"/>
+      <c r="AX8" s="208"/>
+      <c r="AY8" s="208"/>
+      <c r="AZ8" s="208"/>
+      <c r="BA8" s="208"/>
+      <c r="BB8" s="208"/>
+      <c r="BC8" s="209"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="142"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="50" t="s">
+      <c r="A10" s="161"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AM10" s="69" t="s">
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AM10" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
+      <c r="AN10" s="160"/>
+      <c r="AO10" s="160"/>
+      <c r="AP10" s="160"/>
+      <c r="AQ10" s="160"/>
+      <c r="AR10" s="160"/>
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="160"/>
+      <c r="AX10" s="160"/>
+      <c r="AY10" s="160"/>
+      <c r="AZ10" s="160"/>
+      <c r="BA10" s="160"/>
+      <c r="BB10" s="160"/>
+      <c r="BC10" s="160"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="142"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AM11" s="160"/>
+      <c r="AN11" s="160"/>
+      <c r="AO11" s="160"/>
+      <c r="AP11" s="160"/>
+      <c r="AQ11" s="160"/>
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="160"/>
+      <c r="BA11" s="160"/>
+      <c r="BB11" s="160"/>
+      <c r="BC11" s="160"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="141" t="s">
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="141"/>
-      <c r="AO12" s="141"/>
-      <c r="AP12" s="141"/>
-      <c r="AQ12" s="141"/>
-      <c r="AR12" s="141"/>
-      <c r="AS12" s="141"/>
-      <c r="AT12" s="141"/>
-      <c r="AU12" s="141"/>
-      <c r="AV12" s="141"/>
-      <c r="AW12" s="141"/>
-      <c r="AX12" s="141"/>
-      <c r="AY12" s="141"/>
-      <c r="AZ12" s="141"/>
-      <c r="BA12" s="141"/>
-      <c r="BB12" s="141"/>
-      <c r="BC12" s="141"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
+      <c r="AZ12" s="159"/>
+      <c r="BA12" s="159"/>
+      <c r="BB12" s="159"/>
+      <c r="BC12" s="159"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="147"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="147"/>
-      <c r="AL13" s="147"/>
-      <c r="AM13" s="147"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="147"/>
-      <c r="AP13" s="147"/>
-      <c r="AQ13" s="147"/>
-      <c r="AR13" s="147"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="143"/>
-      <c r="AU13" s="143"/>
-      <c r="AV13" s="143"/>
-      <c r="AW13" s="143"/>
-      <c r="AX13" s="143"/>
-      <c r="AY13" s="143"/>
-      <c r="AZ13" s="143"/>
-      <c r="BA13" s="143"/>
-      <c r="BB13" s="143"/>
-      <c r="BC13" s="144"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="166"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="166"/>
+      <c r="AL13" s="166"/>
+      <c r="AM13" s="166"/>
+      <c r="AN13" s="166"/>
+      <c r="AO13" s="166"/>
+      <c r="AP13" s="166"/>
+      <c r="AQ13" s="166"/>
+      <c r="AR13" s="166"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="162"/>
+      <c r="AU13" s="162"/>
+      <c r="AV13" s="162"/>
+      <c r="AW13" s="162"/>
+      <c r="AX13" s="162"/>
+      <c r="AY13" s="162"/>
+      <c r="AZ13" s="162"/>
+      <c r="BA13" s="162"/>
+      <c r="BB13" s="162"/>
+      <c r="BC13" s="163"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108" t="s">
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="134" t="s">
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="134"/>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="134"/>
-      <c r="AF14" s="134"/>
-      <c r="AG14" s="66" t="s">
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="134" t="s">
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="135"/>
+      <c r="AL14" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="134"/>
-      <c r="AN14" s="134"/>
-      <c r="AO14" s="134"/>
-      <c r="AP14" s="134"/>
-      <c r="AQ14" s="134"/>
-      <c r="AR14" s="134"/>
-      <c r="AS14" s="134"/>
-      <c r="AT14" s="66" t="s">
+      <c r="AM14" s="147"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="147"/>
+      <c r="AT14" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="66"/>
-      <c r="BC14" s="67"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="135"/>
+      <c r="AX14" s="135"/>
+      <c r="AY14" s="135"/>
+      <c r="AZ14" s="135"/>
+      <c r="BA14" s="135"/>
+      <c r="BB14" s="135"/>
+      <c r="BC14" s="226"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="145"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="106"/>
-      <c r="AL15" s="106"/>
-      <c r="AM15" s="106"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="106"/>
-      <c r="AU15" s="106"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
-      <c r="AX15" s="106"/>
-      <c r="AY15" s="106"/>
-      <c r="AZ15" s="106"/>
-      <c r="BA15" s="106"/>
-      <c r="BB15" s="106"/>
-      <c r="BC15" s="107"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="148"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="148"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="148"/>
+      <c r="AL15" s="148"/>
+      <c r="AM15" s="148"/>
+      <c r="AN15" s="148"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="148"/>
+      <c r="AQ15" s="148"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="148"/>
+      <c r="AT15" s="148"/>
+      <c r="AU15" s="148"/>
+      <c r="AV15" s="148"/>
+      <c r="AW15" s="148"/>
+      <c r="AX15" s="148"/>
+      <c r="AY15" s="148"/>
+      <c r="AZ15" s="148"/>
+      <c r="BA15" s="148"/>
+      <c r="BB15" s="148"/>
+      <c r="BC15" s="180"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="66" t="s">
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="108" t="s">
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="66" t="s">
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66" t="s">
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="135"/>
+      <c r="AL16" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="123"/>
-      <c r="AO16" s="118" t="s">
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="193"/>
+      <c r="AO16" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="119"/>
-      <c r="BA16" s="119"/>
-      <c r="BB16" s="119"/>
-      <c r="BC16" s="120"/>
+      <c r="AP16" s="189"/>
+      <c r="AQ16" s="189"/>
+      <c r="AR16" s="189"/>
+      <c r="AS16" s="189"/>
+      <c r="AT16" s="189"/>
+      <c r="AU16" s="189"/>
+      <c r="AV16" s="189"/>
+      <c r="AW16" s="189"/>
+      <c r="AX16" s="189"/>
+      <c r="AY16" s="189"/>
+      <c r="AZ16" s="189"/>
+      <c r="BA16" s="189"/>
+      <c r="BB16" s="189"/>
+      <c r="BC16" s="190"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="132"/>
-      <c r="AM17" s="109"/>
-      <c r="AN17" s="133"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="117"/>
-      <c r="AQ17" s="117"/>
-      <c r="AR17" s="117"/>
-      <c r="AS17" s="117"/>
-      <c r="AT17" s="117"/>
-      <c r="AU17" s="117"/>
-      <c r="AV17" s="117"/>
-      <c r="AW17" s="117"/>
-      <c r="AX17" s="117"/>
-      <c r="AY17" s="117"/>
-      <c r="AZ17" s="117"/>
-      <c r="BA17" s="117"/>
-      <c r="BB17" s="117"/>
-      <c r="BC17" s="122"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="187"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="145"/>
+      <c r="AN17" s="146"/>
+      <c r="AO17" s="191"/>
+      <c r="AP17" s="187"/>
+      <c r="AQ17" s="187"/>
+      <c r="AR17" s="187"/>
+      <c r="AS17" s="187"/>
+      <c r="AT17" s="187"/>
+      <c r="AU17" s="187"/>
+      <c r="AV17" s="187"/>
+      <c r="AW17" s="187"/>
+      <c r="AX17" s="187"/>
+      <c r="AY17" s="187"/>
+      <c r="AZ17" s="187"/>
+      <c r="BA17" s="187"/>
+      <c r="BB17" s="187"/>
+      <c r="BC17" s="192"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5196,19 +5196,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="115"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5222,686 +5222,686 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="150"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
-      <c r="X19" s="150"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="150"/>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="150"/>
-      <c r="AD19" s="150"/>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="150"/>
-      <c r="AJ19" s="150"/>
-      <c r="AK19" s="151"/>
-      <c r="AM19" s="126" t="s">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="118"/>
+      <c r="AM19" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="127"/>
-      <c r="AO19" s="127"/>
-      <c r="AP19" s="127"/>
-      <c r="AQ19" s="127"/>
-      <c r="AR19" s="127"/>
-      <c r="AS19" s="127"/>
-      <c r="AT19" s="127"/>
-      <c r="AU19" s="127"/>
-      <c r="AV19" s="127"/>
-      <c r="AW19" s="127"/>
-      <c r="AX19" s="127"/>
-      <c r="AY19" s="127"/>
-      <c r="AZ19" s="127"/>
-      <c r="BA19" s="127"/>
-      <c r="BB19" s="127"/>
-      <c r="BC19" s="128"/>
+      <c r="AN19" s="139"/>
+      <c r="AO19" s="139"/>
+      <c r="AP19" s="139"/>
+      <c r="AQ19" s="139"/>
+      <c r="AR19" s="139"/>
+      <c r="AS19" s="139"/>
+      <c r="AT19" s="139"/>
+      <c r="AU19" s="139"/>
+      <c r="AV19" s="139"/>
+      <c r="AW19" s="139"/>
+      <c r="AX19" s="139"/>
+      <c r="AY19" s="139"/>
+      <c r="AZ19" s="139"/>
+      <c r="BA19" s="139"/>
+      <c r="BB19" s="139"/>
+      <c r="BC19" s="140"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124" t="s">
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="124"/>
-      <c r="AK20" s="135"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="94"/>
-      <c r="AT20" s="94"/>
-      <c r="AU20" s="94"/>
-      <c r="AV20" s="94"/>
-      <c r="AW20" s="94"/>
-      <c r="AX20" s="94"/>
-      <c r="AY20" s="94"/>
-      <c r="AZ20" s="94"/>
-      <c r="BA20" s="94"/>
-      <c r="BB20" s="94"/>
-      <c r="BC20" s="95"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="151"/>
+      <c r="AM20" s="168"/>
+      <c r="AN20" s="169"/>
+      <c r="AO20" s="169"/>
+      <c r="AP20" s="169"/>
+      <c r="AQ20" s="169"/>
+      <c r="AR20" s="169"/>
+      <c r="AS20" s="169"/>
+      <c r="AT20" s="169"/>
+      <c r="AU20" s="169"/>
+      <c r="AV20" s="169"/>
+      <c r="AW20" s="169"/>
+      <c r="AX20" s="169"/>
+      <c r="AY20" s="169"/>
+      <c r="AZ20" s="169"/>
+      <c r="BA20" s="169"/>
+      <c r="BB20" s="169"/>
+      <c r="BC20" s="170"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="158"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="75"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="97"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="97"/>
-      <c r="AQ21" s="97"/>
-      <c r="AR21" s="97"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="97"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="97"/>
-      <c r="AW21" s="97"/>
-      <c r="AX21" s="97"/>
-      <c r="AY21" s="97"/>
-      <c r="AZ21" s="97"/>
-      <c r="BA21" s="97"/>
-      <c r="BB21" s="97"/>
-      <c r="BC21" s="98"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="230"/>
+      <c r="Y21" s="230"/>
+      <c r="Z21" s="230"/>
+      <c r="AA21" s="230"/>
+      <c r="AB21" s="230"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="123"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="123"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="124"/>
+      <c r="AM21" s="171"/>
+      <c r="AN21" s="172"/>
+      <c r="AO21" s="172"/>
+      <c r="AP21" s="172"/>
+      <c r="AQ21" s="172"/>
+      <c r="AR21" s="172"/>
+      <c r="AS21" s="172"/>
+      <c r="AT21" s="172"/>
+      <c r="AU21" s="172"/>
+      <c r="AV21" s="172"/>
+      <c r="AW21" s="172"/>
+      <c r="AX21" s="172"/>
+      <c r="AY21" s="172"/>
+      <c r="AZ21" s="172"/>
+      <c r="BA21" s="172"/>
+      <c r="BB21" s="172"/>
+      <c r="BC21" s="173"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="158"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="75"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="231"/>
+      <c r="X22" s="231"/>
+      <c r="Y22" s="231"/>
+      <c r="Z22" s="231"/>
+      <c r="AA22" s="231"/>
+      <c r="AB22" s="231"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="123"/>
+      <c r="AE22" s="123"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="123"/>
+      <c r="AJ22" s="123"/>
+      <c r="AK22" s="124"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="158"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="74"/>
-      <c r="AJ23" s="74"/>
-      <c r="AK23" s="75"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="231"/>
+      <c r="Y23" s="231"/>
+      <c r="Z23" s="231"/>
+      <c r="AA23" s="231"/>
+      <c r="AB23" s="231"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="123"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="123"/>
+      <c r="AH23" s="123"/>
+      <c r="AI23" s="123"/>
+      <c r="AJ23" s="123"/>
+      <c r="AK23" s="124"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="129" t="s">
+      <c r="AM23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="130"/>
-      <c r="AQ23" s="130"/>
-      <c r="AR23" s="130"/>
-      <c r="AS23" s="130"/>
-      <c r="AT23" s="130"/>
-      <c r="AU23" s="130"/>
-      <c r="AV23" s="130"/>
-      <c r="AW23" s="130"/>
-      <c r="AX23" s="130"/>
-      <c r="AY23" s="130"/>
-      <c r="AZ23" s="130"/>
-      <c r="BA23" s="130"/>
-      <c r="BB23" s="130"/>
-      <c r="BC23" s="131"/>
+      <c r="AN23" s="142"/>
+      <c r="AO23" s="142"/>
+      <c r="AP23" s="142"/>
+      <c r="AQ23" s="142"/>
+      <c r="AR23" s="142"/>
+      <c r="AS23" s="142"/>
+      <c r="AT23" s="142"/>
+      <c r="AU23" s="142"/>
+      <c r="AV23" s="142"/>
+      <c r="AW23" s="142"/>
+      <c r="AX23" s="142"/>
+      <c r="AY23" s="142"/>
+      <c r="AZ23" s="142"/>
+      <c r="BA23" s="142"/>
+      <c r="BB23" s="142"/>
+      <c r="BC23" s="143"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="158"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="110" t="s">
+      <c r="A24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="231"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="231"/>
+      <c r="Z24" s="231"/>
+      <c r="AA24" s="231"/>
+      <c r="AB24" s="231"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="123"/>
+      <c r="AJ24" s="123"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="229"/>
+      <c r="AM24" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="111"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="111"/>
-      <c r="AR24" s="112" t="s">
+      <c r="AN24" s="182"/>
+      <c r="AO24" s="182"/>
+      <c r="AP24" s="182"/>
+      <c r="AQ24" s="182"/>
+      <c r="AR24" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="112"/>
-      <c r="AT24" s="112"/>
-      <c r="AU24" s="112"/>
-      <c r="AV24" s="112"/>
-      <c r="AW24" s="112"/>
-      <c r="AX24" s="112"/>
-      <c r="AY24" s="99" t="s">
+      <c r="AS24" s="183"/>
+      <c r="AT24" s="183"/>
+      <c r="AU24" s="183"/>
+      <c r="AV24" s="183"/>
+      <c r="AW24" s="183"/>
+      <c r="AX24" s="183"/>
+      <c r="AY24" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="99"/>
-      <c r="BA24" s="99"/>
-      <c r="BB24" s="99"/>
-      <c r="BC24" s="100"/>
+      <c r="AZ24" s="174"/>
+      <c r="BA24" s="174"/>
+      <c r="BB24" s="174"/>
+      <c r="BC24" s="175"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="158"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="61"/>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="64"/>
-      <c r="AS25" s="64"/>
-      <c r="AT25" s="64"/>
-      <c r="AU25" s="64"/>
-      <c r="AV25" s="64"/>
-      <c r="AW25" s="64"/>
-      <c r="AX25" s="64"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="54"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="231"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="231"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="231"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="123"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="123"/>
+      <c r="AJ25" s="123"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="229"/>
+      <c r="AM25" s="222"/>
+      <c r="AN25" s="223"/>
+      <c r="AO25" s="223"/>
+      <c r="AP25" s="223"/>
+      <c r="AQ25" s="223"/>
+      <c r="AR25" s="224"/>
+      <c r="AS25" s="224"/>
+      <c r="AT25" s="224"/>
+      <c r="AU25" s="224"/>
+      <c r="AV25" s="224"/>
+      <c r="AW25" s="224"/>
+      <c r="AX25" s="224"/>
+      <c r="AY25" s="215"/>
+      <c r="AZ25" s="215"/>
+      <c r="BA25" s="215"/>
+      <c r="BB25" s="215"/>
+      <c r="BC25" s="216"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="160"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="65"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="55"/>
-      <c r="BA26" s="55"/>
-      <c r="BB26" s="55"/>
-      <c r="BC26" s="56"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="232"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
+      <c r="AC26" s="123"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="123"/>
+      <c r="AF26" s="123"/>
+      <c r="AG26" s="123"/>
+      <c r="AH26" s="123"/>
+      <c r="AI26" s="123"/>
+      <c r="AJ26" s="123"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="229"/>
+      <c r="AM26" s="136"/>
+      <c r="AN26" s="137"/>
+      <c r="AO26" s="137"/>
+      <c r="AP26" s="137"/>
+      <c r="AQ26" s="137"/>
+      <c r="AR26" s="225"/>
+      <c r="AS26" s="225"/>
+      <c r="AT26" s="225"/>
+      <c r="AU26" s="225"/>
+      <c r="AV26" s="225"/>
+      <c r="AW26" s="225"/>
+      <c r="AX26" s="225"/>
+      <c r="AY26" s="217"/>
+      <c r="AZ26" s="217"/>
+      <c r="BA26" s="217"/>
+      <c r="BB26" s="217"/>
+      <c r="BC26" s="218"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="114" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="115"/>
-      <c r="Z27" s="115"/>
-      <c r="AA27" s="115"/>
-      <c r="AB27" s="115"/>
-      <c r="AC27" s="72">
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="120">
         <v>0</v>
       </c>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="71"/>
-      <c r="AM27" s="68" t="s">
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="229"/>
+      <c r="AM27" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
+      <c r="AN27" s="227"/>
+      <c r="AO27" s="227"/>
+      <c r="AP27" s="227"/>
+      <c r="AQ27" s="227"/>
+      <c r="AR27" s="227"/>
+      <c r="AS27" s="227"/>
+      <c r="AT27" s="227"/>
+      <c r="AU27" s="227"/>
+      <c r="AV27" s="227"/>
+      <c r="AW27" s="227"/>
+      <c r="AX27" s="227"/>
+      <c r="AY27" s="227"/>
+      <c r="AZ27" s="227"/>
+      <c r="BA27" s="227"/>
+      <c r="BB27" s="227"/>
+      <c r="BC27" s="227"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="155"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="AL28" s="229"/>
+      <c r="AM28" s="160"/>
+      <c r="AN28" s="160"/>
+      <c r="AO28" s="160"/>
+      <c r="AP28" s="160"/>
+      <c r="AQ28" s="160"/>
+      <c r="AR28" s="160"/>
+      <c r="AS28" s="160"/>
+      <c r="AT28" s="160"/>
+      <c r="AU28" s="160"/>
+      <c r="AV28" s="160"/>
+      <c r="AW28" s="160"/>
+      <c r="AX28" s="160"/>
+      <c r="AY28" s="160"/>
+      <c r="AZ28" s="160"/>
+      <c r="BA28" s="160"/>
+      <c r="BB28" s="160"/>
+      <c r="BC28" s="160"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
-      <c r="AE29" s="102"/>
-      <c r="AF29" s="102"/>
-      <c r="AG29" s="102"/>
-      <c r="AH29" s="102"/>
-      <c r="AI29" s="102"/>
-      <c r="AJ29" s="102"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="69"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="69"/>
-      <c r="BB29" s="69"/>
-      <c r="BC29" s="69"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="177"/>
+      <c r="AL29" s="229"/>
+      <c r="AM29" s="160"/>
+      <c r="AN29" s="160"/>
+      <c r="AO29" s="160"/>
+      <c r="AP29" s="160"/>
+      <c r="AQ29" s="160"/>
+      <c r="AR29" s="160"/>
+      <c r="AS29" s="160"/>
+      <c r="AT29" s="160"/>
+      <c r="AU29" s="160"/>
+      <c r="AV29" s="160"/>
+      <c r="AW29" s="160"/>
+      <c r="AX29" s="160"/>
+      <c r="AY29" s="160"/>
+      <c r="AZ29" s="160"/>
+      <c r="BA29" s="160"/>
+      <c r="BB29" s="160"/>
+      <c r="BC29" s="160"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104" t="s">
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104" t="s">
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="104" t="s">
+      <c r="AC30" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="105"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="69"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="69"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69"/>
-      <c r="BA30" s="69"/>
-      <c r="BB30" s="69"/>
-      <c r="BC30" s="69"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="178"/>
+      <c r="AF30" s="178"/>
+      <c r="AG30" s="178"/>
+      <c r="AH30" s="178"/>
+      <c r="AI30" s="178"/>
+      <c r="AJ30" s="178"/>
+      <c r="AK30" s="179"/>
+      <c r="AL30" s="229"/>
+      <c r="AM30" s="160"/>
+      <c r="AN30" s="160"/>
+      <c r="AO30" s="160"/>
+      <c r="AP30" s="160"/>
+      <c r="AQ30" s="160"/>
+      <c r="AR30" s="160"/>
+      <c r="AS30" s="160"/>
+      <c r="AT30" s="160"/>
+      <c r="AU30" s="160"/>
+      <c r="AV30" s="160"/>
+      <c r="AW30" s="160"/>
+      <c r="AX30" s="160"/>
+      <c r="AY30" s="160"/>
+      <c r="AZ30" s="160"/>
+      <c r="BA30" s="160"/>
+      <c r="BB30" s="160"/>
+      <c r="BC30" s="160"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -5941,24 +5941,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="69"/>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="69"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="69"/>
-      <c r="BA31" s="69"/>
-      <c r="BB31" s="69"/>
-      <c r="BC31" s="69"/>
+      <c r="AL31" s="229"/>
+      <c r="AM31" s="160"/>
+      <c r="AN31" s="160"/>
+      <c r="AO31" s="160"/>
+      <c r="AP31" s="160"/>
+      <c r="AQ31" s="160"/>
+      <c r="AR31" s="160"/>
+      <c r="AS31" s="160"/>
+      <c r="AT31" s="160"/>
+      <c r="AU31" s="160"/>
+      <c r="AV31" s="160"/>
+      <c r="AW31" s="160"/>
+      <c r="AX31" s="160"/>
+      <c r="AY31" s="160"/>
+      <c r="AZ31" s="160"/>
+      <c r="BA31" s="160"/>
+      <c r="BB31" s="160"/>
+      <c r="BC31" s="160"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -5979,254 +5979,254 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="152" t="s">
+      <c r="S32" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="152"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="152"/>
-      <c r="W32" s="152"/>
-      <c r="X32" s="152"/>
-      <c r="Y32" s="152"/>
-      <c r="Z32" s="152"/>
-      <c r="AA32" s="152"/>
-      <c r="AB32" s="152"/>
-      <c r="AC32" s="72">
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="120">
         <v>0</v>
       </c>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="71"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69"/>
-      <c r="BA32" s="69"/>
-      <c r="BB32" s="69"/>
-      <c r="BC32" s="69"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="229"/>
+      <c r="AM32" s="160"/>
+      <c r="AN32" s="160"/>
+      <c r="AO32" s="160"/>
+      <c r="AP32" s="160"/>
+      <c r="AQ32" s="160"/>
+      <c r="AR32" s="160"/>
+      <c r="AS32" s="160"/>
+      <c r="AT32" s="160"/>
+      <c r="AU32" s="160"/>
+      <c r="AV32" s="160"/>
+      <c r="AW32" s="160"/>
+      <c r="AX32" s="160"/>
+      <c r="AY32" s="160"/>
+      <c r="AZ32" s="160"/>
+      <c r="BA32" s="160"/>
+      <c r="BB32" s="160"/>
+      <c r="BC32" s="160"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="167"/>
+      <c r="U33" s="167"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="167"/>
+      <c r="Z33" s="167"/>
+      <c r="AA33" s="167"/>
+      <c r="AB33" s="167"/>
+      <c r="AC33" s="167"/>
+      <c r="AD33" s="167"/>
+      <c r="AE33" s="167"/>
+      <c r="AF33" s="167"/>
+      <c r="AG33" s="167"/>
+      <c r="AH33" s="167"/>
+      <c r="AI33" s="167"/>
+      <c r="AJ33" s="167"/>
+      <c r="AK33" s="167"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="70"/>
-      <c r="AN33" s="70"/>
-      <c r="AO33" s="70"/>
-      <c r="AP33" s="70"/>
-      <c r="AQ33" s="70"/>
-      <c r="AR33" s="70"/>
-      <c r="AS33" s="70"/>
-      <c r="AT33" s="70"/>
-      <c r="AU33" s="70"/>
-      <c r="AV33" s="70"/>
-      <c r="AW33" s="70"/>
-      <c r="AX33" s="70"/>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="70"/>
-      <c r="BA33" s="70"/>
-      <c r="BB33" s="70"/>
-      <c r="BC33" s="70"/>
+      <c r="AM33" s="228"/>
+      <c r="AN33" s="228"/>
+      <c r="AO33" s="228"/>
+      <c r="AP33" s="228"/>
+      <c r="AQ33" s="228"/>
+      <c r="AR33" s="228"/>
+      <c r="AS33" s="228"/>
+      <c r="AT33" s="228"/>
+      <c r="AU33" s="228"/>
+      <c r="AV33" s="228"/>
+      <c r="AW33" s="228"/>
+      <c r="AX33" s="228"/>
+      <c r="AY33" s="228"/>
+      <c r="AZ33" s="228"/>
+      <c r="BA33" s="228"/>
+      <c r="BB33" s="228"/>
+      <c r="BC33" s="228"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="80"/>
-      <c r="AJ34" s="80"/>
-      <c r="AK34" s="81"/>
-      <c r="AM34" s="57" t="s">
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="195"/>
+      <c r="Q34" s="195"/>
+      <c r="R34" s="195"/>
+      <c r="S34" s="195"/>
+      <c r="T34" s="195"/>
+      <c r="U34" s="195"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="195"/>
+      <c r="X34" s="195"/>
+      <c r="Y34" s="195"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="195"/>
+      <c r="AB34" s="195"/>
+      <c r="AC34" s="195"/>
+      <c r="AD34" s="195"/>
+      <c r="AE34" s="195"/>
+      <c r="AF34" s="195"/>
+      <c r="AG34" s="195"/>
+      <c r="AH34" s="195"/>
+      <c r="AI34" s="195"/>
+      <c r="AJ34" s="195"/>
+      <c r="AK34" s="196"/>
+      <c r="AM34" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="58"/>
-      <c r="BB34" s="58"/>
-      <c r="BC34" s="59"/>
+      <c r="AN34" s="220"/>
+      <c r="AO34" s="220"/>
+      <c r="AP34" s="220"/>
+      <c r="AQ34" s="220"/>
+      <c r="AR34" s="220"/>
+      <c r="AS34" s="220"/>
+      <c r="AT34" s="220"/>
+      <c r="AU34" s="220"/>
+      <c r="AV34" s="220"/>
+      <c r="AW34" s="220"/>
+      <c r="AX34" s="220"/>
+      <c r="AY34" s="220"/>
+      <c r="AZ34" s="220"/>
+      <c r="BA34" s="220"/>
+      <c r="BB34" s="220"/>
+      <c r="BC34" s="221"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="83"/>
-      <c r="AI35" s="83"/>
-      <c r="AJ35" s="83"/>
-      <c r="AK35" s="89"/>
-      <c r="AM35" s="206" t="s">
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="198"/>
+      <c r="X35" s="198"/>
+      <c r="Y35" s="198"/>
+      <c r="Z35" s="198"/>
+      <c r="AA35" s="198"/>
+      <c r="AB35" s="198"/>
+      <c r="AC35" s="198"/>
+      <c r="AD35" s="198"/>
+      <c r="AE35" s="198"/>
+      <c r="AF35" s="198"/>
+      <c r="AG35" s="198"/>
+      <c r="AH35" s="198"/>
+      <c r="AI35" s="198"/>
+      <c r="AJ35" s="198"/>
+      <c r="AK35" s="205"/>
+      <c r="AM35" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="AN35" s="207"/>
-      <c r="AO35" s="207"/>
-      <c r="AP35" s="207"/>
-      <c r="AQ35" s="207"/>
-      <c r="AR35" s="207"/>
-      <c r="AS35" s="207"/>
-      <c r="AT35" s="207"/>
-      <c r="AU35" s="207"/>
-      <c r="AV35" s="207"/>
-      <c r="AW35" s="207"/>
-      <c r="AX35" s="207"/>
-      <c r="AY35" s="207"/>
-      <c r="AZ35" s="207"/>
-      <c r="BA35" s="207"/>
-      <c r="BB35" s="207"/>
-      <c r="BC35" s="208"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="45"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="86">
-        <f>SUM(P36:P41)</f>
-        <v>158.69999999999999</v>
-      </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="A36" s="201">
+        <f>SUM(P36:Q41)</f>
+        <v>191.79999999999998</v>
+      </c>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="91" t="s">
+      <c r="L36" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="88">
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="70">
         <v>29.8</v>
       </c>
-      <c r="Q36" s="88"/>
+      <c r="Q36" s="70"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
@@ -6247,48 +6247,48 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="209"/>
-      <c r="AN36" s="210"/>
-      <c r="AO36" s="210"/>
-      <c r="AP36" s="210"/>
-      <c r="AQ36" s="210"/>
-      <c r="AR36" s="210"/>
-      <c r="AS36" s="210"/>
-      <c r="AT36" s="210"/>
-      <c r="AU36" s="210"/>
-      <c r="AV36" s="210"/>
-      <c r="AW36" s="210"/>
-      <c r="AX36" s="210"/>
-      <c r="AY36" s="210"/>
-      <c r="AZ36" s="210"/>
-      <c r="BA36" s="210"/>
-      <c r="BB36" s="210"/>
-      <c r="BC36" s="211"/>
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
+      <c r="AT36" s="47"/>
+      <c r="AU36" s="47"/>
+      <c r="AV36" s="47"/>
+      <c r="AW36" s="47"/>
+      <c r="AX36" s="47"/>
+      <c r="AY36" s="47"/>
+      <c r="AZ36" s="47"/>
+      <c r="BA36" s="47"/>
+      <c r="BB36" s="47"/>
+      <c r="BC36" s="48"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="91" t="s">
+      <c r="L37" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="88">
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="70">
         <v>31.5</v>
       </c>
-      <c r="Q37" s="88"/>
+      <c r="Q37" s="70"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -6310,49 +6310,49 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="209"/>
-      <c r="AN37" s="210"/>
-      <c r="AO37" s="210"/>
-      <c r="AP37" s="210"/>
-      <c r="AQ37" s="210"/>
-      <c r="AR37" s="210"/>
-      <c r="AS37" s="210"/>
-      <c r="AT37" s="210"/>
-      <c r="AU37" s="210"/>
-      <c r="AV37" s="210"/>
-      <c r="AW37" s="210"/>
-      <c r="AX37" s="210"/>
-      <c r="AY37" s="210"/>
-      <c r="AZ37" s="210"/>
-      <c r="BA37" s="210"/>
-      <c r="BB37" s="210"/>
-      <c r="BC37" s="211"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="47"/>
+      <c r="AW37" s="47"/>
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
+      <c r="BA37" s="47"/>
+      <c r="BB37" s="47"/>
+      <c r="BC37" s="48"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41">
+      <c r="A38" s="203">
         <f>A36-A40</f>
-        <v>124.69999999999999</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+        <v>158.69999999999999</v>
+      </c>
+      <c r="B38" s="204"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="91" t="s">
+      <c r="L38" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="90">
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="206">
         <v>34.799999999999997</v>
       </c>
-      <c r="Q38" s="90"/>
+      <c r="Q38" s="206"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -6374,48 +6374,48 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="209"/>
-      <c r="AN38" s="210"/>
-      <c r="AO38" s="210"/>
-      <c r="AP38" s="210"/>
-      <c r="AQ38" s="210"/>
-      <c r="AR38" s="210"/>
-      <c r="AS38" s="210"/>
-      <c r="AT38" s="210"/>
-      <c r="AU38" s="210"/>
-      <c r="AV38" s="210"/>
-      <c r="AW38" s="210"/>
-      <c r="AX38" s="210"/>
-      <c r="AY38" s="210"/>
-      <c r="AZ38" s="210"/>
-      <c r="BA38" s="210"/>
-      <c r="BB38" s="210"/>
-      <c r="BC38" s="211"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
+      <c r="AT38" s="47"/>
+      <c r="AU38" s="47"/>
+      <c r="AV38" s="47"/>
+      <c r="AW38" s="47"/>
+      <c r="AX38" s="47"/>
+      <c r="AY38" s="47"/>
+      <c r="AZ38" s="47"/>
+      <c r="BA38" s="47"/>
+      <c r="BB38" s="47"/>
+      <c r="BC38" s="48"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="91" t="s">
+      <c r="L39" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="27">
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72">
         <v>34</v>
       </c>
-      <c r="Q39" s="23"/>
+      <c r="Q39" s="72"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
@@ -6436,49 +6436,49 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="209"/>
-      <c r="AN39" s="210"/>
-      <c r="AO39" s="210"/>
-      <c r="AP39" s="210"/>
-      <c r="AQ39" s="210"/>
-      <c r="AR39" s="210"/>
-      <c r="AS39" s="210"/>
-      <c r="AT39" s="210"/>
-      <c r="AU39" s="210"/>
-      <c r="AV39" s="210"/>
-      <c r="AW39" s="210"/>
-      <c r="AX39" s="210"/>
-      <c r="AY39" s="210"/>
-      <c r="AZ39" s="210"/>
-      <c r="BA39" s="210"/>
-      <c r="BB39" s="210"/>
-      <c r="BC39" s="211"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="47"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="47"/>
+      <c r="AW39" s="47"/>
+      <c r="AX39" s="47"/>
+      <c r="AY39" s="47"/>
+      <c r="AZ39" s="47"/>
+      <c r="BA39" s="47"/>
+      <c r="BB39" s="47"/>
+      <c r="BC39" s="48"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41">
-        <f>P39</f>
-        <v>34</v>
-      </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="A40" s="203">
+        <f>P41</f>
+        <v>33.1</v>
+      </c>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="91" t="s">
+      <c r="L40" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="27">
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72">
         <v>28.6</v>
       </c>
-      <c r="Q40" s="23"/>
+      <c r="Q40" s="72"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
@@ -6499,46 +6499,48 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="209"/>
-      <c r="AN40" s="210"/>
-      <c r="AO40" s="210"/>
-      <c r="AP40" s="210"/>
-      <c r="AQ40" s="210"/>
-      <c r="AR40" s="210"/>
-      <c r="AS40" s="210"/>
-      <c r="AT40" s="210"/>
-      <c r="AU40" s="210"/>
-      <c r="AV40" s="210"/>
-      <c r="AW40" s="210"/>
-      <c r="AX40" s="210"/>
-      <c r="AY40" s="210"/>
-      <c r="AZ40" s="210"/>
-      <c r="BA40" s="210"/>
-      <c r="BB40" s="210"/>
-      <c r="BC40" s="211"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="47"/>
+      <c r="BA40" s="47"/>
+      <c r="BB40" s="47"/>
+      <c r="BC40" s="48"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="91" t="s">
+      <c r="L41" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="23"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72">
+        <v>33.1</v>
+      </c>
+      <c r="Q41" s="72"/>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -6559,37 +6561,37 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="209"/>
-      <c r="AN41" s="210"/>
-      <c r="AO41" s="210"/>
-      <c r="AP41" s="210"/>
-      <c r="AQ41" s="210"/>
-      <c r="AR41" s="210"/>
-      <c r="AS41" s="210"/>
-      <c r="AT41" s="210"/>
-      <c r="AU41" s="210"/>
-      <c r="AV41" s="210"/>
-      <c r="AW41" s="210"/>
-      <c r="AX41" s="210"/>
-      <c r="AY41" s="210"/>
-      <c r="AZ41" s="210"/>
-      <c r="BA41" s="210"/>
-      <c r="BB41" s="210"/>
-      <c r="BC41" s="211"/>
+      <c r="AM41" s="46"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
+      <c r="AT41" s="47"/>
+      <c r="AU41" s="47"/>
+      <c r="AV41" s="47"/>
+      <c r="AW41" s="47"/>
+      <c r="AX41" s="47"/>
+      <c r="AY41" s="47"/>
+      <c r="AZ41" s="47"/>
+      <c r="BA41" s="47"/>
+      <c r="BB41" s="47"/>
+      <c r="BC41" s="48"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41">
+      <c r="A42" s="203">
         <f>AVERAGE(P36:P41)</f>
-        <v>31.74</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+        <v>31.966666666666665</v>
+      </c>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -6602,11 +6604,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="233"/>
-      <c r="W42" s="233"/>
-      <c r="X42" s="233"/>
-      <c r="Y42" s="233"/>
-      <c r="Z42" s="233"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -6618,784 +6620,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="209"/>
-      <c r="AN42" s="210"/>
-      <c r="AO42" s="210"/>
-      <c r="AP42" s="210"/>
-      <c r="AQ42" s="210"/>
-      <c r="AR42" s="210"/>
-      <c r="AS42" s="210"/>
-      <c r="AT42" s="210"/>
-      <c r="AU42" s="210"/>
-      <c r="AV42" s="210"/>
-      <c r="AW42" s="210"/>
-      <c r="AX42" s="210"/>
-      <c r="AY42" s="210"/>
-      <c r="AZ42" s="210"/>
-      <c r="BA42" s="210"/>
-      <c r="BB42" s="210"/>
-      <c r="BC42" s="211"/>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
+      <c r="AQ42" s="47"/>
+      <c r="AR42" s="47"/>
+      <c r="AS42" s="47"/>
+      <c r="AT42" s="47"/>
+      <c r="AU42" s="47"/>
+      <c r="AV42" s="47"/>
+      <c r="AW42" s="47"/>
+      <c r="AX42" s="47"/>
+      <c r="AY42" s="47"/>
+      <c r="AZ42" s="47"/>
+      <c r="BA42" s="47"/>
+      <c r="BB42" s="47"/>
+      <c r="BC42" s="48"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="231" t="s">
+      <c r="A43" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="231"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="231"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="231"/>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="231"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="231"/>
-      <c r="M43" s="231"/>
-      <c r="N43" s="231"/>
-      <c r="O43" s="231"/>
-      <c r="P43" s="231"/>
-      <c r="Q43" s="231"/>
-      <c r="R43" s="231"/>
-      <c r="S43" s="231"/>
-      <c r="T43" s="231"/>
-      <c r="U43" s="231"/>
-      <c r="V43" s="231"/>
-      <c r="W43" s="231"/>
-      <c r="X43" s="231"/>
-      <c r="Y43" s="231"/>
-      <c r="Z43" s="231"/>
-      <c r="AA43" s="231"/>
-      <c r="AB43" s="231"/>
-      <c r="AC43" s="231"/>
-      <c r="AD43" s="231"/>
-      <c r="AE43" s="231"/>
-      <c r="AF43" s="231"/>
-      <c r="AG43" s="231"/>
-      <c r="AH43" s="231"/>
-      <c r="AI43" s="231"/>
-      <c r="AJ43" s="231"/>
-      <c r="AK43" s="231"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="68"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="209"/>
-      <c r="AN43" s="210"/>
-      <c r="AO43" s="210"/>
-      <c r="AP43" s="210"/>
-      <c r="AQ43" s="210"/>
-      <c r="AR43" s="210"/>
-      <c r="AS43" s="210"/>
-      <c r="AT43" s="210"/>
-      <c r="AU43" s="210"/>
-      <c r="AV43" s="210"/>
-      <c r="AW43" s="210"/>
-      <c r="AX43" s="210"/>
-      <c r="AY43" s="210"/>
-      <c r="AZ43" s="210"/>
-      <c r="BA43" s="210"/>
-      <c r="BB43" s="210"/>
-      <c r="BC43" s="211"/>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="47"/>
+      <c r="AO43" s="47"/>
+      <c r="AP43" s="47"/>
+      <c r="AQ43" s="47"/>
+      <c r="AR43" s="47"/>
+      <c r="AS43" s="47"/>
+      <c r="AT43" s="47"/>
+      <c r="AU43" s="47"/>
+      <c r="AV43" s="47"/>
+      <c r="AW43" s="47"/>
+      <c r="AX43" s="47"/>
+      <c r="AY43" s="47"/>
+      <c r="AZ43" s="47"/>
+      <c r="BA43" s="47"/>
+      <c r="BB43" s="47"/>
+      <c r="BC43" s="48"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="232"/>
-      <c r="B44" s="232"/>
-      <c r="C44" s="232"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="232"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="232"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="232"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="232"/>
-      <c r="N44" s="232"/>
-      <c r="O44" s="232"/>
-      <c r="P44" s="232"/>
-      <c r="Q44" s="232"/>
-      <c r="R44" s="232"/>
-      <c r="S44" s="232"/>
-      <c r="T44" s="232"/>
-      <c r="U44" s="232"/>
-      <c r="V44" s="232"/>
-      <c r="W44" s="232"/>
-      <c r="X44" s="232"/>
-      <c r="Y44" s="232"/>
-      <c r="Z44" s="232"/>
-      <c r="AA44" s="232"/>
-      <c r="AB44" s="232"/>
-      <c r="AC44" s="232"/>
-      <c r="AD44" s="232"/>
-      <c r="AE44" s="232"/>
-      <c r="AF44" s="232"/>
-      <c r="AG44" s="232"/>
-      <c r="AH44" s="232"/>
-      <c r="AI44" s="232"/>
-      <c r="AJ44" s="232"/>
-      <c r="AK44" s="232"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="69"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="69"/>
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="69"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="209"/>
-      <c r="AN44" s="210"/>
-      <c r="AO44" s="210"/>
-      <c r="AP44" s="210"/>
-      <c r="AQ44" s="210"/>
-      <c r="AR44" s="210"/>
-      <c r="AS44" s="210"/>
-      <c r="AT44" s="210"/>
-      <c r="AU44" s="210"/>
-      <c r="AV44" s="210"/>
-      <c r="AW44" s="210"/>
-      <c r="AX44" s="210"/>
-      <c r="AY44" s="210"/>
-      <c r="AZ44" s="210"/>
-      <c r="BA44" s="210"/>
-      <c r="BB44" s="210"/>
-      <c r="BC44" s="211"/>
+      <c r="AM44" s="46"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="47"/>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="47"/>
+      <c r="AY44" s="47"/>
+      <c r="AZ44" s="47"/>
+      <c r="BA44" s="47"/>
+      <c r="BB44" s="47"/>
+      <c r="BC44" s="48"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="221"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="221"/>
-      <c r="E45" s="221"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="221"/>
-      <c r="I45" s="221"/>
-      <c r="J45" s="221"/>
-      <c r="K45" s="221"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="221"/>
-      <c r="O45" s="221"/>
-      <c r="P45" s="221"/>
-      <c r="Q45" s="221"/>
-      <c r="R45" s="221"/>
-      <c r="S45" s="221"/>
-      <c r="T45" s="221"/>
-      <c r="U45" s="221"/>
-      <c r="V45" s="221"/>
-      <c r="W45" s="221"/>
-      <c r="X45" s="221"/>
-      <c r="Y45" s="221"/>
-      <c r="Z45" s="221"/>
-      <c r="AA45" s="221"/>
-      <c r="AB45" s="221"/>
-      <c r="AC45" s="221"/>
-      <c r="AD45" s="221"/>
-      <c r="AE45" s="221"/>
-      <c r="AF45" s="221"/>
-      <c r="AG45" s="221"/>
-      <c r="AH45" s="221"/>
-      <c r="AI45" s="221"/>
-      <c r="AJ45" s="221"/>
-      <c r="AK45" s="222"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="59"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="209"/>
-      <c r="AN45" s="210"/>
-      <c r="AO45" s="210"/>
-      <c r="AP45" s="210"/>
-      <c r="AQ45" s="210"/>
-      <c r="AR45" s="210"/>
-      <c r="AS45" s="210"/>
-      <c r="AT45" s="210"/>
-      <c r="AU45" s="210"/>
-      <c r="AV45" s="210"/>
-      <c r="AW45" s="210"/>
-      <c r="AX45" s="210"/>
-      <c r="AY45" s="210"/>
-      <c r="AZ45" s="210"/>
-      <c r="BA45" s="210"/>
-      <c r="BB45" s="210"/>
-      <c r="BC45" s="211"/>
+      <c r="AM45" s="46"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="48"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="204"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="204" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="204"/>
-      <c r="L46" s="204"/>
-      <c r="M46" s="204"/>
-      <c r="N46" s="204"/>
-      <c r="O46" s="204"/>
-      <c r="P46" s="204"/>
-      <c r="Q46" s="204"/>
-      <c r="R46" s="204"/>
-      <c r="S46" s="204"/>
-      <c r="T46" s="204" t="s">
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="U46" s="204"/>
-      <c r="V46" s="204"/>
-      <c r="W46" s="204"/>
-      <c r="X46" s="204"/>
-      <c r="Y46" s="204"/>
-      <c r="Z46" s="204"/>
-      <c r="AA46" s="204"/>
-      <c r="AB46" s="204"/>
-      <c r="AC46" s="204" t="s">
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AD46" s="204"/>
-      <c r="AE46" s="204"/>
-      <c r="AF46" s="204"/>
-      <c r="AG46" s="204"/>
-      <c r="AH46" s="204"/>
-      <c r="AI46" s="204"/>
-      <c r="AJ46" s="204"/>
-      <c r="AK46" s="205"/>
-      <c r="AM46" s="209"/>
-      <c r="AN46" s="210"/>
-      <c r="AO46" s="210"/>
-      <c r="AP46" s="210"/>
-      <c r="AQ46" s="210"/>
-      <c r="AR46" s="210"/>
-      <c r="AS46" s="210"/>
-      <c r="AT46" s="210"/>
-      <c r="AU46" s="210"/>
-      <c r="AV46" s="210"/>
-      <c r="AW46" s="210"/>
-      <c r="AX46" s="210"/>
-      <c r="AY46" s="210"/>
-      <c r="AZ46" s="210"/>
-      <c r="BA46" s="210"/>
-      <c r="BB46" s="210"/>
-      <c r="BC46" s="211"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="41"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
+      <c r="AK46" s="42"/>
+      <c r="AM46" s="46"/>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="47"/>
+      <c r="AS46" s="47"/>
+      <c r="AT46" s="47"/>
+      <c r="AU46" s="47"/>
+      <c r="AV46" s="47"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="47"/>
+      <c r="AY46" s="47"/>
+      <c r="AZ46" s="47"/>
+      <c r="BA46" s="47"/>
+      <c r="BB46" s="47"/>
+      <c r="BC46" s="48"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="203">
+      <c r="A47" s="28"/>
+      <c r="B47" s="40">
         <v>100000</v>
       </c>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="203">
+      <c r="J47" s="40">
         <v>3000</v>
       </c>
-      <c r="K47" s="203"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="203"/>
-      <c r="N47" s="203"/>
-      <c r="O47" s="203"/>
-      <c r="P47" s="203"/>
-      <c r="Q47" s="203"/>
-      <c r="R47" s="203"/>
-      <c r="S47" s="203"/>
-      <c r="T47" s="203">
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40">
         <v>8000</v>
       </c>
-      <c r="U47" s="203"/>
-      <c r="V47" s="203"/>
-      <c r="W47" s="203"/>
-      <c r="X47" s="203"/>
-      <c r="Y47" s="203"/>
-      <c r="Z47" s="203"/>
-      <c r="AA47" s="203"/>
-      <c r="AB47" s="203"/>
-      <c r="AC47" s="229">
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="66">
         <v>8000</v>
       </c>
-      <c r="AD47" s="229"/>
-      <c r="AE47" s="229"/>
-      <c r="AF47" s="229"/>
-      <c r="AG47" s="229"/>
-      <c r="AH47" s="229"/>
-      <c r="AI47" s="229"/>
-      <c r="AJ47" s="229"/>
-      <c r="AK47" s="230"/>
-      <c r="AM47" s="209"/>
-      <c r="AN47" s="210"/>
-      <c r="AO47" s="210"/>
-      <c r="AP47" s="210"/>
-      <c r="AQ47" s="210"/>
-      <c r="AR47" s="210"/>
-      <c r="AS47" s="210"/>
-      <c r="AT47" s="210"/>
-      <c r="AU47" s="210"/>
-      <c r="AV47" s="210"/>
-      <c r="AW47" s="210"/>
-      <c r="AX47" s="210"/>
-      <c r="AY47" s="210"/>
-      <c r="AZ47" s="210"/>
-      <c r="BA47" s="210"/>
-      <c r="BB47" s="210"/>
-      <c r="BC47" s="211"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="67"/>
+      <c r="AM47" s="46"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47"/>
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47"/>
+      <c r="BC47" s="48"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="216" t="s">
+      <c r="A48" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="217"/>
-      <c r="C48" s="217"/>
-      <c r="D48" s="217"/>
-      <c r="E48" s="217"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="217"/>
-      <c r="H48" s="217"/>
-      <c r="I48" s="217"/>
-      <c r="J48" s="204" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="204"/>
-      <c r="P48" s="204"/>
-      <c r="Q48" s="204"/>
-      <c r="R48" s="204"/>
-      <c r="S48" s="204"/>
-      <c r="T48" s="204" t="s">
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="U48" s="204"/>
-      <c r="V48" s="204"/>
-      <c r="W48" s="204"/>
-      <c r="X48" s="204"/>
-      <c r="Y48" s="204"/>
-      <c r="Z48" s="204"/>
-      <c r="AA48" s="204"/>
-      <c r="AB48" s="204"/>
-      <c r="AC48" s="204" t="s">
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AD48" s="204"/>
-      <c r="AE48" s="204"/>
-      <c r="AF48" s="204"/>
-      <c r="AG48" s="204"/>
-      <c r="AH48" s="204"/>
-      <c r="AI48" s="204"/>
-      <c r="AJ48" s="204"/>
-      <c r="AK48" s="205"/>
-      <c r="AM48" s="209"/>
-      <c r="AN48" s="210"/>
-      <c r="AO48" s="210"/>
-      <c r="AP48" s="210"/>
-      <c r="AQ48" s="210"/>
-      <c r="AR48" s="210"/>
-      <c r="AS48" s="210"/>
-      <c r="AT48" s="210"/>
-      <c r="AU48" s="210"/>
-      <c r="AV48" s="210"/>
-      <c r="AW48" s="210"/>
-      <c r="AX48" s="210"/>
-      <c r="AY48" s="210"/>
-      <c r="AZ48" s="210"/>
-      <c r="BA48" s="210"/>
-      <c r="BB48" s="210"/>
-      <c r="BC48" s="211"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="41"/>
+      <c r="AK48" s="42"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="47"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="47"/>
+      <c r="AX48" s="47"/>
+      <c r="AY48" s="47"/>
+      <c r="AZ48" s="47"/>
+      <c r="BA48" s="47"/>
+      <c r="BB48" s="47"/>
+      <c r="BC48" s="48"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="218">
+      <c r="A49" s="55">
         <v>500</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="203">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40">
         <v>8000</v>
       </c>
-      <c r="K49" s="203"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
-      <c r="O49" s="203"/>
-      <c r="P49" s="203"/>
-      <c r="Q49" s="203"/>
-      <c r="R49" s="203"/>
-      <c r="S49" s="203"/>
-      <c r="T49" s="203">
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40">
         <v>16000</v>
       </c>
-      <c r="U49" s="203"/>
-      <c r="V49" s="203"/>
-      <c r="W49" s="203"/>
-      <c r="X49" s="203"/>
-      <c r="Y49" s="203"/>
-      <c r="Z49" s="203"/>
-      <c r="AA49" s="203"/>
-      <c r="AB49" s="203"/>
-      <c r="AC49" s="203" t="s">
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AD49" s="203"/>
-      <c r="AE49" s="203"/>
-      <c r="AF49" s="203"/>
-      <c r="AG49" s="203"/>
-      <c r="AH49" s="203"/>
-      <c r="AI49" s="203"/>
-      <c r="AJ49" s="203"/>
-      <c r="AK49" s="215"/>
-      <c r="AM49" s="209"/>
-      <c r="AN49" s="210"/>
-      <c r="AO49" s="210"/>
-      <c r="AP49" s="210"/>
-      <c r="AQ49" s="210"/>
-      <c r="AR49" s="210"/>
-      <c r="AS49" s="210"/>
-      <c r="AT49" s="210"/>
-      <c r="AU49" s="210"/>
-      <c r="AV49" s="210"/>
-      <c r="AW49" s="210"/>
-      <c r="AX49" s="210"/>
-      <c r="AY49" s="210"/>
-      <c r="AZ49" s="210"/>
-      <c r="BA49" s="210"/>
-      <c r="BB49" s="210"/>
-      <c r="BC49" s="211"/>
+      <c r="AD49" s="40"/>
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="40"/>
+      <c r="AI49" s="40"/>
+      <c r="AJ49" s="40"/>
+      <c r="AK49" s="52"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="47"/>
+      <c r="AZ49" s="47"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="48"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="223" t="s">
+      <c r="A50" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="224"/>
-      <c r="C50" s="224"/>
-      <c r="D50" s="224"/>
-      <c r="E50" s="224"/>
-      <c r="F50" s="224"/>
-      <c r="G50" s="224"/>
-      <c r="H50" s="224"/>
-      <c r="I50" s="224"/>
-      <c r="J50" s="224"/>
-      <c r="K50" s="224"/>
-      <c r="L50" s="224"/>
-      <c r="M50" s="224"/>
-      <c r="N50" s="224"/>
-      <c r="O50" s="224"/>
-      <c r="P50" s="224"/>
-      <c r="Q50" s="224"/>
-      <c r="R50" s="224"/>
-      <c r="S50" s="224"/>
-      <c r="T50" s="224"/>
-      <c r="U50" s="224"/>
-      <c r="V50" s="224"/>
-      <c r="W50" s="224"/>
-      <c r="X50" s="224"/>
-      <c r="Y50" s="224"/>
-      <c r="Z50" s="224"/>
-      <c r="AA50" s="224"/>
-      <c r="AB50" s="224"/>
-      <c r="AC50" s="224"/>
-      <c r="AD50" s="224"/>
-      <c r="AE50" s="224"/>
-      <c r="AF50" s="224"/>
-      <c r="AG50" s="224"/>
-      <c r="AH50" s="224"/>
-      <c r="AI50" s="224"/>
-      <c r="AJ50" s="224"/>
-      <c r="AK50" s="225"/>
-      <c r="AM50" s="209"/>
-      <c r="AN50" s="210"/>
-      <c r="AO50" s="210"/>
-      <c r="AP50" s="210"/>
-      <c r="AQ50" s="210"/>
-      <c r="AR50" s="210"/>
-      <c r="AS50" s="210"/>
-      <c r="AT50" s="210"/>
-      <c r="AU50" s="210"/>
-      <c r="AV50" s="210"/>
-      <c r="AW50" s="210"/>
-      <c r="AX50" s="210"/>
-      <c r="AY50" s="210"/>
-      <c r="AZ50" s="210"/>
-      <c r="BA50" s="210"/>
-      <c r="BB50" s="210"/>
-      <c r="BC50" s="211"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="62"/>
+      <c r="AM50" s="46"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
+      <c r="AQ50" s="47"/>
+      <c r="AR50" s="47"/>
+      <c r="AS50" s="47"/>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="47"/>
+      <c r="AV50" s="47"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="47"/>
+      <c r="AY50" s="47"/>
+      <c r="AZ50" s="47"/>
+      <c r="BA50" s="47"/>
+      <c r="BB50" s="47"/>
+      <c r="BC50" s="48"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="226"/>
-      <c r="B51" s="227"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="227"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="227"/>
-      <c r="H51" s="227"/>
-      <c r="I51" s="227"/>
-      <c r="J51" s="227"/>
-      <c r="K51" s="227"/>
-      <c r="L51" s="227"/>
-      <c r="M51" s="227"/>
-      <c r="N51" s="227"/>
-      <c r="O51" s="227"/>
-      <c r="P51" s="227"/>
-      <c r="Q51" s="227"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="227"/>
-      <c r="T51" s="227"/>
-      <c r="U51" s="227"/>
-      <c r="V51" s="227"/>
-      <c r="W51" s="227"/>
-      <c r="X51" s="227"/>
-      <c r="Y51" s="227"/>
-      <c r="Z51" s="227"/>
-      <c r="AA51" s="227"/>
-      <c r="AB51" s="227"/>
-      <c r="AC51" s="227"/>
-      <c r="AD51" s="227"/>
-      <c r="AE51" s="227"/>
-      <c r="AF51" s="227"/>
-      <c r="AG51" s="227"/>
-      <c r="AH51" s="227"/>
-      <c r="AI51" s="227"/>
-      <c r="AJ51" s="227"/>
-      <c r="AK51" s="228"/>
-      <c r="AM51" s="212"/>
-      <c r="AN51" s="213"/>
-      <c r="AO51" s="213"/>
-      <c r="AP51" s="213"/>
-      <c r="AQ51" s="213"/>
-      <c r="AR51" s="213"/>
-      <c r="AS51" s="213"/>
-      <c r="AT51" s="213"/>
-      <c r="AU51" s="213"/>
-      <c r="AV51" s="213"/>
-      <c r="AW51" s="213"/>
-      <c r="AX51" s="213"/>
-      <c r="AY51" s="213"/>
-      <c r="AZ51" s="213"/>
-      <c r="BA51" s="213"/>
-      <c r="BB51" s="213"/>
-      <c r="BC51" s="214"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="64"/>
+      <c r="AF51" s="64"/>
+      <c r="AG51" s="64"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="64"/>
+      <c r="AJ51" s="64"/>
+      <c r="AK51" s="65"/>
+      <c r="AM51" s="49"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
+      <c r="AR51" s="50"/>
+      <c r="AS51" s="50"/>
+      <c r="AT51" s="50"/>
+      <c r="AU51" s="50"/>
+      <c r="AV51" s="50"/>
+      <c r="AW51" s="50"/>
+      <c r="AX51" s="50"/>
+      <c r="AY51" s="50"/>
+      <c r="AZ51" s="50"/>
+      <c r="BA51" s="50"/>
+      <c r="BB51" s="50"/>
+      <c r="BC51" s="51"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="196" t="s">
+      <c r="A52" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="196"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="196"/>
-      <c r="L52" s="196"/>
-      <c r="M52" s="196"/>
-      <c r="N52" s="196"/>
-      <c r="O52" s="196"/>
-      <c r="P52" s="196"/>
-      <c r="Q52" s="196"/>
-      <c r="R52" s="196"/>
-      <c r="S52" s="196"/>
-      <c r="T52" s="196"/>
-      <c r="U52" s="196"/>
-      <c r="V52" s="35"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
+      <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="197"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="197"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="197"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="197"/>
-      <c r="M53" s="197"/>
-      <c r="N53" s="197"/>
-      <c r="O53" s="197"/>
-      <c r="P53" s="197"/>
-      <c r="Q53" s="197"/>
-      <c r="R53" s="197"/>
-      <c r="S53" s="197"/>
-      <c r="T53" s="197"/>
-      <c r="U53" s="197"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="198" t="s">
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="199"/>
-      <c r="Y53" s="199"/>
-      <c r="Z53" s="199"/>
-      <c r="AA53" s="199"/>
-      <c r="AB53" s="199"/>
-      <c r="AC53" s="199"/>
-      <c r="AD53" s="199"/>
-      <c r="AE53" s="199"/>
-      <c r="AF53" s="199"/>
-      <c r="AG53" s="200"/>
-      <c r="AI53" s="201" t="s">
+      <c r="X53" s="110"/>
+      <c r="Y53" s="110"/>
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="110"/>
+      <c r="AD53" s="110"/>
+      <c r="AE53" s="110"/>
+      <c r="AF53" s="110"/>
+      <c r="AG53" s="111"/>
+      <c r="AI53" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="102"/>
-      <c r="AK53" s="102"/>
-      <c r="AL53" s="102"/>
-      <c r="AM53" s="102"/>
-      <c r="AN53" s="102"/>
-      <c r="AO53" s="102"/>
-      <c r="AP53" s="102"/>
-      <c r="AQ53" s="102"/>
-      <c r="AR53" s="102"/>
-      <c r="AS53" s="102"/>
-      <c r="AT53" s="102"/>
-      <c r="AU53" s="102"/>
-      <c r="AV53" s="102"/>
-      <c r="AW53" s="102"/>
-      <c r="AX53" s="102"/>
-      <c r="AY53" s="102"/>
-      <c r="AZ53" s="102"/>
-      <c r="BA53" s="102"/>
-      <c r="BB53" s="102"/>
-      <c r="BC53" s="202"/>
+      <c r="AJ53" s="113"/>
+      <c r="AK53" s="113"/>
+      <c r="AL53" s="113"/>
+      <c r="AM53" s="113"/>
+      <c r="AN53" s="113"/>
+      <c r="AO53" s="113"/>
+      <c r="AP53" s="113"/>
+      <c r="AQ53" s="113"/>
+      <c r="AR53" s="113"/>
+      <c r="AS53" s="113"/>
+      <c r="AT53" s="113"/>
+      <c r="AU53" s="113"/>
+      <c r="AV53" s="113"/>
+      <c r="AW53" s="113"/>
+      <c r="AX53" s="113"/>
+      <c r="AY53" s="113"/>
+      <c r="AZ53" s="113"/>
+      <c r="BA53" s="113"/>
+      <c r="BB53" s="113"/>
+      <c r="BC53" s="114"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="197"/>
-      <c r="B54" s="197"/>
-      <c r="C54" s="197"/>
-      <c r="D54" s="197"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="197"/>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="197"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="197"/>
-      <c r="M54" s="197"/>
-      <c r="N54" s="197"/>
-      <c r="O54" s="197"/>
-      <c r="P54" s="197"/>
-      <c r="Q54" s="197"/>
-      <c r="R54" s="197"/>
-      <c r="S54" s="197"/>
-      <c r="T54" s="197"/>
-      <c r="U54" s="197"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="177"/>
-      <c r="X54" s="178"/>
-      <c r="Y54" s="178"/>
-      <c r="Z54" s="178"/>
-      <c r="AA54" s="178"/>
-      <c r="AB54" s="178"/>
-      <c r="AC54" s="178"/>
-      <c r="AD54" s="178"/>
-      <c r="AE54" s="178"/>
-      <c r="AF54" s="178"/>
-      <c r="AG54" s="179"/>
-      <c r="AI54" s="186" t="s">
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="89"/>
+      <c r="AC54" s="89"/>
+      <c r="AD54" s="89"/>
+      <c r="AE54" s="89"/>
+      <c r="AF54" s="89"/>
+      <c r="AG54" s="90"/>
+      <c r="AI54" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="187"/>
-      <c r="AK54" s="187"/>
-      <c r="AL54" s="187"/>
-      <c r="AM54" s="187"/>
-      <c r="AN54" s="187"/>
-      <c r="AO54" s="187"/>
-      <c r="AP54" s="187"/>
-      <c r="AQ54" s="187"/>
-      <c r="AR54" s="187"/>
-      <c r="AS54" s="187"/>
-      <c r="AT54" s="187"/>
-      <c r="AU54" s="187"/>
-      <c r="AV54" s="187"/>
-      <c r="AW54" s="187"/>
-      <c r="AX54" s="187"/>
-      <c r="AY54" s="187"/>
-      <c r="AZ54" s="187"/>
-      <c r="BA54" s="187"/>
-      <c r="BB54" s="187"/>
-      <c r="BC54" s="188"/>
+      <c r="AJ54" s="98"/>
+      <c r="AK54" s="98"/>
+      <c r="AL54" s="98"/>
+      <c r="AM54" s="98"/>
+      <c r="AN54" s="98"/>
+      <c r="AO54" s="98"/>
+      <c r="AP54" s="98"/>
+      <c r="AQ54" s="98"/>
+      <c r="AR54" s="98"/>
+      <c r="AS54" s="98"/>
+      <c r="AT54" s="98"/>
+      <c r="AU54" s="98"/>
+      <c r="AV54" s="98"/>
+      <c r="AW54" s="98"/>
+      <c r="AX54" s="98"/>
+      <c r="AY54" s="98"/>
+      <c r="AZ54" s="98"/>
+      <c r="BA54" s="98"/>
+      <c r="BB54" s="98"/>
+      <c r="BC54" s="99"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="181"/>
-      <c r="Y55" s="181"/>
-      <c r="Z55" s="181"/>
-      <c r="AA55" s="181"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="181"/>
-      <c r="AD55" s="181"/>
-      <c r="AE55" s="181"/>
-      <c r="AF55" s="181"/>
-      <c r="AG55" s="182"/>
-      <c r="AI55" s="189"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="190"/>
-      <c r="AR55" s="190"/>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="191"/>
+      <c r="W55" s="91"/>
+      <c r="X55" s="92"/>
+      <c r="Y55" s="92"/>
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="92"/>
+      <c r="AB55" s="92"/>
+      <c r="AC55" s="92"/>
+      <c r="AD55" s="92"/>
+      <c r="AE55" s="92"/>
+      <c r="AF55" s="92"/>
+      <c r="AG55" s="93"/>
+      <c r="AI55" s="100"/>
+      <c r="AJ55" s="101"/>
+      <c r="AK55" s="101"/>
+      <c r="AL55" s="101"/>
+      <c r="AM55" s="101"/>
+      <c r="AN55" s="101"/>
+      <c r="AO55" s="101"/>
+      <c r="AP55" s="101"/>
+      <c r="AQ55" s="101"/>
+      <c r="AR55" s="101"/>
+      <c r="AS55" s="101"/>
+      <c r="AT55" s="101"/>
+      <c r="AU55" s="101"/>
+      <c r="AV55" s="101"/>
+      <c r="AW55" s="101"/>
+      <c r="AX55" s="101"/>
+      <c r="AY55" s="101"/>
+      <c r="AZ55" s="101"/>
+      <c r="BA55" s="101"/>
+      <c r="BB55" s="101"/>
+      <c r="BC55" s="102"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="180"/>
-      <c r="X56" s="181"/>
-      <c r="Y56" s="181"/>
-      <c r="Z56" s="181"/>
-      <c r="AA56" s="181"/>
-      <c r="AB56" s="181"/>
-      <c r="AC56" s="181"/>
-      <c r="AD56" s="181"/>
-      <c r="AE56" s="181"/>
-      <c r="AF56" s="181"/>
-      <c r="AG56" s="182"/>
-      <c r="AI56" s="192" t="s">
+      <c r="W56" s="91"/>
+      <c r="X56" s="92"/>
+      <c r="Y56" s="92"/>
+      <c r="Z56" s="92"/>
+      <c r="AA56" s="92"/>
+      <c r="AB56" s="92"/>
+      <c r="AC56" s="92"/>
+      <c r="AD56" s="92"/>
+      <c r="AE56" s="92"/>
+      <c r="AF56" s="92"/>
+      <c r="AG56" s="93"/>
+      <c r="AI56" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="193"/>
-      <c r="AK56" s="193"/>
-      <c r="AL56" s="193"/>
-      <c r="AM56" s="193"/>
-      <c r="AN56" s="193"/>
-      <c r="AO56" s="193"/>
-      <c r="AP56" s="193"/>
-      <c r="AQ56" s="193"/>
-      <c r="AR56" s="193"/>
-      <c r="AS56" s="193"/>
-      <c r="AT56" s="193"/>
-      <c r="AU56" s="193"/>
-      <c r="AV56" s="193"/>
-      <c r="AW56" s="193"/>
-      <c r="AX56" s="193"/>
-      <c r="AY56" s="193"/>
-      <c r="AZ56" s="193"/>
-      <c r="BA56" s="193"/>
-      <c r="BB56" s="193"/>
-      <c r="BC56" s="194"/>
+      <c r="AJ56" s="104"/>
+      <c r="AK56" s="104"/>
+      <c r="AL56" s="104"/>
+      <c r="AM56" s="104"/>
+      <c r="AN56" s="104"/>
+      <c r="AO56" s="104"/>
+      <c r="AP56" s="104"/>
+      <c r="AQ56" s="104"/>
+      <c r="AR56" s="104"/>
+      <c r="AS56" s="104"/>
+      <c r="AT56" s="104"/>
+      <c r="AU56" s="104"/>
+      <c r="AV56" s="104"/>
+      <c r="AW56" s="104"/>
+      <c r="AX56" s="104"/>
+      <c r="AY56" s="104"/>
+      <c r="AZ56" s="104"/>
+      <c r="BA56" s="104"/>
+      <c r="BB56" s="104"/>
+      <c r="BC56" s="105"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7412,290 +7414,420 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="180"/>
-      <c r="X57" s="181"/>
-      <c r="Y57" s="181"/>
-      <c r="Z57" s="181"/>
-      <c r="AA57" s="181"/>
-      <c r="AB57" s="181"/>
-      <c r="AC57" s="181"/>
-      <c r="AD57" s="181"/>
-      <c r="AE57" s="181"/>
-      <c r="AF57" s="181"/>
-      <c r="AG57" s="182"/>
-      <c r="AI57" s="189"/>
-      <c r="AJ57" s="190"/>
-      <c r="AK57" s="190"/>
-      <c r="AL57" s="190"/>
-      <c r="AM57" s="190"/>
-      <c r="AN57" s="190"/>
-      <c r="AO57" s="190"/>
-      <c r="AP57" s="190"/>
-      <c r="AQ57" s="190"/>
-      <c r="AR57" s="190"/>
-      <c r="AS57" s="190"/>
-      <c r="AT57" s="190"/>
-      <c r="AU57" s="190"/>
-      <c r="AV57" s="190"/>
-      <c r="AW57" s="190"/>
-      <c r="AX57" s="190"/>
-      <c r="AY57" s="190"/>
-      <c r="AZ57" s="190"/>
-      <c r="BA57" s="190"/>
-      <c r="BB57" s="190"/>
-      <c r="BC57" s="191"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="92"/>
+      <c r="Y57" s="92"/>
+      <c r="Z57" s="92"/>
+      <c r="AA57" s="92"/>
+      <c r="AB57" s="92"/>
+      <c r="AC57" s="92"/>
+      <c r="AD57" s="92"/>
+      <c r="AE57" s="92"/>
+      <c r="AF57" s="92"/>
+      <c r="AG57" s="93"/>
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="101"/>
+      <c r="AK57" s="101"/>
+      <c r="AL57" s="101"/>
+      <c r="AM57" s="101"/>
+      <c r="AN57" s="101"/>
+      <c r="AO57" s="101"/>
+      <c r="AP57" s="101"/>
+      <c r="AQ57" s="101"/>
+      <c r="AR57" s="101"/>
+      <c r="AS57" s="101"/>
+      <c r="AT57" s="101"/>
+      <c r="AU57" s="101"/>
+      <c r="AV57" s="101"/>
+      <c r="AW57" s="101"/>
+      <c r="AX57" s="101"/>
+      <c r="AY57" s="101"/>
+      <c r="AZ57" s="101"/>
+      <c r="BA57" s="101"/>
+      <c r="BB57" s="101"/>
+      <c r="BC57" s="102"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="195" t="s">
+      <c r="B58" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="195"/>
-      <c r="D58" s="195"/>
-      <c r="E58" s="195"/>
-      <c r="F58" s="195"/>
-      <c r="G58" s="195"/>
-      <c r="H58" s="195"/>
-      <c r="I58" s="195"/>
-      <c r="J58" s="195"/>
-      <c r="K58" s="195"/>
-      <c r="L58" s="195"/>
-      <c r="M58" s="195"/>
-      <c r="N58" s="195"/>
-      <c r="O58" s="195"/>
-      <c r="W58" s="183"/>
-      <c r="X58" s="184"/>
-      <c r="Y58" s="184"/>
-      <c r="Z58" s="184"/>
-      <c r="AA58" s="184"/>
-      <c r="AB58" s="184"/>
-      <c r="AC58" s="184"/>
-      <c r="AD58" s="184"/>
-      <c r="AE58" s="184"/>
-      <c r="AF58" s="184"/>
-      <c r="AG58" s="185"/>
-      <c r="AI58" s="192" t="s">
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="95"/>
+      <c r="AF58" s="95"/>
+      <c r="AG58" s="96"/>
+      <c r="AI58" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="193"/>
-      <c r="AK58" s="193"/>
-      <c r="AL58" s="193"/>
-      <c r="AM58" s="193"/>
-      <c r="AN58" s="193"/>
-      <c r="AO58" s="193"/>
-      <c r="AP58" s="193"/>
-      <c r="AQ58" s="193"/>
-      <c r="AR58" s="193"/>
-      <c r="AS58" s="193"/>
-      <c r="AT58" s="193"/>
-      <c r="AU58" s="193"/>
-      <c r="AV58" s="193"/>
-      <c r="AW58" s="193"/>
-      <c r="AX58" s="193"/>
-      <c r="AY58" s="193"/>
-      <c r="AZ58" s="193"/>
-      <c r="BA58" s="193"/>
-      <c r="BB58" s="193"/>
-      <c r="BC58" s="194"/>
+      <c r="AJ58" s="104"/>
+      <c r="AK58" s="104"/>
+      <c r="AL58" s="104"/>
+      <c r="AM58" s="104"/>
+      <c r="AN58" s="104"/>
+      <c r="AO58" s="104"/>
+      <c r="AP58" s="104"/>
+      <c r="AQ58" s="104"/>
+      <c r="AR58" s="104"/>
+      <c r="AS58" s="104"/>
+      <c r="AT58" s="104"/>
+      <c r="AU58" s="104"/>
+      <c r="AV58" s="104"/>
+      <c r="AW58" s="104"/>
+      <c r="AX58" s="104"/>
+      <c r="AY58" s="104"/>
+      <c r="AZ58" s="104"/>
+      <c r="BA58" s="104"/>
+      <c r="BB58" s="104"/>
+      <c r="BC58" s="105"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="162"/>
-      <c r="G59" s="162"/>
-      <c r="H59" s="162"/>
-      <c r="I59" s="162"/>
-      <c r="J59" s="162"/>
-      <c r="K59" s="162"/>
-      <c r="L59" s="162"/>
-      <c r="M59" s="162"/>
-      <c r="N59" s="162"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="163" t="s">
+      <c r="S59" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="163"/>
-      <c r="U59" s="163"/>
-      <c r="V59" s="163"/>
-      <c r="W59" s="163"/>
-      <c r="X59" s="163"/>
-      <c r="Y59" s="163"/>
-      <c r="Z59" s="163"/>
-      <c r="AA59" s="163"/>
-      <c r="AB59" s="163"/>
-      <c r="AC59" s="163"/>
-      <c r="AD59" s="163"/>
-      <c r="AE59" s="163"/>
-      <c r="AI59" s="164"/>
-      <c r="AJ59" s="165"/>
-      <c r="AK59" s="165"/>
-      <c r="AL59" s="165"/>
-      <c r="AM59" s="165"/>
-      <c r="AN59" s="165"/>
-      <c r="AO59" s="165"/>
-      <c r="AP59" s="165"/>
-      <c r="AQ59" s="165"/>
-      <c r="AR59" s="165"/>
-      <c r="AS59" s="165"/>
-      <c r="AT59" s="165"/>
-      <c r="AU59" s="165"/>
-      <c r="AV59" s="165"/>
-      <c r="AW59" s="165"/>
-      <c r="AX59" s="165"/>
-      <c r="AY59" s="165"/>
-      <c r="AZ59" s="165"/>
-      <c r="BA59" s="165"/>
-      <c r="BB59" s="165"/>
-      <c r="BC59" s="166"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AI59" s="75"/>
+      <c r="AJ59" s="76"/>
+      <c r="AK59" s="76"/>
+      <c r="AL59" s="76"/>
+      <c r="AM59" s="76"/>
+      <c r="AN59" s="76"/>
+      <c r="AO59" s="76"/>
+      <c r="AP59" s="76"/>
+      <c r="AQ59" s="76"/>
+      <c r="AR59" s="76"/>
+      <c r="AS59" s="76"/>
+      <c r="AT59" s="76"/>
+      <c r="AU59" s="76"/>
+      <c r="AV59" s="76"/>
+      <c r="AW59" s="76"/>
+      <c r="AX59" s="76"/>
+      <c r="AY59" s="76"/>
+      <c r="AZ59" s="76"/>
+      <c r="BA59" s="76"/>
+      <c r="BB59" s="76"/>
+      <c r="BC59" s="77"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="162"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="162"/>
-      <c r="H60" s="162"/>
-      <c r="I60" s="162"/>
-      <c r="J60" s="162"/>
-      <c r="K60" s="162"/>
-      <c r="L60" s="162"/>
-      <c r="M60" s="162"/>
-      <c r="N60" s="162"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="163"/>
-      <c r="T60" s="163"/>
-      <c r="U60" s="163"/>
-      <c r="V60" s="163"/>
-      <c r="W60" s="163"/>
-      <c r="X60" s="163"/>
-      <c r="Y60" s="163"/>
-      <c r="Z60" s="163"/>
-      <c r="AA60" s="163"/>
-      <c r="AB60" s="163"/>
-      <c r="AC60" s="163"/>
-      <c r="AD60" s="163"/>
-      <c r="AE60" s="163"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="74"/>
+      <c r="W60" s="74"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="74"/>
+      <c r="AE60" s="74"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="162"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="162"/>
-      <c r="K61" s="162"/>
-      <c r="L61" s="162"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="162"/>
-      <c r="S61" s="163"/>
-      <c r="T61" s="163"/>
-      <c r="U61" s="163"/>
-      <c r="V61" s="163"/>
-      <c r="W61" s="163"/>
-      <c r="X61" s="163"/>
-      <c r="Y61" s="163"/>
-      <c r="Z61" s="163"/>
-      <c r="AA61" s="163"/>
-      <c r="AB61" s="163"/>
-      <c r="AC61" s="163"/>
-      <c r="AD61" s="163"/>
-      <c r="AE61" s="163"/>
-      <c r="AI61" s="167" t="s">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="74"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="74"/>
+      <c r="AA61" s="74"/>
+      <c r="AB61" s="74"/>
+      <c r="AC61" s="74"/>
+      <c r="AD61" s="74"/>
+      <c r="AE61" s="74"/>
+      <c r="AI61" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="167"/>
-      <c r="AK61" s="167"/>
-      <c r="AL61" s="167"/>
-      <c r="AM61" s="167"/>
-      <c r="AN61" s="167"/>
-      <c r="AO61" s="167"/>
-      <c r="AP61" s="167"/>
-      <c r="AQ61" s="167"/>
-      <c r="AR61" s="167"/>
-      <c r="AS61" s="167"/>
-      <c r="AT61" s="167"/>
-      <c r="AU61" s="169">
+      <c r="AJ61" s="78"/>
+      <c r="AK61" s="78"/>
+      <c r="AL61" s="78"/>
+      <c r="AM61" s="78"/>
+      <c r="AN61" s="78"/>
+      <c r="AO61" s="78"/>
+      <c r="AP61" s="78"/>
+      <c r="AQ61" s="78"/>
+      <c r="AR61" s="78"/>
+      <c r="AS61" s="78"/>
+      <c r="AT61" s="78"/>
+      <c r="AU61" s="80">
         <v>0</v>
       </c>
-      <c r="AV61" s="170"/>
-      <c r="AW61" s="170"/>
-      <c r="AX61" s="170"/>
-      <c r="AY61" s="170"/>
-      <c r="AZ61" s="170"/>
-      <c r="BA61" s="170"/>
-      <c r="BB61" s="170"/>
-      <c r="BC61" s="171"/>
+      <c r="AV61" s="81"/>
+      <c r="AW61" s="81"/>
+      <c r="AX61" s="81"/>
+      <c r="AY61" s="81"/>
+      <c r="AZ61" s="81"/>
+      <c r="BA61" s="81"/>
+      <c r="BB61" s="81"/>
+      <c r="BC61" s="82"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="175" t="s">
+      <c r="B62" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="175"/>
-      <c r="D62" s="175"/>
-      <c r="E62" s="175"/>
-      <c r="F62" s="175"/>
-      <c r="G62" s="175"/>
-      <c r="H62" s="175"/>
-      <c r="I62" s="175"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="175"/>
-      <c r="L62" s="175"/>
-      <c r="M62" s="175"/>
-      <c r="N62" s="175"/>
-      <c r="S62" s="176" t="s">
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
+      <c r="S62" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="176"/>
-      <c r="U62" s="176"/>
-      <c r="V62" s="176"/>
-      <c r="W62" s="176"/>
-      <c r="X62" s="176"/>
-      <c r="Y62" s="176"/>
-      <c r="Z62" s="176"/>
-      <c r="AA62" s="176"/>
-      <c r="AB62" s="176"/>
-      <c r="AC62" s="176"/>
-      <c r="AD62" s="176"/>
-      <c r="AE62" s="176"/>
-      <c r="AI62" s="168"/>
-      <c r="AJ62" s="168"/>
-      <c r="AK62" s="168"/>
-      <c r="AL62" s="168"/>
-      <c r="AM62" s="168"/>
-      <c r="AN62" s="168"/>
-      <c r="AO62" s="168"/>
-      <c r="AP62" s="168"/>
-      <c r="AQ62" s="168"/>
-      <c r="AR62" s="168"/>
-      <c r="AS62" s="168"/>
-      <c r="AT62" s="168"/>
-      <c r="AU62" s="172"/>
-      <c r="AV62" s="173"/>
-      <c r="AW62" s="173"/>
-      <c r="AX62" s="173"/>
-      <c r="AY62" s="173"/>
-      <c r="AZ62" s="173"/>
-      <c r="BA62" s="173"/>
-      <c r="BB62" s="173"/>
-      <c r="BC62" s="174"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="87"/>
+      <c r="V62" s="87"/>
+      <c r="W62" s="87"/>
+      <c r="X62" s="87"/>
+      <c r="Y62" s="87"/>
+      <c r="Z62" s="87"/>
+      <c r="AA62" s="87"/>
+      <c r="AB62" s="87"/>
+      <c r="AC62" s="87"/>
+      <c r="AD62" s="87"/>
+      <c r="AE62" s="87"/>
+      <c r="AI62" s="79"/>
+      <c r="AJ62" s="79"/>
+      <c r="AK62" s="79"/>
+      <c r="AL62" s="79"/>
+      <c r="AM62" s="79"/>
+      <c r="AN62" s="79"/>
+      <c r="AO62" s="79"/>
+      <c r="AP62" s="79"/>
+      <c r="AQ62" s="79"/>
+      <c r="AR62" s="79"/>
+      <c r="AS62" s="79"/>
+      <c r="AT62" s="79"/>
+      <c r="AU62" s="83"/>
+      <c r="AV62" s="84"/>
+      <c r="AW62" s="84"/>
+      <c r="AX62" s="84"/>
+      <c r="AY62" s="84"/>
+      <c r="AZ62" s="84"/>
+      <c r="BA62" s="84"/>
+      <c r="BB62" s="84"/>
+      <c r="BC62" s="85"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="151">
+  <mergeCells count="154">
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="AW6:BC6"/>
+    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="AM8:AV8"/>
+    <mergeCell ref="AM6:AV6"/>
+    <mergeCell ref="AM4:AV4"/>
+    <mergeCell ref="AY25:BC26"/>
+    <mergeCell ref="AM34:BC34"/>
+    <mergeCell ref="AM25:AQ26"/>
+    <mergeCell ref="AR25:AX26"/>
+    <mergeCell ref="AT14:BC14"/>
+    <mergeCell ref="AM27:BC33"/>
+    <mergeCell ref="AL24:AL32"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="A34:AK34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J35:AK35"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A33:AK33"/>
+    <mergeCell ref="AM20:BC21"/>
+    <mergeCell ref="AY24:BC24"/>
+    <mergeCell ref="A29:AK29"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AT15:BC15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="I15:AA15"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="AO16:BC16"/>
+    <mergeCell ref="AO17:BC17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="Z1:BC1"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="AM19:BC19"/>
+    <mergeCell ref="AM23:BC23"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AL14:AS14"/>
+    <mergeCell ref="AL15:AS15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="P11:W11"/>
+    <mergeCell ref="AM12:BC12"/>
+    <mergeCell ref="AM10:BC11"/>
+    <mergeCell ref="A1:N11"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AS13:BC13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A13:AR13"/>
+    <mergeCell ref="I14:AA14"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="A19:AK19"/>
+    <mergeCell ref="S32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="A27:R28"/>
+    <mergeCell ref="N21:V21"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="N23:V23"/>
+    <mergeCell ref="N24:V24"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="B59:N61"/>
+    <mergeCell ref="S59:AE61"/>
+    <mergeCell ref="AI59:BC59"/>
+    <mergeCell ref="AI61:AT62"/>
+    <mergeCell ref="AU61:BC62"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="S62:AE62"/>
+    <mergeCell ref="W54:AG58"/>
+    <mergeCell ref="AI54:BC54"/>
+    <mergeCell ref="AI55:BC55"/>
+    <mergeCell ref="AI56:BC56"/>
+    <mergeCell ref="AI57:BC57"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="AI58:BC58"/>
+    <mergeCell ref="A52:U54"/>
+    <mergeCell ref="W53:AG53"/>
+    <mergeCell ref="AI53:BC53"/>
     <mergeCell ref="J49:S49"/>
     <mergeCell ref="T48:AB48"/>
     <mergeCell ref="T49:AB49"/>
@@ -7720,133 +7852,6 @@
     <mergeCell ref="V42:Z42"/>
     <mergeCell ref="L36:O36"/>
     <mergeCell ref="L41:O41"/>
-    <mergeCell ref="B59:N61"/>
-    <mergeCell ref="S59:AE61"/>
-    <mergeCell ref="AI59:BC59"/>
-    <mergeCell ref="AI61:AT62"/>
-    <mergeCell ref="AU61:BC62"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="S62:AE62"/>
-    <mergeCell ref="W54:AG58"/>
-    <mergeCell ref="AI54:BC54"/>
-    <mergeCell ref="AI55:BC55"/>
-    <mergeCell ref="AI56:BC56"/>
-    <mergeCell ref="AI57:BC57"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="AI58:BC58"/>
-    <mergeCell ref="A52:U54"/>
-    <mergeCell ref="W53:AG53"/>
-    <mergeCell ref="AI53:BC53"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="A19:AK19"/>
-    <mergeCell ref="S32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="A27:R28"/>
-    <mergeCell ref="N21:V21"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="N23:V23"/>
-    <mergeCell ref="N24:V24"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="Z1:BC1"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="AM19:BC19"/>
-    <mergeCell ref="AM23:BC23"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AL14:AS14"/>
-    <mergeCell ref="AL15:AS15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="AM12:BC12"/>
-    <mergeCell ref="AM10:BC11"/>
-    <mergeCell ref="A1:N11"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AS13:BC13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A13:AR13"/>
-    <mergeCell ref="I14:AA14"/>
-    <mergeCell ref="A33:AK33"/>
-    <mergeCell ref="AM20:BC21"/>
-    <mergeCell ref="AY24:BC24"/>
-    <mergeCell ref="A29:AK29"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AT15:BC15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="I15:AA15"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="S27:AB27"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="AO16:BC16"/>
-    <mergeCell ref="AO17:BC17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="A34:AK34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="AW6:BC6"/>
-    <mergeCell ref="AG2:BC2"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="AM8:AV8"/>
-    <mergeCell ref="AM6:AV6"/>
-    <mergeCell ref="AM4:AV4"/>
-    <mergeCell ref="AY25:BC26"/>
-    <mergeCell ref="AM34:BC34"/>
-    <mergeCell ref="AM25:AQ26"/>
-    <mergeCell ref="AR25:AX26"/>
-    <mergeCell ref="AT14:BC14"/>
-    <mergeCell ref="AM27:BC33"/>
-    <mergeCell ref="AL24:AL32"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="W26:AB26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>

--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -154,9 +154,6 @@
     <t>Consumo ultimos 6 meses</t>
   </si>
   <si>
-    <t>Julio</t>
-  </si>
-  <si>
     <t>Agosto</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     </r>
   </si>
   <si>
-    <t>COMPORTAMIENTO DE CONSUMO GENERAL</t>
-  </si>
-  <si>
     <t>Aportes por administración de acueducto comunitario</t>
   </si>
   <si>
@@ -263,6 +257,12 @@
   <si>
     <t>Apreciado usuario,
 Le informamos que la ventanilla de recaudo estara abierta el dia domingo 06 de noviembre de 8 am a 4 pm jornada continua</t>
+  </si>
+  <si>
+    <t>enero</t>
+  </si>
+  <si>
+    <t>COMPORTAMIENTO DE CONSUMO GENERAL M3</t>
   </si>
 </sst>
 </file>
@@ -1784,6 +1784,490 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1874,493 +2358,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2487,22 +2487,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agosto</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Septiembre</c:v>
+                  <c:v>octubre</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>octubre</c:v>
+                  <c:v>noviembre</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>noviembre</c:v>
+                  <c:v>diciembre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>diciembre</c:v>
+                  <c:v>enero</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2511,25 +2511,25 @@
             <c:numRef>
               <c:f>'001-044-78055'!$P$36:$P$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>29.8</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0">
                   <c:v>34.799999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2" formatCode="General">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3" formatCode="General">
                   <c:v>28.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4" formatCode="General">
                   <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>36.200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,22 +2637,22 @@
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Julio</c:v>
+                        <c:v>Agosto</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Agosto</c:v>
+                        <c:v>Septiembre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Septiembre</c:v>
+                        <c:v>octubre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>octubre</c:v>
+                        <c:v>noviembre</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>noviembre</c:v>
+                        <c:v>diciembre</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>diciembre</c:v>
+                        <c:v>enero</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2752,7 +2752,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'001-044-78055'!$L$36:$L$41</c15:sqref>
@@ -2762,29 +2762,29 @@
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Julio</c:v>
+                        <c:v>Agosto</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Agosto</c:v>
+                        <c:v>Septiembre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Septiembre</c:v>
+                        <c:v>octubre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>octubre</c:v>
+                        <c:v>noviembre</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>noviembre</c:v>
+                        <c:v>diciembre</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>diciembre</c:v>
+                        <c:v>enero</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'001-044-78055'!$N$36:$N$41</c15:sqref>
@@ -2877,7 +2877,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'001-044-78055'!$L$36:$L$41</c15:sqref>
@@ -2887,29 +2887,29 @@
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Julio</c:v>
+                        <c:v>Agosto</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Agosto</c:v>
+                        <c:v>Septiembre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Septiembre</c:v>
+                        <c:v>octubre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>octubre</c:v>
+                        <c:v>noviembre</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>noviembre</c:v>
+                        <c:v>diciembre</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>diciembre</c:v>
+                        <c:v>enero</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'001-044-78055'!$O$36:$O$41</c15:sqref>
@@ -3955,16 +3955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>36575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102518</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>154694</xdr:rowOff>
+      <xdr:rowOff>169349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>117534</xdr:colOff>
+      <xdr:colOff>36938</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>113307</xdr:rowOff>
+      <xdr:rowOff>127962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4251,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:AK44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:AK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4271,22 +4271,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4298,54 +4298,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
-      <c r="AX1" s="134"/>
-      <c r="AY1" s="134"/>
-      <c r="AZ1" s="134"/>
-      <c r="BA1" s="134"/>
-      <c r="BB1" s="134"/>
-      <c r="BC1" s="134"/>
+      <c r="Z1" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4363,47 +4363,47 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="210" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="210"/>
-      <c r="AJ2" s="210"/>
-      <c r="AK2" s="210"/>
-      <c r="AL2" s="210"/>
-      <c r="AM2" s="210"/>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="210"/>
-      <c r="AT2" s="210"/>
-      <c r="AU2" s="210"/>
-      <c r="AV2" s="210"/>
-      <c r="AW2" s="210"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="210"/>
-      <c r="BA2" s="210"/>
-      <c r="BB2" s="210"/>
-      <c r="BC2" s="210"/>
+      <c r="AG2" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -4439,20 +4439,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4475,41 +4475,41 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="158" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" s="153"/>
-      <c r="AO4" s="153"/>
-      <c r="AP4" s="153"/>
-      <c r="AQ4" s="153"/>
-      <c r="AR4" s="153"/>
-      <c r="AS4" s="153"/>
-      <c r="AT4" s="153"/>
-      <c r="AU4" s="153"/>
-      <c r="AV4" s="214"/>
-      <c r="AW4" s="211"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="212"/>
-      <c r="BA4" s="212"/>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="213"/>
+      <c r="AM4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="48"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -4544,20 +4544,20 @@
       <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4581,52 +4581,52 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="158" t="s">
+      <c r="AM6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="153"/>
-      <c r="AO6" s="153"/>
-      <c r="AP6" s="153"/>
-      <c r="AQ6" s="153"/>
-      <c r="AR6" s="153"/>
-      <c r="AS6" s="153"/>
-      <c r="AT6" s="153"/>
-      <c r="AU6" s="153"/>
-      <c r="AV6" s="214"/>
-      <c r="AW6" s="207"/>
-      <c r="AX6" s="208"/>
-      <c r="AY6" s="208"/>
-      <c r="AZ6" s="208"/>
-      <c r="BA6" s="208"/>
-      <c r="BB6" s="208"/>
-      <c r="BC6" s="209"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="44"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="161"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="154"/>
+      <c r="P7" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="136"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -4646,31 +4646,31 @@
       <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="155">
+      <c r="P8" s="137">
         <v>1</v>
       </c>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="157"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="139"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4679,41 +4679,41 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="158" t="s">
+      <c r="AM8" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="153"/>
-      <c r="AO8" s="153"/>
-      <c r="AP8" s="153"/>
-      <c r="AQ8" s="153"/>
-      <c r="AR8" s="153"/>
-      <c r="AS8" s="153"/>
-      <c r="AT8" s="153"/>
-      <c r="AU8" s="153"/>
-      <c r="AV8" s="214"/>
-      <c r="AW8" s="207"/>
-      <c r="AX8" s="208"/>
-      <c r="AY8" s="208"/>
-      <c r="AZ8" s="208"/>
-      <c r="BA8" s="208"/>
-      <c r="BB8" s="208"/>
-      <c r="BC8" s="209"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="43"/>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="44"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
       <c r="O9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -4724,31 +4724,31 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="161"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="31"/>
-      <c r="P10" s="158" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
+      <c r="P10" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
@@ -4757,50 +4757,50 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
-      <c r="AM10" s="160" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="160"/>
-      <c r="AZ10" s="160"/>
-      <c r="BA10" s="160"/>
-      <c r="BB10" s="160"/>
-      <c r="BC10" s="160"/>
+      <c r="AM10" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="68"/>
+      <c r="AT10" s="68"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -4809,23 +4809,23 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AM11" s="160"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="160"/>
-      <c r="AR11" s="160"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="160"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
-      <c r="AX11" s="160"/>
-      <c r="AY11" s="160"/>
-      <c r="AZ11" s="160"/>
-      <c r="BA11" s="160"/>
-      <c r="BB11" s="160"/>
-      <c r="BC11" s="160"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="32"/>
@@ -4851,336 +4851,336 @@
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="159" t="s">
+      <c r="AM12" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="159"/>
-      <c r="AQ12" s="159"/>
-      <c r="AR12" s="159"/>
-      <c r="AS12" s="159"/>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="159"/>
-      <c r="AX12" s="159"/>
-      <c r="AY12" s="159"/>
-      <c r="AZ12" s="159"/>
-      <c r="BA12" s="159"/>
-      <c r="BB12" s="159"/>
-      <c r="BC12" s="159"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="140"/>
+      <c r="AP12" s="140"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="140"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="140"/>
+      <c r="AU12" s="140"/>
+      <c r="AV12" s="140"/>
+      <c r="AW12" s="140"/>
+      <c r="AX12" s="140"/>
+      <c r="AY12" s="140"/>
+      <c r="AZ12" s="140"/>
+      <c r="BA12" s="140"/>
+      <c r="BB12" s="140"/>
+      <c r="BC12" s="140"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="166"/>
-      <c r="AL13" s="166"/>
-      <c r="AM13" s="166"/>
-      <c r="AN13" s="166"/>
-      <c r="AO13" s="166"/>
-      <c r="AP13" s="166"/>
-      <c r="AQ13" s="166"/>
-      <c r="AR13" s="166"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="162"/>
-      <c r="AU13" s="162"/>
-      <c r="AV13" s="162"/>
-      <c r="AW13" s="162"/>
-      <c r="AX13" s="162"/>
-      <c r="AY13" s="162"/>
-      <c r="AZ13" s="162"/>
-      <c r="BA13" s="162"/>
-      <c r="BB13" s="162"/>
-      <c r="BC13" s="163"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="146"/>
+      <c r="AG13" s="146"/>
+      <c r="AH13" s="146"/>
+      <c r="AI13" s="146"/>
+      <c r="AJ13" s="146"/>
+      <c r="AK13" s="146"/>
+      <c r="AL13" s="146"/>
+      <c r="AM13" s="146"/>
+      <c r="AN13" s="146"/>
+      <c r="AO13" s="146"/>
+      <c r="AP13" s="146"/>
+      <c r="AQ13" s="146"/>
+      <c r="AR13" s="146"/>
+      <c r="AS13" s="142"/>
+      <c r="AT13" s="142"/>
+      <c r="AU13" s="142"/>
+      <c r="AV13" s="142"/>
+      <c r="AW13" s="142"/>
+      <c r="AX13" s="142"/>
+      <c r="AY13" s="142"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="142"/>
+      <c r="BB13" s="142"/>
+      <c r="BC13" s="143"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="147" t="s">
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="147"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="135" t="s">
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="135"/>
-      <c r="AL14" s="147" t="s">
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM14" s="133"/>
+      <c r="AN14" s="133"/>
+      <c r="AO14" s="133"/>
+      <c r="AP14" s="133"/>
+      <c r="AQ14" s="133"/>
+      <c r="AR14" s="133"/>
+      <c r="AS14" s="133"/>
+      <c r="AT14" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="147"/>
-      <c r="AN14" s="147"/>
-      <c r="AO14" s="147"/>
-      <c r="AP14" s="147"/>
-      <c r="AQ14" s="147"/>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="147"/>
-      <c r="AT14" s="135" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU14" s="135"/>
-      <c r="AV14" s="135"/>
-      <c r="AW14" s="135"/>
-      <c r="AX14" s="135"/>
-      <c r="AY14" s="135"/>
-      <c r="AZ14" s="135"/>
-      <c r="BA14" s="135"/>
-      <c r="BB14" s="135"/>
-      <c r="BC14" s="226"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="65"/>
+      <c r="BC14" s="66"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="164"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="148"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="148"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="148"/>
-      <c r="AM15" s="148"/>
-      <c r="AN15" s="148"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="148"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="148"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="148"/>
-      <c r="AX15" s="148"/>
-      <c r="AY15" s="148"/>
-      <c r="AZ15" s="148"/>
-      <c r="BA15" s="148"/>
-      <c r="BB15" s="148"/>
-      <c r="BC15" s="180"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="105"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="105"/>
+      <c r="BA15" s="105"/>
+      <c r="BB15" s="105"/>
+      <c r="BC15" s="106"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="135" t="s">
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="150"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="135" t="s">
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="135"/>
-      <c r="AL16" s="135" t="s">
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="135"/>
-      <c r="AN16" s="193"/>
-      <c r="AO16" s="188" t="s">
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="189"/>
-      <c r="AQ16" s="189"/>
-      <c r="AR16" s="189"/>
-      <c r="AS16" s="189"/>
-      <c r="AT16" s="189"/>
-      <c r="AU16" s="189"/>
-      <c r="AV16" s="189"/>
-      <c r="AW16" s="189"/>
-      <c r="AX16" s="189"/>
-      <c r="AY16" s="189"/>
-      <c r="AZ16" s="189"/>
-      <c r="BA16" s="189"/>
-      <c r="BB16" s="189"/>
-      <c r="BC16" s="190"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
+      <c r="AY16" s="118"/>
+      <c r="AZ16" s="118"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="118"/>
+      <c r="BC16" s="119"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="187"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="145"/>
-      <c r="AN17" s="146"/>
-      <c r="AO17" s="191"/>
-      <c r="AP17" s="187"/>
-      <c r="AQ17" s="187"/>
-      <c r="AR17" s="187"/>
-      <c r="AS17" s="187"/>
-      <c r="AT17" s="187"/>
-      <c r="AU17" s="187"/>
-      <c r="AV17" s="187"/>
-      <c r="AW17" s="187"/>
-      <c r="AX17" s="187"/>
-      <c r="AY17" s="187"/>
-      <c r="AZ17" s="187"/>
-      <c r="BA17" s="187"/>
-      <c r="BB17" s="187"/>
-      <c r="BC17" s="192"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="131"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="132"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="116"/>
+      <c r="AQ17" s="116"/>
+      <c r="AR17" s="116"/>
+      <c r="AS17" s="116"/>
+      <c r="AT17" s="116"/>
+      <c r="AU17" s="116"/>
+      <c r="AV17" s="116"/>
+      <c r="AW17" s="116"/>
+      <c r="AX17" s="116"/>
+      <c r="AY17" s="116"/>
+      <c r="AZ17" s="116"/>
+      <c r="BA17" s="116"/>
+      <c r="BB17" s="116"/>
+      <c r="BC17" s="121"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5196,19 +5196,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="115"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="115"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5222,686 +5222,686 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="118"/>
-      <c r="AM19" s="138" t="s">
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="150"/>
+      <c r="AM19" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="139"/>
-      <c r="AO19" s="139"/>
-      <c r="AP19" s="139"/>
-      <c r="AQ19" s="139"/>
-      <c r="AR19" s="139"/>
-      <c r="AS19" s="139"/>
-      <c r="AT19" s="139"/>
-      <c r="AU19" s="139"/>
-      <c r="AV19" s="139"/>
-      <c r="AW19" s="139"/>
-      <c r="AX19" s="139"/>
-      <c r="AY19" s="139"/>
-      <c r="AZ19" s="139"/>
-      <c r="BA19" s="139"/>
-      <c r="BB19" s="139"/>
-      <c r="BC19" s="140"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="126"/>
+      <c r="AP19" s="126"/>
+      <c r="AQ19" s="126"/>
+      <c r="AR19" s="126"/>
+      <c r="AS19" s="126"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="126"/>
+      <c r="AV19" s="126"/>
+      <c r="AW19" s="126"/>
+      <c r="AX19" s="126"/>
+      <c r="AY19" s="126"/>
+      <c r="AZ19" s="126"/>
+      <c r="BA19" s="126"/>
+      <c r="BB19" s="126"/>
+      <c r="BC19" s="127"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122" t="s">
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122" t="s">
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="151"/>
-      <c r="AM20" s="168"/>
-      <c r="AN20" s="169"/>
-      <c r="AO20" s="169"/>
-      <c r="AP20" s="169"/>
-      <c r="AQ20" s="169"/>
-      <c r="AR20" s="169"/>
-      <c r="AS20" s="169"/>
-      <c r="AT20" s="169"/>
-      <c r="AU20" s="169"/>
-      <c r="AV20" s="169"/>
-      <c r="AW20" s="169"/>
-      <c r="AX20" s="169"/>
-      <c r="AY20" s="169"/>
-      <c r="AZ20" s="169"/>
-      <c r="BA20" s="169"/>
-      <c r="BB20" s="169"/>
-      <c r="BC20" s="170"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="123"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="123"/>
+      <c r="AJ20" s="123"/>
+      <c r="AK20" s="134"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="93"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="94"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="230"/>
-      <c r="Z21" s="230"/>
-      <c r="AA21" s="230"/>
-      <c r="AB21" s="230"/>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="123"/>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="123"/>
-      <c r="AH21" s="123"/>
-      <c r="AI21" s="123"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="124"/>
-      <c r="AM21" s="171"/>
-      <c r="AN21" s="172"/>
-      <c r="AO21" s="172"/>
-      <c r="AP21" s="172"/>
-      <c r="AQ21" s="172"/>
-      <c r="AR21" s="172"/>
-      <c r="AS21" s="172"/>
-      <c r="AT21" s="172"/>
-      <c r="AU21" s="172"/>
-      <c r="AV21" s="172"/>
-      <c r="AW21" s="172"/>
-      <c r="AX21" s="172"/>
-      <c r="AY21" s="172"/>
-      <c r="AZ21" s="172"/>
-      <c r="BA21" s="172"/>
-      <c r="BB21" s="172"/>
-      <c r="BC21" s="173"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="73"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="74"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="96"/>
+      <c r="AP21" s="96"/>
+      <c r="AQ21" s="96"/>
+      <c r="AR21" s="96"/>
+      <c r="AS21" s="96"/>
+      <c r="AT21" s="96"/>
+      <c r="AU21" s="96"/>
+      <c r="AV21" s="96"/>
+      <c r="AW21" s="96"/>
+      <c r="AX21" s="96"/>
+      <c r="AY21" s="96"/>
+      <c r="AZ21" s="96"/>
+      <c r="BA21" s="96"/>
+      <c r="BB21" s="96"/>
+      <c r="BC21" s="97"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="231"/>
-      <c r="X22" s="231"/>
-      <c r="Y22" s="231"/>
-      <c r="Z22" s="231"/>
-      <c r="AA22" s="231"/>
-      <c r="AB22" s="231"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="123"/>
-      <c r="AE22" s="123"/>
-      <c r="AF22" s="123"/>
-      <c r="AG22" s="123"/>
-      <c r="AH22" s="123"/>
-      <c r="AI22" s="123"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="124"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="74"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="130"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="231"/>
-      <c r="X23" s="231"/>
-      <c r="Y23" s="231"/>
-      <c r="Z23" s="231"/>
-      <c r="AA23" s="231"/>
-      <c r="AB23" s="231"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="123"/>
-      <c r="AF23" s="123"/>
-      <c r="AG23" s="123"/>
-      <c r="AH23" s="123"/>
-      <c r="AI23" s="123"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="124"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="74"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="141" t="s">
+      <c r="AM23" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="142"/>
-      <c r="AO23" s="142"/>
-      <c r="AP23" s="142"/>
-      <c r="AQ23" s="142"/>
-      <c r="AR23" s="142"/>
-      <c r="AS23" s="142"/>
-      <c r="AT23" s="142"/>
-      <c r="AU23" s="142"/>
-      <c r="AV23" s="142"/>
-      <c r="AW23" s="142"/>
-      <c r="AX23" s="142"/>
-      <c r="AY23" s="142"/>
-      <c r="AZ23" s="142"/>
-      <c r="BA23" s="142"/>
-      <c r="BB23" s="142"/>
-      <c r="BC23" s="143"/>
+      <c r="AN23" s="129"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="129"/>
+      <c r="AQ23" s="129"/>
+      <c r="AR23" s="129"/>
+      <c r="AS23" s="129"/>
+      <c r="AT23" s="129"/>
+      <c r="AU23" s="129"/>
+      <c r="AV23" s="129"/>
+      <c r="AW23" s="129"/>
+      <c r="AX23" s="129"/>
+      <c r="AY23" s="129"/>
+      <c r="AZ23" s="129"/>
+      <c r="BA23" s="129"/>
+      <c r="BB23" s="129"/>
+      <c r="BC23" s="130"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="130"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="231"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="231"/>
-      <c r="AA24" s="231"/>
-      <c r="AB24" s="231"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="123"/>
-      <c r="AF24" s="123"/>
-      <c r="AG24" s="123"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="123"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="229"/>
-      <c r="AM24" s="181" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="70"/>
+      <c r="AM24" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="182"/>
-      <c r="AO24" s="182"/>
-      <c r="AP24" s="182"/>
-      <c r="AQ24" s="182"/>
-      <c r="AR24" s="183" t="s">
+      <c r="AN24" s="110"/>
+      <c r="AO24" s="110"/>
+      <c r="AP24" s="110"/>
+      <c r="AQ24" s="110"/>
+      <c r="AR24" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="183"/>
-      <c r="AT24" s="183"/>
-      <c r="AU24" s="183"/>
-      <c r="AV24" s="183"/>
-      <c r="AW24" s="183"/>
-      <c r="AX24" s="183"/>
-      <c r="AY24" s="174" t="s">
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="174"/>
-      <c r="BA24" s="174"/>
-      <c r="BB24" s="174"/>
-      <c r="BC24" s="175"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
+      <c r="BC24" s="99"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="130"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="231"/>
-      <c r="AA25" s="231"/>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="123"/>
-      <c r="AJ25" s="123"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="229"/>
-      <c r="AM25" s="222"/>
-      <c r="AN25" s="223"/>
-      <c r="AO25" s="223"/>
-      <c r="AP25" s="223"/>
-      <c r="AQ25" s="223"/>
-      <c r="AR25" s="224"/>
-      <c r="AS25" s="224"/>
-      <c r="AT25" s="224"/>
-      <c r="AU25" s="224"/>
-      <c r="AV25" s="224"/>
-      <c r="AW25" s="224"/>
-      <c r="AX25" s="224"/>
-      <c r="AY25" s="215"/>
-      <c r="AZ25" s="215"/>
-      <c r="BA25" s="215"/>
-      <c r="BB25" s="215"/>
-      <c r="BC25" s="216"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="70"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="53"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="232"/>
-      <c r="X26" s="232"/>
-      <c r="Y26" s="232"/>
-      <c r="Z26" s="232"/>
-      <c r="AA26" s="232"/>
-      <c r="AB26" s="232"/>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="123"/>
-      <c r="AF26" s="123"/>
-      <c r="AG26" s="123"/>
-      <c r="AH26" s="123"/>
-      <c r="AI26" s="123"/>
-      <c r="AJ26" s="123"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="136"/>
-      <c r="AN26" s="137"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="137"/>
-      <c r="AQ26" s="137"/>
-      <c r="AR26" s="225"/>
-      <c r="AS26" s="225"/>
-      <c r="AT26" s="225"/>
-      <c r="AU26" s="225"/>
-      <c r="AV26" s="225"/>
-      <c r="AW26" s="225"/>
-      <c r="AX26" s="225"/>
-      <c r="AY26" s="217"/>
-      <c r="AZ26" s="217"/>
-      <c r="BA26" s="217"/>
-      <c r="BB26" s="217"/>
-      <c r="BC26" s="218"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="54"/>
+      <c r="BC26" s="55"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="185" t="s">
+      <c r="A27" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="120">
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="114"/>
+      <c r="Z27" s="114"/>
+      <c r="AA27" s="114"/>
+      <c r="AB27" s="114"/>
+      <c r="AC27" s="71">
         <v>0</v>
       </c>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="229"/>
-      <c r="AM27" s="227" t="s">
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="70"/>
+      <c r="AM27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="227"/>
-      <c r="AO27" s="227"/>
-      <c r="AP27" s="227"/>
-      <c r="AQ27" s="227"/>
-      <c r="AR27" s="227"/>
-      <c r="AS27" s="227"/>
-      <c r="AT27" s="227"/>
-      <c r="AU27" s="227"/>
-      <c r="AV27" s="227"/>
-      <c r="AW27" s="227"/>
-      <c r="AX27" s="227"/>
-      <c r="AY27" s="227"/>
-      <c r="AZ27" s="227"/>
-      <c r="BA27" s="227"/>
-      <c r="BB27" s="227"/>
-      <c r="BC27" s="227"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="67"/>
+      <c r="AQ27" s="67"/>
+      <c r="AR27" s="67"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="67"/>
+      <c r="AU27" s="67"/>
+      <c r="AV27" s="67"/>
+      <c r="AW27" s="67"/>
+      <c r="AX27" s="67"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="67"/>
+      <c r="BA27" s="67"/>
+      <c r="BB27" s="67"/>
+      <c r="BC27" s="67"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="AL28" s="229"/>
-      <c r="AM28" s="160"/>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="160"/>
-      <c r="AP28" s="160"/>
-      <c r="AQ28" s="160"/>
-      <c r="AR28" s="160"/>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="160"/>
-      <c r="AU28" s="160"/>
-      <c r="AV28" s="160"/>
-      <c r="AW28" s="160"/>
-      <c r="AX28" s="160"/>
-      <c r="AY28" s="160"/>
-      <c r="AZ28" s="160"/>
-      <c r="BA28" s="160"/>
-      <c r="BB28" s="160"/>
-      <c r="BC28" s="160"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="AL28" s="70"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="68"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="68"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="177"/>
-      <c r="AL29" s="229"/>
-      <c r="AM29" s="160"/>
-      <c r="AN29" s="160"/>
-      <c r="AO29" s="160"/>
-      <c r="AP29" s="160"/>
-      <c r="AQ29" s="160"/>
-      <c r="AR29" s="160"/>
-      <c r="AS29" s="160"/>
-      <c r="AT29" s="160"/>
-      <c r="AU29" s="160"/>
-      <c r="AV29" s="160"/>
-      <c r="AW29" s="160"/>
-      <c r="AX29" s="160"/>
-      <c r="AY29" s="160"/>
-      <c r="AZ29" s="160"/>
-      <c r="BA29" s="160"/>
-      <c r="BB29" s="160"/>
-      <c r="BC29" s="160"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="70"/>
+      <c r="AM29" s="68"/>
+      <c r="AN29" s="68"/>
+      <c r="AO29" s="68"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="68"/>
+      <c r="AR29" s="68"/>
+      <c r="AS29" s="68"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178" t="s">
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178" t="s">
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="178" t="s">
+      <c r="AC30" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="178"/>
-      <c r="AH30" s="178"/>
-      <c r="AI30" s="178"/>
-      <c r="AJ30" s="178"/>
-      <c r="AK30" s="179"/>
-      <c r="AL30" s="229"/>
-      <c r="AM30" s="160"/>
-      <c r="AN30" s="160"/>
-      <c r="AO30" s="160"/>
-      <c r="AP30" s="160"/>
-      <c r="AQ30" s="160"/>
-      <c r="AR30" s="160"/>
-      <c r="AS30" s="160"/>
-      <c r="AT30" s="160"/>
-      <c r="AU30" s="160"/>
-      <c r="AV30" s="160"/>
-      <c r="AW30" s="160"/>
-      <c r="AX30" s="160"/>
-      <c r="AY30" s="160"/>
-      <c r="AZ30" s="160"/>
-      <c r="BA30" s="160"/>
-      <c r="BB30" s="160"/>
-      <c r="BC30" s="160"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="103"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="103"/>
+      <c r="AK30" s="104"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="68"/>
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="68"/>
+      <c r="AR30" s="68"/>
+      <c r="AS30" s="68"/>
+      <c r="AT30" s="68"/>
+      <c r="AU30" s="68"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -5941,24 +5941,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="229"/>
-      <c r="AM31" s="160"/>
-      <c r="AN31" s="160"/>
-      <c r="AO31" s="160"/>
-      <c r="AP31" s="160"/>
-      <c r="AQ31" s="160"/>
-      <c r="AR31" s="160"/>
-      <c r="AS31" s="160"/>
-      <c r="AT31" s="160"/>
-      <c r="AU31" s="160"/>
-      <c r="AV31" s="160"/>
-      <c r="AW31" s="160"/>
-      <c r="AX31" s="160"/>
-      <c r="AY31" s="160"/>
-      <c r="AZ31" s="160"/>
-      <c r="BA31" s="160"/>
-      <c r="BB31" s="160"/>
-      <c r="BC31" s="160"/>
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="68"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -5979,254 +5979,254 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="119" t="s">
+      <c r="S32" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="120">
+      <c r="T32" s="151"/>
+      <c r="U32" s="151"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="71">
         <v>0</v>
       </c>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="229"/>
-      <c r="AM32" s="160"/>
-      <c r="AN32" s="160"/>
-      <c r="AO32" s="160"/>
-      <c r="AP32" s="160"/>
-      <c r="AQ32" s="160"/>
-      <c r="AR32" s="160"/>
-      <c r="AS32" s="160"/>
-      <c r="AT32" s="160"/>
-      <c r="AU32" s="160"/>
-      <c r="AV32" s="160"/>
-      <c r="AW32" s="160"/>
-      <c r="AX32" s="160"/>
-      <c r="AY32" s="160"/>
-      <c r="AZ32" s="160"/>
-      <c r="BA32" s="160"/>
-      <c r="BB32" s="160"/>
-      <c r="BC32" s="160"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="70"/>
+      <c r="AM32" s="68"/>
+      <c r="AN32" s="68"/>
+      <c r="AO32" s="68"/>
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="68"/>
+      <c r="AS32" s="68"/>
+      <c r="AT32" s="68"/>
+      <c r="AU32" s="68"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="167" t="s">
+      <c r="A33" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="167"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="167"/>
-      <c r="T33" s="167"/>
-      <c r="U33" s="167"/>
-      <c r="V33" s="167"/>
-      <c r="W33" s="167"/>
-      <c r="X33" s="167"/>
-      <c r="Y33" s="167"/>
-      <c r="Z33" s="167"/>
-      <c r="AA33" s="167"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="167"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="167"/>
-      <c r="AG33" s="167"/>
-      <c r="AH33" s="167"/>
-      <c r="AI33" s="167"/>
-      <c r="AJ33" s="167"/>
-      <c r="AK33" s="167"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="91"/>
+      <c r="AK33" s="91"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="228"/>
-      <c r="AN33" s="228"/>
-      <c r="AO33" s="228"/>
-      <c r="AP33" s="228"/>
-      <c r="AQ33" s="228"/>
-      <c r="AR33" s="228"/>
-      <c r="AS33" s="228"/>
-      <c r="AT33" s="228"/>
-      <c r="AU33" s="228"/>
-      <c r="AV33" s="228"/>
-      <c r="AW33" s="228"/>
-      <c r="AX33" s="228"/>
-      <c r="AY33" s="228"/>
-      <c r="AZ33" s="228"/>
-      <c r="BA33" s="228"/>
-      <c r="BB33" s="228"/>
-      <c r="BC33" s="228"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="69"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="69"/>
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="69"/>
+      <c r="AZ33" s="69"/>
+      <c r="BA33" s="69"/>
+      <c r="BB33" s="69"/>
+      <c r="BC33" s="69"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="194" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="195"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="195"/>
-      <c r="N34" s="195"/>
-      <c r="O34" s="195"/>
-      <c r="P34" s="195"/>
-      <c r="Q34" s="195"/>
-      <c r="R34" s="195"/>
-      <c r="S34" s="195"/>
-      <c r="T34" s="195"/>
-      <c r="U34" s="195"/>
-      <c r="V34" s="195"/>
-      <c r="W34" s="195"/>
-      <c r="X34" s="195"/>
-      <c r="Y34" s="195"/>
-      <c r="Z34" s="195"/>
-      <c r="AA34" s="195"/>
-      <c r="AB34" s="195"/>
-      <c r="AC34" s="195"/>
-      <c r="AD34" s="195"/>
-      <c r="AE34" s="195"/>
-      <c r="AF34" s="195"/>
-      <c r="AG34" s="195"/>
-      <c r="AH34" s="195"/>
-      <c r="AI34" s="195"/>
-      <c r="AJ34" s="195"/>
-      <c r="AK34" s="196"/>
-      <c r="AM34" s="219" t="s">
+      <c r="A34" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="80"/>
+      <c r="AM34" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="220"/>
-      <c r="AO34" s="220"/>
-      <c r="AP34" s="220"/>
-      <c r="AQ34" s="220"/>
-      <c r="AR34" s="220"/>
-      <c r="AS34" s="220"/>
-      <c r="AT34" s="220"/>
-      <c r="AU34" s="220"/>
-      <c r="AV34" s="220"/>
-      <c r="AW34" s="220"/>
-      <c r="AX34" s="220"/>
-      <c r="AY34" s="220"/>
-      <c r="AZ34" s="220"/>
-      <c r="BA34" s="220"/>
-      <c r="BB34" s="220"/>
-      <c r="BC34" s="221"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="58"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="197" t="s">
+      <c r="A35" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="88"/>
+      <c r="AM35" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="198"/>
-      <c r="P35" s="198"/>
-      <c r="Q35" s="198"/>
-      <c r="R35" s="198"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="198"/>
-      <c r="U35" s="198"/>
-      <c r="V35" s="198"/>
-      <c r="W35" s="198"/>
-      <c r="X35" s="198"/>
-      <c r="Y35" s="198"/>
-      <c r="Z35" s="198"/>
-      <c r="AA35" s="198"/>
-      <c r="AB35" s="198"/>
-      <c r="AC35" s="198"/>
-      <c r="AD35" s="198"/>
-      <c r="AE35" s="198"/>
-      <c r="AF35" s="198"/>
-      <c r="AG35" s="198"/>
-      <c r="AH35" s="198"/>
-      <c r="AI35" s="198"/>
-      <c r="AJ35" s="198"/>
-      <c r="AK35" s="205"/>
-      <c r="AM35" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="44"/>
-      <c r="BA35" s="44"/>
-      <c r="BB35" s="44"/>
-      <c r="BC35" s="45"/>
+      <c r="AN35" s="206"/>
+      <c r="AO35" s="206"/>
+      <c r="AP35" s="206"/>
+      <c r="AQ35" s="206"/>
+      <c r="AR35" s="206"/>
+      <c r="AS35" s="206"/>
+      <c r="AT35" s="206"/>
+      <c r="AU35" s="206"/>
+      <c r="AV35" s="206"/>
+      <c r="AW35" s="206"/>
+      <c r="AX35" s="206"/>
+      <c r="AY35" s="206"/>
+      <c r="AZ35" s="206"/>
+      <c r="BA35" s="206"/>
+      <c r="BB35" s="206"/>
+      <c r="BC35" s="207"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="201">
-        <f>SUM(P36:Q41)</f>
-        <v>191.79999999999998</v>
-      </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
+      <c r="A36" s="85">
+        <f>SUM(P36:Q41)+29.8</f>
+        <v>228</v>
+      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="72" t="s">
+      <c r="L36" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="70">
-        <v>29.8</v>
-      </c>
-      <c r="Q36" s="70"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="87">
+        <v>31.5</v>
+      </c>
+      <c r="Q36" s="87"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
@@ -6247,48 +6247,48 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
-      <c r="AQ36" s="47"/>
-      <c r="AR36" s="47"/>
-      <c r="AS36" s="47"/>
-      <c r="AT36" s="47"/>
-      <c r="AU36" s="47"/>
-      <c r="AV36" s="47"/>
-      <c r="AW36" s="47"/>
-      <c r="AX36" s="47"/>
-      <c r="AY36" s="47"/>
-      <c r="AZ36" s="47"/>
-      <c r="BA36" s="47"/>
-      <c r="BB36" s="47"/>
-      <c r="BC36" s="48"/>
+      <c r="AM36" s="208"/>
+      <c r="AN36" s="209"/>
+      <c r="AO36" s="209"/>
+      <c r="AP36" s="209"/>
+      <c r="AQ36" s="209"/>
+      <c r="AR36" s="209"/>
+      <c r="AS36" s="209"/>
+      <c r="AT36" s="209"/>
+      <c r="AU36" s="209"/>
+      <c r="AV36" s="209"/>
+      <c r="AW36" s="209"/>
+      <c r="AX36" s="209"/>
+      <c r="AY36" s="209"/>
+      <c r="AZ36" s="209"/>
+      <c r="BA36" s="209"/>
+      <c r="BB36" s="209"/>
+      <c r="BC36" s="210"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="199" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="200"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
+      <c r="A37" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="72" t="s">
+      <c r="L37" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="70">
-        <v>31.5</v>
-      </c>
-      <c r="Q37" s="70"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="89">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Q37" s="89"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -6310,49 +6310,49 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="47"/>
-      <c r="AS37" s="47"/>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="47"/>
-      <c r="AV37" s="47"/>
-      <c r="AW37" s="47"/>
-      <c r="AX37" s="47"/>
-      <c r="AY37" s="47"/>
-      <c r="AZ37" s="47"/>
-      <c r="BA37" s="47"/>
-      <c r="BB37" s="47"/>
-      <c r="BC37" s="48"/>
+      <c r="AM37" s="208"/>
+      <c r="AN37" s="209"/>
+      <c r="AO37" s="209"/>
+      <c r="AP37" s="209"/>
+      <c r="AQ37" s="209"/>
+      <c r="AR37" s="209"/>
+      <c r="AS37" s="209"/>
+      <c r="AT37" s="209"/>
+      <c r="AU37" s="209"/>
+      <c r="AV37" s="209"/>
+      <c r="AW37" s="209"/>
+      <c r="AX37" s="209"/>
+      <c r="AY37" s="209"/>
+      <c r="AZ37" s="209"/>
+      <c r="BA37" s="209"/>
+      <c r="BB37" s="209"/>
+      <c r="BC37" s="210"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="203">
+      <c r="A38" s="40">
         <f>A36-A40</f>
-        <v>158.69999999999999</v>
-      </c>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
+        <v>191.8</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="72" t="s">
+      <c r="L38" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="206">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="Q38" s="206"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="90"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -6374,48 +6374,48 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
-      <c r="AQ38" s="47"/>
-      <c r="AR38" s="47"/>
-      <c r="AS38" s="47"/>
-      <c r="AT38" s="47"/>
-      <c r="AU38" s="47"/>
-      <c r="AV38" s="47"/>
-      <c r="AW38" s="47"/>
-      <c r="AX38" s="47"/>
-      <c r="AY38" s="47"/>
-      <c r="AZ38" s="47"/>
-      <c r="BA38" s="47"/>
-      <c r="BB38" s="47"/>
-      <c r="BC38" s="48"/>
+      <c r="AM38" s="208"/>
+      <c r="AN38" s="209"/>
+      <c r="AO38" s="209"/>
+      <c r="AP38" s="209"/>
+      <c r="AQ38" s="209"/>
+      <c r="AR38" s="209"/>
+      <c r="AS38" s="209"/>
+      <c r="AT38" s="209"/>
+      <c r="AU38" s="209"/>
+      <c r="AV38" s="209"/>
+      <c r="AW38" s="209"/>
+      <c r="AX38" s="209"/>
+      <c r="AY38" s="209"/>
+      <c r="AZ38" s="209"/>
+      <c r="BA38" s="209"/>
+      <c r="BB38" s="209"/>
+      <c r="BC38" s="210"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="199" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="200"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="200"/>
+      <c r="A39" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="72" t="s">
+      <c r="L39" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="72"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90">
+        <v>28.6</v>
+      </c>
+      <c r="Q39" s="90"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
@@ -6436,49 +6436,48 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="46"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="47"/>
-      <c r="AX39" s="47"/>
-      <c r="AY39" s="47"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="48"/>
+      <c r="AM39" s="208"/>
+      <c r="AN39" s="209"/>
+      <c r="AO39" s="209"/>
+      <c r="AP39" s="209"/>
+      <c r="AQ39" s="209"/>
+      <c r="AR39" s="209"/>
+      <c r="AS39" s="209"/>
+      <c r="AT39" s="209"/>
+      <c r="AU39" s="209"/>
+      <c r="AV39" s="209"/>
+      <c r="AW39" s="209"/>
+      <c r="AX39" s="209"/>
+      <c r="AY39" s="209"/>
+      <c r="AZ39" s="209"/>
+      <c r="BA39" s="209"/>
+      <c r="BB39" s="209"/>
+      <c r="BC39" s="210"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="203">
-        <f>P41</f>
-        <v>33.1</v>
-      </c>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
+      <c r="A40" s="40">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72">
-        <v>28.6</v>
-      </c>
-      <c r="Q40" s="72"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90">
+        <v>33.1</v>
+      </c>
+      <c r="Q40" s="90"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
@@ -6499,48 +6498,48 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="46"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="47"/>
-      <c r="AX40" s="47"/>
-      <c r="AY40" s="47"/>
-      <c r="AZ40" s="47"/>
-      <c r="BA40" s="47"/>
-      <c r="BB40" s="47"/>
-      <c r="BC40" s="48"/>
+      <c r="AM40" s="208"/>
+      <c r="AN40" s="209"/>
+      <c r="AO40" s="209"/>
+      <c r="AP40" s="209"/>
+      <c r="AQ40" s="209"/>
+      <c r="AR40" s="209"/>
+      <c r="AS40" s="209"/>
+      <c r="AT40" s="209"/>
+      <c r="AU40" s="209"/>
+      <c r="AV40" s="209"/>
+      <c r="AW40" s="209"/>
+      <c r="AX40" s="209"/>
+      <c r="AY40" s="209"/>
+      <c r="AZ40" s="209"/>
+      <c r="BA40" s="209"/>
+      <c r="BB40" s="209"/>
+      <c r="BC40" s="210"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="199" t="s">
+      <c r="A41" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="200"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72">
-        <v>33.1</v>
-      </c>
-      <c r="Q41" s="72"/>
+      <c r="L41" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="Q41" s="90"/>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -6561,37 +6560,37 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="46"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="47"/>
-      <c r="AV41" s="47"/>
-      <c r="AW41" s="47"/>
-      <c r="AX41" s="47"/>
-      <c r="AY41" s="47"/>
-      <c r="AZ41" s="47"/>
-      <c r="BA41" s="47"/>
-      <c r="BB41" s="47"/>
-      <c r="BC41" s="48"/>
+      <c r="AM41" s="208"/>
+      <c r="AN41" s="209"/>
+      <c r="AO41" s="209"/>
+      <c r="AP41" s="209"/>
+      <c r="AQ41" s="209"/>
+      <c r="AR41" s="209"/>
+      <c r="AS41" s="209"/>
+      <c r="AT41" s="209"/>
+      <c r="AU41" s="209"/>
+      <c r="AV41" s="209"/>
+      <c r="AW41" s="209"/>
+      <c r="AX41" s="209"/>
+      <c r="AY41" s="209"/>
+      <c r="AZ41" s="209"/>
+      <c r="BA41" s="209"/>
+      <c r="BB41" s="209"/>
+      <c r="BC41" s="210"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="203">
+      <c r="A42" s="40">
         <f>AVERAGE(P36:P41)</f>
-        <v>31.966666666666665</v>
-      </c>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
+        <v>33.033333333333331</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -6604,11 +6603,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
+      <c r="V42" s="232"/>
+      <c r="W42" s="232"/>
+      <c r="X42" s="232"/>
+      <c r="Y42" s="232"/>
+      <c r="Z42" s="232"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -6620,784 +6619,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="46"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="47"/>
-      <c r="AS42" s="47"/>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="47"/>
-      <c r="AX42" s="47"/>
-      <c r="AY42" s="47"/>
-      <c r="AZ42" s="47"/>
-      <c r="BA42" s="47"/>
-      <c r="BB42" s="47"/>
-      <c r="BC42" s="48"/>
+      <c r="AM42" s="208"/>
+      <c r="AN42" s="209"/>
+      <c r="AO42" s="209"/>
+      <c r="AP42" s="209"/>
+      <c r="AQ42" s="209"/>
+      <c r="AR42" s="209"/>
+      <c r="AS42" s="209"/>
+      <c r="AT42" s="209"/>
+      <c r="AU42" s="209"/>
+      <c r="AV42" s="209"/>
+      <c r="AW42" s="209"/>
+      <c r="AX42" s="209"/>
+      <c r="AY42" s="209"/>
+      <c r="AZ42" s="209"/>
+      <c r="BA42" s="209"/>
+      <c r="BB42" s="209"/>
+      <c r="BC42" s="210"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="68"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="68"/>
-      <c r="AK43" s="68"/>
+      <c r="A43" s="230" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="230"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="230"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="230"/>
+      <c r="K43" s="230"/>
+      <c r="L43" s="230"/>
+      <c r="M43" s="230"/>
+      <c r="N43" s="230"/>
+      <c r="O43" s="230"/>
+      <c r="P43" s="230"/>
+      <c r="Q43" s="230"/>
+      <c r="R43" s="230"/>
+      <c r="S43" s="230"/>
+      <c r="T43" s="230"/>
+      <c r="U43" s="230"/>
+      <c r="V43" s="230"/>
+      <c r="W43" s="230"/>
+      <c r="X43" s="230"/>
+      <c r="Y43" s="230"/>
+      <c r="Z43" s="230"/>
+      <c r="AA43" s="230"/>
+      <c r="AB43" s="230"/>
+      <c r="AC43" s="230"/>
+      <c r="AD43" s="230"/>
+      <c r="AE43" s="230"/>
+      <c r="AF43" s="230"/>
+      <c r="AG43" s="230"/>
+      <c r="AH43" s="230"/>
+      <c r="AI43" s="230"/>
+      <c r="AJ43" s="230"/>
+      <c r="AK43" s="230"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="46"/>
-      <c r="AN43" s="47"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="47"/>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="47"/>
-      <c r="AS43" s="47"/>
-      <c r="AT43" s="47"/>
-      <c r="AU43" s="47"/>
-      <c r="AV43" s="47"/>
-      <c r="AW43" s="47"/>
-      <c r="AX43" s="47"/>
-      <c r="AY43" s="47"/>
-      <c r="AZ43" s="47"/>
-      <c r="BA43" s="47"/>
-      <c r="BB43" s="47"/>
-      <c r="BC43" s="48"/>
+      <c r="AM43" s="208"/>
+      <c r="AN43" s="209"/>
+      <c r="AO43" s="209"/>
+      <c r="AP43" s="209"/>
+      <c r="AQ43" s="209"/>
+      <c r="AR43" s="209"/>
+      <c r="AS43" s="209"/>
+      <c r="AT43" s="209"/>
+      <c r="AU43" s="209"/>
+      <c r="AV43" s="209"/>
+      <c r="AW43" s="209"/>
+      <c r="AX43" s="209"/>
+      <c r="AY43" s="209"/>
+      <c r="AZ43" s="209"/>
+      <c r="BA43" s="209"/>
+      <c r="BB43" s="209"/>
+      <c r="BC43" s="210"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="69"/>
-      <c r="W44" s="69"/>
-      <c r="X44" s="69"/>
-      <c r="Y44" s="69"/>
-      <c r="Z44" s="69"/>
-      <c r="AA44" s="69"/>
-      <c r="AB44" s="69"/>
-      <c r="AC44" s="69"/>
-      <c r="AD44" s="69"/>
-      <c r="AE44" s="69"/>
-      <c r="AF44" s="69"/>
-      <c r="AG44" s="69"/>
-      <c r="AH44" s="69"/>
-      <c r="AI44" s="69"/>
-      <c r="AJ44" s="69"/>
-      <c r="AK44" s="69"/>
+      <c r="A44" s="231"/>
+      <c r="B44" s="231"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="231"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
+      <c r="H44" s="231"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="231"/>
+      <c r="N44" s="231"/>
+      <c r="O44" s="231"/>
+      <c r="P44" s="231"/>
+      <c r="Q44" s="231"/>
+      <c r="R44" s="231"/>
+      <c r="S44" s="231"/>
+      <c r="T44" s="231"/>
+      <c r="U44" s="231"/>
+      <c r="V44" s="231"/>
+      <c r="W44" s="231"/>
+      <c r="X44" s="231"/>
+      <c r="Y44" s="231"/>
+      <c r="Z44" s="231"/>
+      <c r="AA44" s="231"/>
+      <c r="AB44" s="231"/>
+      <c r="AC44" s="231"/>
+      <c r="AD44" s="231"/>
+      <c r="AE44" s="231"/>
+      <c r="AF44" s="231"/>
+      <c r="AG44" s="231"/>
+      <c r="AH44" s="231"/>
+      <c r="AI44" s="231"/>
+      <c r="AJ44" s="231"/>
+      <c r="AK44" s="231"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="46"/>
-      <c r="AN44" s="47"/>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="47"/>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="47"/>
-      <c r="AS44" s="47"/>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="47"/>
-      <c r="AV44" s="47"/>
-      <c r="AW44" s="47"/>
-      <c r="AX44" s="47"/>
-      <c r="AY44" s="47"/>
-      <c r="AZ44" s="47"/>
-      <c r="BA44" s="47"/>
-      <c r="BB44" s="47"/>
-      <c r="BC44" s="48"/>
+      <c r="AM44" s="208"/>
+      <c r="AN44" s="209"/>
+      <c r="AO44" s="209"/>
+      <c r="AP44" s="209"/>
+      <c r="AQ44" s="209"/>
+      <c r="AR44" s="209"/>
+      <c r="AS44" s="209"/>
+      <c r="AT44" s="209"/>
+      <c r="AU44" s="209"/>
+      <c r="AV44" s="209"/>
+      <c r="AW44" s="209"/>
+      <c r="AX44" s="209"/>
+      <c r="AY44" s="209"/>
+      <c r="AZ44" s="209"/>
+      <c r="BA44" s="209"/>
+      <c r="BB44" s="209"/>
+      <c r="BC44" s="210"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="58"/>
-      <c r="AI45" s="58"/>
-      <c r="AJ45" s="58"/>
-      <c r="AK45" s="59"/>
+      <c r="A45" s="219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="220"/>
+      <c r="N45" s="220"/>
+      <c r="O45" s="220"/>
+      <c r="P45" s="220"/>
+      <c r="Q45" s="220"/>
+      <c r="R45" s="220"/>
+      <c r="S45" s="220"/>
+      <c r="T45" s="220"/>
+      <c r="U45" s="220"/>
+      <c r="V45" s="220"/>
+      <c r="W45" s="220"/>
+      <c r="X45" s="220"/>
+      <c r="Y45" s="220"/>
+      <c r="Z45" s="220"/>
+      <c r="AA45" s="220"/>
+      <c r="AB45" s="220"/>
+      <c r="AC45" s="220"/>
+      <c r="AD45" s="220"/>
+      <c r="AE45" s="220"/>
+      <c r="AF45" s="220"/>
+      <c r="AG45" s="220"/>
+      <c r="AH45" s="220"/>
+      <c r="AI45" s="220"/>
+      <c r="AJ45" s="220"/>
+      <c r="AK45" s="221"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="46"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
-      <c r="AQ45" s="47"/>
-      <c r="AR45" s="47"/>
-      <c r="AS45" s="47"/>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="47"/>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="47"/>
-      <c r="AX45" s="47"/>
-      <c r="AY45" s="47"/>
-      <c r="AZ45" s="47"/>
-      <c r="BA45" s="47"/>
-      <c r="BB45" s="47"/>
-      <c r="BC45" s="48"/>
+      <c r="AM45" s="208"/>
+      <c r="AN45" s="209"/>
+      <c r="AO45" s="209"/>
+      <c r="AP45" s="209"/>
+      <c r="AQ45" s="209"/>
+      <c r="AR45" s="209"/>
+      <c r="AS45" s="209"/>
+      <c r="AT45" s="209"/>
+      <c r="AU45" s="209"/>
+      <c r="AV45" s="209"/>
+      <c r="AW45" s="209"/>
+      <c r="AX45" s="209"/>
+      <c r="AY45" s="209"/>
+      <c r="AZ45" s="209"/>
+      <c r="BA45" s="209"/>
+      <c r="BB45" s="209"/>
+      <c r="BC45" s="210"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41" t="s">
+      <c r="B46" s="203"/>
+      <c r="C46" s="203"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="203"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="203" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="203"/>
+      <c r="L46" s="203"/>
+      <c r="M46" s="203"/>
+      <c r="N46" s="203"/>
+      <c r="O46" s="203"/>
+      <c r="P46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41" t="s">
+      <c r="U46" s="203"/>
+      <c r="V46" s="203"/>
+      <c r="W46" s="203"/>
+      <c r="X46" s="203"/>
+      <c r="Y46" s="203"/>
+      <c r="Z46" s="203"/>
+      <c r="AA46" s="203"/>
+      <c r="AB46" s="203"/>
+      <c r="AC46" s="203" t="s">
         <v>60</v>
       </c>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="41"/>
-      <c r="AH46" s="41"/>
-      <c r="AI46" s="41"/>
-      <c r="AJ46" s="41"/>
-      <c r="AK46" s="42"/>
-      <c r="AM46" s="46"/>
-      <c r="AN46" s="47"/>
-      <c r="AO46" s="47"/>
-      <c r="AP46" s="47"/>
-      <c r="AQ46" s="47"/>
-      <c r="AR46" s="47"/>
-      <c r="AS46" s="47"/>
-      <c r="AT46" s="47"/>
-      <c r="AU46" s="47"/>
-      <c r="AV46" s="47"/>
-      <c r="AW46" s="47"/>
-      <c r="AX46" s="47"/>
-      <c r="AY46" s="47"/>
-      <c r="AZ46" s="47"/>
-      <c r="BA46" s="47"/>
-      <c r="BB46" s="47"/>
-      <c r="BC46" s="48"/>
+      <c r="AD46" s="203"/>
+      <c r="AE46" s="203"/>
+      <c r="AF46" s="203"/>
+      <c r="AG46" s="203"/>
+      <c r="AH46" s="203"/>
+      <c r="AI46" s="203"/>
+      <c r="AJ46" s="203"/>
+      <c r="AK46" s="204"/>
+      <c r="AM46" s="208"/>
+      <c r="AN46" s="209"/>
+      <c r="AO46" s="209"/>
+      <c r="AP46" s="209"/>
+      <c r="AQ46" s="209"/>
+      <c r="AR46" s="209"/>
+      <c r="AS46" s="209"/>
+      <c r="AT46" s="209"/>
+      <c r="AU46" s="209"/>
+      <c r="AV46" s="209"/>
+      <c r="AW46" s="209"/>
+      <c r="AX46" s="209"/>
+      <c r="AY46" s="209"/>
+      <c r="AZ46" s="209"/>
+      <c r="BA46" s="209"/>
+      <c r="BB46" s="209"/>
+      <c r="BC46" s="210"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
-      <c r="B47" s="40">
+      <c r="B47" s="202">
         <v>100000</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="202"/>
+      <c r="H47" s="202"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="40">
+      <c r="J47" s="202">
         <v>3000</v>
       </c>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40">
+      <c r="K47" s="202"/>
+      <c r="L47" s="202"/>
+      <c r="M47" s="202"/>
+      <c r="N47" s="202"/>
+      <c r="O47" s="202"/>
+      <c r="P47" s="202"/>
+      <c r="Q47" s="202"/>
+      <c r="R47" s="202"/>
+      <c r="S47" s="202"/>
+      <c r="T47" s="202">
         <v>8000</v>
       </c>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="66">
+      <c r="U47" s="202"/>
+      <c r="V47" s="202"/>
+      <c r="W47" s="202"/>
+      <c r="X47" s="202"/>
+      <c r="Y47" s="202"/>
+      <c r="Z47" s="202"/>
+      <c r="AA47" s="202"/>
+      <c r="AB47" s="202"/>
+      <c r="AC47" s="228">
         <v>8000</v>
       </c>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="67"/>
-      <c r="AM47" s="46"/>
-      <c r="AN47" s="47"/>
-      <c r="AO47" s="47"/>
-      <c r="AP47" s="47"/>
-      <c r="AQ47" s="47"/>
-      <c r="AR47" s="47"/>
-      <c r="AS47" s="47"/>
-      <c r="AT47" s="47"/>
-      <c r="AU47" s="47"/>
-      <c r="AV47" s="47"/>
-      <c r="AW47" s="47"/>
-      <c r="AX47" s="47"/>
-      <c r="AY47" s="47"/>
-      <c r="AZ47" s="47"/>
-      <c r="BA47" s="47"/>
-      <c r="BB47" s="47"/>
-      <c r="BC47" s="48"/>
+      <c r="AD47" s="228"/>
+      <c r="AE47" s="228"/>
+      <c r="AF47" s="228"/>
+      <c r="AG47" s="228"/>
+      <c r="AH47" s="228"/>
+      <c r="AI47" s="228"/>
+      <c r="AJ47" s="228"/>
+      <c r="AK47" s="229"/>
+      <c r="AM47" s="208"/>
+      <c r="AN47" s="209"/>
+      <c r="AO47" s="209"/>
+      <c r="AP47" s="209"/>
+      <c r="AQ47" s="209"/>
+      <c r="AR47" s="209"/>
+      <c r="AS47" s="209"/>
+      <c r="AT47" s="209"/>
+      <c r="AU47" s="209"/>
+      <c r="AV47" s="209"/>
+      <c r="AW47" s="209"/>
+      <c r="AX47" s="209"/>
+      <c r="AY47" s="209"/>
+      <c r="AZ47" s="209"/>
+      <c r="BA47" s="209"/>
+      <c r="BB47" s="209"/>
+      <c r="BC47" s="210"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="41" t="s">
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="203" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="203"/>
+      <c r="L48" s="203"/>
+      <c r="M48" s="203"/>
+      <c r="N48" s="203"/>
+      <c r="O48" s="203"/>
+      <c r="P48" s="203"/>
+      <c r="Q48" s="203"/>
+      <c r="R48" s="203"/>
+      <c r="S48" s="203"/>
+      <c r="T48" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41" t="s">
+      <c r="U48" s="203"/>
+      <c r="V48" s="203"/>
+      <c r="W48" s="203"/>
+      <c r="X48" s="203"/>
+      <c r="Y48" s="203"/>
+      <c r="Z48" s="203"/>
+      <c r="AA48" s="203"/>
+      <c r="AB48" s="203"/>
+      <c r="AC48" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="41"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41"/>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="42"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="47"/>
-      <c r="AQ48" s="47"/>
-      <c r="AR48" s="47"/>
-      <c r="AS48" s="47"/>
-      <c r="AT48" s="47"/>
-      <c r="AU48" s="47"/>
-      <c r="AV48" s="47"/>
-      <c r="AW48" s="47"/>
-      <c r="AX48" s="47"/>
-      <c r="AY48" s="47"/>
-      <c r="AZ48" s="47"/>
-      <c r="BA48" s="47"/>
-      <c r="BB48" s="47"/>
-      <c r="BC48" s="48"/>
+      <c r="AD48" s="203"/>
+      <c r="AE48" s="203"/>
+      <c r="AF48" s="203"/>
+      <c r="AG48" s="203"/>
+      <c r="AH48" s="203"/>
+      <c r="AI48" s="203"/>
+      <c r="AJ48" s="203"/>
+      <c r="AK48" s="204"/>
+      <c r="AM48" s="208"/>
+      <c r="AN48" s="209"/>
+      <c r="AO48" s="209"/>
+      <c r="AP48" s="209"/>
+      <c r="AQ48" s="209"/>
+      <c r="AR48" s="209"/>
+      <c r="AS48" s="209"/>
+      <c r="AT48" s="209"/>
+      <c r="AU48" s="209"/>
+      <c r="AV48" s="209"/>
+      <c r="AW48" s="209"/>
+      <c r="AX48" s="209"/>
+      <c r="AY48" s="209"/>
+      <c r="AZ48" s="209"/>
+      <c r="BA48" s="209"/>
+      <c r="BB48" s="209"/>
+      <c r="BC48" s="210"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55">
+      <c r="A49" s="217">
         <v>500</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40">
+      <c r="B49" s="202"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="202"/>
+      <c r="E49" s="202"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="202"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="202"/>
+      <c r="J49" s="202">
         <v>8000</v>
       </c>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40">
+      <c r="K49" s="202"/>
+      <c r="L49" s="202"/>
+      <c r="M49" s="202"/>
+      <c r="N49" s="202"/>
+      <c r="O49" s="202"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="202"/>
+      <c r="R49" s="202"/>
+      <c r="S49" s="202"/>
+      <c r="T49" s="202">
         <v>16000</v>
       </c>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
-      <c r="AC49" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD49" s="40"/>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="40"/>
-      <c r="AI49" s="40"/>
-      <c r="AJ49" s="40"/>
-      <c r="AK49" s="52"/>
-      <c r="AM49" s="46"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="47"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="47"/>
-      <c r="AY49" s="47"/>
-      <c r="AZ49" s="47"/>
-      <c r="BA49" s="47"/>
-      <c r="BB49" s="47"/>
-      <c r="BC49" s="48"/>
+      <c r="U49" s="202"/>
+      <c r="V49" s="202"/>
+      <c r="W49" s="202"/>
+      <c r="X49" s="202"/>
+      <c r="Y49" s="202"/>
+      <c r="Z49" s="202"/>
+      <c r="AA49" s="202"/>
+      <c r="AB49" s="202"/>
+      <c r="AC49" s="202" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD49" s="202"/>
+      <c r="AE49" s="202"/>
+      <c r="AF49" s="202"/>
+      <c r="AG49" s="202"/>
+      <c r="AH49" s="202"/>
+      <c r="AI49" s="202"/>
+      <c r="AJ49" s="202"/>
+      <c r="AK49" s="214"/>
+      <c r="AM49" s="208"/>
+      <c r="AN49" s="209"/>
+      <c r="AO49" s="209"/>
+      <c r="AP49" s="209"/>
+      <c r="AQ49" s="209"/>
+      <c r="AR49" s="209"/>
+      <c r="AS49" s="209"/>
+      <c r="AT49" s="209"/>
+      <c r="AU49" s="209"/>
+      <c r="AV49" s="209"/>
+      <c r="AW49" s="209"/>
+      <c r="AX49" s="209"/>
+      <c r="AY49" s="209"/>
+      <c r="AZ49" s="209"/>
+      <c r="BA49" s="209"/>
+      <c r="BB49" s="209"/>
+      <c r="BC49" s="210"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="61"/>
-      <c r="W50" s="61"/>
-      <c r="X50" s="61"/>
-      <c r="Y50" s="61"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
-      <c r="AJ50" s="61"/>
-      <c r="AK50" s="62"/>
-      <c r="AM50" s="46"/>
-      <c r="AN50" s="47"/>
-      <c r="AO50" s="47"/>
-      <c r="AP50" s="47"/>
-      <c r="AQ50" s="47"/>
-      <c r="AR50" s="47"/>
-      <c r="AS50" s="47"/>
-      <c r="AT50" s="47"/>
-      <c r="AU50" s="47"/>
-      <c r="AV50" s="47"/>
-      <c r="AW50" s="47"/>
-      <c r="AX50" s="47"/>
-      <c r="AY50" s="47"/>
-      <c r="AZ50" s="47"/>
-      <c r="BA50" s="47"/>
-      <c r="BB50" s="47"/>
-      <c r="BC50" s="48"/>
+      <c r="B50" s="223"/>
+      <c r="C50" s="223"/>
+      <c r="D50" s="223"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="223"/>
+      <c r="G50" s="223"/>
+      <c r="H50" s="223"/>
+      <c r="I50" s="223"/>
+      <c r="J50" s="223"/>
+      <c r="K50" s="223"/>
+      <c r="L50" s="223"/>
+      <c r="M50" s="223"/>
+      <c r="N50" s="223"/>
+      <c r="O50" s="223"/>
+      <c r="P50" s="223"/>
+      <c r="Q50" s="223"/>
+      <c r="R50" s="223"/>
+      <c r="S50" s="223"/>
+      <c r="T50" s="223"/>
+      <c r="U50" s="223"/>
+      <c r="V50" s="223"/>
+      <c r="W50" s="223"/>
+      <c r="X50" s="223"/>
+      <c r="Y50" s="223"/>
+      <c r="Z50" s="223"/>
+      <c r="AA50" s="223"/>
+      <c r="AB50" s="223"/>
+      <c r="AC50" s="223"/>
+      <c r="AD50" s="223"/>
+      <c r="AE50" s="223"/>
+      <c r="AF50" s="223"/>
+      <c r="AG50" s="223"/>
+      <c r="AH50" s="223"/>
+      <c r="AI50" s="223"/>
+      <c r="AJ50" s="223"/>
+      <c r="AK50" s="224"/>
+      <c r="AM50" s="208"/>
+      <c r="AN50" s="209"/>
+      <c r="AO50" s="209"/>
+      <c r="AP50" s="209"/>
+      <c r="AQ50" s="209"/>
+      <c r="AR50" s="209"/>
+      <c r="AS50" s="209"/>
+      <c r="AT50" s="209"/>
+      <c r="AU50" s="209"/>
+      <c r="AV50" s="209"/>
+      <c r="AW50" s="209"/>
+      <c r="AX50" s="209"/>
+      <c r="AY50" s="209"/>
+      <c r="AZ50" s="209"/>
+      <c r="BA50" s="209"/>
+      <c r="BB50" s="209"/>
+      <c r="BC50" s="210"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="64"/>
-      <c r="AI51" s="64"/>
-      <c r="AJ51" s="64"/>
-      <c r="AK51" s="65"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="50"/>
-      <c r="AO51" s="50"/>
-      <c r="AP51" s="50"/>
-      <c r="AQ51" s="50"/>
-      <c r="AR51" s="50"/>
-      <c r="AS51" s="50"/>
-      <c r="AT51" s="50"/>
-      <c r="AU51" s="50"/>
-      <c r="AV51" s="50"/>
-      <c r="AW51" s="50"/>
-      <c r="AX51" s="50"/>
-      <c r="AY51" s="50"/>
-      <c r="AZ51" s="50"/>
-      <c r="BA51" s="50"/>
-      <c r="BB51" s="50"/>
-      <c r="BC51" s="51"/>
+      <c r="A51" s="225"/>
+      <c r="B51" s="226"/>
+      <c r="C51" s="226"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="226"/>
+      <c r="F51" s="226"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
+      <c r="I51" s="226"/>
+      <c r="J51" s="226"/>
+      <c r="K51" s="226"/>
+      <c r="L51" s="226"/>
+      <c r="M51" s="226"/>
+      <c r="N51" s="226"/>
+      <c r="O51" s="226"/>
+      <c r="P51" s="226"/>
+      <c r="Q51" s="226"/>
+      <c r="R51" s="226"/>
+      <c r="S51" s="226"/>
+      <c r="T51" s="226"/>
+      <c r="U51" s="226"/>
+      <c r="V51" s="226"/>
+      <c r="W51" s="226"/>
+      <c r="X51" s="226"/>
+      <c r="Y51" s="226"/>
+      <c r="Z51" s="226"/>
+      <c r="AA51" s="226"/>
+      <c r="AB51" s="226"/>
+      <c r="AC51" s="226"/>
+      <c r="AD51" s="226"/>
+      <c r="AE51" s="226"/>
+      <c r="AF51" s="226"/>
+      <c r="AG51" s="226"/>
+      <c r="AH51" s="226"/>
+      <c r="AI51" s="226"/>
+      <c r="AJ51" s="226"/>
+      <c r="AK51" s="227"/>
+      <c r="AM51" s="211"/>
+      <c r="AN51" s="212"/>
+      <c r="AO51" s="212"/>
+      <c r="AP51" s="212"/>
+      <c r="AQ51" s="212"/>
+      <c r="AR51" s="212"/>
+      <c r="AS51" s="212"/>
+      <c r="AT51" s="212"/>
+      <c r="AU51" s="212"/>
+      <c r="AV51" s="212"/>
+      <c r="AW51" s="212"/>
+      <c r="AX51" s="212"/>
+      <c r="AY51" s="212"/>
+      <c r="AZ51" s="212"/>
+      <c r="BA51" s="212"/>
+      <c r="BB51" s="212"/>
+      <c r="BC51" s="213"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="107"/>
-      <c r="Q52" s="107"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="107"/>
-      <c r="U52" s="107"/>
+      <c r="A52" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="195"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="195"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="195"/>
+      <c r="G52" s="195"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="195"/>
+      <c r="K52" s="195"/>
+      <c r="L52" s="195"/>
+      <c r="M52" s="195"/>
+      <c r="N52" s="195"/>
+      <c r="O52" s="195"/>
+      <c r="P52" s="195"/>
+      <c r="Q52" s="195"/>
+      <c r="R52" s="195"/>
+      <c r="S52" s="195"/>
+      <c r="T52" s="195"/>
+      <c r="U52" s="195"/>
       <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="108"/>
+      <c r="A53" s="196"/>
+      <c r="B53" s="196"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="196"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="196"/>
+      <c r="M53" s="196"/>
+      <c r="N53" s="196"/>
+      <c r="O53" s="196"/>
+      <c r="P53" s="196"/>
+      <c r="Q53" s="196"/>
+      <c r="R53" s="196"/>
+      <c r="S53" s="196"/>
+      <c r="T53" s="196"/>
+      <c r="U53" s="196"/>
       <c r="V53" s="35"/>
-      <c r="W53" s="109" t="s">
+      <c r="W53" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
-      <c r="AF53" s="110"/>
-      <c r="AG53" s="111"/>
-      <c r="AI53" s="112" t="s">
+      <c r="X53" s="198"/>
+      <c r="Y53" s="198"/>
+      <c r="Z53" s="198"/>
+      <c r="AA53" s="198"/>
+      <c r="AB53" s="198"/>
+      <c r="AC53" s="198"/>
+      <c r="AD53" s="198"/>
+      <c r="AE53" s="198"/>
+      <c r="AF53" s="198"/>
+      <c r="AG53" s="199"/>
+      <c r="AI53" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="113"/>
-      <c r="AK53" s="113"/>
-      <c r="AL53" s="113"/>
-      <c r="AM53" s="113"/>
-      <c r="AN53" s="113"/>
-      <c r="AO53" s="113"/>
-      <c r="AP53" s="113"/>
-      <c r="AQ53" s="113"/>
-      <c r="AR53" s="113"/>
-      <c r="AS53" s="113"/>
-      <c r="AT53" s="113"/>
-      <c r="AU53" s="113"/>
-      <c r="AV53" s="113"/>
-      <c r="AW53" s="113"/>
-      <c r="AX53" s="113"/>
-      <c r="AY53" s="113"/>
-      <c r="AZ53" s="113"/>
-      <c r="BA53" s="113"/>
-      <c r="BB53" s="113"/>
-      <c r="BC53" s="114"/>
+      <c r="AJ53" s="101"/>
+      <c r="AK53" s="101"/>
+      <c r="AL53" s="101"/>
+      <c r="AM53" s="101"/>
+      <c r="AN53" s="101"/>
+      <c r="AO53" s="101"/>
+      <c r="AP53" s="101"/>
+      <c r="AQ53" s="101"/>
+      <c r="AR53" s="101"/>
+      <c r="AS53" s="101"/>
+      <c r="AT53" s="101"/>
+      <c r="AU53" s="101"/>
+      <c r="AV53" s="101"/>
+      <c r="AW53" s="101"/>
+      <c r="AX53" s="101"/>
+      <c r="AY53" s="101"/>
+      <c r="AZ53" s="101"/>
+      <c r="BA53" s="101"/>
+      <c r="BB53" s="101"/>
+      <c r="BC53" s="201"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="108"/>
-      <c r="U54" s="108"/>
+      <c r="A54" s="196"/>
+      <c r="B54" s="196"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="196"/>
+      <c r="M54" s="196"/>
+      <c r="N54" s="196"/>
+      <c r="O54" s="196"/>
+      <c r="P54" s="196"/>
+      <c r="Q54" s="196"/>
+      <c r="R54" s="196"/>
+      <c r="S54" s="196"/>
+      <c r="T54" s="196"/>
+      <c r="U54" s="196"/>
       <c r="V54" s="35"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="89"/>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="89"/>
-      <c r="AD54" s="89"/>
-      <c r="AE54" s="89"/>
-      <c r="AF54" s="89"/>
-      <c r="AG54" s="90"/>
-      <c r="AI54" s="97" t="s">
+      <c r="W54" s="176"/>
+      <c r="X54" s="177"/>
+      <c r="Y54" s="177"/>
+      <c r="Z54" s="177"/>
+      <c r="AA54" s="177"/>
+      <c r="AB54" s="177"/>
+      <c r="AC54" s="177"/>
+      <c r="AD54" s="177"/>
+      <c r="AE54" s="177"/>
+      <c r="AF54" s="177"/>
+      <c r="AG54" s="178"/>
+      <c r="AI54" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="98"/>
-      <c r="AK54" s="98"/>
-      <c r="AL54" s="98"/>
-      <c r="AM54" s="98"/>
-      <c r="AN54" s="98"/>
-      <c r="AO54" s="98"/>
-      <c r="AP54" s="98"/>
-      <c r="AQ54" s="98"/>
-      <c r="AR54" s="98"/>
-      <c r="AS54" s="98"/>
-      <c r="AT54" s="98"/>
-      <c r="AU54" s="98"/>
-      <c r="AV54" s="98"/>
-      <c r="AW54" s="98"/>
-      <c r="AX54" s="98"/>
-      <c r="AY54" s="98"/>
-      <c r="AZ54" s="98"/>
-      <c r="BA54" s="98"/>
-      <c r="BB54" s="98"/>
-      <c r="BC54" s="99"/>
+      <c r="AJ54" s="186"/>
+      <c r="AK54" s="186"/>
+      <c r="AL54" s="186"/>
+      <c r="AM54" s="186"/>
+      <c r="AN54" s="186"/>
+      <c r="AO54" s="186"/>
+      <c r="AP54" s="186"/>
+      <c r="AQ54" s="186"/>
+      <c r="AR54" s="186"/>
+      <c r="AS54" s="186"/>
+      <c r="AT54" s="186"/>
+      <c r="AU54" s="186"/>
+      <c r="AV54" s="186"/>
+      <c r="AW54" s="186"/>
+      <c r="AX54" s="186"/>
+      <c r="AY54" s="186"/>
+      <c r="AZ54" s="186"/>
+      <c r="BA54" s="186"/>
+      <c r="BB54" s="186"/>
+      <c r="BC54" s="187"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="91"/>
-      <c r="X55" s="92"/>
-      <c r="Y55" s="92"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="92"/>
-      <c r="AB55" s="92"/>
-      <c r="AC55" s="92"/>
-      <c r="AD55" s="92"/>
-      <c r="AE55" s="92"/>
-      <c r="AF55" s="92"/>
-      <c r="AG55" s="93"/>
-      <c r="AI55" s="100"/>
-      <c r="AJ55" s="101"/>
-      <c r="AK55" s="101"/>
-      <c r="AL55" s="101"/>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="101"/>
-      <c r="AO55" s="101"/>
-      <c r="AP55" s="101"/>
-      <c r="AQ55" s="101"/>
-      <c r="AR55" s="101"/>
-      <c r="AS55" s="101"/>
-      <c r="AT55" s="101"/>
-      <c r="AU55" s="101"/>
-      <c r="AV55" s="101"/>
-      <c r="AW55" s="101"/>
-      <c r="AX55" s="101"/>
-      <c r="AY55" s="101"/>
-      <c r="AZ55" s="101"/>
-      <c r="BA55" s="101"/>
-      <c r="BB55" s="101"/>
-      <c r="BC55" s="102"/>
+      <c r="W55" s="179"/>
+      <c r="X55" s="180"/>
+      <c r="Y55" s="180"/>
+      <c r="Z55" s="180"/>
+      <c r="AA55" s="180"/>
+      <c r="AB55" s="180"/>
+      <c r="AC55" s="180"/>
+      <c r="AD55" s="180"/>
+      <c r="AE55" s="180"/>
+      <c r="AF55" s="180"/>
+      <c r="AG55" s="181"/>
+      <c r="AI55" s="188"/>
+      <c r="AJ55" s="189"/>
+      <c r="AK55" s="189"/>
+      <c r="AL55" s="189"/>
+      <c r="AM55" s="189"/>
+      <c r="AN55" s="189"/>
+      <c r="AO55" s="189"/>
+      <c r="AP55" s="189"/>
+      <c r="AQ55" s="189"/>
+      <c r="AR55" s="189"/>
+      <c r="AS55" s="189"/>
+      <c r="AT55" s="189"/>
+      <c r="AU55" s="189"/>
+      <c r="AV55" s="189"/>
+      <c r="AW55" s="189"/>
+      <c r="AX55" s="189"/>
+      <c r="AY55" s="189"/>
+      <c r="AZ55" s="189"/>
+      <c r="BA55" s="189"/>
+      <c r="BB55" s="189"/>
+      <c r="BC55" s="190"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="91"/>
-      <c r="X56" s="92"/>
-      <c r="Y56" s="92"/>
-      <c r="Z56" s="92"/>
-      <c r="AA56" s="92"/>
-      <c r="AB56" s="92"/>
-      <c r="AC56" s="92"/>
-      <c r="AD56" s="92"/>
-      <c r="AE56" s="92"/>
-      <c r="AF56" s="92"/>
-      <c r="AG56" s="93"/>
-      <c r="AI56" s="103" t="s">
+      <c r="W56" s="179"/>
+      <c r="X56" s="180"/>
+      <c r="Y56" s="180"/>
+      <c r="Z56" s="180"/>
+      <c r="AA56" s="180"/>
+      <c r="AB56" s="180"/>
+      <c r="AC56" s="180"/>
+      <c r="AD56" s="180"/>
+      <c r="AE56" s="180"/>
+      <c r="AF56" s="180"/>
+      <c r="AG56" s="181"/>
+      <c r="AI56" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="104"/>
-      <c r="AK56" s="104"/>
-      <c r="AL56" s="104"/>
-      <c r="AM56" s="104"/>
-      <c r="AN56" s="104"/>
-      <c r="AO56" s="104"/>
-      <c r="AP56" s="104"/>
-      <c r="AQ56" s="104"/>
-      <c r="AR56" s="104"/>
-      <c r="AS56" s="104"/>
-      <c r="AT56" s="104"/>
-      <c r="AU56" s="104"/>
-      <c r="AV56" s="104"/>
-      <c r="AW56" s="104"/>
-      <c r="AX56" s="104"/>
-      <c r="AY56" s="104"/>
-      <c r="AZ56" s="104"/>
-      <c r="BA56" s="104"/>
-      <c r="BB56" s="104"/>
-      <c r="BC56" s="105"/>
+      <c r="AJ56" s="192"/>
+      <c r="AK56" s="192"/>
+      <c r="AL56" s="192"/>
+      <c r="AM56" s="192"/>
+      <c r="AN56" s="192"/>
+      <c r="AO56" s="192"/>
+      <c r="AP56" s="192"/>
+      <c r="AQ56" s="192"/>
+      <c r="AR56" s="192"/>
+      <c r="AS56" s="192"/>
+      <c r="AT56" s="192"/>
+      <c r="AU56" s="192"/>
+      <c r="AV56" s="192"/>
+      <c r="AW56" s="192"/>
+      <c r="AX56" s="192"/>
+      <c r="AY56" s="192"/>
+      <c r="AZ56" s="192"/>
+      <c r="BA56" s="192"/>
+      <c r="BB56" s="192"/>
+      <c r="BC56" s="193"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7414,290 +7413,420 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="92"/>
-      <c r="Y57" s="92"/>
-      <c r="Z57" s="92"/>
-      <c r="AA57" s="92"/>
-      <c r="AB57" s="92"/>
-      <c r="AC57" s="92"/>
-      <c r="AD57" s="92"/>
-      <c r="AE57" s="92"/>
-      <c r="AF57" s="92"/>
-      <c r="AG57" s="93"/>
-      <c r="AI57" s="100"/>
-      <c r="AJ57" s="101"/>
-      <c r="AK57" s="101"/>
-      <c r="AL57" s="101"/>
-      <c r="AM57" s="101"/>
-      <c r="AN57" s="101"/>
-      <c r="AO57" s="101"/>
-      <c r="AP57" s="101"/>
-      <c r="AQ57" s="101"/>
-      <c r="AR57" s="101"/>
-      <c r="AS57" s="101"/>
-      <c r="AT57" s="101"/>
-      <c r="AU57" s="101"/>
-      <c r="AV57" s="101"/>
-      <c r="AW57" s="101"/>
-      <c r="AX57" s="101"/>
-      <c r="AY57" s="101"/>
-      <c r="AZ57" s="101"/>
-      <c r="BA57" s="101"/>
-      <c r="BB57" s="101"/>
-      <c r="BC57" s="102"/>
+      <c r="W57" s="179"/>
+      <c r="X57" s="180"/>
+      <c r="Y57" s="180"/>
+      <c r="Z57" s="180"/>
+      <c r="AA57" s="180"/>
+      <c r="AB57" s="180"/>
+      <c r="AC57" s="180"/>
+      <c r="AD57" s="180"/>
+      <c r="AE57" s="180"/>
+      <c r="AF57" s="180"/>
+      <c r="AG57" s="181"/>
+      <c r="AI57" s="188"/>
+      <c r="AJ57" s="189"/>
+      <c r="AK57" s="189"/>
+      <c r="AL57" s="189"/>
+      <c r="AM57" s="189"/>
+      <c r="AN57" s="189"/>
+      <c r="AO57" s="189"/>
+      <c r="AP57" s="189"/>
+      <c r="AQ57" s="189"/>
+      <c r="AR57" s="189"/>
+      <c r="AS57" s="189"/>
+      <c r="AT57" s="189"/>
+      <c r="AU57" s="189"/>
+      <c r="AV57" s="189"/>
+      <c r="AW57" s="189"/>
+      <c r="AX57" s="189"/>
+      <c r="AY57" s="189"/>
+      <c r="AZ57" s="189"/>
+      <c r="BA57" s="189"/>
+      <c r="BB57" s="189"/>
+      <c r="BC57" s="190"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="95"/>
-      <c r="Y58" s="95"/>
-      <c r="Z58" s="95"/>
-      <c r="AA58" s="95"/>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="95"/>
-      <c r="AF58" s="95"/>
-      <c r="AG58" s="96"/>
-      <c r="AI58" s="103" t="s">
+      <c r="C58" s="194"/>
+      <c r="D58" s="194"/>
+      <c r="E58" s="194"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="194"/>
+      <c r="N58" s="194"/>
+      <c r="O58" s="194"/>
+      <c r="W58" s="182"/>
+      <c r="X58" s="183"/>
+      <c r="Y58" s="183"/>
+      <c r="Z58" s="183"/>
+      <c r="AA58" s="183"/>
+      <c r="AB58" s="183"/>
+      <c r="AC58" s="183"/>
+      <c r="AD58" s="183"/>
+      <c r="AE58" s="183"/>
+      <c r="AF58" s="183"/>
+      <c r="AG58" s="184"/>
+      <c r="AI58" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="104"/>
-      <c r="AK58" s="104"/>
-      <c r="AL58" s="104"/>
-      <c r="AM58" s="104"/>
-      <c r="AN58" s="104"/>
-      <c r="AO58" s="104"/>
-      <c r="AP58" s="104"/>
-      <c r="AQ58" s="104"/>
-      <c r="AR58" s="104"/>
-      <c r="AS58" s="104"/>
-      <c r="AT58" s="104"/>
-      <c r="AU58" s="104"/>
-      <c r="AV58" s="104"/>
-      <c r="AW58" s="104"/>
-      <c r="AX58" s="104"/>
-      <c r="AY58" s="104"/>
-      <c r="AZ58" s="104"/>
-      <c r="BA58" s="104"/>
-      <c r="BB58" s="104"/>
-      <c r="BC58" s="105"/>
+      <c r="AJ58" s="192"/>
+      <c r="AK58" s="192"/>
+      <c r="AL58" s="192"/>
+      <c r="AM58" s="192"/>
+      <c r="AN58" s="192"/>
+      <c r="AO58" s="192"/>
+      <c r="AP58" s="192"/>
+      <c r="AQ58" s="192"/>
+      <c r="AR58" s="192"/>
+      <c r="AS58" s="192"/>
+      <c r="AT58" s="192"/>
+      <c r="AU58" s="192"/>
+      <c r="AV58" s="192"/>
+      <c r="AW58" s="192"/>
+      <c r="AX58" s="192"/>
+      <c r="AY58" s="192"/>
+      <c r="AZ58" s="192"/>
+      <c r="BA58" s="192"/>
+      <c r="BB58" s="192"/>
+      <c r="BC58" s="193"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
+      <c r="H59" s="161"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="161"/>
+      <c r="L59" s="161"/>
+      <c r="M59" s="161"/>
+      <c r="N59" s="161"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="74" t="s">
+      <c r="S59" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="74"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="74"/>
-      <c r="AE59" s="74"/>
-      <c r="AI59" s="75"/>
-      <c r="AJ59" s="76"/>
-      <c r="AK59" s="76"/>
-      <c r="AL59" s="76"/>
-      <c r="AM59" s="76"/>
-      <c r="AN59" s="76"/>
-      <c r="AO59" s="76"/>
-      <c r="AP59" s="76"/>
-      <c r="AQ59" s="76"/>
-      <c r="AR59" s="76"/>
-      <c r="AS59" s="76"/>
-      <c r="AT59" s="76"/>
-      <c r="AU59" s="76"/>
-      <c r="AV59" s="76"/>
-      <c r="AW59" s="76"/>
-      <c r="AX59" s="76"/>
-      <c r="AY59" s="76"/>
-      <c r="AZ59" s="76"/>
-      <c r="BA59" s="76"/>
-      <c r="BB59" s="76"/>
-      <c r="BC59" s="77"/>
+      <c r="T59" s="162"/>
+      <c r="U59" s="162"/>
+      <c r="V59" s="162"/>
+      <c r="W59" s="162"/>
+      <c r="X59" s="162"/>
+      <c r="Y59" s="162"/>
+      <c r="Z59" s="162"/>
+      <c r="AA59" s="162"/>
+      <c r="AB59" s="162"/>
+      <c r="AC59" s="162"/>
+      <c r="AD59" s="162"/>
+      <c r="AE59" s="162"/>
+      <c r="AI59" s="163"/>
+      <c r="AJ59" s="164"/>
+      <c r="AK59" s="164"/>
+      <c r="AL59" s="164"/>
+      <c r="AM59" s="164"/>
+      <c r="AN59" s="164"/>
+      <c r="AO59" s="164"/>
+      <c r="AP59" s="164"/>
+      <c r="AQ59" s="164"/>
+      <c r="AR59" s="164"/>
+      <c r="AS59" s="164"/>
+      <c r="AT59" s="164"/>
+      <c r="AU59" s="164"/>
+      <c r="AV59" s="164"/>
+      <c r="AW59" s="164"/>
+      <c r="AX59" s="164"/>
+      <c r="AY59" s="164"/>
+      <c r="AZ59" s="164"/>
+      <c r="BA59" s="164"/>
+      <c r="BB59" s="164"/>
+      <c r="BC59" s="165"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="161"/>
+      <c r="M60" s="161"/>
+      <c r="N60" s="161"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="74"/>
-      <c r="W60" s="74"/>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="74"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="74"/>
+      <c r="S60" s="162"/>
+      <c r="T60" s="162"/>
+      <c r="U60" s="162"/>
+      <c r="V60" s="162"/>
+      <c r="W60" s="162"/>
+      <c r="X60" s="162"/>
+      <c r="Y60" s="162"/>
+      <c r="Z60" s="162"/>
+      <c r="AA60" s="162"/>
+      <c r="AB60" s="162"/>
+      <c r="AC60" s="162"/>
+      <c r="AD60" s="162"/>
+      <c r="AE60" s="162"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="74"/>
-      <c r="W61" s="74"/>
-      <c r="X61" s="74"/>
-      <c r="Y61" s="74"/>
-      <c r="Z61" s="74"/>
-      <c r="AA61" s="74"/>
-      <c r="AB61" s="74"/>
-      <c r="AC61" s="74"/>
-      <c r="AD61" s="74"/>
-      <c r="AE61" s="74"/>
-      <c r="AI61" s="78" t="s">
+      <c r="B61" s="161"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="161"/>
+      <c r="L61" s="161"/>
+      <c r="M61" s="161"/>
+      <c r="N61" s="161"/>
+      <c r="S61" s="162"/>
+      <c r="T61" s="162"/>
+      <c r="U61" s="162"/>
+      <c r="V61" s="162"/>
+      <c r="W61" s="162"/>
+      <c r="X61" s="162"/>
+      <c r="Y61" s="162"/>
+      <c r="Z61" s="162"/>
+      <c r="AA61" s="162"/>
+      <c r="AB61" s="162"/>
+      <c r="AC61" s="162"/>
+      <c r="AD61" s="162"/>
+      <c r="AE61" s="162"/>
+      <c r="AI61" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="78"/>
-      <c r="AK61" s="78"/>
-      <c r="AL61" s="78"/>
-      <c r="AM61" s="78"/>
-      <c r="AN61" s="78"/>
-      <c r="AO61" s="78"/>
-      <c r="AP61" s="78"/>
-      <c r="AQ61" s="78"/>
-      <c r="AR61" s="78"/>
-      <c r="AS61" s="78"/>
-      <c r="AT61" s="78"/>
-      <c r="AU61" s="80">
+      <c r="AJ61" s="166"/>
+      <c r="AK61" s="166"/>
+      <c r="AL61" s="166"/>
+      <c r="AM61" s="166"/>
+      <c r="AN61" s="166"/>
+      <c r="AO61" s="166"/>
+      <c r="AP61" s="166"/>
+      <c r="AQ61" s="166"/>
+      <c r="AR61" s="166"/>
+      <c r="AS61" s="166"/>
+      <c r="AT61" s="166"/>
+      <c r="AU61" s="168">
         <v>0</v>
       </c>
-      <c r="AV61" s="81"/>
-      <c r="AW61" s="81"/>
-      <c r="AX61" s="81"/>
-      <c r="AY61" s="81"/>
-      <c r="AZ61" s="81"/>
-      <c r="BA61" s="81"/>
-      <c r="BB61" s="81"/>
-      <c r="BC61" s="82"/>
+      <c r="AV61" s="169"/>
+      <c r="AW61" s="169"/>
+      <c r="AX61" s="169"/>
+      <c r="AY61" s="169"/>
+      <c r="AZ61" s="169"/>
+      <c r="BA61" s="169"/>
+      <c r="BB61" s="169"/>
+      <c r="BC61" s="170"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="S62" s="87" t="s">
+      <c r="B62" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
+      <c r="E62" s="174"/>
+      <c r="F62" s="174"/>
+      <c r="G62" s="174"/>
+      <c r="H62" s="174"/>
+      <c r="I62" s="174"/>
+      <c r="J62" s="174"/>
+      <c r="K62" s="174"/>
+      <c r="L62" s="174"/>
+      <c r="M62" s="174"/>
+      <c r="N62" s="174"/>
+      <c r="S62" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="87"/>
-      <c r="U62" s="87"/>
-      <c r="V62" s="87"/>
-      <c r="W62" s="87"/>
-      <c r="X62" s="87"/>
-      <c r="Y62" s="87"/>
-      <c r="Z62" s="87"/>
-      <c r="AA62" s="87"/>
-      <c r="AB62" s="87"/>
-      <c r="AC62" s="87"/>
-      <c r="AD62" s="87"/>
-      <c r="AE62" s="87"/>
-      <c r="AI62" s="79"/>
-      <c r="AJ62" s="79"/>
-      <c r="AK62" s="79"/>
-      <c r="AL62" s="79"/>
-      <c r="AM62" s="79"/>
-      <c r="AN62" s="79"/>
-      <c r="AO62" s="79"/>
-      <c r="AP62" s="79"/>
-      <c r="AQ62" s="79"/>
-      <c r="AR62" s="79"/>
-      <c r="AS62" s="79"/>
-      <c r="AT62" s="79"/>
-      <c r="AU62" s="83"/>
-      <c r="AV62" s="84"/>
-      <c r="AW62" s="84"/>
-      <c r="AX62" s="84"/>
-      <c r="AY62" s="84"/>
-      <c r="AZ62" s="84"/>
-      <c r="BA62" s="84"/>
-      <c r="BB62" s="84"/>
-      <c r="BC62" s="85"/>
+      <c r="T62" s="175"/>
+      <c r="U62" s="175"/>
+      <c r="V62" s="175"/>
+      <c r="W62" s="175"/>
+      <c r="X62" s="175"/>
+      <c r="Y62" s="175"/>
+      <c r="Z62" s="175"/>
+      <c r="AA62" s="175"/>
+      <c r="AB62" s="175"/>
+      <c r="AC62" s="175"/>
+      <c r="AD62" s="175"/>
+      <c r="AE62" s="175"/>
+      <c r="AI62" s="167"/>
+      <c r="AJ62" s="167"/>
+      <c r="AK62" s="167"/>
+      <c r="AL62" s="167"/>
+      <c r="AM62" s="167"/>
+      <c r="AN62" s="167"/>
+      <c r="AO62" s="167"/>
+      <c r="AP62" s="167"/>
+      <c r="AQ62" s="167"/>
+      <c r="AR62" s="167"/>
+      <c r="AS62" s="167"/>
+      <c r="AT62" s="167"/>
+      <c r="AU62" s="171"/>
+      <c r="AV62" s="172"/>
+      <c r="AW62" s="172"/>
+      <c r="AX62" s="172"/>
+      <c r="AY62" s="172"/>
+      <c r="AZ62" s="172"/>
+      <c r="BA62" s="172"/>
+      <c r="BB62" s="172"/>
+      <c r="BC62" s="173"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="J49:S49"/>
+    <mergeCell ref="T48:AB48"/>
+    <mergeCell ref="T49:AB49"/>
+    <mergeCell ref="AC48:AK48"/>
+    <mergeCell ref="AM35:BC51"/>
+    <mergeCell ref="AC46:AK46"/>
+    <mergeCell ref="AC49:AK49"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="J46:S46"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="A45:AK45"/>
+    <mergeCell ref="A50:AK51"/>
+    <mergeCell ref="AC47:AK47"/>
+    <mergeCell ref="A43:AK44"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B59:N61"/>
+    <mergeCell ref="S59:AE61"/>
+    <mergeCell ref="AI59:BC59"/>
+    <mergeCell ref="AI61:AT62"/>
+    <mergeCell ref="AU61:BC62"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="S62:AE62"/>
+    <mergeCell ref="W54:AG58"/>
+    <mergeCell ref="AI54:BC54"/>
+    <mergeCell ref="AI55:BC55"/>
+    <mergeCell ref="AI56:BC56"/>
+    <mergeCell ref="AI57:BC57"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="AI58:BC58"/>
+    <mergeCell ref="A52:U54"/>
+    <mergeCell ref="W53:AG53"/>
+    <mergeCell ref="AI53:BC53"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="A19:AK19"/>
+    <mergeCell ref="S32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="A27:R28"/>
+    <mergeCell ref="N21:V21"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="N23:V23"/>
+    <mergeCell ref="N24:V24"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="Z1:BC1"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="AM19:BC19"/>
+    <mergeCell ref="AM23:BC23"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AL14:AS14"/>
+    <mergeCell ref="AL15:AS15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="P11:W11"/>
+    <mergeCell ref="AM12:BC12"/>
+    <mergeCell ref="AM10:BC11"/>
+    <mergeCell ref="A1:N11"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AS13:BC13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A13:AR13"/>
+    <mergeCell ref="I14:AA14"/>
+    <mergeCell ref="A33:AK33"/>
+    <mergeCell ref="AM20:BC21"/>
+    <mergeCell ref="AY24:BC24"/>
+    <mergeCell ref="A29:AK29"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AT15:BC15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="I15:AA15"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="AO16:BC16"/>
+    <mergeCell ref="AO17:BC17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="A34:AK34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J35:AK35"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="AW6:BC6"/>
     <mergeCell ref="AG2:BC2"/>
@@ -7722,136 +7851,6 @@
     <mergeCell ref="W24:AB24"/>
     <mergeCell ref="W25:AB25"/>
     <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="A34:AK34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A33:AK33"/>
-    <mergeCell ref="AM20:BC21"/>
-    <mergeCell ref="AY24:BC24"/>
-    <mergeCell ref="A29:AK29"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AT15:BC15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="I15:AA15"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="S27:AB27"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="AO16:BC16"/>
-    <mergeCell ref="AO17:BC17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="Z1:BC1"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="AM19:BC19"/>
-    <mergeCell ref="AM23:BC23"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AL14:AS14"/>
-    <mergeCell ref="AL15:AS15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="AM12:BC12"/>
-    <mergeCell ref="AM10:BC11"/>
-    <mergeCell ref="A1:N11"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AS13:BC13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A13:AR13"/>
-    <mergeCell ref="I14:AA14"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="A19:AK19"/>
-    <mergeCell ref="S32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="A27:R28"/>
-    <mergeCell ref="N21:V21"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="N23:V23"/>
-    <mergeCell ref="N24:V24"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="B59:N61"/>
-    <mergeCell ref="S59:AE61"/>
-    <mergeCell ref="AI59:BC59"/>
-    <mergeCell ref="AI61:AT62"/>
-    <mergeCell ref="AU61:BC62"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="S62:AE62"/>
-    <mergeCell ref="W54:AG58"/>
-    <mergeCell ref="AI54:BC54"/>
-    <mergeCell ref="AI55:BC55"/>
-    <mergeCell ref="AI56:BC56"/>
-    <mergeCell ref="AI57:BC57"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="AI58:BC58"/>
-    <mergeCell ref="A52:U54"/>
-    <mergeCell ref="W53:AG53"/>
-    <mergeCell ref="AI53:BC53"/>
-    <mergeCell ref="J49:S49"/>
-    <mergeCell ref="T48:AB48"/>
-    <mergeCell ref="T49:AB49"/>
-    <mergeCell ref="AC48:AK48"/>
-    <mergeCell ref="AM35:BC51"/>
-    <mergeCell ref="AC46:AK46"/>
-    <mergeCell ref="AC49:AK49"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="J46:S46"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="A45:AK45"/>
-    <mergeCell ref="A50:AK51"/>
-    <mergeCell ref="AC47:AK47"/>
-    <mergeCell ref="A43:AK44"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L41:O41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>

--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -154,9 +154,6 @@
     <t>Consumo ultimos 6 meses</t>
   </si>
   <si>
-    <t>Agosto</t>
-  </si>
-  <si>
     <t>Septiembre</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>COMPORTAMIENTO DE CONSUMO GENERAL M3</t>
+  </si>
+  <si>
+    <t>Febrero</t>
   </si>
 </sst>
 </file>
@@ -1784,12 +1784,507 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,12 +2306,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,19 +2336,10 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,27 +2348,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1896,471 +2361,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2487,22 +2487,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Agosto</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Septiembre</c:v>
+                  <c:v>octubre</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>octubre</c:v>
+                  <c:v>noviembre</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>noviembre</c:v>
+                  <c:v>diciembre</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>diciembre</c:v>
+                  <c:v>enero</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>enero</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2511,25 +2511,25 @@
             <c:numRef>
               <c:f>'001-044-78055'!$P$36:$P$41</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>31.5</c:v>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="2">
                   <c:v>28.6</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="3">
                   <c:v>33.1</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="4">
                   <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,22 +2637,22 @@
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Agosto</c:v>
+                        <c:v>Septiembre</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Septiembre</c:v>
+                        <c:v>octubre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>octubre</c:v>
+                        <c:v>noviembre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>noviembre</c:v>
+                        <c:v>diciembre</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>diciembre</c:v>
+                        <c:v>enero</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>enero</c:v>
+                        <c:v>Febrero</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2762,22 +2762,22 @@
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Agosto</c:v>
+                        <c:v>Septiembre</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Septiembre</c:v>
+                        <c:v>octubre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>octubre</c:v>
+                        <c:v>noviembre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>noviembre</c:v>
+                        <c:v>diciembre</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>diciembre</c:v>
+                        <c:v>enero</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>enero</c:v>
+                        <c:v>Febrero</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2887,22 +2887,22 @@
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Agosto</c:v>
+                        <c:v>Septiembre</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Septiembre</c:v>
+                        <c:v>octubre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>octubre</c:v>
+                        <c:v>noviembre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>noviembre</c:v>
+                        <c:v>diciembre</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>diciembre</c:v>
+                        <c:v>enero</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>enero</c:v>
+                        <c:v>Febrero</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2987,7 +2987,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3955,16 +3955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>102518</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43902</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>169349</xdr:rowOff>
+      <xdr:rowOff>162022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>36938</xdr:colOff>
+      <xdr:colOff>124861</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>127962</xdr:rowOff>
+      <xdr:rowOff>120635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4251,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:AK34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4271,22 +4271,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4298,54 +4298,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="124" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
+      <c r="Z1" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="135"/>
+      <c r="AV1" s="135"/>
+      <c r="AW1" s="135"/>
+      <c r="AX1" s="135"/>
+      <c r="AY1" s="135"/>
+      <c r="AZ1" s="135"/>
+      <c r="BA1" s="135"/>
+      <c r="BB1" s="135"/>
+      <c r="BC1" s="135"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4363,47 +4363,47 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
+      <c r="AG2" s="210" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="210"/>
+      <c r="AJ2" s="210"/>
+      <c r="AK2" s="210"/>
+      <c r="AL2" s="210"/>
+      <c r="AM2" s="210"/>
+      <c r="AN2" s="210"/>
+      <c r="AO2" s="210"/>
+      <c r="AP2" s="210"/>
+      <c r="AQ2" s="210"/>
+      <c r="AR2" s="210"/>
+      <c r="AS2" s="210"/>
+      <c r="AT2" s="210"/>
+      <c r="AU2" s="210"/>
+      <c r="AV2" s="210"/>
+      <c r="AW2" s="210"/>
+      <c r="AX2" s="210"/>
+      <c r="AY2" s="210"/>
+      <c r="AZ2" s="210"/>
+      <c r="BA2" s="210"/>
+      <c r="BB2" s="210"/>
+      <c r="BC2" s="210"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -4439,20 +4439,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4475,41 +4475,41 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="48"/>
+      <c r="AM4" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="154"/>
+      <c r="AR4" s="154"/>
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
+      <c r="AU4" s="154"/>
+      <c r="AV4" s="214"/>
+      <c r="AW4" s="211"/>
+      <c r="AX4" s="212"/>
+      <c r="AY4" s="212"/>
+      <c r="AZ4" s="212"/>
+      <c r="BA4" s="212"/>
+      <c r="BB4" s="212"/>
+      <c r="BC4" s="213"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="141"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -4544,20 +4544,20 @@
       <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4581,52 +4581,52 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="49" t="s">
+      <c r="AM6" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="44"/>
+      <c r="AN6" s="154"/>
+      <c r="AO6" s="154"/>
+      <c r="AP6" s="154"/>
+      <c r="AQ6" s="154"/>
+      <c r="AR6" s="154"/>
+      <c r="AS6" s="154"/>
+      <c r="AT6" s="154"/>
+      <c r="AU6" s="154"/>
+      <c r="AV6" s="214"/>
+      <c r="AW6" s="207"/>
+      <c r="AX6" s="208"/>
+      <c r="AY6" s="208"/>
+      <c r="AZ6" s="208"/>
+      <c r="BA6" s="208"/>
+      <c r="BB6" s="208"/>
+      <c r="BC6" s="209"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="136"/>
+      <c r="P7" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="154"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="155"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -4646,31 +4646,31 @@
       <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="137">
+      <c r="P8" s="156">
         <v>1</v>
       </c>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="139"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="158"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4679,41 +4679,41 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="49" t="s">
+      <c r="AM8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="43"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="44"/>
+      <c r="AN8" s="154"/>
+      <c r="AO8" s="154"/>
+      <c r="AP8" s="154"/>
+      <c r="AQ8" s="154"/>
+      <c r="AR8" s="154"/>
+      <c r="AS8" s="154"/>
+      <c r="AT8" s="154"/>
+      <c r="AU8" s="154"/>
+      <c r="AV8" s="214"/>
+      <c r="AW8" s="207"/>
+      <c r="AX8" s="208"/>
+      <c r="AY8" s="208"/>
+      <c r="AZ8" s="208"/>
+      <c r="BA8" s="208"/>
+      <c r="BB8" s="208"/>
+      <c r="BC8" s="209"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
       <c r="O9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -4724,31 +4724,31 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
       <c r="O10" s="31"/>
-      <c r="P10" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
+      <c r="P10" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
@@ -4757,50 +4757,50 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
-      <c r="AM10" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="68"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
+      <c r="AM10" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN10" s="161"/>
+      <c r="AO10" s="161"/>
+      <c r="AP10" s="161"/>
+      <c r="AQ10" s="161"/>
+      <c r="AR10" s="161"/>
+      <c r="AS10" s="161"/>
+      <c r="AT10" s="161"/>
+      <c r="AU10" s="161"/>
+      <c r="AV10" s="161"/>
+      <c r="AW10" s="161"/>
+      <c r="AX10" s="161"/>
+      <c r="AY10" s="161"/>
+      <c r="AZ10" s="161"/>
+      <c r="BA10" s="161"/>
+      <c r="BB10" s="161"/>
+      <c r="BC10" s="161"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="157"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -4809,23 +4809,23 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="68"/>
-      <c r="AW11" s="68"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="161"/>
+      <c r="AO11" s="161"/>
+      <c r="AP11" s="161"/>
+      <c r="AQ11" s="161"/>
+      <c r="AR11" s="161"/>
+      <c r="AS11" s="161"/>
+      <c r="AT11" s="161"/>
+      <c r="AU11" s="161"/>
+      <c r="AV11" s="161"/>
+      <c r="AW11" s="161"/>
+      <c r="AX11" s="161"/>
+      <c r="AY11" s="161"/>
+      <c r="AZ11" s="161"/>
+      <c r="BA11" s="161"/>
+      <c r="BB11" s="161"/>
+      <c r="BC11" s="161"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="32"/>
@@ -4851,336 +4851,336 @@
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="140" t="s">
+      <c r="AM12" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="140"/>
-      <c r="AO12" s="140"/>
-      <c r="AP12" s="140"/>
-      <c r="AQ12" s="140"/>
-      <c r="AR12" s="140"/>
-      <c r="AS12" s="140"/>
-      <c r="AT12" s="140"/>
-      <c r="AU12" s="140"/>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="140"/>
-      <c r="AX12" s="140"/>
-      <c r="AY12" s="140"/>
-      <c r="AZ12" s="140"/>
-      <c r="BA12" s="140"/>
-      <c r="BB12" s="140"/>
-      <c r="BC12" s="140"/>
+      <c r="AN12" s="160"/>
+      <c r="AO12" s="160"/>
+      <c r="AP12" s="160"/>
+      <c r="AQ12" s="160"/>
+      <c r="AR12" s="160"/>
+      <c r="AS12" s="160"/>
+      <c r="AT12" s="160"/>
+      <c r="AU12" s="160"/>
+      <c r="AV12" s="160"/>
+      <c r="AW12" s="160"/>
+      <c r="AX12" s="160"/>
+      <c r="AY12" s="160"/>
+      <c r="AZ12" s="160"/>
+      <c r="BA12" s="160"/>
+      <c r="BB12" s="160"/>
+      <c r="BC12" s="160"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="146"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="146"/>
-      <c r="AK13" s="146"/>
-      <c r="AL13" s="146"/>
-      <c r="AM13" s="146"/>
-      <c r="AN13" s="146"/>
-      <c r="AO13" s="146"/>
-      <c r="AP13" s="146"/>
-      <c r="AQ13" s="146"/>
-      <c r="AR13" s="146"/>
-      <c r="AS13" s="142"/>
-      <c r="AT13" s="142"/>
-      <c r="AU13" s="142"/>
-      <c r="AV13" s="142"/>
-      <c r="AW13" s="142"/>
-      <c r="AX13" s="142"/>
-      <c r="AY13" s="142"/>
-      <c r="AZ13" s="142"/>
-      <c r="BA13" s="142"/>
-      <c r="BB13" s="142"/>
-      <c r="BC13" s="143"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="167"/>
+      <c r="AH13" s="167"/>
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="167"/>
+      <c r="AK13" s="167"/>
+      <c r="AL13" s="167"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="167"/>
+      <c r="AP13" s="167"/>
+      <c r="AQ13" s="167"/>
+      <c r="AR13" s="167"/>
+      <c r="AS13" s="163"/>
+      <c r="AT13" s="163"/>
+      <c r="AU13" s="163"/>
+      <c r="AV13" s="163"/>
+      <c r="AW13" s="163"/>
+      <c r="AX13" s="163"/>
+      <c r="AY13" s="163"/>
+      <c r="AZ13" s="163"/>
+      <c r="BA13" s="163"/>
+      <c r="BB13" s="163"/>
+      <c r="BC13" s="164"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="133" t="s">
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="133"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="133"/>
-      <c r="AG14" s="65" t="s">
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="148"/>
+      <c r="AG14" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="133" t="s">
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="148" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM14" s="148"/>
+      <c r="AN14" s="148"/>
+      <c r="AO14" s="148"/>
+      <c r="AP14" s="148"/>
+      <c r="AQ14" s="148"/>
+      <c r="AR14" s="148"/>
+      <c r="AS14" s="148"/>
+      <c r="AT14" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="AM14" s="133"/>
-      <c r="AN14" s="133"/>
-      <c r="AO14" s="133"/>
-      <c r="AP14" s="133"/>
-      <c r="AQ14" s="133"/>
-      <c r="AR14" s="133"/>
-      <c r="AS14" s="133"/>
-      <c r="AT14" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="66"/>
+      <c r="AU14" s="136"/>
+      <c r="AV14" s="136"/>
+      <c r="AW14" s="136"/>
+      <c r="AX14" s="136"/>
+      <c r="AY14" s="136"/>
+      <c r="AZ14" s="136"/>
+      <c r="BA14" s="136"/>
+      <c r="BB14" s="136"/>
+      <c r="BC14" s="226"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="105"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="105"/>
-      <c r="AV15" s="105"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="105"/>
-      <c r="AY15" s="105"/>
-      <c r="AZ15" s="105"/>
-      <c r="BA15" s="105"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="106"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="149"/>
+      <c r="AN15" s="149"/>
+      <c r="AO15" s="149"/>
+      <c r="AP15" s="149"/>
+      <c r="AQ15" s="149"/>
+      <c r="AR15" s="149"/>
+      <c r="AS15" s="149"/>
+      <c r="AT15" s="149"/>
+      <c r="AU15" s="149"/>
+      <c r="AV15" s="149"/>
+      <c r="AW15" s="149"/>
+      <c r="AX15" s="149"/>
+      <c r="AY15" s="149"/>
+      <c r="AZ15" s="149"/>
+      <c r="BA15" s="149"/>
+      <c r="BB15" s="149"/>
+      <c r="BC15" s="181"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="65" t="s">
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="65" t="s">
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65" t="s">
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="136"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="117" t="s">
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="194"/>
+      <c r="AO16" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="118"/>
-      <c r="BC16" s="119"/>
+      <c r="AP16" s="190"/>
+      <c r="AQ16" s="190"/>
+      <c r="AR16" s="190"/>
+      <c r="AS16" s="190"/>
+      <c r="AT16" s="190"/>
+      <c r="AU16" s="190"/>
+      <c r="AV16" s="190"/>
+      <c r="AW16" s="190"/>
+      <c r="AX16" s="190"/>
+      <c r="AY16" s="190"/>
+      <c r="AZ16" s="190"/>
+      <c r="BA16" s="190"/>
+      <c r="BB16" s="190"/>
+      <c r="BC16" s="191"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="132"/>
-      <c r="AO17" s="120"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="116"/>
-      <c r="AS17" s="116"/>
-      <c r="AT17" s="116"/>
-      <c r="AU17" s="116"/>
-      <c r="AV17" s="116"/>
-      <c r="AW17" s="116"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="116"/>
-      <c r="AZ17" s="116"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="116"/>
-      <c r="BC17" s="121"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="188"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="146"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="146"/>
+      <c r="Y17" s="146"/>
+      <c r="Z17" s="146"/>
+      <c r="AA17" s="146"/>
+      <c r="AB17" s="146"/>
+      <c r="AC17" s="146"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="146"/>
+      <c r="AF17" s="146"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="146"/>
+      <c r="AI17" s="146"/>
+      <c r="AJ17" s="146"/>
+      <c r="AK17" s="146"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="146"/>
+      <c r="AN17" s="147"/>
+      <c r="AO17" s="192"/>
+      <c r="AP17" s="188"/>
+      <c r="AQ17" s="188"/>
+      <c r="AR17" s="188"/>
+      <c r="AS17" s="188"/>
+      <c r="AT17" s="188"/>
+      <c r="AU17" s="188"/>
+      <c r="AV17" s="188"/>
+      <c r="AW17" s="188"/>
+      <c r="AX17" s="188"/>
+      <c r="AY17" s="188"/>
+      <c r="AZ17" s="188"/>
+      <c r="BA17" s="188"/>
+      <c r="BB17" s="188"/>
+      <c r="BC17" s="193"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5196,19 +5196,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5222,67 +5222,67 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="149"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="150"/>
-      <c r="AM19" s="125" t="s">
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="119"/>
+      <c r="AM19" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
-      <c r="AQ19" s="126"/>
-      <c r="AR19" s="126"/>
-      <c r="AS19" s="126"/>
-      <c r="AT19" s="126"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="126"/>
-      <c r="AW19" s="126"/>
-      <c r="AX19" s="126"/>
-      <c r="AY19" s="126"/>
-      <c r="AZ19" s="126"/>
-      <c r="BA19" s="126"/>
-      <c r="BB19" s="126"/>
-      <c r="BC19" s="127"/>
+      <c r="AN19" s="140"/>
+      <c r="AO19" s="140"/>
+      <c r="AP19" s="140"/>
+      <c r="AQ19" s="140"/>
+      <c r="AR19" s="140"/>
+      <c r="AS19" s="140"/>
+      <c r="AT19" s="140"/>
+      <c r="AU19" s="140"/>
+      <c r="AV19" s="140"/>
+      <c r="AW19" s="140"/>
+      <c r="AX19" s="140"/>
+      <c r="AY19" s="140"/>
+      <c r="AZ19" s="140"/>
+      <c r="BA19" s="140"/>
+      <c r="BB19" s="140"/>
+      <c r="BC19" s="141"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="130" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="123"/>
@@ -5326,582 +5326,582 @@
       <c r="AH20" s="123"/>
       <c r="AI20" s="123"/>
       <c r="AJ20" s="123"/>
-      <c r="AK20" s="134"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="94"/>
+      <c r="AK20" s="152"/>
+      <c r="AM20" s="169"/>
+      <c r="AN20" s="170"/>
+      <c r="AO20" s="170"/>
+      <c r="AP20" s="170"/>
+      <c r="AQ20" s="170"/>
+      <c r="AR20" s="170"/>
+      <c r="AS20" s="170"/>
+      <c r="AT20" s="170"/>
+      <c r="AU20" s="170"/>
+      <c r="AV20" s="170"/>
+      <c r="AW20" s="170"/>
+      <c r="AX20" s="170"/>
+      <c r="AY20" s="170"/>
+      <c r="AZ20" s="170"/>
+      <c r="BA20" s="170"/>
+      <c r="BB20" s="170"/>
+      <c r="BC20" s="171"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="157"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="74"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="96"/>
-      <c r="AZ21" s="96"/>
-      <c r="BA21" s="96"/>
-      <c r="BB21" s="96"/>
-      <c r="BC21" s="97"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="230"/>
+      <c r="Y21" s="230"/>
+      <c r="Z21" s="230"/>
+      <c r="AA21" s="230"/>
+      <c r="AB21" s="230"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="125"/>
+      <c r="AM21" s="172"/>
+      <c r="AN21" s="173"/>
+      <c r="AO21" s="173"/>
+      <c r="AP21" s="173"/>
+      <c r="AQ21" s="173"/>
+      <c r="AR21" s="173"/>
+      <c r="AS21" s="173"/>
+      <c r="AT21" s="173"/>
+      <c r="AU21" s="173"/>
+      <c r="AV21" s="173"/>
+      <c r="AW21" s="173"/>
+      <c r="AX21" s="173"/>
+      <c r="AY21" s="173"/>
+      <c r="AZ21" s="173"/>
+      <c r="BA21" s="173"/>
+      <c r="BB21" s="173"/>
+      <c r="BC21" s="174"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="74"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="231"/>
+      <c r="X22" s="231"/>
+      <c r="Y22" s="231"/>
+      <c r="Z22" s="231"/>
+      <c r="AA22" s="231"/>
+      <c r="AB22" s="231"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="125"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="74"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="231"/>
+      <c r="Y23" s="231"/>
+      <c r="Z23" s="231"/>
+      <c r="AA23" s="231"/>
+      <c r="AB23" s="231"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="125"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="128" t="s">
+      <c r="AM23" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="129"/>
-      <c r="AO23" s="129"/>
-      <c r="AP23" s="129"/>
-      <c r="AQ23" s="129"/>
-      <c r="AR23" s="129"/>
-      <c r="AS23" s="129"/>
-      <c r="AT23" s="129"/>
-      <c r="AU23" s="129"/>
-      <c r="AV23" s="129"/>
-      <c r="AW23" s="129"/>
-      <c r="AX23" s="129"/>
-      <c r="AY23" s="129"/>
-      <c r="AZ23" s="129"/>
-      <c r="BA23" s="129"/>
-      <c r="BB23" s="129"/>
-      <c r="BC23" s="130"/>
+      <c r="AN23" s="143"/>
+      <c r="AO23" s="143"/>
+      <c r="AP23" s="143"/>
+      <c r="AQ23" s="143"/>
+      <c r="AR23" s="143"/>
+      <c r="AS23" s="143"/>
+      <c r="AT23" s="143"/>
+      <c r="AU23" s="143"/>
+      <c r="AV23" s="143"/>
+      <c r="AW23" s="143"/>
+      <c r="AX23" s="143"/>
+      <c r="AY23" s="143"/>
+      <c r="AZ23" s="143"/>
+      <c r="BA23" s="143"/>
+      <c r="BB23" s="143"/>
+      <c r="BC23" s="144"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="74"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="109" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="231"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="231"/>
+      <c r="Z24" s="231"/>
+      <c r="AA24" s="231"/>
+      <c r="AB24" s="231"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="125"/>
+      <c r="AL24" s="229"/>
+      <c r="AM24" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="110"/>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="111" t="s">
+      <c r="AN24" s="183"/>
+      <c r="AO24" s="183"/>
+      <c r="AP24" s="183"/>
+      <c r="AQ24" s="183"/>
+      <c r="AR24" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="98" t="s">
+      <c r="AS24" s="184"/>
+      <c r="AT24" s="184"/>
+      <c r="AU24" s="184"/>
+      <c r="AV24" s="184"/>
+      <c r="AW24" s="184"/>
+      <c r="AX24" s="184"/>
+      <c r="AY24" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="99"/>
+      <c r="AZ24" s="175"/>
+      <c r="BA24" s="175"/>
+      <c r="BB24" s="175"/>
+      <c r="BC24" s="176"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="157"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="74"/>
-      <c r="AL25" s="70"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="53"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="231"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="231"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="231"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="125"/>
+      <c r="AL25" s="229"/>
+      <c r="AM25" s="222"/>
+      <c r="AN25" s="223"/>
+      <c r="AO25" s="223"/>
+      <c r="AP25" s="223"/>
+      <c r="AQ25" s="223"/>
+      <c r="AR25" s="224"/>
+      <c r="AS25" s="224"/>
+      <c r="AT25" s="224"/>
+      <c r="AU25" s="224"/>
+      <c r="AV25" s="224"/>
+      <c r="AW25" s="224"/>
+      <c r="AX25" s="224"/>
+      <c r="AY25" s="215"/>
+      <c r="AZ25" s="215"/>
+      <c r="BA25" s="215"/>
+      <c r="BB25" s="215"/>
+      <c r="BC25" s="216"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="55"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="232"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="125"/>
+      <c r="AL26" s="229"/>
+      <c r="AM26" s="137"/>
+      <c r="AN26" s="138"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="138"/>
+      <c r="AR26" s="225"/>
+      <c r="AS26" s="225"/>
+      <c r="AT26" s="225"/>
+      <c r="AU26" s="225"/>
+      <c r="AV26" s="225"/>
+      <c r="AW26" s="225"/>
+      <c r="AX26" s="225"/>
+      <c r="AY26" s="217"/>
+      <c r="AZ26" s="217"/>
+      <c r="BA26" s="217"/>
+      <c r="BB26" s="217"/>
+      <c r="BC26" s="218"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="113" t="s">
+      <c r="A27" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="114"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
-      <c r="AB27" s="114"/>
-      <c r="AC27" s="71">
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="187"/>
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="187"/>
+      <c r="AC27" s="121">
         <v>0</v>
       </c>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="67" t="s">
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="122"/>
+      <c r="AL27" s="229"/>
+      <c r="AM27" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="67"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="67"/>
-      <c r="AQ27" s="67"/>
-      <c r="AR27" s="67"/>
-      <c r="AS27" s="67"/>
-      <c r="AT27" s="67"/>
-      <c r="AU27" s="67"/>
-      <c r="AV27" s="67"/>
-      <c r="AW27" s="67"/>
-      <c r="AX27" s="67"/>
-      <c r="AY27" s="67"/>
-      <c r="AZ27" s="67"/>
-      <c r="BA27" s="67"/>
-      <c r="BB27" s="67"/>
-      <c r="BC27" s="67"/>
+      <c r="AN27" s="227"/>
+      <c r="AO27" s="227"/>
+      <c r="AP27" s="227"/>
+      <c r="AQ27" s="227"/>
+      <c r="AR27" s="227"/>
+      <c r="AS27" s="227"/>
+      <c r="AT27" s="227"/>
+      <c r="AU27" s="227"/>
+      <c r="AV27" s="227"/>
+      <c r="AW27" s="227"/>
+      <c r="AX27" s="227"/>
+      <c r="AY27" s="227"/>
+      <c r="AZ27" s="227"/>
+      <c r="BA27" s="227"/>
+      <c r="BB27" s="227"/>
+      <c r="BC27" s="227"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="AL28" s="70"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="68"/>
-      <c r="AO28" s="68"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="AL28" s="229"/>
+      <c r="AM28" s="161"/>
+      <c r="AN28" s="161"/>
+      <c r="AO28" s="161"/>
+      <c r="AP28" s="161"/>
+      <c r="AQ28" s="161"/>
+      <c r="AR28" s="161"/>
+      <c r="AS28" s="161"/>
+      <c r="AT28" s="161"/>
+      <c r="AU28" s="161"/>
+      <c r="AV28" s="161"/>
+      <c r="AW28" s="161"/>
+      <c r="AX28" s="161"/>
+      <c r="AY28" s="161"/>
+      <c r="AZ28" s="161"/>
+      <c r="BA28" s="161"/>
+      <c r="BB28" s="161"/>
+      <c r="BC28" s="161"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="102"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="68"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="178"/>
+      <c r="AL29" s="229"/>
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="161"/>
+      <c r="AO29" s="161"/>
+      <c r="AP29" s="161"/>
+      <c r="AQ29" s="161"/>
+      <c r="AR29" s="161"/>
+      <c r="AS29" s="161"/>
+      <c r="AT29" s="161"/>
+      <c r="AU29" s="161"/>
+      <c r="AV29" s="161"/>
+      <c r="AW29" s="161"/>
+      <c r="AX29" s="161"/>
+      <c r="AY29" s="161"/>
+      <c r="AZ29" s="161"/>
+      <c r="BA29" s="161"/>
+      <c r="BB29" s="161"/>
+      <c r="BC29" s="161"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103" t="s">
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103" t="s">
+      <c r="N30" s="179"/>
+      <c r="O30" s="179"/>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="179"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="179"/>
+      <c r="T30" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
+      <c r="U30" s="179"/>
+      <c r="V30" s="179"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="179"/>
+      <c r="Y30" s="179"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="103" t="s">
+      <c r="AC30" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="104"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="68"/>
-      <c r="AO30" s="68"/>
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
+      <c r="AD30" s="179"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="179"/>
+      <c r="AG30" s="179"/>
+      <c r="AH30" s="179"/>
+      <c r="AI30" s="179"/>
+      <c r="AJ30" s="179"/>
+      <c r="AK30" s="180"/>
+      <c r="AL30" s="229"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="161"/>
+      <c r="AO30" s="161"/>
+      <c r="AP30" s="161"/>
+      <c r="AQ30" s="161"/>
+      <c r="AR30" s="161"/>
+      <c r="AS30" s="161"/>
+      <c r="AT30" s="161"/>
+      <c r="AU30" s="161"/>
+      <c r="AV30" s="161"/>
+      <c r="AW30" s="161"/>
+      <c r="AX30" s="161"/>
+      <c r="AY30" s="161"/>
+      <c r="AZ30" s="161"/>
+      <c r="BA30" s="161"/>
+      <c r="BB30" s="161"/>
+      <c r="BC30" s="161"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -5941,24 +5941,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="70"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
+      <c r="AL31" s="229"/>
+      <c r="AM31" s="161"/>
+      <c r="AN31" s="161"/>
+      <c r="AO31" s="161"/>
+      <c r="AP31" s="161"/>
+      <c r="AQ31" s="161"/>
+      <c r="AR31" s="161"/>
+      <c r="AS31" s="161"/>
+      <c r="AT31" s="161"/>
+      <c r="AU31" s="161"/>
+      <c r="AV31" s="161"/>
+      <c r="AW31" s="161"/>
+      <c r="AX31" s="161"/>
+      <c r="AY31" s="161"/>
+      <c r="AZ31" s="161"/>
+      <c r="BA31" s="161"/>
+      <c r="BB31" s="161"/>
+      <c r="BC31" s="161"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -5979,254 +5979,254 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="151" t="s">
+      <c r="S32" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="151"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="151"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="71">
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="121">
         <v>0</v>
       </c>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="122"/>
+      <c r="AL32" s="229"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="161"/>
+      <c r="AO32" s="161"/>
+      <c r="AP32" s="161"/>
+      <c r="AQ32" s="161"/>
+      <c r="AR32" s="161"/>
+      <c r="AS32" s="161"/>
+      <c r="AT32" s="161"/>
+      <c r="AU32" s="161"/>
+      <c r="AV32" s="161"/>
+      <c r="AW32" s="161"/>
+      <c r="AX32" s="161"/>
+      <c r="AY32" s="161"/>
+      <c r="AZ32" s="161"/>
+      <c r="BA32" s="161"/>
+      <c r="BB32" s="161"/>
+      <c r="BC32" s="161"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="168"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="168"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="168"/>
+      <c r="AF33" s="168"/>
+      <c r="AG33" s="168"/>
+      <c r="AH33" s="168"/>
+      <c r="AI33" s="168"/>
+      <c r="AJ33" s="168"/>
+      <c r="AK33" s="168"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
-      <c r="AV33" s="69"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69"/>
-      <c r="BA33" s="69"/>
-      <c r="BB33" s="69"/>
-      <c r="BC33" s="69"/>
+      <c r="AM33" s="228"/>
+      <c r="AN33" s="228"/>
+      <c r="AO33" s="228"/>
+      <c r="AP33" s="228"/>
+      <c r="AQ33" s="228"/>
+      <c r="AR33" s="228"/>
+      <c r="AS33" s="228"/>
+      <c r="AT33" s="228"/>
+      <c r="AU33" s="228"/>
+      <c r="AV33" s="228"/>
+      <c r="AW33" s="228"/>
+      <c r="AX33" s="228"/>
+      <c r="AY33" s="228"/>
+      <c r="AZ33" s="228"/>
+      <c r="BA33" s="228"/>
+      <c r="BB33" s="228"/>
+      <c r="BC33" s="228"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="80"/>
-      <c r="AM34" s="56" t="s">
+      <c r="A34" s="195" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="196"/>
+      <c r="O34" s="196"/>
+      <c r="P34" s="196"/>
+      <c r="Q34" s="196"/>
+      <c r="R34" s="196"/>
+      <c r="S34" s="196"/>
+      <c r="T34" s="196"/>
+      <c r="U34" s="196"/>
+      <c r="V34" s="196"/>
+      <c r="W34" s="196"/>
+      <c r="X34" s="196"/>
+      <c r="Y34" s="196"/>
+      <c r="Z34" s="196"/>
+      <c r="AA34" s="196"/>
+      <c r="AB34" s="196"/>
+      <c r="AC34" s="196"/>
+      <c r="AD34" s="196"/>
+      <c r="AE34" s="196"/>
+      <c r="AF34" s="196"/>
+      <c r="AG34" s="196"/>
+      <c r="AH34" s="196"/>
+      <c r="AI34" s="196"/>
+      <c r="AJ34" s="196"/>
+      <c r="AK34" s="197"/>
+      <c r="AM34" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="58"/>
+      <c r="AN34" s="220"/>
+      <c r="AO34" s="220"/>
+      <c r="AP34" s="220"/>
+      <c r="AQ34" s="220"/>
+      <c r="AR34" s="220"/>
+      <c r="AS34" s="220"/>
+      <c r="AT34" s="220"/>
+      <c r="AU34" s="220"/>
+      <c r="AV34" s="220"/>
+      <c r="AW34" s="220"/>
+      <c r="AX34" s="220"/>
+      <c r="AY34" s="220"/>
+      <c r="AZ34" s="220"/>
+      <c r="BA34" s="220"/>
+      <c r="BB34" s="220"/>
+      <c r="BC34" s="221"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82" t="s">
+      <c r="A35" s="198" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="199"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
-      <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
-      <c r="AJ35" s="82"/>
-      <c r="AK35" s="88"/>
-      <c r="AM35" s="205" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN35" s="206"/>
-      <c r="AO35" s="206"/>
-      <c r="AP35" s="206"/>
-      <c r="AQ35" s="206"/>
-      <c r="AR35" s="206"/>
-      <c r="AS35" s="206"/>
-      <c r="AT35" s="206"/>
-      <c r="AU35" s="206"/>
-      <c r="AV35" s="206"/>
-      <c r="AW35" s="206"/>
-      <c r="AX35" s="206"/>
-      <c r="AY35" s="206"/>
-      <c r="AZ35" s="206"/>
-      <c r="BA35" s="206"/>
-      <c r="BB35" s="206"/>
-      <c r="BC35" s="207"/>
+      <c r="K35" s="199"/>
+      <c r="L35" s="199"/>
+      <c r="M35" s="199"/>
+      <c r="N35" s="199"/>
+      <c r="O35" s="199"/>
+      <c r="P35" s="199"/>
+      <c r="Q35" s="199"/>
+      <c r="R35" s="199"/>
+      <c r="S35" s="199"/>
+      <c r="T35" s="199"/>
+      <c r="U35" s="199"/>
+      <c r="V35" s="199"/>
+      <c r="W35" s="199"/>
+      <c r="X35" s="199"/>
+      <c r="Y35" s="199"/>
+      <c r="Z35" s="199"/>
+      <c r="AA35" s="199"/>
+      <c r="AB35" s="199"/>
+      <c r="AC35" s="199"/>
+      <c r="AD35" s="199"/>
+      <c r="AE35" s="199"/>
+      <c r="AF35" s="199"/>
+      <c r="AG35" s="199"/>
+      <c r="AH35" s="199"/>
+      <c r="AI35" s="199"/>
+      <c r="AJ35" s="199"/>
+      <c r="AK35" s="206"/>
+      <c r="AM35" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN35" s="46"/>
+      <c r="AO35" s="46"/>
+      <c r="AP35" s="46"/>
+      <c r="AQ35" s="46"/>
+      <c r="AR35" s="46"/>
+      <c r="AS35" s="46"/>
+      <c r="AT35" s="46"/>
+      <c r="AU35" s="46"/>
+      <c r="AV35" s="46"/>
+      <c r="AW35" s="46"/>
+      <c r="AX35" s="46"/>
+      <c r="AY35" s="46"/>
+      <c r="AZ35" s="46"/>
+      <c r="BA35" s="46"/>
+      <c r="BB35" s="46"/>
+      <c r="BC35" s="47"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="85">
-        <f>SUM(P36:Q41)+29.8</f>
-        <v>228</v>
-      </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
+      <c r="A36" s="202">
+        <f>SUM(P36:Q41)+29.8+31.5</f>
+        <v>258.2</v>
+      </c>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="90" t="s">
+      <c r="L36" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="87">
-        <v>31.5</v>
-      </c>
-      <c r="Q36" s="87"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="40">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Q36" s="40"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
@@ -6247,48 +6247,48 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="208"/>
-      <c r="AN36" s="209"/>
-      <c r="AO36" s="209"/>
-      <c r="AP36" s="209"/>
-      <c r="AQ36" s="209"/>
-      <c r="AR36" s="209"/>
-      <c r="AS36" s="209"/>
-      <c r="AT36" s="209"/>
-      <c r="AU36" s="209"/>
-      <c r="AV36" s="209"/>
-      <c r="AW36" s="209"/>
-      <c r="AX36" s="209"/>
-      <c r="AY36" s="209"/>
-      <c r="AZ36" s="209"/>
-      <c r="BA36" s="209"/>
-      <c r="BB36" s="209"/>
-      <c r="BC36" s="210"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
+      <c r="BB36" s="49"/>
+      <c r="BC36" s="50"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="A37" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="201"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="90" t="s">
+      <c r="L37" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="89">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="Q37" s="89"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="41">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="41"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
@@ -6310,49 +6310,49 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="208"/>
-      <c r="AN37" s="209"/>
-      <c r="AO37" s="209"/>
-      <c r="AP37" s="209"/>
-      <c r="AQ37" s="209"/>
-      <c r="AR37" s="209"/>
-      <c r="AS37" s="209"/>
-      <c r="AT37" s="209"/>
-      <c r="AU37" s="209"/>
-      <c r="AV37" s="209"/>
-      <c r="AW37" s="209"/>
-      <c r="AX37" s="209"/>
-      <c r="AY37" s="209"/>
-      <c r="AZ37" s="209"/>
-      <c r="BA37" s="209"/>
-      <c r="BB37" s="209"/>
-      <c r="BC37" s="210"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="49"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="49"/>
+      <c r="AZ37" s="49"/>
+      <c r="BA37" s="49"/>
+      <c r="BB37" s="49"/>
+      <c r="BC37" s="50"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
+      <c r="A38" s="204">
         <f>A36-A40</f>
-        <v>191.8</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+        <v>228</v>
+      </c>
+      <c r="B38" s="205"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="90" t="s">
+      <c r="L38" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="90"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="41">
+        <v>28.6</v>
+      </c>
+      <c r="Q38" s="41"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -6374,48 +6374,48 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="208"/>
-      <c r="AN38" s="209"/>
-      <c r="AO38" s="209"/>
-      <c r="AP38" s="209"/>
-      <c r="AQ38" s="209"/>
-      <c r="AR38" s="209"/>
-      <c r="AS38" s="209"/>
-      <c r="AT38" s="209"/>
-      <c r="AU38" s="209"/>
-      <c r="AV38" s="209"/>
-      <c r="AW38" s="209"/>
-      <c r="AX38" s="209"/>
-      <c r="AY38" s="209"/>
-      <c r="AZ38" s="209"/>
-      <c r="BA38" s="209"/>
-      <c r="BB38" s="209"/>
-      <c r="BC38" s="210"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="49"/>
+      <c r="AU38" s="49"/>
+      <c r="AV38" s="49"/>
+      <c r="AW38" s="49"/>
+      <c r="AX38" s="49"/>
+      <c r="AY38" s="49"/>
+      <c r="AZ38" s="49"/>
+      <c r="BA38" s="49"/>
+      <c r="BB38" s="49"/>
+      <c r="BC38" s="50"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
+      <c r="A39" s="200" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="90" t="s">
+      <c r="L39" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90">
-        <v>28.6</v>
-      </c>
-      <c r="Q39" s="90"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="41">
+        <v>33.1</v>
+      </c>
+      <c r="Q39" s="41"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
@@ -6436,48 +6436,48 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="208"/>
-      <c r="AN39" s="209"/>
-      <c r="AO39" s="209"/>
-      <c r="AP39" s="209"/>
-      <c r="AQ39" s="209"/>
-      <c r="AR39" s="209"/>
-      <c r="AS39" s="209"/>
-      <c r="AT39" s="209"/>
-      <c r="AU39" s="209"/>
-      <c r="AV39" s="209"/>
-      <c r="AW39" s="209"/>
-      <c r="AX39" s="209"/>
-      <c r="AY39" s="209"/>
-      <c r="AZ39" s="209"/>
-      <c r="BA39" s="209"/>
-      <c r="BB39" s="209"/>
-      <c r="BC39" s="210"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="49"/>
+      <c r="AU39" s="49"/>
+      <c r="AV39" s="49"/>
+      <c r="AW39" s="49"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="49"/>
+      <c r="AZ39" s="49"/>
+      <c r="BA39" s="49"/>
+      <c r="BB39" s="49"/>
+      <c r="BC39" s="50"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="A40" s="204">
+        <v>30.2</v>
+      </c>
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
+      <c r="I40" s="205"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90">
-        <v>33.1</v>
-      </c>
-      <c r="Q40" s="90"/>
+      <c r="L40" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="41">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="Q40" s="41"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
@@ -6498,48 +6498,47 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="208"/>
-      <c r="AN40" s="209"/>
-      <c r="AO40" s="209"/>
-      <c r="AP40" s="209"/>
-      <c r="AQ40" s="209"/>
-      <c r="AR40" s="209"/>
-      <c r="AS40" s="209"/>
-      <c r="AT40" s="209"/>
-      <c r="AU40" s="209"/>
-      <c r="AV40" s="209"/>
-      <c r="AW40" s="209"/>
-      <c r="AX40" s="209"/>
-      <c r="AY40" s="209"/>
-      <c r="AZ40" s="209"/>
-      <c r="BA40" s="209"/>
-      <c r="BB40" s="209"/>
-      <c r="BC40" s="210"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="49"/>
+      <c r="AV40" s="49"/>
+      <c r="AW40" s="49"/>
+      <c r="AX40" s="49"/>
+      <c r="AY40" s="49"/>
+      <c r="AZ40" s="49"/>
+      <c r="BA40" s="49"/>
+      <c r="BB40" s="49"/>
+      <c r="BC40" s="50"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="Q41" s="90"/>
+      <c r="L41" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="41">
+        <v>30.2</v>
+      </c>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -6560,37 +6559,37 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="208"/>
-      <c r="AN41" s="209"/>
-      <c r="AO41" s="209"/>
-      <c r="AP41" s="209"/>
-      <c r="AQ41" s="209"/>
-      <c r="AR41" s="209"/>
-      <c r="AS41" s="209"/>
-      <c r="AT41" s="209"/>
-      <c r="AU41" s="209"/>
-      <c r="AV41" s="209"/>
-      <c r="AW41" s="209"/>
-      <c r="AX41" s="209"/>
-      <c r="AY41" s="209"/>
-      <c r="AZ41" s="209"/>
-      <c r="BA41" s="209"/>
-      <c r="BB41" s="209"/>
-      <c r="BC41" s="210"/>
+      <c r="AM41" s="48"/>
+      <c r="AN41" s="49"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="49"/>
+      <c r="AS41" s="49"/>
+      <c r="AT41" s="49"/>
+      <c r="AU41" s="49"/>
+      <c r="AV41" s="49"/>
+      <c r="AW41" s="49"/>
+      <c r="AX41" s="49"/>
+      <c r="AY41" s="49"/>
+      <c r="AZ41" s="49"/>
+      <c r="BA41" s="49"/>
+      <c r="BB41" s="49"/>
+      <c r="BC41" s="50"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40">
+      <c r="A42" s="204">
         <f>AVERAGE(P36:P41)</f>
-        <v>33.033333333333331</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
+        <v>32.816666666666663</v>
+      </c>
+      <c r="B42" s="205"/>
+      <c r="C42" s="205"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -6603,11 +6602,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="232"/>
-      <c r="W42" s="232"/>
-      <c r="X42" s="232"/>
-      <c r="Y42" s="232"/>
-      <c r="Z42" s="232"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -6619,784 +6618,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="208"/>
-      <c r="AN42" s="209"/>
-      <c r="AO42" s="209"/>
-      <c r="AP42" s="209"/>
-      <c r="AQ42" s="209"/>
-      <c r="AR42" s="209"/>
-      <c r="AS42" s="209"/>
-      <c r="AT42" s="209"/>
-      <c r="AU42" s="209"/>
-      <c r="AV42" s="209"/>
-      <c r="AW42" s="209"/>
-      <c r="AX42" s="209"/>
-      <c r="AY42" s="209"/>
-      <c r="AZ42" s="209"/>
-      <c r="BA42" s="209"/>
-      <c r="BB42" s="209"/>
-      <c r="BC42" s="210"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="49"/>
+      <c r="AP42" s="49"/>
+      <c r="AQ42" s="49"/>
+      <c r="AR42" s="49"/>
+      <c r="AS42" s="49"/>
+      <c r="AT42" s="49"/>
+      <c r="AU42" s="49"/>
+      <c r="AV42" s="49"/>
+      <c r="AW42" s="49"/>
+      <c r="AX42" s="49"/>
+      <c r="AY42" s="49"/>
+      <c r="AZ42" s="49"/>
+      <c r="BA42" s="49"/>
+      <c r="BB42" s="49"/>
+      <c r="BC42" s="50"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="230" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="230"/>
-      <c r="C43" s="230"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230"/>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
-      <c r="H43" s="230"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="230"/>
-      <c r="K43" s="230"/>
-      <c r="L43" s="230"/>
-      <c r="M43" s="230"/>
-      <c r="N43" s="230"/>
-      <c r="O43" s="230"/>
-      <c r="P43" s="230"/>
-      <c r="Q43" s="230"/>
-      <c r="R43" s="230"/>
-      <c r="S43" s="230"/>
-      <c r="T43" s="230"/>
-      <c r="U43" s="230"/>
-      <c r="V43" s="230"/>
-      <c r="W43" s="230"/>
-      <c r="X43" s="230"/>
-      <c r="Y43" s="230"/>
-      <c r="Z43" s="230"/>
-      <c r="AA43" s="230"/>
-      <c r="AB43" s="230"/>
-      <c r="AC43" s="230"/>
-      <c r="AD43" s="230"/>
-      <c r="AE43" s="230"/>
-      <c r="AF43" s="230"/>
-      <c r="AG43" s="230"/>
-      <c r="AH43" s="230"/>
-      <c r="AI43" s="230"/>
-      <c r="AJ43" s="230"/>
-      <c r="AK43" s="230"/>
+      <c r="A43" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="70"/>
+      <c r="AF43" s="70"/>
+      <c r="AG43" s="70"/>
+      <c r="AH43" s="70"/>
+      <c r="AI43" s="70"/>
+      <c r="AJ43" s="70"/>
+      <c r="AK43" s="70"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="208"/>
-      <c r="AN43" s="209"/>
-      <c r="AO43" s="209"/>
-      <c r="AP43" s="209"/>
-      <c r="AQ43" s="209"/>
-      <c r="AR43" s="209"/>
-      <c r="AS43" s="209"/>
-      <c r="AT43" s="209"/>
-      <c r="AU43" s="209"/>
-      <c r="AV43" s="209"/>
-      <c r="AW43" s="209"/>
-      <c r="AX43" s="209"/>
-      <c r="AY43" s="209"/>
-      <c r="AZ43" s="209"/>
-      <c r="BA43" s="209"/>
-      <c r="BB43" s="209"/>
-      <c r="BC43" s="210"/>
+      <c r="AM43" s="48"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="49"/>
+      <c r="AT43" s="49"/>
+      <c r="AU43" s="49"/>
+      <c r="AV43" s="49"/>
+      <c r="AW43" s="49"/>
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="49"/>
+      <c r="AZ43" s="49"/>
+      <c r="BA43" s="49"/>
+      <c r="BB43" s="49"/>
+      <c r="BC43" s="50"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="231"/>
-      <c r="B44" s="231"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="231"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
-      <c r="N44" s="231"/>
-      <c r="O44" s="231"/>
-      <c r="P44" s="231"/>
-      <c r="Q44" s="231"/>
-      <c r="R44" s="231"/>
-      <c r="S44" s="231"/>
-      <c r="T44" s="231"/>
-      <c r="U44" s="231"/>
-      <c r="V44" s="231"/>
-      <c r="W44" s="231"/>
-      <c r="X44" s="231"/>
-      <c r="Y44" s="231"/>
-      <c r="Z44" s="231"/>
-      <c r="AA44" s="231"/>
-      <c r="AB44" s="231"/>
-      <c r="AC44" s="231"/>
-      <c r="AD44" s="231"/>
-      <c r="AE44" s="231"/>
-      <c r="AF44" s="231"/>
-      <c r="AG44" s="231"/>
-      <c r="AH44" s="231"/>
-      <c r="AI44" s="231"/>
-      <c r="AJ44" s="231"/>
-      <c r="AK44" s="231"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+      <c r="AJ44" s="71"/>
+      <c r="AK44" s="71"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="208"/>
-      <c r="AN44" s="209"/>
-      <c r="AO44" s="209"/>
-      <c r="AP44" s="209"/>
-      <c r="AQ44" s="209"/>
-      <c r="AR44" s="209"/>
-      <c r="AS44" s="209"/>
-      <c r="AT44" s="209"/>
-      <c r="AU44" s="209"/>
-      <c r="AV44" s="209"/>
-      <c r="AW44" s="209"/>
-      <c r="AX44" s="209"/>
-      <c r="AY44" s="209"/>
-      <c r="AZ44" s="209"/>
-      <c r="BA44" s="209"/>
-      <c r="BB44" s="209"/>
-      <c r="BC44" s="210"/>
+      <c r="AM44" s="48"/>
+      <c r="AN44" s="49"/>
+      <c r="AO44" s="49"/>
+      <c r="AP44" s="49"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="49"/>
+      <c r="AS44" s="49"/>
+      <c r="AT44" s="49"/>
+      <c r="AU44" s="49"/>
+      <c r="AV44" s="49"/>
+      <c r="AW44" s="49"/>
+      <c r="AX44" s="49"/>
+      <c r="AY44" s="49"/>
+      <c r="AZ44" s="49"/>
+      <c r="BA44" s="49"/>
+      <c r="BB44" s="49"/>
+      <c r="BC44" s="50"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="219" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="220"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="220"/>
-      <c r="M45" s="220"/>
-      <c r="N45" s="220"/>
-      <c r="O45" s="220"/>
-      <c r="P45" s="220"/>
-      <c r="Q45" s="220"/>
-      <c r="R45" s="220"/>
-      <c r="S45" s="220"/>
-      <c r="T45" s="220"/>
-      <c r="U45" s="220"/>
-      <c r="V45" s="220"/>
-      <c r="W45" s="220"/>
-      <c r="X45" s="220"/>
-      <c r="Y45" s="220"/>
-      <c r="Z45" s="220"/>
-      <c r="AA45" s="220"/>
-      <c r="AB45" s="220"/>
-      <c r="AC45" s="220"/>
-      <c r="AD45" s="220"/>
-      <c r="AE45" s="220"/>
-      <c r="AF45" s="220"/>
-      <c r="AG45" s="220"/>
-      <c r="AH45" s="220"/>
-      <c r="AI45" s="220"/>
-      <c r="AJ45" s="220"/>
-      <c r="AK45" s="221"/>
+      <c r="A45" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="60"/>
+      <c r="AK45" s="61"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="208"/>
-      <c r="AN45" s="209"/>
-      <c r="AO45" s="209"/>
-      <c r="AP45" s="209"/>
-      <c r="AQ45" s="209"/>
-      <c r="AR45" s="209"/>
-      <c r="AS45" s="209"/>
-      <c r="AT45" s="209"/>
-      <c r="AU45" s="209"/>
-      <c r="AV45" s="209"/>
-      <c r="AW45" s="209"/>
-      <c r="AX45" s="209"/>
-      <c r="AY45" s="209"/>
-      <c r="AZ45" s="209"/>
-      <c r="BA45" s="209"/>
-      <c r="BB45" s="209"/>
-      <c r="BC45" s="210"/>
+      <c r="AM45" s="48"/>
+      <c r="AN45" s="49"/>
+      <c r="AO45" s="49"/>
+      <c r="AP45" s="49"/>
+      <c r="AQ45" s="49"/>
+      <c r="AR45" s="49"/>
+      <c r="AS45" s="49"/>
+      <c r="AT45" s="49"/>
+      <c r="AU45" s="49"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
+      <c r="BB45" s="49"/>
+      <c r="BC45" s="50"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="218" t="s">
+      <c r="A46" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="203"/>
-      <c r="C46" s="203"/>
-      <c r="D46" s="203"/>
-      <c r="E46" s="203"/>
-      <c r="F46" s="203"/>
-      <c r="G46" s="203"/>
-      <c r="H46" s="203"/>
-      <c r="I46" s="203"/>
-      <c r="J46" s="203" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="203"/>
-      <c r="L46" s="203"/>
-      <c r="M46" s="203"/>
-      <c r="N46" s="203"/>
-      <c r="O46" s="203"/>
-      <c r="P46" s="203"/>
-      <c r="Q46" s="203"/>
-      <c r="R46" s="203"/>
-      <c r="S46" s="203"/>
-      <c r="T46" s="203" t="s">
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="U46" s="203"/>
-      <c r="V46" s="203"/>
-      <c r="W46" s="203"/>
-      <c r="X46" s="203"/>
-      <c r="Y46" s="203"/>
-      <c r="Z46" s="203"/>
-      <c r="AA46" s="203"/>
-      <c r="AB46" s="203"/>
-      <c r="AC46" s="203" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD46" s="203"/>
-      <c r="AE46" s="203"/>
-      <c r="AF46" s="203"/>
-      <c r="AG46" s="203"/>
-      <c r="AH46" s="203"/>
-      <c r="AI46" s="203"/>
-      <c r="AJ46" s="203"/>
-      <c r="AK46" s="204"/>
-      <c r="AM46" s="208"/>
-      <c r="AN46" s="209"/>
-      <c r="AO46" s="209"/>
-      <c r="AP46" s="209"/>
-      <c r="AQ46" s="209"/>
-      <c r="AR46" s="209"/>
-      <c r="AS46" s="209"/>
-      <c r="AT46" s="209"/>
-      <c r="AU46" s="209"/>
-      <c r="AV46" s="209"/>
-      <c r="AW46" s="209"/>
-      <c r="AX46" s="209"/>
-      <c r="AY46" s="209"/>
-      <c r="AZ46" s="209"/>
-      <c r="BA46" s="209"/>
-      <c r="BB46" s="209"/>
-      <c r="BC46" s="210"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="43"/>
+      <c r="AK46" s="44"/>
+      <c r="AM46" s="48"/>
+      <c r="AN46" s="49"/>
+      <c r="AO46" s="49"/>
+      <c r="AP46" s="49"/>
+      <c r="AQ46" s="49"/>
+      <c r="AR46" s="49"/>
+      <c r="AS46" s="49"/>
+      <c r="AT46" s="49"/>
+      <c r="AU46" s="49"/>
+      <c r="AV46" s="49"/>
+      <c r="AW46" s="49"/>
+      <c r="AX46" s="49"/>
+      <c r="AY46" s="49"/>
+      <c r="AZ46" s="49"/>
+      <c r="BA46" s="49"/>
+      <c r="BB46" s="49"/>
+      <c r="BC46" s="50"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
-      <c r="B47" s="202">
+      <c r="B47" s="42">
         <v>100000</v>
       </c>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="202">
+      <c r="J47" s="42">
         <v>3000</v>
       </c>
-      <c r="K47" s="202"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="202"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="202"/>
-      <c r="Q47" s="202"/>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202">
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42">
         <v>8000</v>
       </c>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="W47" s="202"/>
-      <c r="X47" s="202"/>
-      <c r="Y47" s="202"/>
-      <c r="Z47" s="202"/>
-      <c r="AA47" s="202"/>
-      <c r="AB47" s="202"/>
-      <c r="AC47" s="228">
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="68">
         <v>8000</v>
       </c>
-      <c r="AD47" s="228"/>
-      <c r="AE47" s="228"/>
-      <c r="AF47" s="228"/>
-      <c r="AG47" s="228"/>
-      <c r="AH47" s="228"/>
-      <c r="AI47" s="228"/>
-      <c r="AJ47" s="228"/>
-      <c r="AK47" s="229"/>
-      <c r="AM47" s="208"/>
-      <c r="AN47" s="209"/>
-      <c r="AO47" s="209"/>
-      <c r="AP47" s="209"/>
-      <c r="AQ47" s="209"/>
-      <c r="AR47" s="209"/>
-      <c r="AS47" s="209"/>
-      <c r="AT47" s="209"/>
-      <c r="AU47" s="209"/>
-      <c r="AV47" s="209"/>
-      <c r="AW47" s="209"/>
-      <c r="AX47" s="209"/>
-      <c r="AY47" s="209"/>
-      <c r="AZ47" s="209"/>
-      <c r="BA47" s="209"/>
-      <c r="BB47" s="209"/>
-      <c r="BC47" s="210"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="69"/>
+      <c r="AM47" s="48"/>
+      <c r="AN47" s="49"/>
+      <c r="AO47" s="49"/>
+      <c r="AP47" s="49"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="49"/>
+      <c r="AS47" s="49"/>
+      <c r="AT47" s="49"/>
+      <c r="AU47" s="49"/>
+      <c r="AV47" s="49"/>
+      <c r="AW47" s="49"/>
+      <c r="AX47" s="49"/>
+      <c r="AY47" s="49"/>
+      <c r="AZ47" s="49"/>
+      <c r="BA47" s="49"/>
+      <c r="BB47" s="49"/>
+      <c r="BC47" s="50"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="216"/>
-      <c r="C48" s="216"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
-      <c r="G48" s="216"/>
-      <c r="H48" s="216"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="203" t="s">
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="203"/>
-      <c r="L48" s="203"/>
-      <c r="M48" s="203"/>
-      <c r="N48" s="203"/>
-      <c r="O48" s="203"/>
-      <c r="P48" s="203"/>
-      <c r="Q48" s="203"/>
-      <c r="R48" s="203"/>
-      <c r="S48" s="203"/>
-      <c r="T48" s="203" t="s">
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="U48" s="203"/>
-      <c r="V48" s="203"/>
-      <c r="W48" s="203"/>
-      <c r="X48" s="203"/>
-      <c r="Y48" s="203"/>
-      <c r="Z48" s="203"/>
-      <c r="AA48" s="203"/>
-      <c r="AB48" s="203"/>
-      <c r="AC48" s="203" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD48" s="203"/>
-      <c r="AE48" s="203"/>
-      <c r="AF48" s="203"/>
-      <c r="AG48" s="203"/>
-      <c r="AH48" s="203"/>
-      <c r="AI48" s="203"/>
-      <c r="AJ48" s="203"/>
-      <c r="AK48" s="204"/>
-      <c r="AM48" s="208"/>
-      <c r="AN48" s="209"/>
-      <c r="AO48" s="209"/>
-      <c r="AP48" s="209"/>
-      <c r="AQ48" s="209"/>
-      <c r="AR48" s="209"/>
-      <c r="AS48" s="209"/>
-      <c r="AT48" s="209"/>
-      <c r="AU48" s="209"/>
-      <c r="AV48" s="209"/>
-      <c r="AW48" s="209"/>
-      <c r="AX48" s="209"/>
-      <c r="AY48" s="209"/>
-      <c r="AZ48" s="209"/>
-      <c r="BA48" s="209"/>
-      <c r="BB48" s="209"/>
-      <c r="BC48" s="210"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="44"/>
+      <c r="AM48" s="48"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
+      <c r="AP48" s="49"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="49"/>
+      <c r="AS48" s="49"/>
+      <c r="AT48" s="49"/>
+      <c r="AU48" s="49"/>
+      <c r="AV48" s="49"/>
+      <c r="AW48" s="49"/>
+      <c r="AX48" s="49"/>
+      <c r="AY48" s="49"/>
+      <c r="AZ48" s="49"/>
+      <c r="BA48" s="49"/>
+      <c r="BB48" s="49"/>
+      <c r="BC48" s="50"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="217">
+      <c r="A49" s="57">
         <v>500</v>
       </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="202"/>
-      <c r="E49" s="202"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="202"/>
-      <c r="H49" s="202"/>
-      <c r="I49" s="202"/>
-      <c r="J49" s="202">
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42">
         <v>8000</v>
       </c>
-      <c r="K49" s="202"/>
-      <c r="L49" s="202"/>
-      <c r="M49" s="202"/>
-      <c r="N49" s="202"/>
-      <c r="O49" s="202"/>
-      <c r="P49" s="202"/>
-      <c r="Q49" s="202"/>
-      <c r="R49" s="202"/>
-      <c r="S49" s="202"/>
-      <c r="T49" s="202">
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42">
         <v>16000</v>
       </c>
-      <c r="U49" s="202"/>
-      <c r="V49" s="202"/>
-      <c r="W49" s="202"/>
-      <c r="X49" s="202"/>
-      <c r="Y49" s="202"/>
-      <c r="Z49" s="202"/>
-      <c r="AA49" s="202"/>
-      <c r="AB49" s="202"/>
-      <c r="AC49" s="202" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD49" s="202"/>
-      <c r="AE49" s="202"/>
-      <c r="AF49" s="202"/>
-      <c r="AG49" s="202"/>
-      <c r="AH49" s="202"/>
-      <c r="AI49" s="202"/>
-      <c r="AJ49" s="202"/>
-      <c r="AK49" s="214"/>
-      <c r="AM49" s="208"/>
-      <c r="AN49" s="209"/>
-      <c r="AO49" s="209"/>
-      <c r="AP49" s="209"/>
-      <c r="AQ49" s="209"/>
-      <c r="AR49" s="209"/>
-      <c r="AS49" s="209"/>
-      <c r="AT49" s="209"/>
-      <c r="AU49" s="209"/>
-      <c r="AV49" s="209"/>
-      <c r="AW49" s="209"/>
-      <c r="AX49" s="209"/>
-      <c r="AY49" s="209"/>
-      <c r="AZ49" s="209"/>
-      <c r="BA49" s="209"/>
-      <c r="BB49" s="209"/>
-      <c r="BC49" s="210"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="42"/>
+      <c r="AK49" s="54"/>
+      <c r="AM49" s="48"/>
+      <c r="AN49" s="49"/>
+      <c r="AO49" s="49"/>
+      <c r="AP49" s="49"/>
+      <c r="AQ49" s="49"/>
+      <c r="AR49" s="49"/>
+      <c r="AS49" s="49"/>
+      <c r="AT49" s="49"/>
+      <c r="AU49" s="49"/>
+      <c r="AV49" s="49"/>
+      <c r="AW49" s="49"/>
+      <c r="AX49" s="49"/>
+      <c r="AY49" s="49"/>
+      <c r="AZ49" s="49"/>
+      <c r="BA49" s="49"/>
+      <c r="BB49" s="49"/>
+      <c r="BC49" s="50"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="222" t="s">
+      <c r="A50" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="223"/>
-      <c r="C50" s="223"/>
-      <c r="D50" s="223"/>
-      <c r="E50" s="223"/>
-      <c r="F50" s="223"/>
-      <c r="G50" s="223"/>
-      <c r="H50" s="223"/>
-      <c r="I50" s="223"/>
-      <c r="J50" s="223"/>
-      <c r="K50" s="223"/>
-      <c r="L50" s="223"/>
-      <c r="M50" s="223"/>
-      <c r="N50" s="223"/>
-      <c r="O50" s="223"/>
-      <c r="P50" s="223"/>
-      <c r="Q50" s="223"/>
-      <c r="R50" s="223"/>
-      <c r="S50" s="223"/>
-      <c r="T50" s="223"/>
-      <c r="U50" s="223"/>
-      <c r="V50" s="223"/>
-      <c r="W50" s="223"/>
-      <c r="X50" s="223"/>
-      <c r="Y50" s="223"/>
-      <c r="Z50" s="223"/>
-      <c r="AA50" s="223"/>
-      <c r="AB50" s="223"/>
-      <c r="AC50" s="223"/>
-      <c r="AD50" s="223"/>
-      <c r="AE50" s="223"/>
-      <c r="AF50" s="223"/>
-      <c r="AG50" s="223"/>
-      <c r="AH50" s="223"/>
-      <c r="AI50" s="223"/>
-      <c r="AJ50" s="223"/>
-      <c r="AK50" s="224"/>
-      <c r="AM50" s="208"/>
-      <c r="AN50" s="209"/>
-      <c r="AO50" s="209"/>
-      <c r="AP50" s="209"/>
-      <c r="AQ50" s="209"/>
-      <c r="AR50" s="209"/>
-      <c r="AS50" s="209"/>
-      <c r="AT50" s="209"/>
-      <c r="AU50" s="209"/>
-      <c r="AV50" s="209"/>
-      <c r="AW50" s="209"/>
-      <c r="AX50" s="209"/>
-      <c r="AY50" s="209"/>
-      <c r="AZ50" s="209"/>
-      <c r="BA50" s="209"/>
-      <c r="BB50" s="209"/>
-      <c r="BC50" s="210"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="64"/>
+      <c r="AM50" s="48"/>
+      <c r="AN50" s="49"/>
+      <c r="AO50" s="49"/>
+      <c r="AP50" s="49"/>
+      <c r="AQ50" s="49"/>
+      <c r="AR50" s="49"/>
+      <c r="AS50" s="49"/>
+      <c r="AT50" s="49"/>
+      <c r="AU50" s="49"/>
+      <c r="AV50" s="49"/>
+      <c r="AW50" s="49"/>
+      <c r="AX50" s="49"/>
+      <c r="AY50" s="49"/>
+      <c r="AZ50" s="49"/>
+      <c r="BA50" s="49"/>
+      <c r="BB50" s="49"/>
+      <c r="BC50" s="50"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="225"/>
-      <c r="B51" s="226"/>
-      <c r="C51" s="226"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="226"/>
-      <c r="F51" s="226"/>
-      <c r="G51" s="226"/>
-      <c r="H51" s="226"/>
-      <c r="I51" s="226"/>
-      <c r="J51" s="226"/>
-      <c r="K51" s="226"/>
-      <c r="L51" s="226"/>
-      <c r="M51" s="226"/>
-      <c r="N51" s="226"/>
-      <c r="O51" s="226"/>
-      <c r="P51" s="226"/>
-      <c r="Q51" s="226"/>
-      <c r="R51" s="226"/>
-      <c r="S51" s="226"/>
-      <c r="T51" s="226"/>
-      <c r="U51" s="226"/>
-      <c r="V51" s="226"/>
-      <c r="W51" s="226"/>
-      <c r="X51" s="226"/>
-      <c r="Y51" s="226"/>
-      <c r="Z51" s="226"/>
-      <c r="AA51" s="226"/>
-      <c r="AB51" s="226"/>
-      <c r="AC51" s="226"/>
-      <c r="AD51" s="226"/>
-      <c r="AE51" s="226"/>
-      <c r="AF51" s="226"/>
-      <c r="AG51" s="226"/>
-      <c r="AH51" s="226"/>
-      <c r="AI51" s="226"/>
-      <c r="AJ51" s="226"/>
-      <c r="AK51" s="227"/>
-      <c r="AM51" s="211"/>
-      <c r="AN51" s="212"/>
-      <c r="AO51" s="212"/>
-      <c r="AP51" s="212"/>
-      <c r="AQ51" s="212"/>
-      <c r="AR51" s="212"/>
-      <c r="AS51" s="212"/>
-      <c r="AT51" s="212"/>
-      <c r="AU51" s="212"/>
-      <c r="AV51" s="212"/>
-      <c r="AW51" s="212"/>
-      <c r="AX51" s="212"/>
-      <c r="AY51" s="212"/>
-      <c r="AZ51" s="212"/>
-      <c r="BA51" s="212"/>
-      <c r="BB51" s="212"/>
-      <c r="BC51" s="213"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="66"/>
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="66"/>
+      <c r="AD51" s="66"/>
+      <c r="AE51" s="66"/>
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="67"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="52"/>
+      <c r="AO51" s="52"/>
+      <c r="AP51" s="52"/>
+      <c r="AQ51" s="52"/>
+      <c r="AR51" s="52"/>
+      <c r="AS51" s="52"/>
+      <c r="AT51" s="52"/>
+      <c r="AU51" s="52"/>
+      <c r="AV51" s="52"/>
+      <c r="AW51" s="52"/>
+      <c r="AX51" s="52"/>
+      <c r="AY51" s="52"/>
+      <c r="AZ51" s="52"/>
+      <c r="BA51" s="52"/>
+      <c r="BB51" s="52"/>
+      <c r="BC51" s="53"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="195"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="195"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="195"/>
-      <c r="G52" s="195"/>
-      <c r="H52" s="195"/>
-      <c r="I52" s="195"/>
-      <c r="J52" s="195"/>
-      <c r="K52" s="195"/>
-      <c r="L52" s="195"/>
-      <c r="M52" s="195"/>
-      <c r="N52" s="195"/>
-      <c r="O52" s="195"/>
-      <c r="P52" s="195"/>
-      <c r="Q52" s="195"/>
-      <c r="R52" s="195"/>
-      <c r="S52" s="195"/>
-      <c r="T52" s="195"/>
-      <c r="U52" s="195"/>
+      <c r="A52" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
       <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="196"/>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="196"/>
-      <c r="E53" s="196"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="196"/>
-      <c r="L53" s="196"/>
-      <c r="M53" s="196"/>
-      <c r="N53" s="196"/>
-      <c r="O53" s="196"/>
-      <c r="P53" s="196"/>
-      <c r="Q53" s="196"/>
-      <c r="R53" s="196"/>
-      <c r="S53" s="196"/>
-      <c r="T53" s="196"/>
-      <c r="U53" s="196"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="109"/>
+      <c r="L53" s="109"/>
+      <c r="M53" s="109"/>
+      <c r="N53" s="109"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="109"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="109"/>
+      <c r="U53" s="109"/>
       <c r="V53" s="35"/>
-      <c r="W53" s="197" t="s">
+      <c r="W53" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="198"/>
-      <c r="Y53" s="198"/>
-      <c r="Z53" s="198"/>
-      <c r="AA53" s="198"/>
-      <c r="AB53" s="198"/>
-      <c r="AC53" s="198"/>
-      <c r="AD53" s="198"/>
-      <c r="AE53" s="198"/>
-      <c r="AF53" s="198"/>
-      <c r="AG53" s="199"/>
-      <c r="AI53" s="200" t="s">
+      <c r="X53" s="111"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="111"/>
+      <c r="AG53" s="112"/>
+      <c r="AI53" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="101"/>
-      <c r="AK53" s="101"/>
-      <c r="AL53" s="101"/>
-      <c r="AM53" s="101"/>
-      <c r="AN53" s="101"/>
-      <c r="AO53" s="101"/>
-      <c r="AP53" s="101"/>
-      <c r="AQ53" s="101"/>
-      <c r="AR53" s="101"/>
-      <c r="AS53" s="101"/>
-      <c r="AT53" s="101"/>
-      <c r="AU53" s="101"/>
-      <c r="AV53" s="101"/>
-      <c r="AW53" s="101"/>
-      <c r="AX53" s="101"/>
-      <c r="AY53" s="101"/>
-      <c r="AZ53" s="101"/>
-      <c r="BA53" s="101"/>
-      <c r="BB53" s="101"/>
-      <c r="BC53" s="201"/>
+      <c r="AJ53" s="114"/>
+      <c r="AK53" s="114"/>
+      <c r="AL53" s="114"/>
+      <c r="AM53" s="114"/>
+      <c r="AN53" s="114"/>
+      <c r="AO53" s="114"/>
+      <c r="AP53" s="114"/>
+      <c r="AQ53" s="114"/>
+      <c r="AR53" s="114"/>
+      <c r="AS53" s="114"/>
+      <c r="AT53" s="114"/>
+      <c r="AU53" s="114"/>
+      <c r="AV53" s="114"/>
+      <c r="AW53" s="114"/>
+      <c r="AX53" s="114"/>
+      <c r="AY53" s="114"/>
+      <c r="AZ53" s="114"/>
+      <c r="BA53" s="114"/>
+      <c r="BB53" s="114"/>
+      <c r="BC53" s="115"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="196"/>
-      <c r="B54" s="196"/>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="196"/>
-      <c r="L54" s="196"/>
-      <c r="M54" s="196"/>
-      <c r="N54" s="196"/>
-      <c r="O54" s="196"/>
-      <c r="P54" s="196"/>
-      <c r="Q54" s="196"/>
-      <c r="R54" s="196"/>
-      <c r="S54" s="196"/>
-      <c r="T54" s="196"/>
-      <c r="U54" s="196"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="109"/>
+      <c r="S54" s="109"/>
+      <c r="T54" s="109"/>
+      <c r="U54" s="109"/>
       <c r="V54" s="35"/>
-      <c r="W54" s="176"/>
-      <c r="X54" s="177"/>
-      <c r="Y54" s="177"/>
-      <c r="Z54" s="177"/>
-      <c r="AA54" s="177"/>
-      <c r="AB54" s="177"/>
-      <c r="AC54" s="177"/>
-      <c r="AD54" s="177"/>
-      <c r="AE54" s="177"/>
-      <c r="AF54" s="177"/>
-      <c r="AG54" s="178"/>
-      <c r="AI54" s="185" t="s">
+      <c r="W54" s="89"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="90"/>
+      <c r="AA54" s="90"/>
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="90"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="91"/>
+      <c r="AI54" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="186"/>
-      <c r="AK54" s="186"/>
-      <c r="AL54" s="186"/>
-      <c r="AM54" s="186"/>
-      <c r="AN54" s="186"/>
-      <c r="AO54" s="186"/>
-      <c r="AP54" s="186"/>
-      <c r="AQ54" s="186"/>
-      <c r="AR54" s="186"/>
-      <c r="AS54" s="186"/>
-      <c r="AT54" s="186"/>
-      <c r="AU54" s="186"/>
-      <c r="AV54" s="186"/>
-      <c r="AW54" s="186"/>
-      <c r="AX54" s="186"/>
-      <c r="AY54" s="186"/>
-      <c r="AZ54" s="186"/>
-      <c r="BA54" s="186"/>
-      <c r="BB54" s="186"/>
-      <c r="BC54" s="187"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="99"/>
+      <c r="AL54" s="99"/>
+      <c r="AM54" s="99"/>
+      <c r="AN54" s="99"/>
+      <c r="AO54" s="99"/>
+      <c r="AP54" s="99"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="99"/>
+      <c r="AS54" s="99"/>
+      <c r="AT54" s="99"/>
+      <c r="AU54" s="99"/>
+      <c r="AV54" s="99"/>
+      <c r="AW54" s="99"/>
+      <c r="AX54" s="99"/>
+      <c r="AY54" s="99"/>
+      <c r="AZ54" s="99"/>
+      <c r="BA54" s="99"/>
+      <c r="BB54" s="99"/>
+      <c r="BC54" s="100"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="179"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="180"/>
-      <c r="AC55" s="180"/>
-      <c r="AD55" s="180"/>
-      <c r="AE55" s="180"/>
-      <c r="AF55" s="180"/>
-      <c r="AG55" s="181"/>
-      <c r="AI55" s="188"/>
-      <c r="AJ55" s="189"/>
-      <c r="AK55" s="189"/>
-      <c r="AL55" s="189"/>
-      <c r="AM55" s="189"/>
-      <c r="AN55" s="189"/>
-      <c r="AO55" s="189"/>
-      <c r="AP55" s="189"/>
-      <c r="AQ55" s="189"/>
-      <c r="AR55" s="189"/>
-      <c r="AS55" s="189"/>
-      <c r="AT55" s="189"/>
-      <c r="AU55" s="189"/>
-      <c r="AV55" s="189"/>
-      <c r="AW55" s="189"/>
-      <c r="AX55" s="189"/>
-      <c r="AY55" s="189"/>
-      <c r="AZ55" s="189"/>
-      <c r="BA55" s="189"/>
-      <c r="BB55" s="189"/>
-      <c r="BC55" s="190"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="93"/>
+      <c r="AC55" s="93"/>
+      <c r="AD55" s="93"/>
+      <c r="AE55" s="93"/>
+      <c r="AF55" s="93"/>
+      <c r="AG55" s="94"/>
+      <c r="AI55" s="101"/>
+      <c r="AJ55" s="102"/>
+      <c r="AK55" s="102"/>
+      <c r="AL55" s="102"/>
+      <c r="AM55" s="102"/>
+      <c r="AN55" s="102"/>
+      <c r="AO55" s="102"/>
+      <c r="AP55" s="102"/>
+      <c r="AQ55" s="102"/>
+      <c r="AR55" s="102"/>
+      <c r="AS55" s="102"/>
+      <c r="AT55" s="102"/>
+      <c r="AU55" s="102"/>
+      <c r="AV55" s="102"/>
+      <c r="AW55" s="102"/>
+      <c r="AX55" s="102"/>
+      <c r="AY55" s="102"/>
+      <c r="AZ55" s="102"/>
+      <c r="BA55" s="102"/>
+      <c r="BB55" s="102"/>
+      <c r="BC55" s="103"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="179"/>
-      <c r="X56" s="180"/>
-      <c r="Y56" s="180"/>
-      <c r="Z56" s="180"/>
-      <c r="AA56" s="180"/>
-      <c r="AB56" s="180"/>
-      <c r="AC56" s="180"/>
-      <c r="AD56" s="180"/>
-      <c r="AE56" s="180"/>
-      <c r="AF56" s="180"/>
-      <c r="AG56" s="181"/>
-      <c r="AI56" s="191" t="s">
+      <c r="W56" s="92"/>
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="93"/>
+      <c r="AB56" s="93"/>
+      <c r="AC56" s="93"/>
+      <c r="AD56" s="93"/>
+      <c r="AE56" s="93"/>
+      <c r="AF56" s="93"/>
+      <c r="AG56" s="94"/>
+      <c r="AI56" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="192"/>
-      <c r="AK56" s="192"/>
-      <c r="AL56" s="192"/>
-      <c r="AM56" s="192"/>
-      <c r="AN56" s="192"/>
-      <c r="AO56" s="192"/>
-      <c r="AP56" s="192"/>
-      <c r="AQ56" s="192"/>
-      <c r="AR56" s="192"/>
-      <c r="AS56" s="192"/>
-      <c r="AT56" s="192"/>
-      <c r="AU56" s="192"/>
-      <c r="AV56" s="192"/>
-      <c r="AW56" s="192"/>
-      <c r="AX56" s="192"/>
-      <c r="AY56" s="192"/>
-      <c r="AZ56" s="192"/>
-      <c r="BA56" s="192"/>
-      <c r="BB56" s="192"/>
-      <c r="BC56" s="193"/>
+      <c r="AJ56" s="105"/>
+      <c r="AK56" s="105"/>
+      <c r="AL56" s="105"/>
+      <c r="AM56" s="105"/>
+      <c r="AN56" s="105"/>
+      <c r="AO56" s="105"/>
+      <c r="AP56" s="105"/>
+      <c r="AQ56" s="105"/>
+      <c r="AR56" s="105"/>
+      <c r="AS56" s="105"/>
+      <c r="AT56" s="105"/>
+      <c r="AU56" s="105"/>
+      <c r="AV56" s="105"/>
+      <c r="AW56" s="105"/>
+      <c r="AX56" s="105"/>
+      <c r="AY56" s="105"/>
+      <c r="AZ56" s="105"/>
+      <c r="BA56" s="105"/>
+      <c r="BB56" s="105"/>
+      <c r="BC56" s="106"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7413,354 +7412,352 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="179"/>
-      <c r="X57" s="180"/>
-      <c r="Y57" s="180"/>
-      <c r="Z57" s="180"/>
-      <c r="AA57" s="180"/>
-      <c r="AB57" s="180"/>
-      <c r="AC57" s="180"/>
-      <c r="AD57" s="180"/>
-      <c r="AE57" s="180"/>
-      <c r="AF57" s="180"/>
-      <c r="AG57" s="181"/>
-      <c r="AI57" s="188"/>
-      <c r="AJ57" s="189"/>
-      <c r="AK57" s="189"/>
-      <c r="AL57" s="189"/>
-      <c r="AM57" s="189"/>
-      <c r="AN57" s="189"/>
-      <c r="AO57" s="189"/>
-      <c r="AP57" s="189"/>
-      <c r="AQ57" s="189"/>
-      <c r="AR57" s="189"/>
-      <c r="AS57" s="189"/>
-      <c r="AT57" s="189"/>
-      <c r="AU57" s="189"/>
-      <c r="AV57" s="189"/>
-      <c r="AW57" s="189"/>
-      <c r="AX57" s="189"/>
-      <c r="AY57" s="189"/>
-      <c r="AZ57" s="189"/>
-      <c r="BA57" s="189"/>
-      <c r="BB57" s="189"/>
-      <c r="BC57" s="190"/>
+      <c r="W57" s="92"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="93"/>
+      <c r="AC57" s="93"/>
+      <c r="AD57" s="93"/>
+      <c r="AE57" s="93"/>
+      <c r="AF57" s="93"/>
+      <c r="AG57" s="94"/>
+      <c r="AI57" s="101"/>
+      <c r="AJ57" s="102"/>
+      <c r="AK57" s="102"/>
+      <c r="AL57" s="102"/>
+      <c r="AM57" s="102"/>
+      <c r="AN57" s="102"/>
+      <c r="AO57" s="102"/>
+      <c r="AP57" s="102"/>
+      <c r="AQ57" s="102"/>
+      <c r="AR57" s="102"/>
+      <c r="AS57" s="102"/>
+      <c r="AT57" s="102"/>
+      <c r="AU57" s="102"/>
+      <c r="AV57" s="102"/>
+      <c r="AW57" s="102"/>
+      <c r="AX57" s="102"/>
+      <c r="AY57" s="102"/>
+      <c r="AZ57" s="102"/>
+      <c r="BA57" s="102"/>
+      <c r="BB57" s="102"/>
+      <c r="BC57" s="103"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="194" t="s">
+      <c r="B58" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="194"/>
-      <c r="D58" s="194"/>
-      <c r="E58" s="194"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="194"/>
-      <c r="M58" s="194"/>
-      <c r="N58" s="194"/>
-      <c r="O58" s="194"/>
-      <c r="W58" s="182"/>
-      <c r="X58" s="183"/>
-      <c r="Y58" s="183"/>
-      <c r="Z58" s="183"/>
-      <c r="AA58" s="183"/>
-      <c r="AB58" s="183"/>
-      <c r="AC58" s="183"/>
-      <c r="AD58" s="183"/>
-      <c r="AE58" s="183"/>
-      <c r="AF58" s="183"/>
-      <c r="AG58" s="184"/>
-      <c r="AI58" s="191" t="s">
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="107"/>
+      <c r="O58" s="107"/>
+      <c r="W58" s="95"/>
+      <c r="X58" s="96"/>
+      <c r="Y58" s="96"/>
+      <c r="Z58" s="96"/>
+      <c r="AA58" s="96"/>
+      <c r="AB58" s="96"/>
+      <c r="AC58" s="96"/>
+      <c r="AD58" s="96"/>
+      <c r="AE58" s="96"/>
+      <c r="AF58" s="96"/>
+      <c r="AG58" s="97"/>
+      <c r="AI58" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="192"/>
-      <c r="AK58" s="192"/>
-      <c r="AL58" s="192"/>
-      <c r="AM58" s="192"/>
-      <c r="AN58" s="192"/>
-      <c r="AO58" s="192"/>
-      <c r="AP58" s="192"/>
-      <c r="AQ58" s="192"/>
-      <c r="AR58" s="192"/>
-      <c r="AS58" s="192"/>
-      <c r="AT58" s="192"/>
-      <c r="AU58" s="192"/>
-      <c r="AV58" s="192"/>
-      <c r="AW58" s="192"/>
-      <c r="AX58" s="192"/>
-      <c r="AY58" s="192"/>
-      <c r="AZ58" s="192"/>
-      <c r="BA58" s="192"/>
-      <c r="BB58" s="192"/>
-      <c r="BC58" s="193"/>
+      <c r="AJ58" s="105"/>
+      <c r="AK58" s="105"/>
+      <c r="AL58" s="105"/>
+      <c r="AM58" s="105"/>
+      <c r="AN58" s="105"/>
+      <c r="AO58" s="105"/>
+      <c r="AP58" s="105"/>
+      <c r="AQ58" s="105"/>
+      <c r="AR58" s="105"/>
+      <c r="AS58" s="105"/>
+      <c r="AT58" s="105"/>
+      <c r="AU58" s="105"/>
+      <c r="AV58" s="105"/>
+      <c r="AW58" s="105"/>
+      <c r="AX58" s="105"/>
+      <c r="AY58" s="105"/>
+      <c r="AZ58" s="105"/>
+      <c r="BA58" s="105"/>
+      <c r="BB58" s="105"/>
+      <c r="BC58" s="106"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="161" t="s">
+      <c r="B59" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="161"/>
-      <c r="M59" s="161"/>
-      <c r="N59" s="161"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="162" t="s">
+      <c r="S59" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="162"/>
-      <c r="U59" s="162"/>
-      <c r="V59" s="162"/>
-      <c r="W59" s="162"/>
-      <c r="X59" s="162"/>
-      <c r="Y59" s="162"/>
-      <c r="Z59" s="162"/>
-      <c r="AA59" s="162"/>
-      <c r="AB59" s="162"/>
-      <c r="AC59" s="162"/>
-      <c r="AD59" s="162"/>
-      <c r="AE59" s="162"/>
-      <c r="AI59" s="163"/>
-      <c r="AJ59" s="164"/>
-      <c r="AK59" s="164"/>
-      <c r="AL59" s="164"/>
-      <c r="AM59" s="164"/>
-      <c r="AN59" s="164"/>
-      <c r="AO59" s="164"/>
-      <c r="AP59" s="164"/>
-      <c r="AQ59" s="164"/>
-      <c r="AR59" s="164"/>
-      <c r="AS59" s="164"/>
-      <c r="AT59" s="164"/>
-      <c r="AU59" s="164"/>
-      <c r="AV59" s="164"/>
-      <c r="AW59" s="164"/>
-      <c r="AX59" s="164"/>
-      <c r="AY59" s="164"/>
-      <c r="AZ59" s="164"/>
-      <c r="BA59" s="164"/>
-      <c r="BB59" s="164"/>
-      <c r="BC59" s="165"/>
+      <c r="T59" s="75"/>
+      <c r="U59" s="75"/>
+      <c r="V59" s="75"/>
+      <c r="W59" s="75"/>
+      <c r="X59" s="75"/>
+      <c r="Y59" s="75"/>
+      <c r="Z59" s="75"/>
+      <c r="AA59" s="75"/>
+      <c r="AB59" s="75"/>
+      <c r="AC59" s="75"/>
+      <c r="AD59" s="75"/>
+      <c r="AE59" s="75"/>
+      <c r="AI59" s="76"/>
+      <c r="AJ59" s="77"/>
+      <c r="AK59" s="77"/>
+      <c r="AL59" s="77"/>
+      <c r="AM59" s="77"/>
+      <c r="AN59" s="77"/>
+      <c r="AO59" s="77"/>
+      <c r="AP59" s="77"/>
+      <c r="AQ59" s="77"/>
+      <c r="AR59" s="77"/>
+      <c r="AS59" s="77"/>
+      <c r="AT59" s="77"/>
+      <c r="AU59" s="77"/>
+      <c r="AV59" s="77"/>
+      <c r="AW59" s="77"/>
+      <c r="AX59" s="77"/>
+      <c r="AY59" s="77"/>
+      <c r="AZ59" s="77"/>
+      <c r="BA59" s="77"/>
+      <c r="BB59" s="77"/>
+      <c r="BC59" s="78"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="161"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="161"/>
-      <c r="M60" s="161"/>
-      <c r="N60" s="161"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="162"/>
-      <c r="T60" s="162"/>
-      <c r="U60" s="162"/>
-      <c r="V60" s="162"/>
-      <c r="W60" s="162"/>
-      <c r="X60" s="162"/>
-      <c r="Y60" s="162"/>
-      <c r="Z60" s="162"/>
-      <c r="AA60" s="162"/>
-      <c r="AB60" s="162"/>
-      <c r="AC60" s="162"/>
-      <c r="AD60" s="162"/>
-      <c r="AE60" s="162"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="75"/>
+      <c r="V60" s="75"/>
+      <c r="W60" s="75"/>
+      <c r="X60" s="75"/>
+      <c r="Y60" s="75"/>
+      <c r="Z60" s="75"/>
+      <c r="AA60" s="75"/>
+      <c r="AB60" s="75"/>
+      <c r="AC60" s="75"/>
+      <c r="AD60" s="75"/>
+      <c r="AE60" s="75"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="161"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="161"/>
-      <c r="M61" s="161"/>
-      <c r="N61" s="161"/>
-      <c r="S61" s="162"/>
-      <c r="T61" s="162"/>
-      <c r="U61" s="162"/>
-      <c r="V61" s="162"/>
-      <c r="W61" s="162"/>
-      <c r="X61" s="162"/>
-      <c r="Y61" s="162"/>
-      <c r="Z61" s="162"/>
-      <c r="AA61" s="162"/>
-      <c r="AB61" s="162"/>
-      <c r="AC61" s="162"/>
-      <c r="AD61" s="162"/>
-      <c r="AE61" s="162"/>
-      <c r="AI61" s="166" t="s">
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="75"/>
+      <c r="V61" s="75"/>
+      <c r="W61" s="75"/>
+      <c r="X61" s="75"/>
+      <c r="Y61" s="75"/>
+      <c r="Z61" s="75"/>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="75"/>
+      <c r="AD61" s="75"/>
+      <c r="AE61" s="75"/>
+      <c r="AI61" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="166"/>
-      <c r="AK61" s="166"/>
-      <c r="AL61" s="166"/>
-      <c r="AM61" s="166"/>
-      <c r="AN61" s="166"/>
-      <c r="AO61" s="166"/>
-      <c r="AP61" s="166"/>
-      <c r="AQ61" s="166"/>
-      <c r="AR61" s="166"/>
-      <c r="AS61" s="166"/>
-      <c r="AT61" s="166"/>
-      <c r="AU61" s="168">
+      <c r="AJ61" s="79"/>
+      <c r="AK61" s="79"/>
+      <c r="AL61" s="79"/>
+      <c r="AM61" s="79"/>
+      <c r="AN61" s="79"/>
+      <c r="AO61" s="79"/>
+      <c r="AP61" s="79"/>
+      <c r="AQ61" s="79"/>
+      <c r="AR61" s="79"/>
+      <c r="AS61" s="79"/>
+      <c r="AT61" s="79"/>
+      <c r="AU61" s="81">
         <v>0</v>
       </c>
-      <c r="AV61" s="169"/>
-      <c r="AW61" s="169"/>
-      <c r="AX61" s="169"/>
-      <c r="AY61" s="169"/>
-      <c r="AZ61" s="169"/>
-      <c r="BA61" s="169"/>
-      <c r="BB61" s="169"/>
-      <c r="BC61" s="170"/>
+      <c r="AV61" s="82"/>
+      <c r="AW61" s="82"/>
+      <c r="AX61" s="82"/>
+      <c r="AY61" s="82"/>
+      <c r="AZ61" s="82"/>
+      <c r="BA61" s="82"/>
+      <c r="BB61" s="82"/>
+      <c r="BC61" s="83"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="174" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
-      <c r="E62" s="174"/>
-      <c r="F62" s="174"/>
-      <c r="G62" s="174"/>
-      <c r="H62" s="174"/>
-      <c r="I62" s="174"/>
-      <c r="J62" s="174"/>
-      <c r="K62" s="174"/>
-      <c r="L62" s="174"/>
-      <c r="M62" s="174"/>
-      <c r="N62" s="174"/>
-      <c r="S62" s="175" t="s">
+      <c r="B62" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="87"/>
+      <c r="M62" s="87"/>
+      <c r="N62" s="87"/>
+      <c r="S62" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="175"/>
-      <c r="U62" s="175"/>
-      <c r="V62" s="175"/>
-      <c r="W62" s="175"/>
-      <c r="X62" s="175"/>
-      <c r="Y62" s="175"/>
-      <c r="Z62" s="175"/>
-      <c r="AA62" s="175"/>
-      <c r="AB62" s="175"/>
-      <c r="AC62" s="175"/>
-      <c r="AD62" s="175"/>
-      <c r="AE62" s="175"/>
-      <c r="AI62" s="167"/>
-      <c r="AJ62" s="167"/>
-      <c r="AK62" s="167"/>
-      <c r="AL62" s="167"/>
-      <c r="AM62" s="167"/>
-      <c r="AN62" s="167"/>
-      <c r="AO62" s="167"/>
-      <c r="AP62" s="167"/>
-      <c r="AQ62" s="167"/>
-      <c r="AR62" s="167"/>
-      <c r="AS62" s="167"/>
-      <c r="AT62" s="167"/>
-      <c r="AU62" s="171"/>
-      <c r="AV62" s="172"/>
-      <c r="AW62" s="172"/>
-      <c r="AX62" s="172"/>
-      <c r="AY62" s="172"/>
-      <c r="AZ62" s="172"/>
-      <c r="BA62" s="172"/>
-      <c r="BB62" s="172"/>
-      <c r="BC62" s="173"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AI62" s="80"/>
+      <c r="AJ62" s="80"/>
+      <c r="AK62" s="80"/>
+      <c r="AL62" s="80"/>
+      <c r="AM62" s="80"/>
+      <c r="AN62" s="80"/>
+      <c r="AO62" s="80"/>
+      <c r="AP62" s="80"/>
+      <c r="AQ62" s="80"/>
+      <c r="AR62" s="80"/>
+      <c r="AS62" s="80"/>
+      <c r="AT62" s="80"/>
+      <c r="AU62" s="84"/>
+      <c r="AV62" s="85"/>
+      <c r="AW62" s="85"/>
+      <c r="AX62" s="85"/>
+      <c r="AY62" s="85"/>
+      <c r="AZ62" s="85"/>
+      <c r="BA62" s="85"/>
+      <c r="BB62" s="85"/>
+      <c r="BC62" s="86"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="J49:S49"/>
-    <mergeCell ref="T48:AB48"/>
-    <mergeCell ref="T49:AB49"/>
-    <mergeCell ref="AC48:AK48"/>
-    <mergeCell ref="AM35:BC51"/>
-    <mergeCell ref="AC46:AK46"/>
-    <mergeCell ref="AC49:AK49"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="J46:S46"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="A45:AK45"/>
-    <mergeCell ref="A50:AK51"/>
-    <mergeCell ref="AC47:AK47"/>
-    <mergeCell ref="A43:AK44"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="L36:O36"/>
+  <mergeCells count="148">
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="AW6:BC6"/>
+    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="AM8:AV8"/>
+    <mergeCell ref="AM6:AV6"/>
+    <mergeCell ref="AM4:AV4"/>
+    <mergeCell ref="AY25:BC26"/>
+    <mergeCell ref="AM34:BC34"/>
+    <mergeCell ref="AM25:AQ26"/>
+    <mergeCell ref="AR25:AX26"/>
+    <mergeCell ref="AT14:BC14"/>
+    <mergeCell ref="AM27:BC33"/>
+    <mergeCell ref="AL24:AL32"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="A34:AK34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J35:AK35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B59:N61"/>
-    <mergeCell ref="S59:AE61"/>
-    <mergeCell ref="AI59:BC59"/>
-    <mergeCell ref="AI61:AT62"/>
-    <mergeCell ref="AU61:BC62"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="S62:AE62"/>
-    <mergeCell ref="W54:AG58"/>
-    <mergeCell ref="AI54:BC54"/>
-    <mergeCell ref="AI55:BC55"/>
-    <mergeCell ref="AI56:BC56"/>
-    <mergeCell ref="AI57:BC57"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="AI58:BC58"/>
-    <mergeCell ref="A52:U54"/>
-    <mergeCell ref="W53:AG53"/>
-    <mergeCell ref="AI53:BC53"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="A19:AK19"/>
-    <mergeCell ref="S32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="A27:R28"/>
-    <mergeCell ref="N21:V21"/>
-    <mergeCell ref="N22:V22"/>
-    <mergeCell ref="N23:V23"/>
-    <mergeCell ref="N24:V24"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A33:AK33"/>
+    <mergeCell ref="AM20:BC21"/>
+    <mergeCell ref="AY24:BC24"/>
+    <mergeCell ref="A29:AK29"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AT15:BC15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="I15:AA15"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="AO16:BC16"/>
+    <mergeCell ref="AO17:BC17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="N20:V20"/>
     <mergeCell ref="Z1:BC1"/>
     <mergeCell ref="AG14:AK14"/>
     <mergeCell ref="A17:K17"/>
@@ -7785,72 +7782,68 @@
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A13:AR13"/>
     <mergeCell ref="I14:AA14"/>
-    <mergeCell ref="A33:AK33"/>
-    <mergeCell ref="AM20:BC21"/>
-    <mergeCell ref="AY24:BC24"/>
-    <mergeCell ref="A29:AK29"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AT15:BC15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="I15:AA15"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="S27:AB27"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="AO16:BC16"/>
-    <mergeCell ref="AO17:BC17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="A34:AK34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="AW6:BC6"/>
-    <mergeCell ref="AG2:BC2"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="AM8:AV8"/>
-    <mergeCell ref="AM6:AV6"/>
-    <mergeCell ref="AM4:AV4"/>
-    <mergeCell ref="AY25:BC26"/>
-    <mergeCell ref="AM34:BC34"/>
-    <mergeCell ref="AM25:AQ26"/>
-    <mergeCell ref="AR25:AX26"/>
-    <mergeCell ref="AT14:BC14"/>
-    <mergeCell ref="AM27:BC33"/>
-    <mergeCell ref="AL24:AL32"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="A19:AK19"/>
+    <mergeCell ref="S32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="A27:R28"/>
+    <mergeCell ref="N21:V21"/>
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="N23:V23"/>
+    <mergeCell ref="N24:V24"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="B59:N61"/>
+    <mergeCell ref="S59:AE61"/>
+    <mergeCell ref="AI59:BC59"/>
+    <mergeCell ref="AI61:AT62"/>
+    <mergeCell ref="AU61:BC62"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="S62:AE62"/>
+    <mergeCell ref="W54:AG58"/>
+    <mergeCell ref="AI54:BC54"/>
+    <mergeCell ref="AI55:BC55"/>
+    <mergeCell ref="AI56:BC56"/>
+    <mergeCell ref="AI57:BC57"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="AI58:BC58"/>
+    <mergeCell ref="A52:U54"/>
+    <mergeCell ref="W53:AG53"/>
+    <mergeCell ref="AI53:BC53"/>
+    <mergeCell ref="J49:S49"/>
+    <mergeCell ref="T48:AB48"/>
+    <mergeCell ref="T49:AB49"/>
+    <mergeCell ref="AC48:AK48"/>
+    <mergeCell ref="AM35:BC51"/>
+    <mergeCell ref="AC46:AK46"/>
+    <mergeCell ref="AC49:AK49"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="J46:S46"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="A45:AK45"/>
+    <mergeCell ref="A50:AK51"/>
+    <mergeCell ref="AC47:AK47"/>
+    <mergeCell ref="A43:AK44"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="L36:O36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>

--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="001-044-78055" sheetId="5" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>ASOCIACION DE USUARIOS DE LA EMPRESA COMUNITARIA DE ACUEDUCTO Y ALCANTARILLADO DE CAIMALITO ESP
 NIT 900.017.239-2</t>
@@ -154,18 +155,6 @@
     <t>Consumo ultimos 6 meses</t>
   </si>
   <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>octubre</t>
-  </si>
-  <si>
-    <t>noviembre</t>
-  </si>
-  <si>
-    <t>diciembre</t>
-  </si>
-  <si>
     <t>NO APORTE</t>
   </si>
   <si>
@@ -256,13 +245,28 @@
 Le informamos que la ventanilla de recaudo estara abierta el dia domingo 06 de noviembre de 8 am a 4 pm jornada continua</t>
   </si>
   <si>
-    <t>enero</t>
-  </si>
-  <si>
     <t>COMPORTAMIENTO DE CONSUMO GENERAL M3</t>
   </si>
   <si>
     <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Mes</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1883,9 +1887,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2361,6 +2362,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2386,44 +2396,102 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.6298027330829624E-2"/>
-          <c:y val="0.11362323932779288"/>
-          <c:w val="0.943986394833908"/>
-          <c:h val="0.72938799611550043"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Mes</c:v>
+          </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="accent6">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.3628328161072107E-2"/>
+                      <c:h val="0.1583782519721342"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6778-46E3-B999-0740C822926B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2438,12 +2506,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2453,6 +2518,7 @@
                 <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2466,14 +2532,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2483,64 +2548,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'001-044-78055'!$L$36:$L$41</c:f>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Septiembre</c:v>
+                  <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>octubre</c:v>
+                  <c:v>Noviembre</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>noviembre</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>diciembre</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>enero</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Febrero</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'001-044-78055'!$P$36:$P$41</c:f>
+              <c:f>Hoja1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.0">
-                  <c:v>34.799999999999997</c:v>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.6</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.1</c:v>
+                  <c:v>36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.200000000000003</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.2</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F42D-44B5-A309-057EEB6C3932}"/>
+              <c16:uniqueId val="{00000003-7529-475D-9D8D-42745DF2AB7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2548,26 +2615,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="-25"/>
-        <c:axId val="343560128"/>
-        <c:axId val="343563080"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="486206296"/>
+        <c:axId val="486206952"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:tint val="58000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:dLbls>
                   <c:spPr>
                     <a:noFill/>
@@ -2583,12 +2654,9 @@
                     <a:lstStyle/>
                     <a:p>
                       <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
+                            <a:schemeClr val="lt1"/>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
@@ -2598,6 +2666,7 @@
                       <a:endParaRPr lang="es-CO"/>
                     </a:p>
                   </c:txPr>
+                  <c:dLblPos val="ctr"/>
                   <c:showLegendKey val="0"/>
                   <c:showVal val="1"/>
                   <c:showCatName val="0"/>
@@ -2607,17 +2676,17 @@
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                          <a:ln w="9525">
                             <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
                               </a:schemeClr>
                             </a:solidFill>
-                            <a:round/>
                           </a:ln>
                           <a:effectLst/>
                         </c:spPr>
@@ -2630,29 +2699,29 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'001-044-78055'!$L$36:$L$41</c15:sqref>
+                          <c15:sqref>Hoja1!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Septiembre</c:v>
+                        <c:v>Octubre</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>octubre</c:v>
+                        <c:v>Noviembre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>noviembre</c:v>
+                        <c:v>Diciembre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>diciembre</c:v>
+                        <c:v>Enero</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>enero</c:v>
+                        <c:v>Febrero</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>Febrero</c:v>
+                        <c:v>Marzo</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2662,37 +2731,45 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'001-044-78055'!$M$36:$M$41</c15:sqref>
+                          <c15:sqref>Hoja1!#REF!</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-F42D-44B5-A309-057EEB6C3932}"/>
+                    <c16:uniqueId val="{00000000-7529-475D-9D8D-42745DF2AB7C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:tint val="86000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:dLbls>
                   <c:spPr>
                     <a:noFill/>
@@ -2708,12 +2785,9 @@
                     <a:lstStyle/>
                     <a:p>
                       <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
+                            <a:schemeClr val="lt1"/>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
@@ -2723,6 +2797,7 @@
                       <a:endParaRPr lang="es-CO"/>
                     </a:p>
                   </c:txPr>
+                  <c:dLblPos val="ctr"/>
                   <c:showLegendKey val="0"/>
                   <c:showVal val="1"/>
                   <c:showCatName val="0"/>
@@ -2735,14 +2810,13 @@
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                          <a:ln w="9525">
                             <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
                               </a:schemeClr>
                             </a:solidFill>
-                            <a:round/>
                           </a:ln>
                           <a:effectLst/>
                         </c:spPr>
@@ -2752,42 +2826,42 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'001-044-78055'!$L$36:$L$41</c15:sqref>
+                          <c15:sqref>Hoja1!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Septiembre</c:v>
+                        <c:v>Octubre</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>octubre</c:v>
+                        <c:v>Noviembre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>noviembre</c:v>
+                        <c:v>Diciembre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>diciembre</c:v>
+                        <c:v>Enero</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>enero</c:v>
+                        <c:v>Febrero</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>Febrero</c:v>
+                        <c:v>Marzo</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'001-044-78055'!$N$36:$N$41</c15:sqref>
+                          <c15:sqref>Hoja1!$C$2:$C$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2797,27 +2871,32 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-F42D-44B5-A309-057EEB6C3932}"/>
+                    <c16:uniqueId val="{00000001-7529-475D-9D8D-42745DF2AB7C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:shade val="86000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:dLbls>
                   <c:spPr>
                     <a:noFill/>
@@ -2833,12 +2912,9 @@
                     <a:lstStyle/>
                     <a:p>
                       <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
+                            <a:schemeClr val="lt1"/>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
@@ -2848,6 +2924,7 @@
                       <a:endParaRPr lang="es-CO"/>
                     </a:p>
                   </c:txPr>
+                  <c:dLblPos val="ctr"/>
                   <c:showLegendKey val="0"/>
                   <c:showVal val="1"/>
                   <c:showCatName val="0"/>
@@ -2860,14 +2937,13 @@
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                          <a:ln w="9525">
                             <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
                               </a:schemeClr>
                             </a:solidFill>
-                            <a:round/>
                           </a:ln>
                           <a:effectLst/>
                         </c:spPr>
@@ -2877,42 +2953,42 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'001-044-78055'!$L$36:$L$41</c15:sqref>
+                          <c15:sqref>Hoja1!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>Septiembre</c:v>
+                        <c:v>Octubre</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>octubre</c:v>
+                        <c:v>Noviembre</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>noviembre</c:v>
+                        <c:v>Diciembre</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>diciembre</c:v>
+                        <c:v>Enero</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>enero</c:v>
+                        <c:v>Febrero</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>Febrero</c:v>
+                        <c:v>Marzo</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'001-044-78055'!$O$36:$O$41</c15:sqref>
+                          <c15:sqref>Hoja1!$D$2:$D$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2922,32 +2998,36 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-F42D-44B5-A309-057EEB6C3932}"/>
+                    <c16:uniqueId val="{00000002-7529-475D-9D8D-42745DF2AB7C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="343560128"/>
+        <c:axId val="486206296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2958,11 +3038,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2973,7 +3053,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343563080"/>
+        <c:crossAx val="486206952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2981,20 +3061,84 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343563080"/>
+        <c:axId val="486206952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343560128"/>
+        <c:crossAx val="486206296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="35000"/>
+                <a:lumOff val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3008,9 +3152,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -3036,173 +3178,180 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3211,33 +3360,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3253,21 +3398,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3282,13 +3425,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3301,17 +3444,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3320,12 +3463,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3339,30 +3482,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3372,17 +3521,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3391,17 +3551,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3410,17 +3570,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3429,27 +3588,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3457,11 +3624,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3469,14 +3647,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3488,12 +3666,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3502,14 +3680,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3518,9 +3695,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3538,9 +3715,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3551,11 +3728,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3563,14 +3745,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3955,20 +4131,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43902</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>162022</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>124861</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120635</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4251,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AL41" sqref="AL41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:AK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4271,22 +4447,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4298,54 +4474,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
+      <c r="Z1" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="134"/>
+      <c r="BA1" s="134"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="134"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4363,47 +4539,47 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="210" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="210"/>
-      <c r="AJ2" s="210"/>
-      <c r="AK2" s="210"/>
-      <c r="AL2" s="210"/>
-      <c r="AM2" s="210"/>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="210"/>
-      <c r="AT2" s="210"/>
-      <c r="AU2" s="210"/>
-      <c r="AV2" s="210"/>
-      <c r="AW2" s="210"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="210"/>
-      <c r="BA2" s="210"/>
-      <c r="BB2" s="210"/>
-      <c r="BC2" s="210"/>
+      <c r="AG2" s="209" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="209"/>
+      <c r="AN2" s="209"/>
+      <c r="AO2" s="209"/>
+      <c r="AP2" s="209"/>
+      <c r="AQ2" s="209"/>
+      <c r="AR2" s="209"/>
+      <c r="AS2" s="209"/>
+      <c r="AT2" s="209"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="209"/>
+      <c r="AW2" s="209"/>
+      <c r="AX2" s="209"/>
+      <c r="AY2" s="209"/>
+      <c r="AZ2" s="209"/>
+      <c r="BA2" s="209"/>
+      <c r="BB2" s="209"/>
+      <c r="BC2" s="209"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
+      <c r="A3" s="161"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -4439,20 +4615,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4475,41 +4651,41 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="159" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="214"/>
-      <c r="AW4" s="211"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="212"/>
-      <c r="BA4" s="212"/>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="213"/>
+      <c r="AM4" s="158" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN4" s="153"/>
+      <c r="AO4" s="153"/>
+      <c r="AP4" s="153"/>
+      <c r="AQ4" s="153"/>
+      <c r="AR4" s="153"/>
+      <c r="AS4" s="153"/>
+      <c r="AT4" s="153"/>
+      <c r="AU4" s="153"/>
+      <c r="AV4" s="213"/>
+      <c r="AW4" s="210"/>
+      <c r="AX4" s="211"/>
+      <c r="AY4" s="211"/>
+      <c r="AZ4" s="211"/>
+      <c r="BA4" s="211"/>
+      <c r="BB4" s="211"/>
+      <c r="BC4" s="212"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -4544,20 +4720,20 @@
       <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4581,52 +4757,52 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="159" t="s">
+      <c r="AM6" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="154"/>
-      <c r="AO6" s="154"/>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="154"/>
-      <c r="AR6" s="154"/>
-      <c r="AS6" s="154"/>
-      <c r="AT6" s="154"/>
-      <c r="AU6" s="154"/>
-      <c r="AV6" s="214"/>
-      <c r="AW6" s="207"/>
-      <c r="AX6" s="208"/>
-      <c r="AY6" s="208"/>
-      <c r="AZ6" s="208"/>
-      <c r="BA6" s="208"/>
-      <c r="BB6" s="208"/>
-      <c r="BC6" s="209"/>
+      <c r="AN6" s="153"/>
+      <c r="AO6" s="153"/>
+      <c r="AP6" s="153"/>
+      <c r="AQ6" s="153"/>
+      <c r="AR6" s="153"/>
+      <c r="AS6" s="153"/>
+      <c r="AT6" s="153"/>
+      <c r="AU6" s="153"/>
+      <c r="AV6" s="213"/>
+      <c r="AW6" s="206"/>
+      <c r="AX6" s="207"/>
+      <c r="AY6" s="207"/>
+      <c r="AZ6" s="207"/>
+      <c r="BA6" s="207"/>
+      <c r="BB6" s="207"/>
+      <c r="BC6" s="208"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="155"/>
+      <c r="P7" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="154"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -4646,31 +4822,31 @@
       <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="156">
+      <c r="P8" s="155">
         <v>1</v>
       </c>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="158"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="157"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4679,41 +4855,41 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="159" t="s">
+      <c r="AM8" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="154"/>
-      <c r="AO8" s="154"/>
-      <c r="AP8" s="154"/>
-      <c r="AQ8" s="154"/>
-      <c r="AR8" s="154"/>
-      <c r="AS8" s="154"/>
-      <c r="AT8" s="154"/>
-      <c r="AU8" s="154"/>
-      <c r="AV8" s="214"/>
-      <c r="AW8" s="207"/>
-      <c r="AX8" s="208"/>
-      <c r="AY8" s="208"/>
-      <c r="AZ8" s="208"/>
-      <c r="BA8" s="208"/>
-      <c r="BB8" s="208"/>
-      <c r="BC8" s="209"/>
+      <c r="AN8" s="153"/>
+      <c r="AO8" s="153"/>
+      <c r="AP8" s="153"/>
+      <c r="AQ8" s="153"/>
+      <c r="AR8" s="153"/>
+      <c r="AS8" s="153"/>
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="153"/>
+      <c r="AV8" s="213"/>
+      <c r="AW8" s="206"/>
+      <c r="AX8" s="207"/>
+      <c r="AY8" s="207"/>
+      <c r="AZ8" s="207"/>
+      <c r="BA8" s="207"/>
+      <c r="BB8" s="207"/>
+      <c r="BC8" s="208"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
       <c r="O9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -4724,31 +4900,31 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
       <c r="O10" s="31"/>
-      <c r="P10" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
+      <c r="P10" s="158" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
@@ -4757,50 +4933,50 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
-      <c r="AM10" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN10" s="161"/>
-      <c r="AO10" s="161"/>
-      <c r="AP10" s="161"/>
-      <c r="AQ10" s="161"/>
-      <c r="AR10" s="161"/>
-      <c r="AS10" s="161"/>
-      <c r="AT10" s="161"/>
-      <c r="AU10" s="161"/>
-      <c r="AV10" s="161"/>
-      <c r="AW10" s="161"/>
-      <c r="AX10" s="161"/>
-      <c r="AY10" s="161"/>
-      <c r="AZ10" s="161"/>
-      <c r="BA10" s="161"/>
-      <c r="BB10" s="161"/>
-      <c r="BC10" s="161"/>
+      <c r="AM10" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN10" s="160"/>
+      <c r="AO10" s="160"/>
+      <c r="AP10" s="160"/>
+      <c r="AQ10" s="160"/>
+      <c r="AR10" s="160"/>
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="160"/>
+      <c r="AX10" s="160"/>
+      <c r="AY10" s="160"/>
+      <c r="AZ10" s="160"/>
+      <c r="BA10" s="160"/>
+      <c r="BB10" s="160"/>
+      <c r="BC10" s="160"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -4809,23 +4985,23 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AM11" s="161"/>
-      <c r="AN11" s="161"/>
-      <c r="AO11" s="161"/>
-      <c r="AP11" s="161"/>
-      <c r="AQ11" s="161"/>
-      <c r="AR11" s="161"/>
-      <c r="AS11" s="161"/>
-      <c r="AT11" s="161"/>
-      <c r="AU11" s="161"/>
-      <c r="AV11" s="161"/>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="161"/>
-      <c r="AY11" s="161"/>
-      <c r="AZ11" s="161"/>
-      <c r="BA11" s="161"/>
-      <c r="BB11" s="161"/>
-      <c r="BC11" s="161"/>
+      <c r="AM11" s="160"/>
+      <c r="AN11" s="160"/>
+      <c r="AO11" s="160"/>
+      <c r="AP11" s="160"/>
+      <c r="AQ11" s="160"/>
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="160"/>
+      <c r="BA11" s="160"/>
+      <c r="BB11" s="160"/>
+      <c r="BC11" s="160"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="32"/>
@@ -4851,336 +5027,336 @@
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="160" t="s">
+      <c r="AM12" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="160"/>
-      <c r="AP12" s="160"/>
-      <c r="AQ12" s="160"/>
-      <c r="AR12" s="160"/>
-      <c r="AS12" s="160"/>
-      <c r="AT12" s="160"/>
-      <c r="AU12" s="160"/>
-      <c r="AV12" s="160"/>
-      <c r="AW12" s="160"/>
-      <c r="AX12" s="160"/>
-      <c r="AY12" s="160"/>
-      <c r="AZ12" s="160"/>
-      <c r="BA12" s="160"/>
-      <c r="BB12" s="160"/>
-      <c r="BC12" s="160"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
+      <c r="AZ12" s="159"/>
+      <c r="BA12" s="159"/>
+      <c r="BB12" s="159"/>
+      <c r="BC12" s="159"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="167"/>
-      <c r="AK13" s="167"/>
-      <c r="AL13" s="167"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="167"/>
-      <c r="AO13" s="167"/>
-      <c r="AP13" s="167"/>
-      <c r="AQ13" s="167"/>
-      <c r="AR13" s="167"/>
-      <c r="AS13" s="163"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="163"/>
-      <c r="AX13" s="163"/>
-      <c r="AY13" s="163"/>
-      <c r="AZ13" s="163"/>
-      <c r="BA13" s="163"/>
-      <c r="BB13" s="163"/>
-      <c r="BC13" s="164"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="166"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="166"/>
+      <c r="AL13" s="166"/>
+      <c r="AM13" s="166"/>
+      <c r="AN13" s="166"/>
+      <c r="AO13" s="166"/>
+      <c r="AP13" s="166"/>
+      <c r="AQ13" s="166"/>
+      <c r="AR13" s="166"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="162"/>
+      <c r="AU13" s="162"/>
+      <c r="AV13" s="162"/>
+      <c r="AW13" s="162"/>
+      <c r="AX13" s="162"/>
+      <c r="AY13" s="162"/>
+      <c r="AZ13" s="162"/>
+      <c r="BA13" s="162"/>
+      <c r="BB13" s="162"/>
+      <c r="BC13" s="163"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151" t="s">
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="148" t="s">
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="136" t="s">
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="148" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM14" s="148"/>
-      <c r="AN14" s="148"/>
-      <c r="AO14" s="148"/>
-      <c r="AP14" s="148"/>
-      <c r="AQ14" s="148"/>
-      <c r="AR14" s="148"/>
-      <c r="AS14" s="148"/>
-      <c r="AT14" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="136"/>
-      <c r="BB14" s="136"/>
-      <c r="BC14" s="226"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="135"/>
+      <c r="AL14" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" s="147"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="147"/>
+      <c r="AT14" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="135"/>
+      <c r="AX14" s="135"/>
+      <c r="AY14" s="135"/>
+      <c r="AZ14" s="135"/>
+      <c r="BA14" s="135"/>
+      <c r="BB14" s="135"/>
+      <c r="BC14" s="225"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="165"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="149"/>
-      <c r="AN15" s="149"/>
-      <c r="AO15" s="149"/>
-      <c r="AP15" s="149"/>
-      <c r="AQ15" s="149"/>
-      <c r="AR15" s="149"/>
-      <c r="AS15" s="149"/>
-      <c r="AT15" s="149"/>
-      <c r="AU15" s="149"/>
-      <c r="AV15" s="149"/>
-      <c r="AW15" s="149"/>
-      <c r="AX15" s="149"/>
-      <c r="AY15" s="149"/>
-      <c r="AZ15" s="149"/>
-      <c r="BA15" s="149"/>
-      <c r="BB15" s="149"/>
-      <c r="BC15" s="181"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="148"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="148"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="148"/>
+      <c r="AL15" s="148"/>
+      <c r="AM15" s="148"/>
+      <c r="AN15" s="148"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="148"/>
+      <c r="AQ15" s="148"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="148"/>
+      <c r="AT15" s="148"/>
+      <c r="AU15" s="148"/>
+      <c r="AV15" s="148"/>
+      <c r="AW15" s="148"/>
+      <c r="AX15" s="148"/>
+      <c r="AY15" s="148"/>
+      <c r="AZ15" s="148"/>
+      <c r="BA15" s="148"/>
+      <c r="BB15" s="148"/>
+      <c r="BC15" s="180"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="151" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="136" t="s">
+      <c r="A16" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136" t="s">
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="135"/>
+      <c r="AL16" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="136"/>
-      <c r="AN16" s="194"/>
-      <c r="AO16" s="189" t="s">
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="193"/>
+      <c r="AO16" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="190"/>
-      <c r="AQ16" s="190"/>
-      <c r="AR16" s="190"/>
-      <c r="AS16" s="190"/>
-      <c r="AT16" s="190"/>
-      <c r="AU16" s="190"/>
-      <c r="AV16" s="190"/>
-      <c r="AW16" s="190"/>
-      <c r="AX16" s="190"/>
-      <c r="AY16" s="190"/>
-      <c r="AZ16" s="190"/>
-      <c r="BA16" s="190"/>
-      <c r="BB16" s="190"/>
-      <c r="BC16" s="191"/>
+      <c r="AP16" s="189"/>
+      <c r="AQ16" s="189"/>
+      <c r="AR16" s="189"/>
+      <c r="AS16" s="189"/>
+      <c r="AT16" s="189"/>
+      <c r="AU16" s="189"/>
+      <c r="AV16" s="189"/>
+      <c r="AW16" s="189"/>
+      <c r="AX16" s="189"/>
+      <c r="AY16" s="189"/>
+      <c r="AZ16" s="189"/>
+      <c r="BA16" s="189"/>
+      <c r="BB16" s="189"/>
+      <c r="BC16" s="190"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="146"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="146"/>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="146"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="145"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="192"/>
-      <c r="AP17" s="188"/>
-      <c r="AQ17" s="188"/>
-      <c r="AR17" s="188"/>
-      <c r="AS17" s="188"/>
-      <c r="AT17" s="188"/>
-      <c r="AU17" s="188"/>
-      <c r="AV17" s="188"/>
-      <c r="AW17" s="188"/>
-      <c r="AX17" s="188"/>
-      <c r="AY17" s="188"/>
-      <c r="AZ17" s="188"/>
-      <c r="BA17" s="188"/>
-      <c r="BB17" s="188"/>
-      <c r="BC17" s="193"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="187"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="145"/>
+      <c r="AN17" s="146"/>
+      <c r="AO17" s="191"/>
+      <c r="AP17" s="187"/>
+      <c r="AQ17" s="187"/>
+      <c r="AR17" s="187"/>
+      <c r="AS17" s="187"/>
+      <c r="AT17" s="187"/>
+      <c r="AU17" s="187"/>
+      <c r="AV17" s="187"/>
+      <c r="AW17" s="187"/>
+      <c r="AX17" s="187"/>
+      <c r="AY17" s="187"/>
+      <c r="AZ17" s="187"/>
+      <c r="BA17" s="187"/>
+      <c r="BB17" s="187"/>
+      <c r="BC17" s="192"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5196,19 +5372,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="115"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5222,686 +5398,686 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="119"/>
-      <c r="AM19" s="139" t="s">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="118"/>
+      <c r="AM19" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="140"/>
-      <c r="AO19" s="140"/>
-      <c r="AP19" s="140"/>
-      <c r="AQ19" s="140"/>
-      <c r="AR19" s="140"/>
-      <c r="AS19" s="140"/>
-      <c r="AT19" s="140"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
-      <c r="AY19" s="140"/>
-      <c r="AZ19" s="140"/>
-      <c r="BA19" s="140"/>
-      <c r="BB19" s="140"/>
-      <c r="BC19" s="141"/>
+      <c r="AN19" s="139"/>
+      <c r="AO19" s="139"/>
+      <c r="AP19" s="139"/>
+      <c r="AQ19" s="139"/>
+      <c r="AR19" s="139"/>
+      <c r="AS19" s="139"/>
+      <c r="AT19" s="139"/>
+      <c r="AU19" s="139"/>
+      <c r="AV19" s="139"/>
+      <c r="AW19" s="139"/>
+      <c r="AX19" s="139"/>
+      <c r="AY19" s="139"/>
+      <c r="AZ19" s="139"/>
+      <c r="BA19" s="139"/>
+      <c r="BB19" s="139"/>
+      <c r="BC19" s="140"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123" t="s">
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="152"/>
-      <c r="AM20" s="169"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170"/>
-      <c r="AQ20" s="170"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="170"/>
-      <c r="AT20" s="170"/>
-      <c r="AU20" s="170"/>
-      <c r="AV20" s="170"/>
-      <c r="AW20" s="170"/>
-      <c r="AX20" s="170"/>
-      <c r="AY20" s="170"/>
-      <c r="AZ20" s="170"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="170"/>
-      <c r="BC20" s="171"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="151"/>
+      <c r="AM20" s="168"/>
+      <c r="AN20" s="169"/>
+      <c r="AO20" s="169"/>
+      <c r="AP20" s="169"/>
+      <c r="AQ20" s="169"/>
+      <c r="AR20" s="169"/>
+      <c r="AS20" s="169"/>
+      <c r="AT20" s="169"/>
+      <c r="AU20" s="169"/>
+      <c r="AV20" s="169"/>
+      <c r="AW20" s="169"/>
+      <c r="AX20" s="169"/>
+      <c r="AY20" s="169"/>
+      <c r="AZ20" s="169"/>
+      <c r="BA20" s="169"/>
+      <c r="BB20" s="169"/>
+      <c r="BC20" s="170"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="230"/>
-      <c r="Z21" s="230"/>
-      <c r="AA21" s="230"/>
-      <c r="AB21" s="230"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="125"/>
-      <c r="AM21" s="172"/>
-      <c r="AN21" s="173"/>
-      <c r="AO21" s="173"/>
-      <c r="AP21" s="173"/>
-      <c r="AQ21" s="173"/>
-      <c r="AR21" s="173"/>
-      <c r="AS21" s="173"/>
-      <c r="AT21" s="173"/>
-      <c r="AU21" s="173"/>
-      <c r="AV21" s="173"/>
-      <c r="AW21" s="173"/>
-      <c r="AX21" s="173"/>
-      <c r="AY21" s="173"/>
-      <c r="AZ21" s="173"/>
-      <c r="BA21" s="173"/>
-      <c r="BB21" s="173"/>
-      <c r="BC21" s="174"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="229"/>
+      <c r="X21" s="229"/>
+      <c r="Y21" s="229"/>
+      <c r="Z21" s="229"/>
+      <c r="AA21" s="229"/>
+      <c r="AB21" s="229"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="123"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="123"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="124"/>
+      <c r="AM21" s="171"/>
+      <c r="AN21" s="172"/>
+      <c r="AO21" s="172"/>
+      <c r="AP21" s="172"/>
+      <c r="AQ21" s="172"/>
+      <c r="AR21" s="172"/>
+      <c r="AS21" s="172"/>
+      <c r="AT21" s="172"/>
+      <c r="AU21" s="172"/>
+      <c r="AV21" s="172"/>
+      <c r="AW21" s="172"/>
+      <c r="AX21" s="172"/>
+      <c r="AY21" s="172"/>
+      <c r="AZ21" s="172"/>
+      <c r="BA21" s="172"/>
+      <c r="BB21" s="172"/>
+      <c r="BC21" s="173"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="231"/>
-      <c r="X22" s="231"/>
-      <c r="Y22" s="231"/>
-      <c r="Z22" s="231"/>
-      <c r="AA22" s="231"/>
-      <c r="AB22" s="231"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="125"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="230"/>
+      <c r="X22" s="230"/>
+      <c r="Y22" s="230"/>
+      <c r="Z22" s="230"/>
+      <c r="AA22" s="230"/>
+      <c r="AB22" s="230"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="123"/>
+      <c r="AE22" s="123"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="123"/>
+      <c r="AJ22" s="123"/>
+      <c r="AK22" s="124"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="231"/>
-      <c r="X23" s="231"/>
-      <c r="Y23" s="231"/>
-      <c r="Z23" s="231"/>
-      <c r="AA23" s="231"/>
-      <c r="AB23" s="231"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="125"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="230"/>
+      <c r="X23" s="230"/>
+      <c r="Y23" s="230"/>
+      <c r="Z23" s="230"/>
+      <c r="AA23" s="230"/>
+      <c r="AB23" s="230"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="123"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="123"/>
+      <c r="AH23" s="123"/>
+      <c r="AI23" s="123"/>
+      <c r="AJ23" s="123"/>
+      <c r="AK23" s="124"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="142" t="s">
+      <c r="AM23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="143"/>
-      <c r="AO23" s="143"/>
-      <c r="AP23" s="143"/>
-      <c r="AQ23" s="143"/>
-      <c r="AR23" s="143"/>
-      <c r="AS23" s="143"/>
-      <c r="AT23" s="143"/>
-      <c r="AU23" s="143"/>
-      <c r="AV23" s="143"/>
-      <c r="AW23" s="143"/>
-      <c r="AX23" s="143"/>
-      <c r="AY23" s="143"/>
-      <c r="AZ23" s="143"/>
-      <c r="BA23" s="143"/>
-      <c r="BB23" s="143"/>
-      <c r="BC23" s="144"/>
+      <c r="AN23" s="142"/>
+      <c r="AO23" s="142"/>
+      <c r="AP23" s="142"/>
+      <c r="AQ23" s="142"/>
+      <c r="AR23" s="142"/>
+      <c r="AS23" s="142"/>
+      <c r="AT23" s="142"/>
+      <c r="AU23" s="142"/>
+      <c r="AV23" s="142"/>
+      <c r="AW23" s="142"/>
+      <c r="AX23" s="142"/>
+      <c r="AY23" s="142"/>
+      <c r="AZ23" s="142"/>
+      <c r="BA23" s="142"/>
+      <c r="BB23" s="142"/>
+      <c r="BC23" s="143"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="231"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="231"/>
-      <c r="AA24" s="231"/>
-      <c r="AB24" s="231"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="229"/>
-      <c r="AM24" s="182" t="s">
+      <c r="A24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="230"/>
+      <c r="X24" s="230"/>
+      <c r="Y24" s="230"/>
+      <c r="Z24" s="230"/>
+      <c r="AA24" s="230"/>
+      <c r="AB24" s="230"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="123"/>
+      <c r="AJ24" s="123"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="228"/>
+      <c r="AM24" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="183"/>
-      <c r="AO24" s="183"/>
-      <c r="AP24" s="183"/>
-      <c r="AQ24" s="183"/>
-      <c r="AR24" s="184" t="s">
+      <c r="AN24" s="182"/>
+      <c r="AO24" s="182"/>
+      <c r="AP24" s="182"/>
+      <c r="AQ24" s="182"/>
+      <c r="AR24" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="184"/>
-      <c r="AT24" s="184"/>
-      <c r="AU24" s="184"/>
-      <c r="AV24" s="184"/>
-      <c r="AW24" s="184"/>
-      <c r="AX24" s="184"/>
-      <c r="AY24" s="175" t="s">
+      <c r="AS24" s="183"/>
+      <c r="AT24" s="183"/>
+      <c r="AU24" s="183"/>
+      <c r="AV24" s="183"/>
+      <c r="AW24" s="183"/>
+      <c r="AX24" s="183"/>
+      <c r="AY24" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="175"/>
-      <c r="BA24" s="175"/>
-      <c r="BB24" s="175"/>
-      <c r="BC24" s="176"/>
+      <c r="AZ24" s="174"/>
+      <c r="BA24" s="174"/>
+      <c r="BB24" s="174"/>
+      <c r="BC24" s="175"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="231"/>
-      <c r="AA25" s="231"/>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="125"/>
-      <c r="AL25" s="229"/>
-      <c r="AM25" s="222"/>
-      <c r="AN25" s="223"/>
-      <c r="AO25" s="223"/>
-      <c r="AP25" s="223"/>
-      <c r="AQ25" s="223"/>
-      <c r="AR25" s="224"/>
-      <c r="AS25" s="224"/>
-      <c r="AT25" s="224"/>
-      <c r="AU25" s="224"/>
-      <c r="AV25" s="224"/>
-      <c r="AW25" s="224"/>
-      <c r="AX25" s="224"/>
-      <c r="AY25" s="215"/>
-      <c r="AZ25" s="215"/>
-      <c r="BA25" s="215"/>
-      <c r="BB25" s="215"/>
-      <c r="BC25" s="216"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="230"/>
+      <c r="X25" s="230"/>
+      <c r="Y25" s="230"/>
+      <c r="Z25" s="230"/>
+      <c r="AA25" s="230"/>
+      <c r="AB25" s="230"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="123"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="123"/>
+      <c r="AJ25" s="123"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="228"/>
+      <c r="AM25" s="221"/>
+      <c r="AN25" s="222"/>
+      <c r="AO25" s="222"/>
+      <c r="AP25" s="222"/>
+      <c r="AQ25" s="222"/>
+      <c r="AR25" s="223"/>
+      <c r="AS25" s="223"/>
+      <c r="AT25" s="223"/>
+      <c r="AU25" s="223"/>
+      <c r="AV25" s="223"/>
+      <c r="AW25" s="223"/>
+      <c r="AX25" s="223"/>
+      <c r="AY25" s="214"/>
+      <c r="AZ25" s="214"/>
+      <c r="BA25" s="214"/>
+      <c r="BB25" s="214"/>
+      <c r="BC25" s="215"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="232"/>
-      <c r="X26" s="232"/>
-      <c r="Y26" s="232"/>
-      <c r="Z26" s="232"/>
-      <c r="AA26" s="232"/>
-      <c r="AB26" s="232"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="125"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="137"/>
-      <c r="AN26" s="138"/>
-      <c r="AO26" s="138"/>
-      <c r="AP26" s="138"/>
-      <c r="AQ26" s="138"/>
-      <c r="AR26" s="225"/>
-      <c r="AS26" s="225"/>
-      <c r="AT26" s="225"/>
-      <c r="AU26" s="225"/>
-      <c r="AV26" s="225"/>
-      <c r="AW26" s="225"/>
-      <c r="AX26" s="225"/>
-      <c r="AY26" s="217"/>
-      <c r="AZ26" s="217"/>
-      <c r="BA26" s="217"/>
-      <c r="BB26" s="217"/>
-      <c r="BC26" s="218"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="231"/>
+      <c r="X26" s="231"/>
+      <c r="Y26" s="231"/>
+      <c r="Z26" s="231"/>
+      <c r="AA26" s="231"/>
+      <c r="AB26" s="231"/>
+      <c r="AC26" s="123"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="123"/>
+      <c r="AF26" s="123"/>
+      <c r="AG26" s="123"/>
+      <c r="AH26" s="123"/>
+      <c r="AI26" s="123"/>
+      <c r="AJ26" s="123"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="228"/>
+      <c r="AM26" s="136"/>
+      <c r="AN26" s="137"/>
+      <c r="AO26" s="137"/>
+      <c r="AP26" s="137"/>
+      <c r="AQ26" s="137"/>
+      <c r="AR26" s="224"/>
+      <c r="AS26" s="224"/>
+      <c r="AT26" s="224"/>
+      <c r="AU26" s="224"/>
+      <c r="AV26" s="224"/>
+      <c r="AW26" s="224"/>
+      <c r="AX26" s="224"/>
+      <c r="AY26" s="216"/>
+      <c r="AZ26" s="216"/>
+      <c r="BA26" s="216"/>
+      <c r="BB26" s="216"/>
+      <c r="BC26" s="217"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="186" t="s">
+      <c r="A27" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="121">
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="120">
         <v>0</v>
       </c>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="122"/>
-      <c r="AL27" s="229"/>
-      <c r="AM27" s="227" t="s">
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="228"/>
+      <c r="AM27" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="227"/>
-      <c r="AO27" s="227"/>
-      <c r="AP27" s="227"/>
-      <c r="AQ27" s="227"/>
-      <c r="AR27" s="227"/>
-      <c r="AS27" s="227"/>
-      <c r="AT27" s="227"/>
-      <c r="AU27" s="227"/>
-      <c r="AV27" s="227"/>
-      <c r="AW27" s="227"/>
-      <c r="AX27" s="227"/>
-      <c r="AY27" s="227"/>
-      <c r="AZ27" s="227"/>
-      <c r="BA27" s="227"/>
-      <c r="BB27" s="227"/>
-      <c r="BC27" s="227"/>
+      <c r="AN27" s="226"/>
+      <c r="AO27" s="226"/>
+      <c r="AP27" s="226"/>
+      <c r="AQ27" s="226"/>
+      <c r="AR27" s="226"/>
+      <c r="AS27" s="226"/>
+      <c r="AT27" s="226"/>
+      <c r="AU27" s="226"/>
+      <c r="AV27" s="226"/>
+      <c r="AW27" s="226"/>
+      <c r="AX27" s="226"/>
+      <c r="AY27" s="226"/>
+      <c r="AZ27" s="226"/>
+      <c r="BA27" s="226"/>
+      <c r="BB27" s="226"/>
+      <c r="BC27" s="226"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="AL28" s="229"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="161"/>
-      <c r="AO28" s="161"/>
-      <c r="AP28" s="161"/>
-      <c r="AQ28" s="161"/>
-      <c r="AR28" s="161"/>
-      <c r="AS28" s="161"/>
-      <c r="AT28" s="161"/>
-      <c r="AU28" s="161"/>
-      <c r="AV28" s="161"/>
-      <c r="AW28" s="161"/>
-      <c r="AX28" s="161"/>
-      <c r="AY28" s="161"/>
-      <c r="AZ28" s="161"/>
-      <c r="BA28" s="161"/>
-      <c r="BB28" s="161"/>
-      <c r="BC28" s="161"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="AL28" s="228"/>
+      <c r="AM28" s="160"/>
+      <c r="AN28" s="160"/>
+      <c r="AO28" s="160"/>
+      <c r="AP28" s="160"/>
+      <c r="AQ28" s="160"/>
+      <c r="AR28" s="160"/>
+      <c r="AS28" s="160"/>
+      <c r="AT28" s="160"/>
+      <c r="AU28" s="160"/>
+      <c r="AV28" s="160"/>
+      <c r="AW28" s="160"/>
+      <c r="AX28" s="160"/>
+      <c r="AY28" s="160"/>
+      <c r="AZ28" s="160"/>
+      <c r="BA28" s="160"/>
+      <c r="BB28" s="160"/>
+      <c r="BC28" s="160"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="178"/>
-      <c r="AL29" s="229"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="161"/>
-      <c r="AO29" s="161"/>
-      <c r="AP29" s="161"/>
-      <c r="AQ29" s="161"/>
-      <c r="AR29" s="161"/>
-      <c r="AS29" s="161"/>
-      <c r="AT29" s="161"/>
-      <c r="AU29" s="161"/>
-      <c r="AV29" s="161"/>
-      <c r="AW29" s="161"/>
-      <c r="AX29" s="161"/>
-      <c r="AY29" s="161"/>
-      <c r="AZ29" s="161"/>
-      <c r="BA29" s="161"/>
-      <c r="BB29" s="161"/>
-      <c r="BC29" s="161"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="177"/>
+      <c r="AL29" s="228"/>
+      <c r="AM29" s="160"/>
+      <c r="AN29" s="160"/>
+      <c r="AO29" s="160"/>
+      <c r="AP29" s="160"/>
+      <c r="AQ29" s="160"/>
+      <c r="AR29" s="160"/>
+      <c r="AS29" s="160"/>
+      <c r="AT29" s="160"/>
+      <c r="AU29" s="160"/>
+      <c r="AV29" s="160"/>
+      <c r="AW29" s="160"/>
+      <c r="AX29" s="160"/>
+      <c r="AY29" s="160"/>
+      <c r="AZ29" s="160"/>
+      <c r="BA29" s="160"/>
+      <c r="BB29" s="160"/>
+      <c r="BC29" s="160"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179" t="s">
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="179"/>
-      <c r="T30" s="179" t="s">
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="179"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="179"/>
-      <c r="X30" s="179"/>
-      <c r="Y30" s="179"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="179" t="s">
+      <c r="AC30" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="179"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="179"/>
-      <c r="AJ30" s="179"/>
-      <c r="AK30" s="180"/>
-      <c r="AL30" s="229"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="161"/>
-      <c r="AO30" s="161"/>
-      <c r="AP30" s="161"/>
-      <c r="AQ30" s="161"/>
-      <c r="AR30" s="161"/>
-      <c r="AS30" s="161"/>
-      <c r="AT30" s="161"/>
-      <c r="AU30" s="161"/>
-      <c r="AV30" s="161"/>
-      <c r="AW30" s="161"/>
-      <c r="AX30" s="161"/>
-      <c r="AY30" s="161"/>
-      <c r="AZ30" s="161"/>
-      <c r="BA30" s="161"/>
-      <c r="BB30" s="161"/>
-      <c r="BC30" s="161"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="178"/>
+      <c r="AF30" s="178"/>
+      <c r="AG30" s="178"/>
+      <c r="AH30" s="178"/>
+      <c r="AI30" s="178"/>
+      <c r="AJ30" s="178"/>
+      <c r="AK30" s="179"/>
+      <c r="AL30" s="228"/>
+      <c r="AM30" s="160"/>
+      <c r="AN30" s="160"/>
+      <c r="AO30" s="160"/>
+      <c r="AP30" s="160"/>
+      <c r="AQ30" s="160"/>
+      <c r="AR30" s="160"/>
+      <c r="AS30" s="160"/>
+      <c r="AT30" s="160"/>
+      <c r="AU30" s="160"/>
+      <c r="AV30" s="160"/>
+      <c r="AW30" s="160"/>
+      <c r="AX30" s="160"/>
+      <c r="AY30" s="160"/>
+      <c r="AZ30" s="160"/>
+      <c r="BA30" s="160"/>
+      <c r="BB30" s="160"/>
+      <c r="BC30" s="160"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -5941,24 +6117,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="229"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="161"/>
-      <c r="AO31" s="161"/>
-      <c r="AP31" s="161"/>
-      <c r="AQ31" s="161"/>
-      <c r="AR31" s="161"/>
-      <c r="AS31" s="161"/>
-      <c r="AT31" s="161"/>
-      <c r="AU31" s="161"/>
-      <c r="AV31" s="161"/>
-      <c r="AW31" s="161"/>
-      <c r="AX31" s="161"/>
-      <c r="AY31" s="161"/>
-      <c r="AZ31" s="161"/>
-      <c r="BA31" s="161"/>
-      <c r="BB31" s="161"/>
-      <c r="BC31" s="161"/>
+      <c r="AL31" s="228"/>
+      <c r="AM31" s="160"/>
+      <c r="AN31" s="160"/>
+      <c r="AO31" s="160"/>
+      <c r="AP31" s="160"/>
+      <c r="AQ31" s="160"/>
+      <c r="AR31" s="160"/>
+      <c r="AS31" s="160"/>
+      <c r="AT31" s="160"/>
+      <c r="AU31" s="160"/>
+      <c r="AV31" s="160"/>
+      <c r="AW31" s="160"/>
+      <c r="AX31" s="160"/>
+      <c r="AY31" s="160"/>
+      <c r="AZ31" s="160"/>
+      <c r="BA31" s="160"/>
+      <c r="BB31" s="160"/>
+      <c r="BC31" s="160"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -5979,211 +6155,211 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="120" t="s">
+      <c r="S32" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="121">
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="120">
         <v>0</v>
       </c>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="229"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="161"/>
-      <c r="AO32" s="161"/>
-      <c r="AP32" s="161"/>
-      <c r="AQ32" s="161"/>
-      <c r="AR32" s="161"/>
-      <c r="AS32" s="161"/>
-      <c r="AT32" s="161"/>
-      <c r="AU32" s="161"/>
-      <c r="AV32" s="161"/>
-      <c r="AW32" s="161"/>
-      <c r="AX32" s="161"/>
-      <c r="AY32" s="161"/>
-      <c r="AZ32" s="161"/>
-      <c r="BA32" s="161"/>
-      <c r="BB32" s="161"/>
-      <c r="BC32" s="161"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="228"/>
+      <c r="AM32" s="160"/>
+      <c r="AN32" s="160"/>
+      <c r="AO32" s="160"/>
+      <c r="AP32" s="160"/>
+      <c r="AQ32" s="160"/>
+      <c r="AR32" s="160"/>
+      <c r="AS32" s="160"/>
+      <c r="AT32" s="160"/>
+      <c r="AU32" s="160"/>
+      <c r="AV32" s="160"/>
+      <c r="AW32" s="160"/>
+      <c r="AX32" s="160"/>
+      <c r="AY32" s="160"/>
+      <c r="AZ32" s="160"/>
+      <c r="BA32" s="160"/>
+      <c r="BB32" s="160"/>
+      <c r="BC32" s="160"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="168"/>
-      <c r="AH33" s="168"/>
-      <c r="AI33" s="168"/>
-      <c r="AJ33" s="168"/>
-      <c r="AK33" s="168"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="167"/>
+      <c r="U33" s="167"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="167"/>
+      <c r="Z33" s="167"/>
+      <c r="AA33" s="167"/>
+      <c r="AB33" s="167"/>
+      <c r="AC33" s="167"/>
+      <c r="AD33" s="167"/>
+      <c r="AE33" s="167"/>
+      <c r="AF33" s="167"/>
+      <c r="AG33" s="167"/>
+      <c r="AH33" s="167"/>
+      <c r="AI33" s="167"/>
+      <c r="AJ33" s="167"/>
+      <c r="AK33" s="167"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="228"/>
-      <c r="AN33" s="228"/>
-      <c r="AO33" s="228"/>
-      <c r="AP33" s="228"/>
-      <c r="AQ33" s="228"/>
-      <c r="AR33" s="228"/>
-      <c r="AS33" s="228"/>
-      <c r="AT33" s="228"/>
-      <c r="AU33" s="228"/>
-      <c r="AV33" s="228"/>
-      <c r="AW33" s="228"/>
-      <c r="AX33" s="228"/>
-      <c r="AY33" s="228"/>
-      <c r="AZ33" s="228"/>
-      <c r="BA33" s="228"/>
-      <c r="BB33" s="228"/>
-      <c r="BC33" s="228"/>
+      <c r="AM33" s="227"/>
+      <c r="AN33" s="227"/>
+      <c r="AO33" s="227"/>
+      <c r="AP33" s="227"/>
+      <c r="AQ33" s="227"/>
+      <c r="AR33" s="227"/>
+      <c r="AS33" s="227"/>
+      <c r="AT33" s="227"/>
+      <c r="AU33" s="227"/>
+      <c r="AV33" s="227"/>
+      <c r="AW33" s="227"/>
+      <c r="AX33" s="227"/>
+      <c r="AY33" s="227"/>
+      <c r="AZ33" s="227"/>
+      <c r="BA33" s="227"/>
+      <c r="BB33" s="227"/>
+      <c r="BC33" s="227"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="195" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="196"/>
-      <c r="N34" s="196"/>
-      <c r="O34" s="196"/>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="196"/>
-      <c r="R34" s="196"/>
-      <c r="S34" s="196"/>
-      <c r="T34" s="196"/>
-      <c r="U34" s="196"/>
-      <c r="V34" s="196"/>
-      <c r="W34" s="196"/>
-      <c r="X34" s="196"/>
-      <c r="Y34" s="196"/>
-      <c r="Z34" s="196"/>
-      <c r="AA34" s="196"/>
-      <c r="AB34" s="196"/>
-      <c r="AC34" s="196"/>
-      <c r="AD34" s="196"/>
-      <c r="AE34" s="196"/>
-      <c r="AF34" s="196"/>
-      <c r="AG34" s="196"/>
-      <c r="AH34" s="196"/>
-      <c r="AI34" s="196"/>
-      <c r="AJ34" s="196"/>
-      <c r="AK34" s="197"/>
-      <c r="AM34" s="219" t="s">
+      <c r="A34" s="194" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="195"/>
+      <c r="Q34" s="195"/>
+      <c r="R34" s="195"/>
+      <c r="S34" s="195"/>
+      <c r="T34" s="195"/>
+      <c r="U34" s="195"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="195"/>
+      <c r="X34" s="195"/>
+      <c r="Y34" s="195"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="195"/>
+      <c r="AB34" s="195"/>
+      <c r="AC34" s="195"/>
+      <c r="AD34" s="195"/>
+      <c r="AE34" s="195"/>
+      <c r="AF34" s="195"/>
+      <c r="AG34" s="195"/>
+      <c r="AH34" s="195"/>
+      <c r="AI34" s="195"/>
+      <c r="AJ34" s="195"/>
+      <c r="AK34" s="196"/>
+      <c r="AM34" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="220"/>
-      <c r="AO34" s="220"/>
-      <c r="AP34" s="220"/>
-      <c r="AQ34" s="220"/>
-      <c r="AR34" s="220"/>
-      <c r="AS34" s="220"/>
-      <c r="AT34" s="220"/>
-      <c r="AU34" s="220"/>
-      <c r="AV34" s="220"/>
-      <c r="AW34" s="220"/>
-      <c r="AX34" s="220"/>
-      <c r="AY34" s="220"/>
-      <c r="AZ34" s="220"/>
-      <c r="BA34" s="220"/>
-      <c r="BB34" s="220"/>
-      <c r="BC34" s="221"/>
+      <c r="AN34" s="219"/>
+      <c r="AO34" s="219"/>
+      <c r="AP34" s="219"/>
+      <c r="AQ34" s="219"/>
+      <c r="AR34" s="219"/>
+      <c r="AS34" s="219"/>
+      <c r="AT34" s="219"/>
+      <c r="AU34" s="219"/>
+      <c r="AV34" s="219"/>
+      <c r="AW34" s="219"/>
+      <c r="AX34" s="219"/>
+      <c r="AY34" s="219"/>
+      <c r="AZ34" s="219"/>
+      <c r="BA34" s="219"/>
+      <c r="BB34" s="219"/>
+      <c r="BC34" s="220"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="198" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="199"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199" t="s">
+      <c r="A35" s="197" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="199"/>
-      <c r="O35" s="199"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="199"/>
-      <c r="S35" s="199"/>
-      <c r="T35" s="199"/>
-      <c r="U35" s="199"/>
-      <c r="V35" s="199"/>
-      <c r="W35" s="199"/>
-      <c r="X35" s="199"/>
-      <c r="Y35" s="199"/>
-      <c r="Z35" s="199"/>
-      <c r="AA35" s="199"/>
-      <c r="AB35" s="199"/>
-      <c r="AC35" s="199"/>
-      <c r="AD35" s="199"/>
-      <c r="AE35" s="199"/>
-      <c r="AF35" s="199"/>
-      <c r="AG35" s="199"/>
-      <c r="AH35" s="199"/>
-      <c r="AI35" s="199"/>
-      <c r="AJ35" s="199"/>
-      <c r="AK35" s="206"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="198"/>
+      <c r="X35" s="198"/>
+      <c r="Y35" s="198"/>
+      <c r="Z35" s="198"/>
+      <c r="AA35" s="198"/>
+      <c r="AB35" s="198"/>
+      <c r="AC35" s="198"/>
+      <c r="AD35" s="198"/>
+      <c r="AE35" s="198"/>
+      <c r="AF35" s="198"/>
+      <c r="AG35" s="198"/>
+      <c r="AH35" s="198"/>
+      <c r="AI35" s="198"/>
+      <c r="AJ35" s="198"/>
+      <c r="AK35" s="205"/>
       <c r="AM35" s="45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AN35" s="46"/>
       <c r="AO35" s="46"/>
@@ -6203,29 +6379,19 @@
       <c r="BC35" s="47"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="202">
-        <f>SUM(P36:Q41)+29.8+31.5</f>
-        <v>258.2</v>
-      </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
+      <c r="A36" s="201">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="40">
-        <v>34.799999999999997</v>
-      </c>
       <c r="Q36" s="40"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
@@ -6266,28 +6432,19 @@
       <c r="BC36" s="50"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="200" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
+      <c r="A37" s="199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="200"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="41">
-        <v>34</v>
-      </c>
       <c r="Q37" s="41"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
@@ -6329,29 +6486,20 @@
       <c r="BC37" s="50"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="204">
+      <c r="A38" s="203">
         <f>A36-A40</f>
-        <v>228</v>
-      </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
+        <v>258.2</v>
+      </c>
+      <c r="B38" s="204"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="41">
-        <v>28.6</v>
-      </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
@@ -6393,28 +6541,19 @@
       <c r="BC38" s="50"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="200" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
+      <c r="A39" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="200"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="41">
-        <v>33.1</v>
-      </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
@@ -6455,28 +6594,19 @@
       <c r="BC39" s="50"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="204">
-        <v>30.2</v>
-      </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
+      <c r="A40" s="203">
+        <v>29.7</v>
+      </c>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="41">
-        <v>36.200000000000003</v>
-      </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
@@ -6517,28 +6647,19 @@
       <c r="BC40" s="50"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="201"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="41">
-        <v>30.2</v>
-      </c>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -6578,25 +6699,20 @@
       <c r="BC41" s="50"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="204">
-        <f>AVERAGE(P36:P41)</f>
-        <v>32.816666666666663</v>
-      </c>
-      <c r="B42" s="205"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
+      <c r="A42" s="203">
+        <f>AVERAGE(Hoja1!B2:B7)</f>
+        <v>31.966666666666665</v>
+      </c>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -6638,7 +6754,7 @@
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B43" s="70"/>
       <c r="C43" s="70"/>
@@ -6754,7 +6870,7 @@
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -6824,7 +6940,7 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K46" s="43"/>
       <c r="L46" s="43"/>
@@ -6836,7 +6952,7 @@
       <c r="R46" s="43"/>
       <c r="S46" s="43"/>
       <c r="T46" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U46" s="43"/>
       <c r="V46" s="43"/>
@@ -6847,7 +6963,7 @@
       <c r="AA46" s="43"/>
       <c r="AB46" s="43"/>
       <c r="AC46" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD46" s="43"/>
       <c r="AE46" s="43"/>
@@ -6952,7 +7068,7 @@
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
       <c r="J48" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K48" s="43"/>
       <c r="L48" s="43"/>
@@ -6964,7 +7080,7 @@
       <c r="R48" s="43"/>
       <c r="S48" s="43"/>
       <c r="T48" s="43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
@@ -6975,7 +7091,7 @@
       <c r="AA48" s="43"/>
       <c r="AB48" s="43"/>
       <c r="AC48" s="43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD48" s="43"/>
       <c r="AE48" s="43"/>
@@ -7039,7 +7155,7 @@
       <c r="AA49" s="42"/>
       <c r="AB49" s="42"/>
       <c r="AC49" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD49" s="42"/>
       <c r="AE49" s="42"/>
@@ -7182,220 +7298,220 @@
       <c r="BC51" s="53"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
+      <c r="A52" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
       <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
       <c r="V53" s="35"/>
-      <c r="W53" s="110" t="s">
+      <c r="W53" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="111"/>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="111"/>
-      <c r="AA53" s="111"/>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="111"/>
-      <c r="AE53" s="111"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="112"/>
-      <c r="AI53" s="113" t="s">
+      <c r="X53" s="110"/>
+      <c r="Y53" s="110"/>
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="110"/>
+      <c r="AD53" s="110"/>
+      <c r="AE53" s="110"/>
+      <c r="AF53" s="110"/>
+      <c r="AG53" s="111"/>
+      <c r="AI53" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="114"/>
-      <c r="AK53" s="114"/>
-      <c r="AL53" s="114"/>
-      <c r="AM53" s="114"/>
-      <c r="AN53" s="114"/>
-      <c r="AO53" s="114"/>
-      <c r="AP53" s="114"/>
-      <c r="AQ53" s="114"/>
-      <c r="AR53" s="114"/>
-      <c r="AS53" s="114"/>
-      <c r="AT53" s="114"/>
-      <c r="AU53" s="114"/>
-      <c r="AV53" s="114"/>
-      <c r="AW53" s="114"/>
-      <c r="AX53" s="114"/>
-      <c r="AY53" s="114"/>
-      <c r="AZ53" s="114"/>
-      <c r="BA53" s="114"/>
-      <c r="BB53" s="114"/>
-      <c r="BC53" s="115"/>
+      <c r="AJ53" s="113"/>
+      <c r="AK53" s="113"/>
+      <c r="AL53" s="113"/>
+      <c r="AM53" s="113"/>
+      <c r="AN53" s="113"/>
+      <c r="AO53" s="113"/>
+      <c r="AP53" s="113"/>
+      <c r="AQ53" s="113"/>
+      <c r="AR53" s="113"/>
+      <c r="AS53" s="113"/>
+      <c r="AT53" s="113"/>
+      <c r="AU53" s="113"/>
+      <c r="AV53" s="113"/>
+      <c r="AW53" s="113"/>
+      <c r="AX53" s="113"/>
+      <c r="AY53" s="113"/>
+      <c r="AZ53" s="113"/>
+      <c r="BA53" s="113"/>
+      <c r="BB53" s="113"/>
+      <c r="BC53" s="114"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
       <c r="V54" s="35"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="90"/>
-      <c r="AA54" s="90"/>
-      <c r="AB54" s="90"/>
-      <c r="AC54" s="90"/>
-      <c r="AD54" s="90"/>
-      <c r="AE54" s="90"/>
-      <c r="AF54" s="90"/>
-      <c r="AG54" s="91"/>
-      <c r="AI54" s="98" t="s">
+      <c r="W54" s="88"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="89"/>
+      <c r="AC54" s="89"/>
+      <c r="AD54" s="89"/>
+      <c r="AE54" s="89"/>
+      <c r="AF54" s="89"/>
+      <c r="AG54" s="90"/>
+      <c r="AI54" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="99"/>
-      <c r="AK54" s="99"/>
-      <c r="AL54" s="99"/>
-      <c r="AM54" s="99"/>
-      <c r="AN54" s="99"/>
-      <c r="AO54" s="99"/>
-      <c r="AP54" s="99"/>
-      <c r="AQ54" s="99"/>
-      <c r="AR54" s="99"/>
-      <c r="AS54" s="99"/>
-      <c r="AT54" s="99"/>
-      <c r="AU54" s="99"/>
-      <c r="AV54" s="99"/>
-      <c r="AW54" s="99"/>
-      <c r="AX54" s="99"/>
-      <c r="AY54" s="99"/>
-      <c r="AZ54" s="99"/>
-      <c r="BA54" s="99"/>
-      <c r="BB54" s="99"/>
-      <c r="BC54" s="100"/>
+      <c r="AJ54" s="98"/>
+      <c r="AK54" s="98"/>
+      <c r="AL54" s="98"/>
+      <c r="AM54" s="98"/>
+      <c r="AN54" s="98"/>
+      <c r="AO54" s="98"/>
+      <c r="AP54" s="98"/>
+      <c r="AQ54" s="98"/>
+      <c r="AR54" s="98"/>
+      <c r="AS54" s="98"/>
+      <c r="AT54" s="98"/>
+      <c r="AU54" s="98"/>
+      <c r="AV54" s="98"/>
+      <c r="AW54" s="98"/>
+      <c r="AX54" s="98"/>
+      <c r="AY54" s="98"/>
+      <c r="AZ54" s="98"/>
+      <c r="BA54" s="98"/>
+      <c r="BB54" s="98"/>
+      <c r="BC54" s="99"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="92"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="93"/>
-      <c r="Z55" s="93"/>
-      <c r="AA55" s="93"/>
-      <c r="AB55" s="93"/>
-      <c r="AC55" s="93"/>
-      <c r="AD55" s="93"/>
-      <c r="AE55" s="93"/>
-      <c r="AF55" s="93"/>
-      <c r="AG55" s="94"/>
-      <c r="AI55" s="101"/>
-      <c r="AJ55" s="102"/>
-      <c r="AK55" s="102"/>
-      <c r="AL55" s="102"/>
-      <c r="AM55" s="102"/>
-      <c r="AN55" s="102"/>
-      <c r="AO55" s="102"/>
-      <c r="AP55" s="102"/>
-      <c r="AQ55" s="102"/>
-      <c r="AR55" s="102"/>
-      <c r="AS55" s="102"/>
-      <c r="AT55" s="102"/>
-      <c r="AU55" s="102"/>
-      <c r="AV55" s="102"/>
-      <c r="AW55" s="102"/>
-      <c r="AX55" s="102"/>
-      <c r="AY55" s="102"/>
-      <c r="AZ55" s="102"/>
-      <c r="BA55" s="102"/>
-      <c r="BB55" s="102"/>
-      <c r="BC55" s="103"/>
+      <c r="W55" s="91"/>
+      <c r="X55" s="92"/>
+      <c r="Y55" s="92"/>
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="92"/>
+      <c r="AB55" s="92"/>
+      <c r="AC55" s="92"/>
+      <c r="AD55" s="92"/>
+      <c r="AE55" s="92"/>
+      <c r="AF55" s="92"/>
+      <c r="AG55" s="93"/>
+      <c r="AI55" s="100"/>
+      <c r="AJ55" s="101"/>
+      <c r="AK55" s="101"/>
+      <c r="AL55" s="101"/>
+      <c r="AM55" s="101"/>
+      <c r="AN55" s="101"/>
+      <c r="AO55" s="101"/>
+      <c r="AP55" s="101"/>
+      <c r="AQ55" s="101"/>
+      <c r="AR55" s="101"/>
+      <c r="AS55" s="101"/>
+      <c r="AT55" s="101"/>
+      <c r="AU55" s="101"/>
+      <c r="AV55" s="101"/>
+      <c r="AW55" s="101"/>
+      <c r="AX55" s="101"/>
+      <c r="AY55" s="101"/>
+      <c r="AZ55" s="101"/>
+      <c r="BA55" s="101"/>
+      <c r="BB55" s="101"/>
+      <c r="BC55" s="102"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="92"/>
-      <c r="X56" s="93"/>
-      <c r="Y56" s="93"/>
-      <c r="Z56" s="93"/>
-      <c r="AA56" s="93"/>
-      <c r="AB56" s="93"/>
-      <c r="AC56" s="93"/>
-      <c r="AD56" s="93"/>
-      <c r="AE56" s="93"/>
-      <c r="AF56" s="93"/>
-      <c r="AG56" s="94"/>
-      <c r="AI56" s="104" t="s">
+      <c r="W56" s="91"/>
+      <c r="X56" s="92"/>
+      <c r="Y56" s="92"/>
+      <c r="Z56" s="92"/>
+      <c r="AA56" s="92"/>
+      <c r="AB56" s="92"/>
+      <c r="AC56" s="92"/>
+      <c r="AD56" s="92"/>
+      <c r="AE56" s="92"/>
+      <c r="AF56" s="92"/>
+      <c r="AG56" s="93"/>
+      <c r="AI56" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="105"/>
-      <c r="AK56" s="105"/>
-      <c r="AL56" s="105"/>
-      <c r="AM56" s="105"/>
-      <c r="AN56" s="105"/>
-      <c r="AO56" s="105"/>
-      <c r="AP56" s="105"/>
-      <c r="AQ56" s="105"/>
-      <c r="AR56" s="105"/>
-      <c r="AS56" s="105"/>
-      <c r="AT56" s="105"/>
-      <c r="AU56" s="105"/>
-      <c r="AV56" s="105"/>
-      <c r="AW56" s="105"/>
-      <c r="AX56" s="105"/>
-      <c r="AY56" s="105"/>
-      <c r="AZ56" s="105"/>
-      <c r="BA56" s="105"/>
-      <c r="BB56" s="105"/>
-      <c r="BC56" s="106"/>
+      <c r="AJ56" s="104"/>
+      <c r="AK56" s="104"/>
+      <c r="AL56" s="104"/>
+      <c r="AM56" s="104"/>
+      <c r="AN56" s="104"/>
+      <c r="AO56" s="104"/>
+      <c r="AP56" s="104"/>
+      <c r="AQ56" s="104"/>
+      <c r="AR56" s="104"/>
+      <c r="AS56" s="104"/>
+      <c r="AT56" s="104"/>
+      <c r="AU56" s="104"/>
+      <c r="AV56" s="104"/>
+      <c r="AW56" s="104"/>
+      <c r="AX56" s="104"/>
+      <c r="AY56" s="104"/>
+      <c r="AZ56" s="104"/>
+      <c r="BA56" s="104"/>
+      <c r="BB56" s="104"/>
+      <c r="BC56" s="105"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7412,291 +7528,295 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="92"/>
-      <c r="X57" s="93"/>
-      <c r="Y57" s="93"/>
-      <c r="Z57" s="93"/>
-      <c r="AA57" s="93"/>
-      <c r="AB57" s="93"/>
-      <c r="AC57" s="93"/>
-      <c r="AD57" s="93"/>
-      <c r="AE57" s="93"/>
-      <c r="AF57" s="93"/>
-      <c r="AG57" s="94"/>
-      <c r="AI57" s="101"/>
-      <c r="AJ57" s="102"/>
-      <c r="AK57" s="102"/>
-      <c r="AL57" s="102"/>
-      <c r="AM57" s="102"/>
-      <c r="AN57" s="102"/>
-      <c r="AO57" s="102"/>
-      <c r="AP57" s="102"/>
-      <c r="AQ57" s="102"/>
-      <c r="AR57" s="102"/>
-      <c r="AS57" s="102"/>
-      <c r="AT57" s="102"/>
-      <c r="AU57" s="102"/>
-      <c r="AV57" s="102"/>
-      <c r="AW57" s="102"/>
-      <c r="AX57" s="102"/>
-      <c r="AY57" s="102"/>
-      <c r="AZ57" s="102"/>
-      <c r="BA57" s="102"/>
-      <c r="BB57" s="102"/>
-      <c r="BC57" s="103"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="92"/>
+      <c r="Y57" s="92"/>
+      <c r="Z57" s="92"/>
+      <c r="AA57" s="92"/>
+      <c r="AB57" s="92"/>
+      <c r="AC57" s="92"/>
+      <c r="AD57" s="92"/>
+      <c r="AE57" s="92"/>
+      <c r="AF57" s="92"/>
+      <c r="AG57" s="93"/>
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="101"/>
+      <c r="AK57" s="101"/>
+      <c r="AL57" s="101"/>
+      <c r="AM57" s="101"/>
+      <c r="AN57" s="101"/>
+      <c r="AO57" s="101"/>
+      <c r="AP57" s="101"/>
+      <c r="AQ57" s="101"/>
+      <c r="AR57" s="101"/>
+      <c r="AS57" s="101"/>
+      <c r="AT57" s="101"/>
+      <c r="AU57" s="101"/>
+      <c r="AV57" s="101"/>
+      <c r="AW57" s="101"/>
+      <c r="AX57" s="101"/>
+      <c r="AY57" s="101"/>
+      <c r="AZ57" s="101"/>
+      <c r="BA57" s="101"/>
+      <c r="BB57" s="101"/>
+      <c r="BC57" s="102"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="107"/>
-      <c r="O58" s="107"/>
-      <c r="W58" s="95"/>
-      <c r="X58" s="96"/>
-      <c r="Y58" s="96"/>
-      <c r="Z58" s="96"/>
-      <c r="AA58" s="96"/>
-      <c r="AB58" s="96"/>
-      <c r="AC58" s="96"/>
-      <c r="AD58" s="96"/>
-      <c r="AE58" s="96"/>
-      <c r="AF58" s="96"/>
-      <c r="AG58" s="97"/>
-      <c r="AI58" s="104" t="s">
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="95"/>
+      <c r="AF58" s="95"/>
+      <c r="AG58" s="96"/>
+      <c r="AI58" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="105"/>
-      <c r="AK58" s="105"/>
-      <c r="AL58" s="105"/>
-      <c r="AM58" s="105"/>
-      <c r="AN58" s="105"/>
-      <c r="AO58" s="105"/>
-      <c r="AP58" s="105"/>
-      <c r="AQ58" s="105"/>
-      <c r="AR58" s="105"/>
-      <c r="AS58" s="105"/>
-      <c r="AT58" s="105"/>
-      <c r="AU58" s="105"/>
-      <c r="AV58" s="105"/>
-      <c r="AW58" s="105"/>
-      <c r="AX58" s="105"/>
-      <c r="AY58" s="105"/>
-      <c r="AZ58" s="105"/>
-      <c r="BA58" s="105"/>
-      <c r="BB58" s="105"/>
-      <c r="BC58" s="106"/>
+      <c r="AJ58" s="104"/>
+      <c r="AK58" s="104"/>
+      <c r="AL58" s="104"/>
+      <c r="AM58" s="104"/>
+      <c r="AN58" s="104"/>
+      <c r="AO58" s="104"/>
+      <c r="AP58" s="104"/>
+      <c r="AQ58" s="104"/>
+      <c r="AR58" s="104"/>
+      <c r="AS58" s="104"/>
+      <c r="AT58" s="104"/>
+      <c r="AU58" s="104"/>
+      <c r="AV58" s="104"/>
+      <c r="AW58" s="104"/>
+      <c r="AX58" s="104"/>
+      <c r="AY58" s="104"/>
+      <c r="AZ58" s="104"/>
+      <c r="BA58" s="104"/>
+      <c r="BB58" s="104"/>
+      <c r="BC58" s="105"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="75" t="s">
+      <c r="S59" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="75"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="75"/>
-      <c r="W59" s="75"/>
-      <c r="X59" s="75"/>
-      <c r="Y59" s="75"/>
-      <c r="Z59" s="75"/>
-      <c r="AA59" s="75"/>
-      <c r="AB59" s="75"/>
-      <c r="AC59" s="75"/>
-      <c r="AD59" s="75"/>
-      <c r="AE59" s="75"/>
-      <c r="AI59" s="76"/>
-      <c r="AJ59" s="77"/>
-      <c r="AK59" s="77"/>
-      <c r="AL59" s="77"/>
-      <c r="AM59" s="77"/>
-      <c r="AN59" s="77"/>
-      <c r="AO59" s="77"/>
-      <c r="AP59" s="77"/>
-      <c r="AQ59" s="77"/>
-      <c r="AR59" s="77"/>
-      <c r="AS59" s="77"/>
-      <c r="AT59" s="77"/>
-      <c r="AU59" s="77"/>
-      <c r="AV59" s="77"/>
-      <c r="AW59" s="77"/>
-      <c r="AX59" s="77"/>
-      <c r="AY59" s="77"/>
-      <c r="AZ59" s="77"/>
-      <c r="BA59" s="77"/>
-      <c r="BB59" s="77"/>
-      <c r="BC59" s="78"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AI59" s="75"/>
+      <c r="AJ59" s="76"/>
+      <c r="AK59" s="76"/>
+      <c r="AL59" s="76"/>
+      <c r="AM59" s="76"/>
+      <c r="AN59" s="76"/>
+      <c r="AO59" s="76"/>
+      <c r="AP59" s="76"/>
+      <c r="AQ59" s="76"/>
+      <c r="AR59" s="76"/>
+      <c r="AS59" s="76"/>
+      <c r="AT59" s="76"/>
+      <c r="AU59" s="76"/>
+      <c r="AV59" s="76"/>
+      <c r="AW59" s="76"/>
+      <c r="AX59" s="76"/>
+      <c r="AY59" s="76"/>
+      <c r="AZ59" s="76"/>
+      <c r="BA59" s="76"/>
+      <c r="BB59" s="76"/>
+      <c r="BC59" s="77"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="75"/>
-      <c r="U60" s="75"/>
-      <c r="V60" s="75"/>
-      <c r="W60" s="75"/>
-      <c r="X60" s="75"/>
-      <c r="Y60" s="75"/>
-      <c r="Z60" s="75"/>
-      <c r="AA60" s="75"/>
-      <c r="AB60" s="75"/>
-      <c r="AC60" s="75"/>
-      <c r="AD60" s="75"/>
-      <c r="AE60" s="75"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="74"/>
+      <c r="W60" s="74"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="74"/>
+      <c r="AE60" s="74"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
-      <c r="Z61" s="75"/>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="75"/>
-      <c r="AE61" s="75"/>
-      <c r="AI61" s="79" t="s">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="74"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="74"/>
+      <c r="AA61" s="74"/>
+      <c r="AB61" s="74"/>
+      <c r="AC61" s="74"/>
+      <c r="AD61" s="74"/>
+      <c r="AE61" s="74"/>
+      <c r="AI61" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="79"/>
-      <c r="AK61" s="79"/>
-      <c r="AL61" s="79"/>
-      <c r="AM61" s="79"/>
-      <c r="AN61" s="79"/>
-      <c r="AO61" s="79"/>
-      <c r="AP61" s="79"/>
-      <c r="AQ61" s="79"/>
-      <c r="AR61" s="79"/>
-      <c r="AS61" s="79"/>
-      <c r="AT61" s="79"/>
-      <c r="AU61" s="81">
+      <c r="AJ61" s="78"/>
+      <c r="AK61" s="78"/>
+      <c r="AL61" s="78"/>
+      <c r="AM61" s="78"/>
+      <c r="AN61" s="78"/>
+      <c r="AO61" s="78"/>
+      <c r="AP61" s="78"/>
+      <c r="AQ61" s="78"/>
+      <c r="AR61" s="78"/>
+      <c r="AS61" s="78"/>
+      <c r="AT61" s="78"/>
+      <c r="AU61" s="80">
         <v>0</v>
       </c>
-      <c r="AV61" s="82"/>
-      <c r="AW61" s="82"/>
-      <c r="AX61" s="82"/>
-      <c r="AY61" s="82"/>
-      <c r="AZ61" s="82"/>
-      <c r="BA61" s="82"/>
-      <c r="BB61" s="82"/>
-      <c r="BC61" s="83"/>
+      <c r="AV61" s="81"/>
+      <c r="AW61" s="81"/>
+      <c r="AX61" s="81"/>
+      <c r="AY61" s="81"/>
+      <c r="AZ61" s="81"/>
+      <c r="BA61" s="81"/>
+      <c r="BB61" s="81"/>
+      <c r="BC61" s="82"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-      <c r="S62" s="88" t="s">
+      <c r="B62" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
+      <c r="S62" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AI62" s="80"/>
-      <c r="AJ62" s="80"/>
-      <c r="AK62" s="80"/>
-      <c r="AL62" s="80"/>
-      <c r="AM62" s="80"/>
-      <c r="AN62" s="80"/>
-      <c r="AO62" s="80"/>
-      <c r="AP62" s="80"/>
-      <c r="AQ62" s="80"/>
-      <c r="AR62" s="80"/>
-      <c r="AS62" s="80"/>
-      <c r="AT62" s="80"/>
-      <c r="AU62" s="84"/>
-      <c r="AV62" s="85"/>
-      <c r="AW62" s="85"/>
-      <c r="AX62" s="85"/>
-      <c r="AY62" s="85"/>
-      <c r="AZ62" s="85"/>
-      <c r="BA62" s="85"/>
-      <c r="BB62" s="85"/>
-      <c r="BC62" s="86"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="87"/>
+      <c r="V62" s="87"/>
+      <c r="W62" s="87"/>
+      <c r="X62" s="87"/>
+      <c r="Y62" s="87"/>
+      <c r="Z62" s="87"/>
+      <c r="AA62" s="87"/>
+      <c r="AB62" s="87"/>
+      <c r="AC62" s="87"/>
+      <c r="AD62" s="87"/>
+      <c r="AE62" s="87"/>
+      <c r="AI62" s="79"/>
+      <c r="AJ62" s="79"/>
+      <c r="AK62" s="79"/>
+      <c r="AL62" s="79"/>
+      <c r="AM62" s="79"/>
+      <c r="AN62" s="79"/>
+      <c r="AO62" s="79"/>
+      <c r="AP62" s="79"/>
+      <c r="AQ62" s="79"/>
+      <c r="AR62" s="79"/>
+      <c r="AS62" s="79"/>
+      <c r="AT62" s="79"/>
+      <c r="AU62" s="83"/>
+      <c r="AV62" s="84"/>
+      <c r="AW62" s="84"/>
+      <c r="AX62" s="84"/>
+      <c r="AY62" s="84"/>
+      <c r="AZ62" s="84"/>
+      <c r="BA62" s="84"/>
+      <c r="BB62" s="84"/>
+      <c r="BC62" s="85"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="A42:I42"/>
+  <mergeCells count="142">
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="W26:AB26"/>
     <mergeCell ref="AW6:BC6"/>
     <mergeCell ref="AG2:BC2"/>
     <mergeCell ref="AW4:BC4"/>
@@ -7714,12 +7834,6 @@
     <mergeCell ref="AC27:AK27"/>
     <mergeCell ref="AC25:AK25"/>
     <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="W26:AB26"/>
     <mergeCell ref="A34:AK34"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A37:I37"/>
@@ -7729,11 +7843,6 @@
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
     <mergeCell ref="A33:AK33"/>
     <mergeCell ref="AM20:BC21"/>
     <mergeCell ref="AY24:BC24"/>
@@ -7805,6 +7914,7 @@
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="A26:M26"/>
+    <mergeCell ref="W21:AB21"/>
     <mergeCell ref="B59:N61"/>
     <mergeCell ref="S59:AE61"/>
     <mergeCell ref="AI59:BC59"/>
@@ -7843,7 +7953,7 @@
     <mergeCell ref="A43:AK44"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="A42:I42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>
@@ -7852,4 +7962,84 @@
   <pageSetup scale="85" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="234">
+        <v>34</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="233" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="232">
+        <v>28.6</v>
+      </c>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="233" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="232">
+        <v>33.1</v>
+      </c>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="233" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="232">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="233" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="232">
+        <v>30.2</v>
+      </c>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="233" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="232">
+        <v>29.7</v>
+      </c>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -254,12 +254,6 @@
     <t>Marzo</t>
   </si>
   <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
     <t>Diciembre</t>
   </si>
   <si>
@@ -267,6 +261,12 @@
   </si>
   <si>
     <t>Mes</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
   </si>
 </sst>
 </file>
@@ -1794,6 +1794,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,6 +1894,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2013,6 +2026,183 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,153 +2215,72 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2202,9 +2311,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2223,69 +2329,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2321,55 +2368,6 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2411,7 +2409,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Mes</c:v>
           </c:tx>
@@ -2443,7 +2441,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:spPr>
                 <a:noFill/>
@@ -2487,8 +2485,55 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.4999999999999997E-2"/>
+                      <c:h val="0.17513512187229954"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6778-46E3-B999-0740C822926B}"/>
+                  <c16:uniqueId val="{00000001-8BCA-470B-B833-0AE3479FD240}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2552,22 +2597,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Octubre</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Noviembre</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diciembre</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Enero</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Febrero</c:v>
+                  <c:v>Abril</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Marzo</c:v>
+                  <c:v>Mayo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2576,25 +2621,25 @@
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.6</c:v>
+                  <c:v>36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.1</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.200000000000003</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.2</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.7</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,395 +2664,7 @@
         <c:smooth val="0"/>
         <c:axId val="486206296"/>
         <c:axId val="486206952"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="31750" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:tint val="58000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="lt1"/>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="50000"/>
-                                <a:lumOff val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$2:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>Octubre</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Noviembre</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Diciembre</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Enero</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Febrero</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Marzo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7529-475D-9D8D-42745DF2AB7C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:spPr>
-                  <a:ln w="31750" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:tint val="86000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="lt1"/>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="50000"/>
-                                <a:lumOff val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$2:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>Octubre</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Noviembre</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Diciembre</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Enero</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Febrero</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Marzo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$C$2:$C$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-7529-475D-9D8D-42745DF2AB7C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:ln w="31750" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:shade val="86000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="lt1"/>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="50000"/>
-                                <a:lumOff val="50000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$2:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>Octubre</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Noviembre</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Diciembre</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Enero</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Febrero</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Marzo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$D$2:$D$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7529-475D-9D8D-42745DF2AB7C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="486206296"/>
@@ -3093,7 +2750,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4428,7 +4085,7 @@
   <dimension ref="A1:BC65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:AK33"/>
+      <selection activeCell="J48" sqref="J48:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4447,22 +4104,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4474,54 +4131,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="134" t="s">
+      <c r="Z1" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
-      <c r="AX1" s="134"/>
-      <c r="AY1" s="134"/>
-      <c r="AZ1" s="134"/>
-      <c r="BA1" s="134"/>
-      <c r="BB1" s="134"/>
-      <c r="BC1" s="134"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="136"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="136"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="136"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4539,47 +4196,47 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AG2" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="209"/>
-      <c r="AJ2" s="209"/>
-      <c r="AK2" s="209"/>
-      <c r="AL2" s="209"/>
-      <c r="AM2" s="209"/>
-      <c r="AN2" s="209"/>
-      <c r="AO2" s="209"/>
-      <c r="AP2" s="209"/>
-      <c r="AQ2" s="209"/>
-      <c r="AR2" s="209"/>
-      <c r="AS2" s="209"/>
-      <c r="AT2" s="209"/>
-      <c r="AU2" s="209"/>
-      <c r="AV2" s="209"/>
-      <c r="AW2" s="209"/>
-      <c r="AX2" s="209"/>
-      <c r="AY2" s="209"/>
-      <c r="AZ2" s="209"/>
-      <c r="BA2" s="209"/>
-      <c r="BB2" s="209"/>
-      <c r="BC2" s="209"/>
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="226"/>
+      <c r="AJ2" s="226"/>
+      <c r="AK2" s="226"/>
+      <c r="AL2" s="226"/>
+      <c r="AM2" s="226"/>
+      <c r="AN2" s="226"/>
+      <c r="AO2" s="226"/>
+      <c r="AP2" s="226"/>
+      <c r="AQ2" s="226"/>
+      <c r="AR2" s="226"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="226"/>
+      <c r="AY2" s="226"/>
+      <c r="AZ2" s="226"/>
+      <c r="BA2" s="226"/>
+      <c r="BB2" s="226"/>
+      <c r="BC2" s="226"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -4615,20 +4272,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4651,41 +4308,41 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="158" t="s">
+      <c r="AM4" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="AN4" s="153"/>
-      <c r="AO4" s="153"/>
-      <c r="AP4" s="153"/>
-      <c r="AQ4" s="153"/>
-      <c r="AR4" s="153"/>
-      <c r="AS4" s="153"/>
-      <c r="AT4" s="153"/>
-      <c r="AU4" s="153"/>
-      <c r="AV4" s="213"/>
-      <c r="AW4" s="210"/>
-      <c r="AX4" s="211"/>
-      <c r="AY4" s="211"/>
-      <c r="AZ4" s="211"/>
-      <c r="BA4" s="211"/>
-      <c r="BB4" s="211"/>
-      <c r="BC4" s="212"/>
+      <c r="AN4" s="155"/>
+      <c r="AO4" s="155"/>
+      <c r="AP4" s="155"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="155"/>
+      <c r="AS4" s="155"/>
+      <c r="AT4" s="155"/>
+      <c r="AU4" s="155"/>
+      <c r="AV4" s="230"/>
+      <c r="AW4" s="227"/>
+      <c r="AX4" s="228"/>
+      <c r="AY4" s="228"/>
+      <c r="AZ4" s="228"/>
+      <c r="BA4" s="228"/>
+      <c r="BB4" s="228"/>
+      <c r="BC4" s="229"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -4720,20 +4377,20 @@
       <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4757,52 +4414,52 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="158" t="s">
+      <c r="AM6" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="153"/>
-      <c r="AO6" s="153"/>
-      <c r="AP6" s="153"/>
-      <c r="AQ6" s="153"/>
-      <c r="AR6" s="153"/>
-      <c r="AS6" s="153"/>
-      <c r="AT6" s="153"/>
-      <c r="AU6" s="153"/>
-      <c r="AV6" s="213"/>
-      <c r="AW6" s="206"/>
-      <c r="AX6" s="207"/>
-      <c r="AY6" s="207"/>
-      <c r="AZ6" s="207"/>
-      <c r="BA6" s="207"/>
-      <c r="BB6" s="207"/>
-      <c r="BC6" s="208"/>
+      <c r="AN6" s="155"/>
+      <c r="AO6" s="155"/>
+      <c r="AP6" s="155"/>
+      <c r="AQ6" s="155"/>
+      <c r="AR6" s="155"/>
+      <c r="AS6" s="155"/>
+      <c r="AT6" s="155"/>
+      <c r="AU6" s="155"/>
+      <c r="AV6" s="230"/>
+      <c r="AW6" s="223"/>
+      <c r="AX6" s="224"/>
+      <c r="AY6" s="224"/>
+      <c r="AZ6" s="224"/>
+      <c r="BA6" s="224"/>
+      <c r="BB6" s="224"/>
+      <c r="BC6" s="225"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="161"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="152" t="s">
+      <c r="P7" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="154"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="156"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -4822,31 +4479,31 @@
       <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="155">
+      <c r="P8" s="157">
         <v>1</v>
       </c>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="157"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="158"/>
+      <c r="T8" s="158"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="159"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4855,41 +4512,41 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="158" t="s">
+      <c r="AM8" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="153"/>
-      <c r="AO8" s="153"/>
-      <c r="AP8" s="153"/>
-      <c r="AQ8" s="153"/>
-      <c r="AR8" s="153"/>
-      <c r="AS8" s="153"/>
-      <c r="AT8" s="153"/>
-      <c r="AU8" s="153"/>
-      <c r="AV8" s="213"/>
-      <c r="AW8" s="206"/>
-      <c r="AX8" s="207"/>
-      <c r="AY8" s="207"/>
-      <c r="AZ8" s="207"/>
-      <c r="BA8" s="207"/>
-      <c r="BB8" s="207"/>
-      <c r="BC8" s="208"/>
+      <c r="AN8" s="155"/>
+      <c r="AO8" s="155"/>
+      <c r="AP8" s="155"/>
+      <c r="AQ8" s="155"/>
+      <c r="AR8" s="155"/>
+      <c r="AS8" s="155"/>
+      <c r="AT8" s="155"/>
+      <c r="AU8" s="155"/>
+      <c r="AV8" s="230"/>
+      <c r="AW8" s="223"/>
+      <c r="AX8" s="224"/>
+      <c r="AY8" s="224"/>
+      <c r="AZ8" s="224"/>
+      <c r="BA8" s="224"/>
+      <c r="BB8" s="224"/>
+      <c r="BC8" s="225"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
       <c r="O9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -4900,31 +4557,31 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="161"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
       <c r="O10" s="31"/>
-      <c r="P10" s="158" t="s">
+      <c r="P10" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
@@ -4933,50 +4590,50 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
-      <c r="AM10" s="160" t="s">
+      <c r="AM10" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="160"/>
-      <c r="AZ10" s="160"/>
-      <c r="BA10" s="160"/>
-      <c r="BB10" s="160"/>
-      <c r="BC10" s="160"/>
+      <c r="AN10" s="162"/>
+      <c r="AO10" s="162"/>
+      <c r="AP10" s="162"/>
+      <c r="AQ10" s="162"/>
+      <c r="AR10" s="162"/>
+      <c r="AS10" s="162"/>
+      <c r="AT10" s="162"/>
+      <c r="AU10" s="162"/>
+      <c r="AV10" s="162"/>
+      <c r="AW10" s="162"/>
+      <c r="AX10" s="162"/>
+      <c r="AY10" s="162"/>
+      <c r="AZ10" s="162"/>
+      <c r="BA10" s="162"/>
+      <c r="BB10" s="162"/>
+      <c r="BC10" s="162"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -4985,23 +4642,23 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AM11" s="160"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="160"/>
-      <c r="AR11" s="160"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="160"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
-      <c r="AX11" s="160"/>
-      <c r="AY11" s="160"/>
-      <c r="AZ11" s="160"/>
-      <c r="BA11" s="160"/>
-      <c r="BB11" s="160"/>
-      <c r="BC11" s="160"/>
+      <c r="AM11" s="162"/>
+      <c r="AN11" s="162"/>
+      <c r="AO11" s="162"/>
+      <c r="AP11" s="162"/>
+      <c r="AQ11" s="162"/>
+      <c r="AR11" s="162"/>
+      <c r="AS11" s="162"/>
+      <c r="AT11" s="162"/>
+      <c r="AU11" s="162"/>
+      <c r="AV11" s="162"/>
+      <c r="AW11" s="162"/>
+      <c r="AX11" s="162"/>
+      <c r="AY11" s="162"/>
+      <c r="AZ11" s="162"/>
+      <c r="BA11" s="162"/>
+      <c r="BB11" s="162"/>
+      <c r="BC11" s="162"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="32"/>
@@ -5027,336 +4684,336 @@
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="159" t="s">
+      <c r="AM12" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="159"/>
-      <c r="AQ12" s="159"/>
-      <c r="AR12" s="159"/>
-      <c r="AS12" s="159"/>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="159"/>
-      <c r="AX12" s="159"/>
-      <c r="AY12" s="159"/>
-      <c r="AZ12" s="159"/>
-      <c r="BA12" s="159"/>
-      <c r="BB12" s="159"/>
-      <c r="BC12" s="159"/>
+      <c r="AN12" s="161"/>
+      <c r="AO12" s="161"/>
+      <c r="AP12" s="161"/>
+      <c r="AQ12" s="161"/>
+      <c r="AR12" s="161"/>
+      <c r="AS12" s="161"/>
+      <c r="AT12" s="161"/>
+      <c r="AU12" s="161"/>
+      <c r="AV12" s="161"/>
+      <c r="AW12" s="161"/>
+      <c r="AX12" s="161"/>
+      <c r="AY12" s="161"/>
+      <c r="AZ12" s="161"/>
+      <c r="BA12" s="161"/>
+      <c r="BB12" s="161"/>
+      <c r="BC12" s="161"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="166"/>
-      <c r="AL13" s="166"/>
-      <c r="AM13" s="166"/>
-      <c r="AN13" s="166"/>
-      <c r="AO13" s="166"/>
-      <c r="AP13" s="166"/>
-      <c r="AQ13" s="166"/>
-      <c r="AR13" s="166"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="162"/>
-      <c r="AU13" s="162"/>
-      <c r="AV13" s="162"/>
-      <c r="AW13" s="162"/>
-      <c r="AX13" s="162"/>
-      <c r="AY13" s="162"/>
-      <c r="AZ13" s="162"/>
-      <c r="BA13" s="162"/>
-      <c r="BB13" s="162"/>
-      <c r="BC13" s="163"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="168"/>
+      <c r="AI13" s="168"/>
+      <c r="AJ13" s="168"/>
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="168"/>
+      <c r="AN13" s="168"/>
+      <c r="AO13" s="168"/>
+      <c r="AP13" s="168"/>
+      <c r="AQ13" s="168"/>
+      <c r="AR13" s="168"/>
+      <c r="AS13" s="164"/>
+      <c r="AT13" s="164"/>
+      <c r="AU13" s="164"/>
+      <c r="AV13" s="164"/>
+      <c r="AW13" s="164"/>
+      <c r="AX13" s="164"/>
+      <c r="AY13" s="164"/>
+      <c r="AZ13" s="164"/>
+      <c r="BA13" s="164"/>
+      <c r="BB13" s="164"/>
+      <c r="BC13" s="165"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="147" t="s">
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="147"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="135" t="s">
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="135"/>
-      <c r="AL14" s="147" t="s">
+      <c r="AH14" s="137"/>
+      <c r="AI14" s="137"/>
+      <c r="AJ14" s="137"/>
+      <c r="AK14" s="137"/>
+      <c r="AL14" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="AM14" s="147"/>
-      <c r="AN14" s="147"/>
-      <c r="AO14" s="147"/>
-      <c r="AP14" s="147"/>
-      <c r="AQ14" s="147"/>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="147"/>
-      <c r="AT14" s="135" t="s">
+      <c r="AM14" s="149"/>
+      <c r="AN14" s="149"/>
+      <c r="AO14" s="149"/>
+      <c r="AP14" s="149"/>
+      <c r="AQ14" s="149"/>
+      <c r="AR14" s="149"/>
+      <c r="AS14" s="149"/>
+      <c r="AT14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="AU14" s="135"/>
-      <c r="AV14" s="135"/>
-      <c r="AW14" s="135"/>
-      <c r="AX14" s="135"/>
-      <c r="AY14" s="135"/>
-      <c r="AZ14" s="135"/>
-      <c r="BA14" s="135"/>
-      <c r="BB14" s="135"/>
-      <c r="BC14" s="225"/>
+      <c r="AU14" s="137"/>
+      <c r="AV14" s="137"/>
+      <c r="AW14" s="137"/>
+      <c r="AX14" s="137"/>
+      <c r="AY14" s="137"/>
+      <c r="AZ14" s="137"/>
+      <c r="BA14" s="137"/>
+      <c r="BB14" s="137"/>
+      <c r="BC14" s="198"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="164"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="148"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="148"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="148"/>
-      <c r="AM15" s="148"/>
-      <c r="AN15" s="148"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="148"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="148"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="148"/>
-      <c r="AX15" s="148"/>
-      <c r="AY15" s="148"/>
-      <c r="AZ15" s="148"/>
-      <c r="BA15" s="148"/>
-      <c r="BB15" s="148"/>
-      <c r="BC15" s="180"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="150"/>
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="150"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="150"/>
+      <c r="AH15" s="150"/>
+      <c r="AI15" s="150"/>
+      <c r="AJ15" s="150"/>
+      <c r="AK15" s="150"/>
+      <c r="AL15" s="150"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="150"/>
+      <c r="AO15" s="150"/>
+      <c r="AP15" s="150"/>
+      <c r="AQ15" s="150"/>
+      <c r="AR15" s="150"/>
+      <c r="AS15" s="150"/>
+      <c r="AT15" s="150"/>
+      <c r="AU15" s="150"/>
+      <c r="AV15" s="150"/>
+      <c r="AW15" s="150"/>
+      <c r="AX15" s="150"/>
+      <c r="AY15" s="150"/>
+      <c r="AZ15" s="150"/>
+      <c r="BA15" s="150"/>
+      <c r="BB15" s="150"/>
+      <c r="BC15" s="216"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="135" t="s">
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="150" t="s">
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="150"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="135" t="s">
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="135"/>
-      <c r="AL16" s="135" t="s">
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="135"/>
-      <c r="AN16" s="193"/>
-      <c r="AO16" s="188" t="s">
+      <c r="AM16" s="137"/>
+      <c r="AN16" s="178"/>
+      <c r="AO16" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="189"/>
-      <c r="AQ16" s="189"/>
-      <c r="AR16" s="189"/>
-      <c r="AS16" s="189"/>
-      <c r="AT16" s="189"/>
-      <c r="AU16" s="189"/>
-      <c r="AV16" s="189"/>
-      <c r="AW16" s="189"/>
-      <c r="AX16" s="189"/>
-      <c r="AY16" s="189"/>
-      <c r="AZ16" s="189"/>
-      <c r="BA16" s="189"/>
-      <c r="BB16" s="189"/>
-      <c r="BC16" s="190"/>
+      <c r="AP16" s="174"/>
+      <c r="AQ16" s="174"/>
+      <c r="AR16" s="174"/>
+      <c r="AS16" s="174"/>
+      <c r="AT16" s="174"/>
+      <c r="AU16" s="174"/>
+      <c r="AV16" s="174"/>
+      <c r="AW16" s="174"/>
+      <c r="AX16" s="174"/>
+      <c r="AY16" s="174"/>
+      <c r="AZ16" s="174"/>
+      <c r="BA16" s="174"/>
+      <c r="BB16" s="174"/>
+      <c r="BC16" s="175"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="187"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="145"/>
-      <c r="AN17" s="146"/>
-      <c r="AO17" s="191"/>
-      <c r="AP17" s="187"/>
-      <c r="AQ17" s="187"/>
-      <c r="AR17" s="187"/>
-      <c r="AS17" s="187"/>
-      <c r="AT17" s="187"/>
-      <c r="AU17" s="187"/>
-      <c r="AV17" s="187"/>
-      <c r="AW17" s="187"/>
-      <c r="AX17" s="187"/>
-      <c r="AY17" s="187"/>
-      <c r="AZ17" s="187"/>
-      <c r="BA17" s="187"/>
-      <c r="BB17" s="187"/>
-      <c r="BC17" s="192"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="147"/>
+      <c r="AF17" s="147"/>
+      <c r="AG17" s="146"/>
+      <c r="AH17" s="147"/>
+      <c r="AI17" s="147"/>
+      <c r="AJ17" s="147"/>
+      <c r="AK17" s="147"/>
+      <c r="AL17" s="146"/>
+      <c r="AM17" s="147"/>
+      <c r="AN17" s="148"/>
+      <c r="AO17" s="176"/>
+      <c r="AP17" s="172"/>
+      <c r="AQ17" s="172"/>
+      <c r="AR17" s="172"/>
+      <c r="AS17" s="172"/>
+      <c r="AT17" s="172"/>
+      <c r="AU17" s="172"/>
+      <c r="AV17" s="172"/>
+      <c r="AW17" s="172"/>
+      <c r="AX17" s="172"/>
+      <c r="AY17" s="172"/>
+      <c r="AZ17" s="172"/>
+      <c r="BA17" s="172"/>
+      <c r="BB17" s="172"/>
+      <c r="BC17" s="177"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5372,19 +5029,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="115"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="115"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5398,686 +5055,686 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="118"/>
-      <c r="AM19" s="138" t="s">
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="181"/>
+      <c r="V19" s="181"/>
+      <c r="W19" s="181"/>
+      <c r="X19" s="181"/>
+      <c r="Y19" s="181"/>
+      <c r="Z19" s="181"/>
+      <c r="AA19" s="181"/>
+      <c r="AB19" s="181"/>
+      <c r="AC19" s="181"/>
+      <c r="AD19" s="181"/>
+      <c r="AE19" s="181"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+      <c r="AI19" s="181"/>
+      <c r="AJ19" s="181"/>
+      <c r="AK19" s="182"/>
+      <c r="AM19" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="139"/>
-      <c r="AO19" s="139"/>
-      <c r="AP19" s="139"/>
-      <c r="AQ19" s="139"/>
-      <c r="AR19" s="139"/>
-      <c r="AS19" s="139"/>
-      <c r="AT19" s="139"/>
-      <c r="AU19" s="139"/>
-      <c r="AV19" s="139"/>
-      <c r="AW19" s="139"/>
-      <c r="AX19" s="139"/>
-      <c r="AY19" s="139"/>
-      <c r="AZ19" s="139"/>
-      <c r="BA19" s="139"/>
-      <c r="BB19" s="139"/>
-      <c r="BC19" s="140"/>
+      <c r="AN19" s="141"/>
+      <c r="AO19" s="141"/>
+      <c r="AP19" s="141"/>
+      <c r="AQ19" s="141"/>
+      <c r="AR19" s="141"/>
+      <c r="AS19" s="141"/>
+      <c r="AT19" s="141"/>
+      <c r="AU19" s="141"/>
+      <c r="AV19" s="141"/>
+      <c r="AW19" s="141"/>
+      <c r="AX19" s="141"/>
+      <c r="AY19" s="141"/>
+      <c r="AZ19" s="141"/>
+      <c r="BA19" s="141"/>
+      <c r="BB19" s="141"/>
+      <c r="BC19" s="142"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122" t="s">
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122" t="s">
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="151"/>
-      <c r="AM20" s="168"/>
-      <c r="AN20" s="169"/>
-      <c r="AO20" s="169"/>
-      <c r="AP20" s="169"/>
-      <c r="AQ20" s="169"/>
-      <c r="AR20" s="169"/>
-      <c r="AS20" s="169"/>
-      <c r="AT20" s="169"/>
-      <c r="AU20" s="169"/>
-      <c r="AV20" s="169"/>
-      <c r="AW20" s="169"/>
-      <c r="AX20" s="169"/>
-      <c r="AY20" s="169"/>
-      <c r="AZ20" s="169"/>
-      <c r="BA20" s="169"/>
-      <c r="BB20" s="169"/>
-      <c r="BC20" s="170"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="123"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="123"/>
+      <c r="AJ20" s="123"/>
+      <c r="AK20" s="153"/>
+      <c r="AM20" s="205"/>
+      <c r="AN20" s="206"/>
+      <c r="AO20" s="206"/>
+      <c r="AP20" s="206"/>
+      <c r="AQ20" s="206"/>
+      <c r="AR20" s="206"/>
+      <c r="AS20" s="206"/>
+      <c r="AT20" s="206"/>
+      <c r="AU20" s="206"/>
+      <c r="AV20" s="206"/>
+      <c r="AW20" s="206"/>
+      <c r="AX20" s="206"/>
+      <c r="AY20" s="206"/>
+      <c r="AZ20" s="206"/>
+      <c r="BA20" s="206"/>
+      <c r="BB20" s="206"/>
+      <c r="BC20" s="207"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="229"/>
-      <c r="X21" s="229"/>
-      <c r="Y21" s="229"/>
-      <c r="Z21" s="229"/>
-      <c r="AA21" s="229"/>
-      <c r="AB21" s="229"/>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="123"/>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="123"/>
-      <c r="AH21" s="123"/>
-      <c r="AI21" s="123"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="124"/>
-      <c r="AM21" s="171"/>
-      <c r="AN21" s="172"/>
-      <c r="AO21" s="172"/>
-      <c r="AP21" s="172"/>
-      <c r="AQ21" s="172"/>
-      <c r="AR21" s="172"/>
-      <c r="AS21" s="172"/>
-      <c r="AT21" s="172"/>
-      <c r="AU21" s="172"/>
-      <c r="AV21" s="172"/>
-      <c r="AW21" s="172"/>
-      <c r="AX21" s="172"/>
-      <c r="AY21" s="172"/>
-      <c r="AZ21" s="172"/>
-      <c r="BA21" s="172"/>
-      <c r="BB21" s="172"/>
-      <c r="BC21" s="173"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="125"/>
+      <c r="AM21" s="208"/>
+      <c r="AN21" s="209"/>
+      <c r="AO21" s="209"/>
+      <c r="AP21" s="209"/>
+      <c r="AQ21" s="209"/>
+      <c r="AR21" s="209"/>
+      <c r="AS21" s="209"/>
+      <c r="AT21" s="209"/>
+      <c r="AU21" s="209"/>
+      <c r="AV21" s="209"/>
+      <c r="AW21" s="209"/>
+      <c r="AX21" s="209"/>
+      <c r="AY21" s="209"/>
+      <c r="AZ21" s="209"/>
+      <c r="BA21" s="209"/>
+      <c r="BB21" s="209"/>
+      <c r="BC21" s="210"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="230"/>
-      <c r="Y22" s="230"/>
-      <c r="Z22" s="230"/>
-      <c r="AA22" s="230"/>
-      <c r="AB22" s="230"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="123"/>
-      <c r="AE22" s="123"/>
-      <c r="AF22" s="123"/>
-      <c r="AG22" s="123"/>
-      <c r="AH22" s="123"/>
-      <c r="AI22" s="123"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="124"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="125"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="130"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="230"/>
-      <c r="Y23" s="230"/>
-      <c r="Z23" s="230"/>
-      <c r="AA23" s="230"/>
-      <c r="AB23" s="230"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="123"/>
-      <c r="AF23" s="123"/>
-      <c r="AG23" s="123"/>
-      <c r="AH23" s="123"/>
-      <c r="AI23" s="123"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="124"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="125"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="141" t="s">
+      <c r="AM23" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="142"/>
-      <c r="AO23" s="142"/>
-      <c r="AP23" s="142"/>
-      <c r="AQ23" s="142"/>
-      <c r="AR23" s="142"/>
-      <c r="AS23" s="142"/>
-      <c r="AT23" s="142"/>
-      <c r="AU23" s="142"/>
-      <c r="AV23" s="142"/>
-      <c r="AW23" s="142"/>
-      <c r="AX23" s="142"/>
-      <c r="AY23" s="142"/>
-      <c r="AZ23" s="142"/>
-      <c r="BA23" s="142"/>
-      <c r="BB23" s="142"/>
-      <c r="BC23" s="143"/>
+      <c r="AN23" s="144"/>
+      <c r="AO23" s="144"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="144"/>
+      <c r="AR23" s="144"/>
+      <c r="AS23" s="144"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="144"/>
+      <c r="AV23" s="144"/>
+      <c r="AW23" s="144"/>
+      <c r="AX23" s="144"/>
+      <c r="AY23" s="144"/>
+      <c r="AZ23" s="144"/>
+      <c r="BA23" s="144"/>
+      <c r="BB23" s="144"/>
+      <c r="BC23" s="145"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="130"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="230"/>
-      <c r="X24" s="230"/>
-      <c r="Y24" s="230"/>
-      <c r="Z24" s="230"/>
-      <c r="AA24" s="230"/>
-      <c r="AB24" s="230"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="123"/>
-      <c r="AF24" s="123"/>
-      <c r="AG24" s="123"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="123"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="228"/>
-      <c r="AM24" s="181" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="125"/>
+      <c r="AL24" s="201"/>
+      <c r="AM24" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="182"/>
-      <c r="AO24" s="182"/>
-      <c r="AP24" s="182"/>
-      <c r="AQ24" s="182"/>
-      <c r="AR24" s="183" t="s">
+      <c r="AN24" s="218"/>
+      <c r="AO24" s="218"/>
+      <c r="AP24" s="218"/>
+      <c r="AQ24" s="218"/>
+      <c r="AR24" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="183"/>
-      <c r="AT24" s="183"/>
-      <c r="AU24" s="183"/>
-      <c r="AV24" s="183"/>
-      <c r="AW24" s="183"/>
-      <c r="AX24" s="183"/>
-      <c r="AY24" s="174" t="s">
+      <c r="AS24" s="219"/>
+      <c r="AT24" s="219"/>
+      <c r="AU24" s="219"/>
+      <c r="AV24" s="219"/>
+      <c r="AW24" s="219"/>
+      <c r="AX24" s="219"/>
+      <c r="AY24" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="174"/>
-      <c r="BA24" s="174"/>
-      <c r="BB24" s="174"/>
-      <c r="BC24" s="175"/>
+      <c r="AZ24" s="211"/>
+      <c r="BA24" s="211"/>
+      <c r="BB24" s="211"/>
+      <c r="BC24" s="212"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="130"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="230"/>
-      <c r="X25" s="230"/>
-      <c r="Y25" s="230"/>
-      <c r="Z25" s="230"/>
-      <c r="AA25" s="230"/>
-      <c r="AB25" s="230"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="123"/>
-      <c r="AJ25" s="123"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="228"/>
-      <c r="AM25" s="221"/>
-      <c r="AN25" s="222"/>
-      <c r="AO25" s="222"/>
-      <c r="AP25" s="222"/>
-      <c r="AQ25" s="222"/>
-      <c r="AR25" s="223"/>
-      <c r="AS25" s="223"/>
-      <c r="AT25" s="223"/>
-      <c r="AU25" s="223"/>
-      <c r="AV25" s="223"/>
-      <c r="AW25" s="223"/>
-      <c r="AX25" s="223"/>
-      <c r="AY25" s="214"/>
-      <c r="AZ25" s="214"/>
-      <c r="BA25" s="214"/>
-      <c r="BB25" s="214"/>
-      <c r="BC25" s="215"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="125"/>
+      <c r="AL25" s="201"/>
+      <c r="AM25" s="194"/>
+      <c r="AN25" s="195"/>
+      <c r="AO25" s="195"/>
+      <c r="AP25" s="195"/>
+      <c r="AQ25" s="195"/>
+      <c r="AR25" s="196"/>
+      <c r="AS25" s="196"/>
+      <c r="AT25" s="196"/>
+      <c r="AU25" s="196"/>
+      <c r="AV25" s="196"/>
+      <c r="AW25" s="196"/>
+      <c r="AX25" s="196"/>
+      <c r="AY25" s="231"/>
+      <c r="AZ25" s="231"/>
+      <c r="BA25" s="231"/>
+      <c r="BB25" s="231"/>
+      <c r="BC25" s="232"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="231"/>
-      <c r="X26" s="231"/>
-      <c r="Y26" s="231"/>
-      <c r="Z26" s="231"/>
-      <c r="AA26" s="231"/>
-      <c r="AB26" s="231"/>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="123"/>
-      <c r="AF26" s="123"/>
-      <c r="AG26" s="123"/>
-      <c r="AH26" s="123"/>
-      <c r="AI26" s="123"/>
-      <c r="AJ26" s="123"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="228"/>
-      <c r="AM26" s="136"/>
-      <c r="AN26" s="137"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="137"/>
-      <c r="AQ26" s="137"/>
-      <c r="AR26" s="224"/>
-      <c r="AS26" s="224"/>
-      <c r="AT26" s="224"/>
-      <c r="AU26" s="224"/>
-      <c r="AV26" s="224"/>
-      <c r="AW26" s="224"/>
-      <c r="AX26" s="224"/>
-      <c r="AY26" s="216"/>
-      <c r="AZ26" s="216"/>
-      <c r="BA26" s="216"/>
-      <c r="BB26" s="216"/>
-      <c r="BC26" s="217"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="125"/>
+      <c r="AL26" s="201"/>
+      <c r="AM26" s="138"/>
+      <c r="AN26" s="139"/>
+      <c r="AO26" s="139"/>
+      <c r="AP26" s="139"/>
+      <c r="AQ26" s="139"/>
+      <c r="AR26" s="197"/>
+      <c r="AS26" s="197"/>
+      <c r="AT26" s="197"/>
+      <c r="AU26" s="197"/>
+      <c r="AV26" s="197"/>
+      <c r="AW26" s="197"/>
+      <c r="AX26" s="197"/>
+      <c r="AY26" s="233"/>
+      <c r="AZ26" s="233"/>
+      <c r="BA26" s="233"/>
+      <c r="BB26" s="233"/>
+      <c r="BC26" s="234"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="185" t="s">
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="120">
+      <c r="T27" s="171"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="171"/>
+      <c r="W27" s="171"/>
+      <c r="X27" s="171"/>
+      <c r="Y27" s="171"/>
+      <c r="Z27" s="171"/>
+      <c r="AA27" s="171"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="121">
         <v>0</v>
       </c>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="228"/>
-      <c r="AM27" s="226" t="s">
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="122"/>
+      <c r="AL27" s="201"/>
+      <c r="AM27" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="226"/>
-      <c r="AO27" s="226"/>
-      <c r="AP27" s="226"/>
-      <c r="AQ27" s="226"/>
-      <c r="AR27" s="226"/>
-      <c r="AS27" s="226"/>
-      <c r="AT27" s="226"/>
-      <c r="AU27" s="226"/>
-      <c r="AV27" s="226"/>
-      <c r="AW27" s="226"/>
-      <c r="AX27" s="226"/>
-      <c r="AY27" s="226"/>
-      <c r="AZ27" s="226"/>
-      <c r="BA27" s="226"/>
-      <c r="BB27" s="226"/>
-      <c r="BC27" s="226"/>
+      <c r="AN27" s="199"/>
+      <c r="AO27" s="199"/>
+      <c r="AP27" s="199"/>
+      <c r="AQ27" s="199"/>
+      <c r="AR27" s="199"/>
+      <c r="AS27" s="199"/>
+      <c r="AT27" s="199"/>
+      <c r="AU27" s="199"/>
+      <c r="AV27" s="199"/>
+      <c r="AW27" s="199"/>
+      <c r="AX27" s="199"/>
+      <c r="AY27" s="199"/>
+      <c r="AZ27" s="199"/>
+      <c r="BA27" s="199"/>
+      <c r="BB27" s="199"/>
+      <c r="BC27" s="199"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="AL28" s="228"/>
-      <c r="AM28" s="160"/>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="160"/>
-      <c r="AP28" s="160"/>
-      <c r="AQ28" s="160"/>
-      <c r="AR28" s="160"/>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="160"/>
-      <c r="AU28" s="160"/>
-      <c r="AV28" s="160"/>
-      <c r="AW28" s="160"/>
-      <c r="AX28" s="160"/>
-      <c r="AY28" s="160"/>
-      <c r="AZ28" s="160"/>
-      <c r="BA28" s="160"/>
-      <c r="BB28" s="160"/>
-      <c r="BC28" s="160"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="AL28" s="201"/>
+      <c r="AM28" s="162"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="162"/>
+      <c r="AP28" s="162"/>
+      <c r="AQ28" s="162"/>
+      <c r="AR28" s="162"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="162"/>
+      <c r="AU28" s="162"/>
+      <c r="AV28" s="162"/>
+      <c r="AW28" s="162"/>
+      <c r="AX28" s="162"/>
+      <c r="AY28" s="162"/>
+      <c r="AZ28" s="162"/>
+      <c r="BA28" s="162"/>
+      <c r="BB28" s="162"/>
+      <c r="BC28" s="162"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="177"/>
-      <c r="AL29" s="228"/>
-      <c r="AM29" s="160"/>
-      <c r="AN29" s="160"/>
-      <c r="AO29" s="160"/>
-      <c r="AP29" s="160"/>
-      <c r="AQ29" s="160"/>
-      <c r="AR29" s="160"/>
-      <c r="AS29" s="160"/>
-      <c r="AT29" s="160"/>
-      <c r="AU29" s="160"/>
-      <c r="AV29" s="160"/>
-      <c r="AW29" s="160"/>
-      <c r="AX29" s="160"/>
-      <c r="AY29" s="160"/>
-      <c r="AZ29" s="160"/>
-      <c r="BA29" s="160"/>
-      <c r="BB29" s="160"/>
-      <c r="BC29" s="160"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="214"/>
+      <c r="AL29" s="201"/>
+      <c r="AM29" s="162"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="162"/>
+      <c r="AP29" s="162"/>
+      <c r="AQ29" s="162"/>
+      <c r="AR29" s="162"/>
+      <c r="AS29" s="162"/>
+      <c r="AT29" s="162"/>
+      <c r="AU29" s="162"/>
+      <c r="AV29" s="162"/>
+      <c r="AW29" s="162"/>
+      <c r="AX29" s="162"/>
+      <c r="AY29" s="162"/>
+      <c r="AZ29" s="162"/>
+      <c r="BA29" s="162"/>
+      <c r="BB29" s="162"/>
+      <c r="BC29" s="162"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178" t="s">
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178" t="s">
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="178" t="s">
+      <c r="AC30" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="178"/>
-      <c r="AH30" s="178"/>
-      <c r="AI30" s="178"/>
-      <c r="AJ30" s="178"/>
-      <c r="AK30" s="179"/>
-      <c r="AL30" s="228"/>
-      <c r="AM30" s="160"/>
-      <c r="AN30" s="160"/>
-      <c r="AO30" s="160"/>
-      <c r="AP30" s="160"/>
-      <c r="AQ30" s="160"/>
-      <c r="AR30" s="160"/>
-      <c r="AS30" s="160"/>
-      <c r="AT30" s="160"/>
-      <c r="AU30" s="160"/>
-      <c r="AV30" s="160"/>
-      <c r="AW30" s="160"/>
-      <c r="AX30" s="160"/>
-      <c r="AY30" s="160"/>
-      <c r="AZ30" s="160"/>
-      <c r="BA30" s="160"/>
-      <c r="BB30" s="160"/>
-      <c r="BC30" s="160"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="169"/>
+      <c r="AJ30" s="169"/>
+      <c r="AK30" s="215"/>
+      <c r="AL30" s="201"/>
+      <c r="AM30" s="162"/>
+      <c r="AN30" s="162"/>
+      <c r="AO30" s="162"/>
+      <c r="AP30" s="162"/>
+      <c r="AQ30" s="162"/>
+      <c r="AR30" s="162"/>
+      <c r="AS30" s="162"/>
+      <c r="AT30" s="162"/>
+      <c r="AU30" s="162"/>
+      <c r="AV30" s="162"/>
+      <c r="AW30" s="162"/>
+      <c r="AX30" s="162"/>
+      <c r="AY30" s="162"/>
+      <c r="AZ30" s="162"/>
+      <c r="BA30" s="162"/>
+      <c r="BB30" s="162"/>
+      <c r="BC30" s="162"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -6117,24 +5774,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="228"/>
-      <c r="AM31" s="160"/>
-      <c r="AN31" s="160"/>
-      <c r="AO31" s="160"/>
-      <c r="AP31" s="160"/>
-      <c r="AQ31" s="160"/>
-      <c r="AR31" s="160"/>
-      <c r="AS31" s="160"/>
-      <c r="AT31" s="160"/>
-      <c r="AU31" s="160"/>
-      <c r="AV31" s="160"/>
-      <c r="AW31" s="160"/>
-      <c r="AX31" s="160"/>
-      <c r="AY31" s="160"/>
-      <c r="AZ31" s="160"/>
-      <c r="BA31" s="160"/>
-      <c r="BB31" s="160"/>
-      <c r="BC31" s="160"/>
+      <c r="AL31" s="201"/>
+      <c r="AM31" s="162"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="162"/>
+      <c r="AP31" s="162"/>
+      <c r="AQ31" s="162"/>
+      <c r="AR31" s="162"/>
+      <c r="AS31" s="162"/>
+      <c r="AT31" s="162"/>
+      <c r="AU31" s="162"/>
+      <c r="AV31" s="162"/>
+      <c r="AW31" s="162"/>
+      <c r="AX31" s="162"/>
+      <c r="AY31" s="162"/>
+      <c r="AZ31" s="162"/>
+      <c r="BA31" s="162"/>
+      <c r="BB31" s="162"/>
+      <c r="BC31" s="162"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -6155,241 +5812,242 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="119" t="s">
+      <c r="S32" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="120">
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="121">
         <v>0</v>
       </c>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="228"/>
-      <c r="AM32" s="160"/>
-      <c r="AN32" s="160"/>
-      <c r="AO32" s="160"/>
-      <c r="AP32" s="160"/>
-      <c r="AQ32" s="160"/>
-      <c r="AR32" s="160"/>
-      <c r="AS32" s="160"/>
-      <c r="AT32" s="160"/>
-      <c r="AU32" s="160"/>
-      <c r="AV32" s="160"/>
-      <c r="AW32" s="160"/>
-      <c r="AX32" s="160"/>
-      <c r="AY32" s="160"/>
-      <c r="AZ32" s="160"/>
-      <c r="BA32" s="160"/>
-      <c r="BB32" s="160"/>
-      <c r="BC32" s="160"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="122"/>
+      <c r="AL32" s="201"/>
+      <c r="AM32" s="162"/>
+      <c r="AN32" s="162"/>
+      <c r="AO32" s="162"/>
+      <c r="AP32" s="162"/>
+      <c r="AQ32" s="162"/>
+      <c r="AR32" s="162"/>
+      <c r="AS32" s="162"/>
+      <c r="AT32" s="162"/>
+      <c r="AU32" s="162"/>
+      <c r="AV32" s="162"/>
+      <c r="AW32" s="162"/>
+      <c r="AX32" s="162"/>
+      <c r="AY32" s="162"/>
+      <c r="AZ32" s="162"/>
+      <c r="BA32" s="162"/>
+      <c r="BB32" s="162"/>
+      <c r="BC32" s="162"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="167" t="s">
+      <c r="A33" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="167"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="167"/>
-      <c r="T33" s="167"/>
-      <c r="U33" s="167"/>
-      <c r="V33" s="167"/>
-      <c r="W33" s="167"/>
-      <c r="X33" s="167"/>
-      <c r="Y33" s="167"/>
-      <c r="Z33" s="167"/>
-      <c r="AA33" s="167"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="167"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="167"/>
-      <c r="AG33" s="167"/>
-      <c r="AH33" s="167"/>
-      <c r="AI33" s="167"/>
-      <c r="AJ33" s="167"/>
-      <c r="AK33" s="167"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="190"/>
+      <c r="Q33" s="190"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="190"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="190"/>
+      <c r="W33" s="190"/>
+      <c r="X33" s="190"/>
+      <c r="Y33" s="190"/>
+      <c r="Z33" s="190"/>
+      <c r="AA33" s="190"/>
+      <c r="AB33" s="190"/>
+      <c r="AC33" s="190"/>
+      <c r="AD33" s="190"/>
+      <c r="AE33" s="190"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="190"/>
+      <c r="AH33" s="190"/>
+      <c r="AI33" s="190"/>
+      <c r="AJ33" s="190"/>
+      <c r="AK33" s="190"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="227"/>
-      <c r="AN33" s="227"/>
-      <c r="AO33" s="227"/>
-      <c r="AP33" s="227"/>
-      <c r="AQ33" s="227"/>
-      <c r="AR33" s="227"/>
-      <c r="AS33" s="227"/>
-      <c r="AT33" s="227"/>
-      <c r="AU33" s="227"/>
-      <c r="AV33" s="227"/>
-      <c r="AW33" s="227"/>
-      <c r="AX33" s="227"/>
-      <c r="AY33" s="227"/>
-      <c r="AZ33" s="227"/>
-      <c r="BA33" s="227"/>
-      <c r="BB33" s="227"/>
-      <c r="BC33" s="227"/>
+      <c r="AM33" s="200"/>
+      <c r="AN33" s="200"/>
+      <c r="AO33" s="200"/>
+      <c r="AP33" s="200"/>
+      <c r="AQ33" s="200"/>
+      <c r="AR33" s="200"/>
+      <c r="AS33" s="200"/>
+      <c r="AT33" s="200"/>
+      <c r="AU33" s="200"/>
+      <c r="AV33" s="200"/>
+      <c r="AW33" s="200"/>
+      <c r="AX33" s="200"/>
+      <c r="AY33" s="200"/>
+      <c r="AZ33" s="200"/>
+      <c r="BA33" s="200"/>
+      <c r="BB33" s="200"/>
+      <c r="BC33" s="200"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="194" t="s">
+      <c r="A34" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="195"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="195"/>
-      <c r="N34" s="195"/>
-      <c r="O34" s="195"/>
-      <c r="P34" s="195"/>
-      <c r="Q34" s="195"/>
-      <c r="R34" s="195"/>
-      <c r="S34" s="195"/>
-      <c r="T34" s="195"/>
-      <c r="U34" s="195"/>
-      <c r="V34" s="195"/>
-      <c r="W34" s="195"/>
-      <c r="X34" s="195"/>
-      <c r="Y34" s="195"/>
-      <c r="Z34" s="195"/>
-      <c r="AA34" s="195"/>
-      <c r="AB34" s="195"/>
-      <c r="AC34" s="195"/>
-      <c r="AD34" s="195"/>
-      <c r="AE34" s="195"/>
-      <c r="AF34" s="195"/>
-      <c r="AG34" s="195"/>
-      <c r="AH34" s="195"/>
-      <c r="AI34" s="195"/>
-      <c r="AJ34" s="195"/>
-      <c r="AK34" s="196"/>
-      <c r="AM34" s="218" t="s">
+      <c r="B34" s="203"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="203"/>
+      <c r="O34" s="203"/>
+      <c r="P34" s="203"/>
+      <c r="Q34" s="203"/>
+      <c r="R34" s="203"/>
+      <c r="S34" s="203"/>
+      <c r="T34" s="203"/>
+      <c r="U34" s="203"/>
+      <c r="V34" s="203"/>
+      <c r="W34" s="203"/>
+      <c r="X34" s="203"/>
+      <c r="Y34" s="203"/>
+      <c r="Z34" s="203"/>
+      <c r="AA34" s="203"/>
+      <c r="AB34" s="203"/>
+      <c r="AC34" s="203"/>
+      <c r="AD34" s="203"/>
+      <c r="AE34" s="203"/>
+      <c r="AF34" s="203"/>
+      <c r="AG34" s="203"/>
+      <c r="AH34" s="203"/>
+      <c r="AI34" s="203"/>
+      <c r="AJ34" s="203"/>
+      <c r="AK34" s="204"/>
+      <c r="AM34" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="219"/>
-      <c r="AO34" s="219"/>
-      <c r="AP34" s="219"/>
-      <c r="AQ34" s="219"/>
-      <c r="AR34" s="219"/>
-      <c r="AS34" s="219"/>
-      <c r="AT34" s="219"/>
-      <c r="AU34" s="219"/>
-      <c r="AV34" s="219"/>
-      <c r="AW34" s="219"/>
-      <c r="AX34" s="219"/>
-      <c r="AY34" s="219"/>
-      <c r="AZ34" s="219"/>
-      <c r="BA34" s="219"/>
-      <c r="BB34" s="219"/>
-      <c r="BC34" s="220"/>
+      <c r="AN34" s="192"/>
+      <c r="AO34" s="192"/>
+      <c r="AP34" s="192"/>
+      <c r="AQ34" s="192"/>
+      <c r="AR34" s="192"/>
+      <c r="AS34" s="192"/>
+      <c r="AT34" s="192"/>
+      <c r="AU34" s="192"/>
+      <c r="AV34" s="192"/>
+      <c r="AW34" s="192"/>
+      <c r="AX34" s="192"/>
+      <c r="AY34" s="192"/>
+      <c r="AZ34" s="192"/>
+      <c r="BA34" s="192"/>
+      <c r="BB34" s="192"/>
+      <c r="BC34" s="193"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="197" t="s">
+      <c r="A35" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198" t="s">
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="198"/>
-      <c r="P35" s="198"/>
-      <c r="Q35" s="198"/>
-      <c r="R35" s="198"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="198"/>
-      <c r="U35" s="198"/>
-      <c r="V35" s="198"/>
-      <c r="W35" s="198"/>
-      <c r="X35" s="198"/>
-      <c r="Y35" s="198"/>
-      <c r="Z35" s="198"/>
-      <c r="AA35" s="198"/>
-      <c r="AB35" s="198"/>
-      <c r="AC35" s="198"/>
-      <c r="AD35" s="198"/>
-      <c r="AE35" s="198"/>
-      <c r="AF35" s="198"/>
-      <c r="AG35" s="198"/>
-      <c r="AH35" s="198"/>
-      <c r="AI35" s="198"/>
-      <c r="AJ35" s="198"/>
-      <c r="AK35" s="205"/>
-      <c r="AM35" s="45" t="s">
+      <c r="K35" s="184"/>
+      <c r="L35" s="184"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="184"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="184"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="184"/>
+      <c r="V35" s="184"/>
+      <c r="W35" s="184"/>
+      <c r="X35" s="184"/>
+      <c r="Y35" s="184"/>
+      <c r="Z35" s="184"/>
+      <c r="AA35" s="184"/>
+      <c r="AB35" s="184"/>
+      <c r="AC35" s="184"/>
+      <c r="AD35" s="184"/>
+      <c r="AE35" s="184"/>
+      <c r="AF35" s="184"/>
+      <c r="AG35" s="184"/>
+      <c r="AH35" s="184"/>
+      <c r="AI35" s="184"/>
+      <c r="AJ35" s="184"/>
+      <c r="AK35" s="189"/>
+      <c r="AM35" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AN35" s="46"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="46"/>
-      <c r="AS35" s="46"/>
-      <c r="AT35" s="46"/>
-      <c r="AU35" s="46"/>
-      <c r="AV35" s="46"/>
-      <c r="AW35" s="46"/>
-      <c r="AX35" s="46"/>
-      <c r="AY35" s="46"/>
-      <c r="AZ35" s="46"/>
-      <c r="BA35" s="46"/>
-      <c r="BB35" s="46"/>
-      <c r="BC35" s="47"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="50"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="201">
-        <v>287.89999999999998</v>
-      </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
+      <c r="A36" s="187">
+        <f>316.4+A40</f>
+        <v>346.4</v>
+      </c>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="Q36" s="40"/>
@@ -6413,36 +6071,36 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="48"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
-      <c r="BB36" s="49"/>
-      <c r="BC36" s="50"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
+      <c r="AQ36" s="52"/>
+      <c r="AR36" s="52"/>
+      <c r="AS36" s="52"/>
+      <c r="AT36" s="52"/>
+      <c r="AU36" s="52"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
+      <c r="BB36" s="52"/>
+      <c r="BC36" s="53"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="199" t="s">
+      <c r="A37" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="200"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="Q37" s="41"/>
@@ -6467,37 +6125,37 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="49"/>
-      <c r="AU37" s="49"/>
-      <c r="AV37" s="49"/>
-      <c r="AW37" s="49"/>
-      <c r="AX37" s="49"/>
-      <c r="AY37" s="49"/>
-      <c r="AZ37" s="49"/>
-      <c r="BA37" s="49"/>
-      <c r="BB37" s="49"/>
-      <c r="BC37" s="50"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="52"/>
+      <c r="AO37" s="52"/>
+      <c r="AP37" s="52"/>
+      <c r="AQ37" s="52"/>
+      <c r="AR37" s="52"/>
+      <c r="AS37" s="52"/>
+      <c r="AT37" s="52"/>
+      <c r="AU37" s="52"/>
+      <c r="AV37" s="52"/>
+      <c r="AW37" s="52"/>
+      <c r="AX37" s="52"/>
+      <c r="AY37" s="52"/>
+      <c r="AZ37" s="52"/>
+      <c r="BA37" s="52"/>
+      <c r="BB37" s="52"/>
+      <c r="BC37" s="53"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="203">
+      <c r="A38" s="76">
         <f>A36-A40</f>
-        <v>258.2</v>
-      </c>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="Q38" s="41"/>
@@ -6522,36 +6180,36 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="48"/>
-      <c r="AN38" s="49"/>
-      <c r="AO38" s="49"/>
-      <c r="AP38" s="49"/>
-      <c r="AQ38" s="49"/>
-      <c r="AR38" s="49"/>
-      <c r="AS38" s="49"/>
-      <c r="AT38" s="49"/>
-      <c r="AU38" s="49"/>
-      <c r="AV38" s="49"/>
-      <c r="AW38" s="49"/>
-      <c r="AX38" s="49"/>
-      <c r="AY38" s="49"/>
-      <c r="AZ38" s="49"/>
-      <c r="BA38" s="49"/>
-      <c r="BB38" s="49"/>
-      <c r="BC38" s="50"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="52"/>
+      <c r="AO38" s="52"/>
+      <c r="AP38" s="52"/>
+      <c r="AQ38" s="52"/>
+      <c r="AR38" s="52"/>
+      <c r="AS38" s="52"/>
+      <c r="AT38" s="52"/>
+      <c r="AU38" s="52"/>
+      <c r="AV38" s="52"/>
+      <c r="AW38" s="52"/>
+      <c r="AX38" s="52"/>
+      <c r="AY38" s="52"/>
+      <c r="AZ38" s="52"/>
+      <c r="BA38" s="52"/>
+      <c r="BB38" s="52"/>
+      <c r="BC38" s="53"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="199" t="s">
+      <c r="A39" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="200"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="200"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="Q39" s="41"/>
@@ -6575,36 +6233,36 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="49"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="49"/>
-      <c r="AT39" s="49"/>
-      <c r="AU39" s="49"/>
-      <c r="AV39" s="49"/>
-      <c r="AW39" s="49"/>
-      <c r="AX39" s="49"/>
-      <c r="AY39" s="49"/>
-      <c r="AZ39" s="49"/>
-      <c r="BA39" s="49"/>
-      <c r="BB39" s="49"/>
-      <c r="BC39" s="50"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52"/>
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="52"/>
+      <c r="AT39" s="52"/>
+      <c r="AU39" s="52"/>
+      <c r="AV39" s="52"/>
+      <c r="AW39" s="52"/>
+      <c r="AX39" s="52"/>
+      <c r="AY39" s="52"/>
+      <c r="AZ39" s="52"/>
+      <c r="BA39" s="52"/>
+      <c r="BB39" s="52"/>
+      <c r="BC39" s="53"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="203">
-        <v>29.7</v>
-      </c>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
+      <c r="A40" s="76">
+        <v>30</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="Q40" s="41"/>
@@ -6628,36 +6286,36 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="48"/>
-      <c r="AN40" s="49"/>
-      <c r="AO40" s="49"/>
-      <c r="AP40" s="49"/>
-      <c r="AQ40" s="49"/>
-      <c r="AR40" s="49"/>
-      <c r="AS40" s="49"/>
-      <c r="AT40" s="49"/>
-      <c r="AU40" s="49"/>
-      <c r="AV40" s="49"/>
-      <c r="AW40" s="49"/>
-      <c r="AX40" s="49"/>
-      <c r="AY40" s="49"/>
-      <c r="AZ40" s="49"/>
-      <c r="BA40" s="49"/>
-      <c r="BB40" s="49"/>
-      <c r="BC40" s="50"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="52"/>
+      <c r="AO40" s="52"/>
+      <c r="AP40" s="52"/>
+      <c r="AQ40" s="52"/>
+      <c r="AR40" s="52"/>
+      <c r="AS40" s="52"/>
+      <c r="AT40" s="52"/>
+      <c r="AU40" s="52"/>
+      <c r="AV40" s="52"/>
+      <c r="AW40" s="52"/>
+      <c r="AX40" s="52"/>
+      <c r="AY40" s="52"/>
+      <c r="AZ40" s="52"/>
+      <c r="BA40" s="52"/>
+      <c r="BB40" s="52"/>
+      <c r="BC40" s="53"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="199" t="s">
+      <c r="A41" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="200"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="R41" s="23"/>
@@ -6680,37 +6338,37 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="48"/>
-      <c r="AN41" s="49"/>
-      <c r="AO41" s="49"/>
-      <c r="AP41" s="49"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="49"/>
-      <c r="AS41" s="49"/>
-      <c r="AT41" s="49"/>
-      <c r="AU41" s="49"/>
-      <c r="AV41" s="49"/>
-      <c r="AW41" s="49"/>
-      <c r="AX41" s="49"/>
-      <c r="AY41" s="49"/>
-      <c r="AZ41" s="49"/>
-      <c r="BA41" s="49"/>
-      <c r="BB41" s="49"/>
-      <c r="BC41" s="50"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52"/>
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
+      <c r="AT41" s="52"/>
+      <c r="AU41" s="52"/>
+      <c r="AV41" s="52"/>
+      <c r="AW41" s="52"/>
+      <c r="AX41" s="52"/>
+      <c r="AY41" s="52"/>
+      <c r="AZ41" s="52"/>
+      <c r="BA41" s="52"/>
+      <c r="BB41" s="52"/>
+      <c r="BC41" s="53"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="203">
+      <c r="A42" s="76">
         <f>AVERAGE(Hoja1!B2:B7)</f>
-        <v>31.966666666666665</v>
-      </c>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
+        <v>31.283333333333335</v>
+      </c>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="Q42" s="25"/>
@@ -6718,11 +6376,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="75"/>
+      <c r="Z42" s="75"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -6734,784 +6392,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="48"/>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="49"/>
-      <c r="AS42" s="49"/>
-      <c r="AT42" s="49"/>
-      <c r="AU42" s="49"/>
-      <c r="AV42" s="49"/>
-      <c r="AW42" s="49"/>
-      <c r="AX42" s="49"/>
-      <c r="AY42" s="49"/>
-      <c r="AZ42" s="49"/>
-      <c r="BA42" s="49"/>
-      <c r="BB42" s="49"/>
-      <c r="BC42" s="50"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="52"/>
+      <c r="AO42" s="52"/>
+      <c r="AP42" s="52"/>
+      <c r="AQ42" s="52"/>
+      <c r="AR42" s="52"/>
+      <c r="AS42" s="52"/>
+      <c r="AT42" s="52"/>
+      <c r="AU42" s="52"/>
+      <c r="AV42" s="52"/>
+      <c r="AW42" s="52"/>
+      <c r="AX42" s="52"/>
+      <c r="AY42" s="52"/>
+      <c r="AZ42" s="52"/>
+      <c r="BA42" s="52"/>
+      <c r="BB42" s="52"/>
+      <c r="BC42" s="53"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="70"/>
-      <c r="AG43" s="70"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="70"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="48"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
-      <c r="AS43" s="49"/>
-      <c r="AT43" s="49"/>
-      <c r="AU43" s="49"/>
-      <c r="AV43" s="49"/>
-      <c r="AW43" s="49"/>
-      <c r="AX43" s="49"/>
-      <c r="AY43" s="49"/>
-      <c r="AZ43" s="49"/>
-      <c r="BA43" s="49"/>
-      <c r="BB43" s="49"/>
-      <c r="BC43" s="50"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="52"/>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="52"/>
+      <c r="AS43" s="52"/>
+      <c r="AT43" s="52"/>
+      <c r="AU43" s="52"/>
+      <c r="AV43" s="52"/>
+      <c r="AW43" s="52"/>
+      <c r="AX43" s="52"/>
+      <c r="AY43" s="52"/>
+      <c r="AZ43" s="52"/>
+      <c r="BA43" s="52"/>
+      <c r="BB43" s="52"/>
+      <c r="BC43" s="53"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
-      <c r="AD44" s="71"/>
-      <c r="AE44" s="71"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71"/>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="74"/>
+      <c r="AJ44" s="74"/>
+      <c r="AK44" s="74"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="49"/>
-      <c r="AS44" s="49"/>
-      <c r="AT44" s="49"/>
-      <c r="AU44" s="49"/>
-      <c r="AV44" s="49"/>
-      <c r="AW44" s="49"/>
-      <c r="AX44" s="49"/>
-      <c r="AY44" s="49"/>
-      <c r="AZ44" s="49"/>
-      <c r="BA44" s="49"/>
-      <c r="BB44" s="49"/>
-      <c r="BC44" s="50"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="52"/>
+      <c r="AO44" s="52"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
+      <c r="AR44" s="52"/>
+      <c r="AS44" s="52"/>
+      <c r="AT44" s="52"/>
+      <c r="AU44" s="52"/>
+      <c r="AV44" s="52"/>
+      <c r="AW44" s="52"/>
+      <c r="AX44" s="52"/>
+      <c r="AY44" s="52"/>
+      <c r="AZ44" s="52"/>
+      <c r="BA44" s="52"/>
+      <c r="BB44" s="52"/>
+      <c r="BC44" s="53"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="61"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="64"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="48"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="49"/>
-      <c r="AQ45" s="49"/>
-      <c r="AR45" s="49"/>
-      <c r="AS45" s="49"/>
-      <c r="AT45" s="49"/>
-      <c r="AU45" s="49"/>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
-      <c r="BB45" s="49"/>
-      <c r="BC45" s="50"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="52"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="52"/>
+      <c r="AS45" s="52"/>
+      <c r="AT45" s="52"/>
+      <c r="AU45" s="52"/>
+      <c r="AV45" s="52"/>
+      <c r="AW45" s="52"/>
+      <c r="AX45" s="52"/>
+      <c r="AY45" s="52"/>
+      <c r="AZ45" s="52"/>
+      <c r="BA45" s="52"/>
+      <c r="BB45" s="52"/>
+      <c r="BC45" s="53"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43" t="s">
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43" t="s">
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AD46" s="43"/>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="43"/>
-      <c r="AG46" s="43"/>
-      <c r="AH46" s="43"/>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="44"/>
-      <c r="AM46" s="48"/>
-      <c r="AN46" s="49"/>
-      <c r="AO46" s="49"/>
-      <c r="AP46" s="49"/>
-      <c r="AQ46" s="49"/>
-      <c r="AR46" s="49"/>
-      <c r="AS46" s="49"/>
-      <c r="AT46" s="49"/>
-      <c r="AU46" s="49"/>
-      <c r="AV46" s="49"/>
-      <c r="AW46" s="49"/>
-      <c r="AX46" s="49"/>
-      <c r="AY46" s="49"/>
-      <c r="AZ46" s="49"/>
-      <c r="BA46" s="49"/>
-      <c r="BB46" s="49"/>
-      <c r="BC46" s="50"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="47"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52"/>
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="52"/>
+      <c r="AX46" s="52"/>
+      <c r="AY46" s="52"/>
+      <c r="AZ46" s="52"/>
+      <c r="BA46" s="52"/>
+      <c r="BB46" s="52"/>
+      <c r="BC46" s="53"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
-      <c r="B47" s="42">
+      <c r="B47" s="45">
         <v>100000</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="42">
+      <c r="J47" s="45">
         <v>3000</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42">
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45">
         <v>8000</v>
       </c>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="68">
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="71">
         <v>8000</v>
       </c>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="68"/>
-      <c r="AK47" s="69"/>
-      <c r="AM47" s="48"/>
-      <c r="AN47" s="49"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="49"/>
-      <c r="AS47" s="49"/>
-      <c r="AT47" s="49"/>
-      <c r="AU47" s="49"/>
-      <c r="AV47" s="49"/>
-      <c r="AW47" s="49"/>
-      <c r="AX47" s="49"/>
-      <c r="AY47" s="49"/>
-      <c r="AZ47" s="49"/>
-      <c r="BA47" s="49"/>
-      <c r="BB47" s="49"/>
-      <c r="BC47" s="50"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
+      <c r="AH47" s="71"/>
+      <c r="AI47" s="71"/>
+      <c r="AJ47" s="71"/>
+      <c r="AK47" s="72"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="52"/>
+      <c r="AS47" s="52"/>
+      <c r="AT47" s="52"/>
+      <c r="AU47" s="52"/>
+      <c r="AV47" s="52"/>
+      <c r="AW47" s="52"/>
+      <c r="AX47" s="52"/>
+      <c r="AY47" s="52"/>
+      <c r="AZ47" s="52"/>
+      <c r="BA47" s="52"/>
+      <c r="BB47" s="52"/>
+      <c r="BC47" s="53"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="43" t="s">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43" t="s">
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="43"/>
-      <c r="AB48" s="43"/>
-      <c r="AC48" s="43" t="s">
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AD48" s="43"/>
-      <c r="AE48" s="43"/>
-      <c r="AF48" s="43"/>
-      <c r="AG48" s="43"/>
-      <c r="AH48" s="43"/>
-      <c r="AI48" s="43"/>
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="44"/>
-      <c r="AM48" s="48"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="49"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="49"/>
-      <c r="AU48" s="49"/>
-      <c r="AV48" s="49"/>
-      <c r="AW48" s="49"/>
-      <c r="AX48" s="49"/>
-      <c r="AY48" s="49"/>
-      <c r="AZ48" s="49"/>
-      <c r="BA48" s="49"/>
-      <c r="BB48" s="49"/>
-      <c r="BC48" s="50"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="47"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="52"/>
+      <c r="AO48" s="52"/>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="52"/>
+      <c r="AS48" s="52"/>
+      <c r="AT48" s="52"/>
+      <c r="AU48" s="52"/>
+      <c r="AV48" s="52"/>
+      <c r="AW48" s="52"/>
+      <c r="AX48" s="52"/>
+      <c r="AY48" s="52"/>
+      <c r="AZ48" s="52"/>
+      <c r="BA48" s="52"/>
+      <c r="BB48" s="52"/>
+      <c r="BC48" s="53"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="60">
         <v>500</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42">
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45">
         <v>8000</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42">
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45">
         <v>16000</v>
       </c>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="42"/>
-      <c r="AB49" s="42"/>
-      <c r="AC49" s="42" t="s">
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AD49" s="42"/>
-      <c r="AE49" s="42"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="42"/>
-      <c r="AK49" s="54"/>
-      <c r="AM49" s="48"/>
-      <c r="AN49" s="49"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
-      <c r="AQ49" s="49"/>
-      <c r="AR49" s="49"/>
-      <c r="AS49" s="49"/>
-      <c r="AT49" s="49"/>
-      <c r="AU49" s="49"/>
-      <c r="AV49" s="49"/>
-      <c r="AW49" s="49"/>
-      <c r="AX49" s="49"/>
-      <c r="AY49" s="49"/>
-      <c r="AZ49" s="49"/>
-      <c r="BA49" s="49"/>
-      <c r="BB49" s="49"/>
-      <c r="BC49" s="50"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="45"/>
+      <c r="AH49" s="45"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="45"/>
+      <c r="AK49" s="57"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+      <c r="AS49" s="52"/>
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="52"/>
+      <c r="AV49" s="52"/>
+      <c r="AW49" s="52"/>
+      <c r="AX49" s="52"/>
+      <c r="AY49" s="52"/>
+      <c r="AZ49" s="52"/>
+      <c r="BA49" s="52"/>
+      <c r="BB49" s="52"/>
+      <c r="BC49" s="53"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="64"/>
-      <c r="AM50" s="48"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
-      <c r="AQ50" s="49"/>
-      <c r="AR50" s="49"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="49"/>
-      <c r="AU50" s="49"/>
-      <c r="AV50" s="49"/>
-      <c r="AW50" s="49"/>
-      <c r="AX50" s="49"/>
-      <c r="AY50" s="49"/>
-      <c r="AZ50" s="49"/>
-      <c r="BA50" s="49"/>
-      <c r="BB50" s="49"/>
-      <c r="BC50" s="50"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="66"/>
+      <c r="Y50" s="66"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="66"/>
+      <c r="AB50" s="66"/>
+      <c r="AC50" s="66"/>
+      <c r="AD50" s="66"/>
+      <c r="AE50" s="66"/>
+      <c r="AF50" s="66"/>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="67"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="52"/>
+      <c r="AO50" s="52"/>
+      <c r="AP50" s="52"/>
+      <c r="AQ50" s="52"/>
+      <c r="AR50" s="52"/>
+      <c r="AS50" s="52"/>
+      <c r="AT50" s="52"/>
+      <c r="AU50" s="52"/>
+      <c r="AV50" s="52"/>
+      <c r="AW50" s="52"/>
+      <c r="AX50" s="52"/>
+      <c r="AY50" s="52"/>
+      <c r="AZ50" s="52"/>
+      <c r="BA50" s="52"/>
+      <c r="BB50" s="52"/>
+      <c r="BC50" s="53"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
-      <c r="T51" s="66"/>
-      <c r="U51" s="66"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="66"/>
-      <c r="X51" s="66"/>
-      <c r="Y51" s="66"/>
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="66"/>
-      <c r="AB51" s="66"/>
-      <c r="AC51" s="66"/>
-      <c r="AD51" s="66"/>
-      <c r="AE51" s="66"/>
-      <c r="AF51" s="66"/>
-      <c r="AG51" s="66"/>
-      <c r="AH51" s="66"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="66"/>
-      <c r="AK51" s="67"/>
-      <c r="AM51" s="51"/>
-      <c r="AN51" s="52"/>
-      <c r="AO51" s="52"/>
-      <c r="AP51" s="52"/>
-      <c r="AQ51" s="52"/>
-      <c r="AR51" s="52"/>
-      <c r="AS51" s="52"/>
-      <c r="AT51" s="52"/>
-      <c r="AU51" s="52"/>
-      <c r="AV51" s="52"/>
-      <c r="AW51" s="52"/>
-      <c r="AX51" s="52"/>
-      <c r="AY51" s="52"/>
-      <c r="AZ51" s="52"/>
-      <c r="BA51" s="52"/>
-      <c r="BB51" s="52"/>
-      <c r="BC51" s="53"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="69"/>
+      <c r="AD51" s="69"/>
+      <c r="AE51" s="69"/>
+      <c r="AF51" s="69"/>
+      <c r="AG51" s="69"/>
+      <c r="AH51" s="69"/>
+      <c r="AI51" s="69"/>
+      <c r="AJ51" s="69"/>
+      <c r="AK51" s="70"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="55"/>
+      <c r="AO51" s="55"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="55"/>
+      <c r="AW51" s="55"/>
+      <c r="AX51" s="55"/>
+      <c r="AY51" s="55"/>
+      <c r="AZ51" s="55"/>
+      <c r="BA51" s="55"/>
+      <c r="BB51" s="55"/>
+      <c r="BC51" s="56"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="107"/>
-      <c r="Q52" s="107"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="107"/>
-      <c r="U52" s="107"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="112"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="112"/>
+      <c r="Q52" s="112"/>
+      <c r="R52" s="112"/>
+      <c r="S52" s="112"/>
+      <c r="T52" s="112"/>
+      <c r="U52" s="112"/>
       <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="108"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
+      <c r="S53" s="113"/>
+      <c r="T53" s="113"/>
+      <c r="U53" s="113"/>
       <c r="V53" s="35"/>
-      <c r="W53" s="109" t="s">
+      <c r="W53" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
-      <c r="AF53" s="110"/>
-      <c r="AG53" s="111"/>
-      <c r="AI53" s="112" t="s">
+      <c r="X53" s="115"/>
+      <c r="Y53" s="115"/>
+      <c r="Z53" s="115"/>
+      <c r="AA53" s="115"/>
+      <c r="AB53" s="115"/>
+      <c r="AC53" s="115"/>
+      <c r="AD53" s="115"/>
+      <c r="AE53" s="115"/>
+      <c r="AF53" s="115"/>
+      <c r="AG53" s="116"/>
+      <c r="AI53" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="113"/>
-      <c r="AK53" s="113"/>
-      <c r="AL53" s="113"/>
-      <c r="AM53" s="113"/>
-      <c r="AN53" s="113"/>
-      <c r="AO53" s="113"/>
-      <c r="AP53" s="113"/>
-      <c r="AQ53" s="113"/>
-      <c r="AR53" s="113"/>
-      <c r="AS53" s="113"/>
-      <c r="AT53" s="113"/>
-      <c r="AU53" s="113"/>
-      <c r="AV53" s="113"/>
-      <c r="AW53" s="113"/>
-      <c r="AX53" s="113"/>
-      <c r="AY53" s="113"/>
-      <c r="AZ53" s="113"/>
-      <c r="BA53" s="113"/>
-      <c r="BB53" s="113"/>
-      <c r="BC53" s="114"/>
+      <c r="AJ53" s="118"/>
+      <c r="AK53" s="118"/>
+      <c r="AL53" s="118"/>
+      <c r="AM53" s="118"/>
+      <c r="AN53" s="118"/>
+      <c r="AO53" s="118"/>
+      <c r="AP53" s="118"/>
+      <c r="AQ53" s="118"/>
+      <c r="AR53" s="118"/>
+      <c r="AS53" s="118"/>
+      <c r="AT53" s="118"/>
+      <c r="AU53" s="118"/>
+      <c r="AV53" s="118"/>
+      <c r="AW53" s="118"/>
+      <c r="AX53" s="118"/>
+      <c r="AY53" s="118"/>
+      <c r="AZ53" s="118"/>
+      <c r="BA53" s="118"/>
+      <c r="BB53" s="118"/>
+      <c r="BC53" s="119"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="108"/>
-      <c r="U54" s="108"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="113"/>
+      <c r="S54" s="113"/>
+      <c r="T54" s="113"/>
+      <c r="U54" s="113"/>
       <c r="V54" s="35"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="89"/>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="89"/>
-      <c r="AD54" s="89"/>
-      <c r="AE54" s="89"/>
-      <c r="AF54" s="89"/>
-      <c r="AG54" s="90"/>
-      <c r="AI54" s="97" t="s">
+      <c r="W54" s="93"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="94"/>
+      <c r="Z54" s="94"/>
+      <c r="AA54" s="94"/>
+      <c r="AB54" s="94"/>
+      <c r="AC54" s="94"/>
+      <c r="AD54" s="94"/>
+      <c r="AE54" s="94"/>
+      <c r="AF54" s="94"/>
+      <c r="AG54" s="95"/>
+      <c r="AI54" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="98"/>
-      <c r="AK54" s="98"/>
-      <c r="AL54" s="98"/>
-      <c r="AM54" s="98"/>
-      <c r="AN54" s="98"/>
-      <c r="AO54" s="98"/>
-      <c r="AP54" s="98"/>
-      <c r="AQ54" s="98"/>
-      <c r="AR54" s="98"/>
-      <c r="AS54" s="98"/>
-      <c r="AT54" s="98"/>
-      <c r="AU54" s="98"/>
-      <c r="AV54" s="98"/>
-      <c r="AW54" s="98"/>
-      <c r="AX54" s="98"/>
-      <c r="AY54" s="98"/>
-      <c r="AZ54" s="98"/>
-      <c r="BA54" s="98"/>
-      <c r="BB54" s="98"/>
-      <c r="BC54" s="99"/>
+      <c r="AJ54" s="103"/>
+      <c r="AK54" s="103"/>
+      <c r="AL54" s="103"/>
+      <c r="AM54" s="103"/>
+      <c r="AN54" s="103"/>
+      <c r="AO54" s="103"/>
+      <c r="AP54" s="103"/>
+      <c r="AQ54" s="103"/>
+      <c r="AR54" s="103"/>
+      <c r="AS54" s="103"/>
+      <c r="AT54" s="103"/>
+      <c r="AU54" s="103"/>
+      <c r="AV54" s="103"/>
+      <c r="AW54" s="103"/>
+      <c r="AX54" s="103"/>
+      <c r="AY54" s="103"/>
+      <c r="AZ54" s="103"/>
+      <c r="BA54" s="103"/>
+      <c r="BB54" s="103"/>
+      <c r="BC54" s="104"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="91"/>
-      <c r="X55" s="92"/>
-      <c r="Y55" s="92"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="92"/>
-      <c r="AB55" s="92"/>
-      <c r="AC55" s="92"/>
-      <c r="AD55" s="92"/>
-      <c r="AE55" s="92"/>
-      <c r="AF55" s="92"/>
-      <c r="AG55" s="93"/>
-      <c r="AI55" s="100"/>
-      <c r="AJ55" s="101"/>
-      <c r="AK55" s="101"/>
-      <c r="AL55" s="101"/>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="101"/>
-      <c r="AO55" s="101"/>
-      <c r="AP55" s="101"/>
-      <c r="AQ55" s="101"/>
-      <c r="AR55" s="101"/>
-      <c r="AS55" s="101"/>
-      <c r="AT55" s="101"/>
-      <c r="AU55" s="101"/>
-      <c r="AV55" s="101"/>
-      <c r="AW55" s="101"/>
-      <c r="AX55" s="101"/>
-      <c r="AY55" s="101"/>
-      <c r="AZ55" s="101"/>
-      <c r="BA55" s="101"/>
-      <c r="BB55" s="101"/>
-      <c r="BC55" s="102"/>
+      <c r="W55" s="96"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="97"/>
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="97"/>
+      <c r="AD55" s="97"/>
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="97"/>
+      <c r="AG55" s="98"/>
+      <c r="AI55" s="105"/>
+      <c r="AJ55" s="106"/>
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106"/>
+      <c r="AM55" s="106"/>
+      <c r="AN55" s="106"/>
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106"/>
+      <c r="AQ55" s="106"/>
+      <c r="AR55" s="106"/>
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106"/>
+      <c r="AU55" s="106"/>
+      <c r="AV55" s="106"/>
+      <c r="AW55" s="106"/>
+      <c r="AX55" s="106"/>
+      <c r="AY55" s="106"/>
+      <c r="AZ55" s="106"/>
+      <c r="BA55" s="106"/>
+      <c r="BB55" s="106"/>
+      <c r="BC55" s="107"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="91"/>
-      <c r="X56" s="92"/>
-      <c r="Y56" s="92"/>
-      <c r="Z56" s="92"/>
-      <c r="AA56" s="92"/>
-      <c r="AB56" s="92"/>
-      <c r="AC56" s="92"/>
-      <c r="AD56" s="92"/>
-      <c r="AE56" s="92"/>
-      <c r="AF56" s="92"/>
-      <c r="AG56" s="93"/>
-      <c r="AI56" s="103" t="s">
+      <c r="W56" s="96"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="97"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="97"/>
+      <c r="AC56" s="97"/>
+      <c r="AD56" s="97"/>
+      <c r="AE56" s="97"/>
+      <c r="AF56" s="97"/>
+      <c r="AG56" s="98"/>
+      <c r="AI56" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="104"/>
-      <c r="AK56" s="104"/>
-      <c r="AL56" s="104"/>
-      <c r="AM56" s="104"/>
-      <c r="AN56" s="104"/>
-      <c r="AO56" s="104"/>
-      <c r="AP56" s="104"/>
-      <c r="AQ56" s="104"/>
-      <c r="AR56" s="104"/>
-      <c r="AS56" s="104"/>
-      <c r="AT56" s="104"/>
-      <c r="AU56" s="104"/>
-      <c r="AV56" s="104"/>
-      <c r="AW56" s="104"/>
-      <c r="AX56" s="104"/>
-      <c r="AY56" s="104"/>
-      <c r="AZ56" s="104"/>
-      <c r="BA56" s="104"/>
-      <c r="BB56" s="104"/>
-      <c r="BC56" s="105"/>
+      <c r="AJ56" s="109"/>
+      <c r="AK56" s="109"/>
+      <c r="AL56" s="109"/>
+      <c r="AM56" s="109"/>
+      <c r="AN56" s="109"/>
+      <c r="AO56" s="109"/>
+      <c r="AP56" s="109"/>
+      <c r="AQ56" s="109"/>
+      <c r="AR56" s="109"/>
+      <c r="AS56" s="109"/>
+      <c r="AT56" s="109"/>
+      <c r="AU56" s="109"/>
+      <c r="AV56" s="109"/>
+      <c r="AW56" s="109"/>
+      <c r="AX56" s="109"/>
+      <c r="AY56" s="109"/>
+      <c r="AZ56" s="109"/>
+      <c r="BA56" s="109"/>
+      <c r="BB56" s="109"/>
+      <c r="BC56" s="110"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7528,295 +7186,290 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="92"/>
-      <c r="Y57" s="92"/>
-      <c r="Z57" s="92"/>
-      <c r="AA57" s="92"/>
-      <c r="AB57" s="92"/>
-      <c r="AC57" s="92"/>
-      <c r="AD57" s="92"/>
-      <c r="AE57" s="92"/>
-      <c r="AF57" s="92"/>
-      <c r="AG57" s="93"/>
-      <c r="AI57" s="100"/>
-      <c r="AJ57" s="101"/>
-      <c r="AK57" s="101"/>
-      <c r="AL57" s="101"/>
-      <c r="AM57" s="101"/>
-      <c r="AN57" s="101"/>
-      <c r="AO57" s="101"/>
-      <c r="AP57" s="101"/>
-      <c r="AQ57" s="101"/>
-      <c r="AR57" s="101"/>
-      <c r="AS57" s="101"/>
-      <c r="AT57" s="101"/>
-      <c r="AU57" s="101"/>
-      <c r="AV57" s="101"/>
-      <c r="AW57" s="101"/>
-      <c r="AX57" s="101"/>
-      <c r="AY57" s="101"/>
-      <c r="AZ57" s="101"/>
-      <c r="BA57" s="101"/>
-      <c r="BB57" s="101"/>
-      <c r="BC57" s="102"/>
+      <c r="W57" s="96"/>
+      <c r="X57" s="97"/>
+      <c r="Y57" s="97"/>
+      <c r="Z57" s="97"/>
+      <c r="AA57" s="97"/>
+      <c r="AB57" s="97"/>
+      <c r="AC57" s="97"/>
+      <c r="AD57" s="97"/>
+      <c r="AE57" s="97"/>
+      <c r="AF57" s="97"/>
+      <c r="AG57" s="98"/>
+      <c r="AI57" s="105"/>
+      <c r="AJ57" s="106"/>
+      <c r="AK57" s="106"/>
+      <c r="AL57" s="106"/>
+      <c r="AM57" s="106"/>
+      <c r="AN57" s="106"/>
+      <c r="AO57" s="106"/>
+      <c r="AP57" s="106"/>
+      <c r="AQ57" s="106"/>
+      <c r="AR57" s="106"/>
+      <c r="AS57" s="106"/>
+      <c r="AT57" s="106"/>
+      <c r="AU57" s="106"/>
+      <c r="AV57" s="106"/>
+      <c r="AW57" s="106"/>
+      <c r="AX57" s="106"/>
+      <c r="AY57" s="106"/>
+      <c r="AZ57" s="106"/>
+      <c r="BA57" s="106"/>
+      <c r="BB57" s="106"/>
+      <c r="BC57" s="107"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="95"/>
-      <c r="Y58" s="95"/>
-      <c r="Z58" s="95"/>
-      <c r="AA58" s="95"/>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="95"/>
-      <c r="AF58" s="95"/>
-      <c r="AG58" s="96"/>
-      <c r="AI58" s="103" t="s">
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="100"/>
+      <c r="Y58" s="100"/>
+      <c r="Z58" s="100"/>
+      <c r="AA58" s="100"/>
+      <c r="AB58" s="100"/>
+      <c r="AC58" s="100"/>
+      <c r="AD58" s="100"/>
+      <c r="AE58" s="100"/>
+      <c r="AF58" s="100"/>
+      <c r="AG58" s="101"/>
+      <c r="AI58" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="104"/>
-      <c r="AK58" s="104"/>
-      <c r="AL58" s="104"/>
-      <c r="AM58" s="104"/>
-      <c r="AN58" s="104"/>
-      <c r="AO58" s="104"/>
-      <c r="AP58" s="104"/>
-      <c r="AQ58" s="104"/>
-      <c r="AR58" s="104"/>
-      <c r="AS58" s="104"/>
-      <c r="AT58" s="104"/>
-      <c r="AU58" s="104"/>
-      <c r="AV58" s="104"/>
-      <c r="AW58" s="104"/>
-      <c r="AX58" s="104"/>
-      <c r="AY58" s="104"/>
-      <c r="AZ58" s="104"/>
-      <c r="BA58" s="104"/>
-      <c r="BB58" s="104"/>
-      <c r="BC58" s="105"/>
+      <c r="AJ58" s="109"/>
+      <c r="AK58" s="109"/>
+      <c r="AL58" s="109"/>
+      <c r="AM58" s="109"/>
+      <c r="AN58" s="109"/>
+      <c r="AO58" s="109"/>
+      <c r="AP58" s="109"/>
+      <c r="AQ58" s="109"/>
+      <c r="AR58" s="109"/>
+      <c r="AS58" s="109"/>
+      <c r="AT58" s="109"/>
+      <c r="AU58" s="109"/>
+      <c r="AV58" s="109"/>
+      <c r="AW58" s="109"/>
+      <c r="AX58" s="109"/>
+      <c r="AY58" s="109"/>
+      <c r="AZ58" s="109"/>
+      <c r="BA58" s="109"/>
+      <c r="BB58" s="109"/>
+      <c r="BC58" s="110"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="74" t="s">
+      <c r="S59" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="74"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="74"/>
-      <c r="AE59" s="74"/>
-      <c r="AI59" s="75"/>
-      <c r="AJ59" s="76"/>
-      <c r="AK59" s="76"/>
-      <c r="AL59" s="76"/>
-      <c r="AM59" s="76"/>
-      <c r="AN59" s="76"/>
-      <c r="AO59" s="76"/>
-      <c r="AP59" s="76"/>
-      <c r="AQ59" s="76"/>
-      <c r="AR59" s="76"/>
-      <c r="AS59" s="76"/>
-      <c r="AT59" s="76"/>
-      <c r="AU59" s="76"/>
-      <c r="AV59" s="76"/>
-      <c r="AW59" s="76"/>
-      <c r="AX59" s="76"/>
-      <c r="AY59" s="76"/>
-      <c r="AZ59" s="76"/>
-      <c r="BA59" s="76"/>
-      <c r="BB59" s="76"/>
-      <c r="BC59" s="77"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="79"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="79"/>
+      <c r="AA59" s="79"/>
+      <c r="AB59" s="79"/>
+      <c r="AC59" s="79"/>
+      <c r="AD59" s="79"/>
+      <c r="AE59" s="79"/>
+      <c r="AI59" s="80"/>
+      <c r="AJ59" s="81"/>
+      <c r="AK59" s="81"/>
+      <c r="AL59" s="81"/>
+      <c r="AM59" s="81"/>
+      <c r="AN59" s="81"/>
+      <c r="AO59" s="81"/>
+      <c r="AP59" s="81"/>
+      <c r="AQ59" s="81"/>
+      <c r="AR59" s="81"/>
+      <c r="AS59" s="81"/>
+      <c r="AT59" s="81"/>
+      <c r="AU59" s="81"/>
+      <c r="AV59" s="81"/>
+      <c r="AW59" s="81"/>
+      <c r="AX59" s="81"/>
+      <c r="AY59" s="81"/>
+      <c r="AZ59" s="81"/>
+      <c r="BA59" s="81"/>
+      <c r="BB59" s="81"/>
+      <c r="BC59" s="82"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="74"/>
-      <c r="W60" s="74"/>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="74"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="74"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="79"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="79"/>
+      <c r="AE60" s="79"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="74"/>
-      <c r="W61" s="74"/>
-      <c r="X61" s="74"/>
-      <c r="Y61" s="74"/>
-      <c r="Z61" s="74"/>
-      <c r="AA61" s="74"/>
-      <c r="AB61" s="74"/>
-      <c r="AC61" s="74"/>
-      <c r="AD61" s="74"/>
-      <c r="AE61" s="74"/>
-      <c r="AI61" s="78" t="s">
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="S61" s="79"/>
+      <c r="T61" s="79"/>
+      <c r="U61" s="79"/>
+      <c r="V61" s="79"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="79"/>
+      <c r="Y61" s="79"/>
+      <c r="Z61" s="79"/>
+      <c r="AA61" s="79"/>
+      <c r="AB61" s="79"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="79"/>
+      <c r="AE61" s="79"/>
+      <c r="AI61" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="78"/>
-      <c r="AK61" s="78"/>
-      <c r="AL61" s="78"/>
-      <c r="AM61" s="78"/>
-      <c r="AN61" s="78"/>
-      <c r="AO61" s="78"/>
-      <c r="AP61" s="78"/>
-      <c r="AQ61" s="78"/>
-      <c r="AR61" s="78"/>
-      <c r="AS61" s="78"/>
-      <c r="AT61" s="78"/>
-      <c r="AU61" s="80">
+      <c r="AJ61" s="83"/>
+      <c r="AK61" s="83"/>
+      <c r="AL61" s="83"/>
+      <c r="AM61" s="83"/>
+      <c r="AN61" s="83"/>
+      <c r="AO61" s="83"/>
+      <c r="AP61" s="83"/>
+      <c r="AQ61" s="83"/>
+      <c r="AR61" s="83"/>
+      <c r="AS61" s="83"/>
+      <c r="AT61" s="83"/>
+      <c r="AU61" s="85">
         <v>0</v>
       </c>
-      <c r="AV61" s="81"/>
-      <c r="AW61" s="81"/>
-      <c r="AX61" s="81"/>
-      <c r="AY61" s="81"/>
-      <c r="AZ61" s="81"/>
-      <c r="BA61" s="81"/>
-      <c r="BB61" s="81"/>
-      <c r="BC61" s="82"/>
+      <c r="AV61" s="86"/>
+      <c r="AW61" s="86"/>
+      <c r="AX61" s="86"/>
+      <c r="AY61" s="86"/>
+      <c r="AZ61" s="86"/>
+      <c r="BA61" s="86"/>
+      <c r="BB61" s="86"/>
+      <c r="BC61" s="87"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="86" t="s">
+      <c r="B62" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="S62" s="87" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="91"/>
+      <c r="S62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="87"/>
-      <c r="U62" s="87"/>
-      <c r="V62" s="87"/>
-      <c r="W62" s="87"/>
-      <c r="X62" s="87"/>
-      <c r="Y62" s="87"/>
-      <c r="Z62" s="87"/>
-      <c r="AA62" s="87"/>
-      <c r="AB62" s="87"/>
-      <c r="AC62" s="87"/>
-      <c r="AD62" s="87"/>
-      <c r="AE62" s="87"/>
-      <c r="AI62" s="79"/>
-      <c r="AJ62" s="79"/>
-      <c r="AK62" s="79"/>
-      <c r="AL62" s="79"/>
-      <c r="AM62" s="79"/>
-      <c r="AN62" s="79"/>
-      <c r="AO62" s="79"/>
-      <c r="AP62" s="79"/>
-      <c r="AQ62" s="79"/>
-      <c r="AR62" s="79"/>
-      <c r="AS62" s="79"/>
-      <c r="AT62" s="79"/>
-      <c r="AU62" s="83"/>
-      <c r="AV62" s="84"/>
-      <c r="AW62" s="84"/>
-      <c r="AX62" s="84"/>
-      <c r="AY62" s="84"/>
-      <c r="AZ62" s="84"/>
-      <c r="BA62" s="84"/>
-      <c r="BB62" s="84"/>
-      <c r="BC62" s="85"/>
+      <c r="T62" s="92"/>
+      <c r="U62" s="92"/>
+      <c r="V62" s="92"/>
+      <c r="W62" s="92"/>
+      <c r="X62" s="92"/>
+      <c r="Y62" s="92"/>
+      <c r="Z62" s="92"/>
+      <c r="AA62" s="92"/>
+      <c r="AB62" s="92"/>
+      <c r="AC62" s="92"/>
+      <c r="AD62" s="92"/>
+      <c r="AE62" s="92"/>
+      <c r="AI62" s="84"/>
+      <c r="AJ62" s="84"/>
+      <c r="AK62" s="84"/>
+      <c r="AL62" s="84"/>
+      <c r="AM62" s="84"/>
+      <c r="AN62" s="84"/>
+      <c r="AO62" s="84"/>
+      <c r="AP62" s="84"/>
+      <c r="AQ62" s="84"/>
+      <c r="AR62" s="84"/>
+      <c r="AS62" s="84"/>
+      <c r="AT62" s="84"/>
+      <c r="AU62" s="88"/>
+      <c r="AV62" s="89"/>
+      <c r="AW62" s="89"/>
+      <c r="AX62" s="89"/>
+      <c r="AY62" s="89"/>
+      <c r="AZ62" s="89"/>
+      <c r="BA62" s="89"/>
+      <c r="BB62" s="89"/>
+      <c r="BC62" s="90"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="W26:AB26"/>
     <mergeCell ref="AW6:BC6"/>
     <mergeCell ref="AG2:BC2"/>
     <mergeCell ref="AW4:BC4"/>
@@ -7825,9 +7478,6 @@
     <mergeCell ref="AM6:AV6"/>
     <mergeCell ref="AM4:AV4"/>
     <mergeCell ref="AY25:BC26"/>
-    <mergeCell ref="AM34:BC34"/>
-    <mergeCell ref="AM25:AQ26"/>
-    <mergeCell ref="AR25:AX26"/>
     <mergeCell ref="AT14:BC14"/>
     <mergeCell ref="AM27:BC33"/>
     <mergeCell ref="AL24:AL32"/>
@@ -7835,15 +7485,6 @@
     <mergeCell ref="AC25:AK25"/>
     <mergeCell ref="AC26:AK26"/>
     <mergeCell ref="A34:AK34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="A33:AK33"/>
     <mergeCell ref="AM20:BC21"/>
     <mergeCell ref="AY24:BC24"/>
     <mergeCell ref="A29:AK29"/>
@@ -7858,8 +7499,21 @@
     <mergeCell ref="AR24:AX24"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J35:AK35"/>
+    <mergeCell ref="A33:AK33"/>
+    <mergeCell ref="AM34:BC34"/>
+    <mergeCell ref="AM25:AQ26"/>
+    <mergeCell ref="AR25:AX26"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="W26:AB26"/>
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="L16:R16"/>
     <mergeCell ref="L17:R17"/>
@@ -7867,6 +7521,8 @@
     <mergeCell ref="AO17:BC17"/>
     <mergeCell ref="AL16:AN16"/>
     <mergeCell ref="N20:V20"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="A19:AK19"/>
     <mergeCell ref="Z1:BC1"/>
     <mergeCell ref="AG14:AK14"/>
     <mergeCell ref="A17:K17"/>
@@ -7891,8 +7547,6 @@
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A13:AR13"/>
     <mergeCell ref="I14:AA14"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="A19:AK19"/>
     <mergeCell ref="S32:AB32"/>
     <mergeCell ref="AC32:AK32"/>
     <mergeCell ref="W20:AB20"/>
@@ -7915,6 +7569,8 @@
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="A26:M26"/>
     <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="S27:AB27"/>
     <mergeCell ref="B59:N61"/>
     <mergeCell ref="S59:AE61"/>
     <mergeCell ref="AI59:BC59"/>
@@ -7954,6 +7610,8 @@
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="V42:Z42"/>
     <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>
@@ -7966,78 +7624,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="D1">
+        <v>287.89999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="234">
-        <v>34</v>
-      </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
+      <c r="B2" s="42">
+        <v>33.1</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <v>316.39999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="232">
-        <v>28.6</v>
-      </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
+      <c r="B3" s="42">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="233" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="232">
-        <v>33.1</v>
-      </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
+      <c r="A4" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="42">
+        <v>30.2</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="233" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="232">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
+      <c r="A5" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="42">
+        <v>29.7</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="232">
-        <v>30.2</v>
-      </c>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
+      <c r="A6" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="42">
+        <v>28.5</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="233" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="232">
-        <v>29.7</v>
-      </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
+      <c r="A7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="44">
+        <f>AVERAGE(B2:B7)</f>
+        <v>31.283333333333335</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/ModeloFactura/001-044-78055 - copia.xlsx
+++ b/static/ModeloFactura/001-044-78055 - copia.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>ASOCIACION DE USUARIOS DE LA EMPRESA COMUNITARIA DE ACUEDUCTO Y ALCANTARILLADO DE CAIMALITO ESP
 NIT 900.017.239-2</t>
@@ -241,10 +241,6 @@
     <t>Medición anterior</t>
   </si>
   <si>
-    <t>Apreciado usuario,
-Le informamos que la ventanilla de recaudo estara abierta el dia domingo 06 de noviembre de 8 am a 4 pm jornada continua</t>
-  </si>
-  <si>
     <t>COMPORTAMIENTO DE CONSUMO GENERAL M3</t>
   </si>
   <si>
@@ -267,6 +263,18 @@
   </si>
   <si>
     <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>anterior</t>
   </si>
 </sst>
 </file>
@@ -1801,6 +1809,478 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,480 +2374,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2404,8 +2412,9 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
@@ -2414,34 +2423,26 @@
             <c:v>Mes</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="58000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="58000"/>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="58000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="2"/>
               <c:layout/>
               <c:spPr>
                 <a:noFill/>
@@ -2488,7 +2489,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:spPr>
                 <a:noFill/>
@@ -2531,9 +2532,6 @@
                       <c:h val="0.17513512187229954"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8BCA-470B-B833-0AE3479FD240}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2593,58 +2591,57 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:f>Hoja1!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Diciembre</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Enero</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Febrero</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marzo</c:v>
+                  <c:v>Abril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Abril</c:v>
+                  <c:v>Mayo</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mayo</c:v>
+                  <c:v>Junio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$7</c:f>
+              <c:f>Hoja1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33.1</c:v>
+                  <c:v>36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.200000000000003</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.2</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.7</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>32.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7529-475D-9D8D-42745DF2AB7C}"/>
@@ -2660,12 +2657,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="486206296"/>
         <c:axId val="486206952"/>
-        <c:extLst/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="486206296"/>
         <c:scaling>
@@ -4084,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48:S48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BF39" sqref="BF39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4104,22 +4099,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -4131,54 +4126,54 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="136" t="s">
+      <c r="Z1" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="136"/>
-      <c r="AK1" s="136"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -4196,47 +4191,47 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="226" t="s">
+      <c r="AG2" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="226"/>
-      <c r="AI2" s="226"/>
-      <c r="AJ2" s="226"/>
-      <c r="AK2" s="226"/>
-      <c r="AL2" s="226"/>
-      <c r="AM2" s="226"/>
-      <c r="AN2" s="226"/>
-      <c r="AO2" s="226"/>
-      <c r="AP2" s="226"/>
-      <c r="AQ2" s="226"/>
-      <c r="AR2" s="226"/>
-      <c r="AS2" s="226"/>
-      <c r="AT2" s="226"/>
-      <c r="AU2" s="226"/>
-      <c r="AV2" s="226"/>
-      <c r="AW2" s="226"/>
-      <c r="AX2" s="226"/>
-      <c r="AY2" s="226"/>
-      <c r="AZ2" s="226"/>
-      <c r="BA2" s="226"/>
-      <c r="BB2" s="226"/>
-      <c r="BC2" s="226"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -4272,20 +4267,20 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -4308,41 +4303,41 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="160" t="s">
+      <c r="AM4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="155"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="155"/>
-      <c r="AS4" s="155"/>
-      <c r="AT4" s="155"/>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="230"/>
-      <c r="AW4" s="227"/>
-      <c r="AX4" s="228"/>
-      <c r="AY4" s="228"/>
-      <c r="AZ4" s="228"/>
-      <c r="BA4" s="228"/>
-      <c r="BB4" s="228"/>
-      <c r="BC4" s="229"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="51"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -4377,20 +4372,20 @@
       <c r="AV5" s="37"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -4414,52 +4409,52 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="160" t="s">
+      <c r="AM6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AN6" s="155"/>
-      <c r="AO6" s="155"/>
-      <c r="AP6" s="155"/>
-      <c r="AQ6" s="155"/>
-      <c r="AR6" s="155"/>
-      <c r="AS6" s="155"/>
-      <c r="AT6" s="155"/>
-      <c r="AU6" s="155"/>
-      <c r="AV6" s="230"/>
-      <c r="AW6" s="223"/>
-      <c r="AX6" s="224"/>
-      <c r="AY6" s="224"/>
-      <c r="AZ6" s="224"/>
-      <c r="BA6" s="224"/>
-      <c r="BB6" s="224"/>
-      <c r="BC6" s="225"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="47"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="154" t="s">
+      <c r="P7" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="156"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="138"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -4479,31 +4474,31 @@
       <c r="AV7" s="37"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="157">
+      <c r="P8" s="139">
         <v>1</v>
       </c>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="159"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="141"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -4512,41 +4507,41 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
-      <c r="AM8" s="160" t="s">
+      <c r="AM8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="155"/>
-      <c r="AO8" s="155"/>
-      <c r="AP8" s="155"/>
-      <c r="AQ8" s="155"/>
-      <c r="AR8" s="155"/>
-      <c r="AS8" s="155"/>
-      <c r="AT8" s="155"/>
-      <c r="AU8" s="155"/>
-      <c r="AV8" s="230"/>
-      <c r="AW8" s="223"/>
-      <c r="AX8" s="224"/>
-      <c r="AY8" s="224"/>
-      <c r="AZ8" s="224"/>
-      <c r="BA8" s="224"/>
-      <c r="BB8" s="224"/>
-      <c r="BC8" s="225"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="47"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
       <c r="O9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -4557,31 +4552,31 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
       <c r="O10" s="31"/>
-      <c r="P10" s="160" t="s">
+      <c r="P10" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
@@ -4590,50 +4585,50 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
-      <c r="AM10" s="162" t="s">
+      <c r="AM10" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AN10" s="162"/>
-      <c r="AO10" s="162"/>
-      <c r="AP10" s="162"/>
-      <c r="AQ10" s="162"/>
-      <c r="AR10" s="162"/>
-      <c r="AS10" s="162"/>
-      <c r="AT10" s="162"/>
-      <c r="AU10" s="162"/>
-      <c r="AV10" s="162"/>
-      <c r="AW10" s="162"/>
-      <c r="AX10" s="162"/>
-      <c r="AY10" s="162"/>
-      <c r="AZ10" s="162"/>
-      <c r="BA10" s="162"/>
-      <c r="BB10" s="162"/>
-      <c r="BC10" s="162"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="62"/>
+      <c r="BC10" s="62"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="163"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -4642,23 +4637,23 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AM11" s="162"/>
-      <c r="AN11" s="162"/>
-      <c r="AO11" s="162"/>
-      <c r="AP11" s="162"/>
-      <c r="AQ11" s="162"/>
-      <c r="AR11" s="162"/>
-      <c r="AS11" s="162"/>
-      <c r="AT11" s="162"/>
-      <c r="AU11" s="162"/>
-      <c r="AV11" s="162"/>
-      <c r="AW11" s="162"/>
-      <c r="AX11" s="162"/>
-      <c r="AY11" s="162"/>
-      <c r="AZ11" s="162"/>
-      <c r="BA11" s="162"/>
-      <c r="BB11" s="162"/>
-      <c r="BC11" s="162"/>
+      <c r="AM11" s="62"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="62"/>
+      <c r="BA11" s="62"/>
+      <c r="BB11" s="62"/>
+      <c r="BC11" s="62"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="32"/>
@@ -4684,336 +4679,336 @@
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="161" t="s">
+      <c r="AM12" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="161"/>
-      <c r="AO12" s="161"/>
-      <c r="AP12" s="161"/>
-      <c r="AQ12" s="161"/>
-      <c r="AR12" s="161"/>
-      <c r="AS12" s="161"/>
-      <c r="AT12" s="161"/>
-      <c r="AU12" s="161"/>
-      <c r="AV12" s="161"/>
-      <c r="AW12" s="161"/>
-      <c r="AX12" s="161"/>
-      <c r="AY12" s="161"/>
-      <c r="AZ12" s="161"/>
-      <c r="BA12" s="161"/>
-      <c r="BB12" s="161"/>
-      <c r="BC12" s="161"/>
+      <c r="AN12" s="142"/>
+      <c r="AO12" s="142"/>
+      <c r="AP12" s="142"/>
+      <c r="AQ12" s="142"/>
+      <c r="AR12" s="142"/>
+      <c r="AS12" s="142"/>
+      <c r="AT12" s="142"/>
+      <c r="AU12" s="142"/>
+      <c r="AV12" s="142"/>
+      <c r="AW12" s="142"/>
+      <c r="AX12" s="142"/>
+      <c r="AY12" s="142"/>
+      <c r="AZ12" s="142"/>
+      <c r="BA12" s="142"/>
+      <c r="BB12" s="142"/>
+      <c r="BC12" s="142"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="168"/>
-      <c r="AH13" s="168"/>
-      <c r="AI13" s="168"/>
-      <c r="AJ13" s="168"/>
-      <c r="AK13" s="168"/>
-      <c r="AL13" s="168"/>
-      <c r="AM13" s="168"/>
-      <c r="AN13" s="168"/>
-      <c r="AO13" s="168"/>
-      <c r="AP13" s="168"/>
-      <c r="AQ13" s="168"/>
-      <c r="AR13" s="168"/>
-      <c r="AS13" s="164"/>
-      <c r="AT13" s="164"/>
-      <c r="AU13" s="164"/>
-      <c r="AV13" s="164"/>
-      <c r="AW13" s="164"/>
-      <c r="AX13" s="164"/>
-      <c r="AY13" s="164"/>
-      <c r="AZ13" s="164"/>
-      <c r="BA13" s="164"/>
-      <c r="BB13" s="164"/>
-      <c r="BC13" s="165"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="148"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="148"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="148"/>
+      <c r="AL13" s="148"/>
+      <c r="AM13" s="148"/>
+      <c r="AN13" s="148"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="148"/>
+      <c r="AR13" s="148"/>
+      <c r="AS13" s="144"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="144"/>
+      <c r="AV13" s="144"/>
+      <c r="AW13" s="144"/>
+      <c r="AX13" s="144"/>
+      <c r="AY13" s="144"/>
+      <c r="AZ13" s="144"/>
+      <c r="BA13" s="144"/>
+      <c r="BB13" s="144"/>
+      <c r="BC13" s="145"/>
     </row>
     <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="149" t="s">
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="149"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="137" t="s">
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="137"/>
-      <c r="AK14" s="137"/>
-      <c r="AL14" s="149" t="s">
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AM14" s="149"/>
-      <c r="AN14" s="149"/>
-      <c r="AO14" s="149"/>
-      <c r="AP14" s="149"/>
-      <c r="AQ14" s="149"/>
-      <c r="AR14" s="149"/>
-      <c r="AS14" s="149"/>
-      <c r="AT14" s="137" t="s">
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="135"/>
+      <c r="AP14" s="135"/>
+      <c r="AQ14" s="135"/>
+      <c r="AR14" s="135"/>
+      <c r="AS14" s="135"/>
+      <c r="AT14" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AU14" s="137"/>
-      <c r="AV14" s="137"/>
-      <c r="AW14" s="137"/>
-      <c r="AX14" s="137"/>
-      <c r="AY14" s="137"/>
-      <c r="AZ14" s="137"/>
-      <c r="BA14" s="137"/>
-      <c r="BB14" s="137"/>
-      <c r="BC14" s="198"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="60"/>
     </row>
     <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="150"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="150"/>
-      <c r="AC15" s="150"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="150"/>
-      <c r="AH15" s="150"/>
-      <c r="AI15" s="150"/>
-      <c r="AJ15" s="150"/>
-      <c r="AK15" s="150"/>
-      <c r="AL15" s="150"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="150"/>
-      <c r="AO15" s="150"/>
-      <c r="AP15" s="150"/>
-      <c r="AQ15" s="150"/>
-      <c r="AR15" s="150"/>
-      <c r="AS15" s="150"/>
-      <c r="AT15" s="150"/>
-      <c r="AU15" s="150"/>
-      <c r="AV15" s="150"/>
-      <c r="AW15" s="150"/>
-      <c r="AX15" s="150"/>
-      <c r="AY15" s="150"/>
-      <c r="AZ15" s="150"/>
-      <c r="BA15" s="150"/>
-      <c r="BB15" s="150"/>
-      <c r="BC15" s="216"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="85"/>
+      <c r="BC15" s="86"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="137" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="152" t="s">
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="152"/>
-      <c r="X16" s="152"/>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="152"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="152"/>
-      <c r="AC16" s="152"/>
-      <c r="AD16" s="152"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="137" t="s">
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="137"/>
-      <c r="AJ16" s="137"/>
-      <c r="AK16" s="137"/>
-      <c r="AL16" s="137" t="s">
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="137"/>
-      <c r="AN16" s="178"/>
-      <c r="AO16" s="173" t="s">
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="174"/>
-      <c r="AQ16" s="174"/>
-      <c r="AR16" s="174"/>
-      <c r="AS16" s="174"/>
-      <c r="AT16" s="174"/>
-      <c r="AU16" s="174"/>
-      <c r="AV16" s="174"/>
-      <c r="AW16" s="174"/>
-      <c r="AX16" s="174"/>
-      <c r="AY16" s="174"/>
-      <c r="AZ16" s="174"/>
-      <c r="BA16" s="174"/>
-      <c r="BB16" s="174"/>
-      <c r="BC16" s="175"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="116"/>
+      <c r="AR16" s="116"/>
+      <c r="AS16" s="116"/>
+      <c r="AT16" s="116"/>
+      <c r="AU16" s="116"/>
+      <c r="AV16" s="116"/>
+      <c r="AW16" s="116"/>
+      <c r="AX16" s="116"/>
+      <c r="AY16" s="116"/>
+      <c r="AZ16" s="116"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="116"/>
+      <c r="BC16" s="117"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="138"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="147"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="146"/>
-      <c r="AH17" s="147"/>
-      <c r="AI17" s="147"/>
-      <c r="AJ17" s="147"/>
-      <c r="AK17" s="147"/>
-      <c r="AL17" s="146"/>
-      <c r="AM17" s="147"/>
-      <c r="AN17" s="148"/>
-      <c r="AO17" s="176"/>
-      <c r="AP17" s="172"/>
-      <c r="AQ17" s="172"/>
-      <c r="AR17" s="172"/>
-      <c r="AS17" s="172"/>
-      <c r="AT17" s="172"/>
-      <c r="AU17" s="172"/>
-      <c r="AV17" s="172"/>
-      <c r="AW17" s="172"/>
-      <c r="AX17" s="172"/>
-      <c r="AY17" s="172"/>
-      <c r="AZ17" s="172"/>
-      <c r="BA17" s="172"/>
-      <c r="BB17" s="172"/>
-      <c r="BC17" s="177"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="88"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="88"/>
+      <c r="AJ17" s="88"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="133"/>
+      <c r="AM17" s="88"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="119"/>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -5029,19 +5024,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179"/>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="179"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -5055,686 +5050,686 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="181"/>
-      <c r="S19" s="181"/>
-      <c r="T19" s="181"/>
-      <c r="U19" s="181"/>
-      <c r="V19" s="181"/>
-      <c r="W19" s="181"/>
-      <c r="X19" s="181"/>
-      <c r="Y19" s="181"/>
-      <c r="Z19" s="181"/>
-      <c r="AA19" s="181"/>
-      <c r="AB19" s="181"/>
-      <c r="AC19" s="181"/>
-      <c r="AD19" s="181"/>
-      <c r="AE19" s="181"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="181"/>
-      <c r="AH19" s="181"/>
-      <c r="AI19" s="181"/>
-      <c r="AJ19" s="181"/>
-      <c r="AK19" s="182"/>
-      <c r="AM19" s="140" t="s">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="125"/>
+      <c r="AM19" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="AN19" s="141"/>
-      <c r="AO19" s="141"/>
-      <c r="AP19" s="141"/>
-      <c r="AQ19" s="141"/>
-      <c r="AR19" s="141"/>
-      <c r="AS19" s="141"/>
-      <c r="AT19" s="141"/>
-      <c r="AU19" s="141"/>
-      <c r="AV19" s="141"/>
-      <c r="AW19" s="141"/>
-      <c r="AX19" s="141"/>
-      <c r="AY19" s="141"/>
-      <c r="AZ19" s="141"/>
-      <c r="BA19" s="141"/>
-      <c r="BB19" s="141"/>
-      <c r="BC19" s="142"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="128"/>
+      <c r="AP19" s="128"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="128"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
+      <c r="BB19" s="128"/>
+      <c r="BC19" s="129"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123" t="s">
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123" t="s">
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="153"/>
-      <c r="AM20" s="205"/>
-      <c r="AN20" s="206"/>
-      <c r="AO20" s="206"/>
-      <c r="AP20" s="206"/>
-      <c r="AQ20" s="206"/>
-      <c r="AR20" s="206"/>
-      <c r="AS20" s="206"/>
-      <c r="AT20" s="206"/>
-      <c r="AU20" s="206"/>
-      <c r="AV20" s="206"/>
-      <c r="AW20" s="206"/>
-      <c r="AX20" s="206"/>
-      <c r="AY20" s="206"/>
-      <c r="AZ20" s="206"/>
-      <c r="BA20" s="206"/>
-      <c r="BB20" s="206"/>
-      <c r="BC20" s="207"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="136"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="74"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="125"/>
-      <c r="AM21" s="208"/>
-      <c r="AN21" s="209"/>
-      <c r="AO21" s="209"/>
-      <c r="AP21" s="209"/>
-      <c r="AQ21" s="209"/>
-      <c r="AR21" s="209"/>
-      <c r="AS21" s="209"/>
-      <c r="AT21" s="209"/>
-      <c r="AU21" s="209"/>
-      <c r="AV21" s="209"/>
-      <c r="AW21" s="209"/>
-      <c r="AX21" s="209"/>
-      <c r="AY21" s="209"/>
-      <c r="AZ21" s="209"/>
-      <c r="BA21" s="209"/>
-      <c r="BB21" s="209"/>
-      <c r="BC21" s="210"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="159"/>
+      <c r="X21" s="159"/>
+      <c r="Y21" s="159"/>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="159"/>
+      <c r="AB21" s="159"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="68"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="77"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="221"/>
-      <c r="Y22" s="221"/>
-      <c r="Z22" s="221"/>
-      <c r="AA22" s="221"/>
-      <c r="AB22" s="221"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="125"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="68"/>
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="221"/>
-      <c r="Y23" s="221"/>
-      <c r="Z23" s="221"/>
-      <c r="AA23" s="221"/>
-      <c r="AB23" s="221"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="125"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="68"/>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="143" t="s">
+      <c r="AM23" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AN23" s="144"/>
-      <c r="AO23" s="144"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="144"/>
-      <c r="AS23" s="144"/>
-      <c r="AT23" s="144"/>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-      <c r="AW23" s="144"/>
-      <c r="AX23" s="144"/>
-      <c r="AY23" s="144"/>
-      <c r="AZ23" s="144"/>
-      <c r="BA23" s="144"/>
-      <c r="BB23" s="144"/>
-      <c r="BC23" s="145"/>
+      <c r="AN23" s="131"/>
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="131"/>
+      <c r="AQ23" s="131"/>
+      <c r="AR23" s="131"/>
+      <c r="AS23" s="131"/>
+      <c r="AT23" s="131"/>
+      <c r="AU23" s="131"/>
+      <c r="AV23" s="131"/>
+      <c r="AW23" s="131"/>
+      <c r="AX23" s="131"/>
+      <c r="AY23" s="131"/>
+      <c r="AZ23" s="131"/>
+      <c r="BA23" s="131"/>
+      <c r="BB23" s="131"/>
+      <c r="BC23" s="132"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
-      <c r="Y24" s="221"/>
-      <c r="Z24" s="221"/>
-      <c r="AA24" s="221"/>
-      <c r="AB24" s="221"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="201"/>
-      <c r="AM24" s="217" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AN24" s="218"/>
-      <c r="AO24" s="218"/>
-      <c r="AP24" s="218"/>
-      <c r="AQ24" s="218"/>
-      <c r="AR24" s="219" t="s">
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="AS24" s="219"/>
-      <c r="AT24" s="219"/>
-      <c r="AU24" s="219"/>
-      <c r="AV24" s="219"/>
-      <c r="AW24" s="219"/>
-      <c r="AX24" s="219"/>
-      <c r="AY24" s="211" t="s">
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="AZ24" s="211"/>
-      <c r="BA24" s="211"/>
-      <c r="BB24" s="211"/>
-      <c r="BC24" s="212"/>
+      <c r="AZ24" s="78"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="79"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="125"/>
-      <c r="AL25" s="201"/>
-      <c r="AM25" s="194"/>
-      <c r="AN25" s="195"/>
-      <c r="AO25" s="195"/>
-      <c r="AP25" s="195"/>
-      <c r="AQ25" s="195"/>
-      <c r="AR25" s="196"/>
-      <c r="AS25" s="196"/>
-      <c r="AT25" s="196"/>
-      <c r="AU25" s="196"/>
-      <c r="AV25" s="196"/>
-      <c r="AW25" s="196"/>
-      <c r="AX25" s="196"/>
-      <c r="AY25" s="231"/>
-      <c r="AZ25" s="231"/>
-      <c r="BA25" s="231"/>
-      <c r="BB25" s="231"/>
-      <c r="BC25" s="232"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="106"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="110"/>
+      <c r="AS25" s="110"/>
+      <c r="AT25" s="110"/>
+      <c r="AU25" s="110"/>
+      <c r="AV25" s="110"/>
+      <c r="AW25" s="110"/>
+      <c r="AX25" s="110"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="56"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="222"/>
-      <c r="X26" s="222"/>
-      <c r="Y26" s="222"/>
-      <c r="Z26" s="222"/>
-      <c r="AA26" s="222"/>
-      <c r="AB26" s="222"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="125"/>
-      <c r="AL26" s="201"/>
-      <c r="AM26" s="138"/>
-      <c r="AN26" s="139"/>
-      <c r="AO26" s="139"/>
-      <c r="AP26" s="139"/>
-      <c r="AQ26" s="139"/>
-      <c r="AR26" s="197"/>
-      <c r="AS26" s="197"/>
-      <c r="AT26" s="197"/>
-      <c r="AU26" s="197"/>
-      <c r="AV26" s="197"/>
-      <c r="AW26" s="197"/>
-      <c r="AX26" s="197"/>
-      <c r="AY26" s="233"/>
-      <c r="AZ26" s="233"/>
-      <c r="BA26" s="233"/>
-      <c r="BB26" s="233"/>
-      <c r="BC26" s="234"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="153"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="108"/>
+      <c r="AN26" s="109"/>
+      <c r="AO26" s="109"/>
+      <c r="AP26" s="109"/>
+      <c r="AQ26" s="109"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="111"/>
+      <c r="AX26" s="111"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="58"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="170" t="s">
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="171"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="171"/>
-      <c r="W27" s="171"/>
-      <c r="X27" s="171"/>
-      <c r="Y27" s="171"/>
-      <c r="Z27" s="171"/>
-      <c r="AA27" s="171"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="121">
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="65">
         <v>0</v>
       </c>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="122"/>
-      <c r="AL27" s="201"/>
-      <c r="AM27" s="199" t="s">
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="199"/>
-      <c r="AO27" s="199"/>
-      <c r="AP27" s="199"/>
-      <c r="AQ27" s="199"/>
-      <c r="AR27" s="199"/>
-      <c r="AS27" s="199"/>
-      <c r="AT27" s="199"/>
-      <c r="AU27" s="199"/>
-      <c r="AV27" s="199"/>
-      <c r="AW27" s="199"/>
-      <c r="AX27" s="199"/>
-      <c r="AY27" s="199"/>
-      <c r="AZ27" s="199"/>
-      <c r="BA27" s="199"/>
-      <c r="BB27" s="199"/>
-      <c r="BC27" s="199"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="61"/>
+      <c r="AS27" s="61"/>
+      <c r="AT27" s="61"/>
+      <c r="AU27" s="61"/>
+      <c r="AV27" s="61"/>
+      <c r="AW27" s="61"/>
+      <c r="AX27" s="61"/>
+      <c r="AY27" s="61"/>
+      <c r="AZ27" s="61"/>
+      <c r="BA27" s="61"/>
+      <c r="BB27" s="61"/>
+      <c r="BC27" s="61"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="AL28" s="201"/>
-      <c r="AM28" s="162"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="162"/>
-      <c r="AP28" s="162"/>
-      <c r="AQ28" s="162"/>
-      <c r="AR28" s="162"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="162"/>
-      <c r="AU28" s="162"/>
-      <c r="AV28" s="162"/>
-      <c r="AW28" s="162"/>
-      <c r="AX28" s="162"/>
-      <c r="AY28" s="162"/>
-      <c r="AZ28" s="162"/>
-      <c r="BA28" s="162"/>
-      <c r="BB28" s="162"/>
-      <c r="BC28" s="162"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="62"/>
+      <c r="AY28" s="62"/>
+      <c r="AZ28" s="62"/>
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="62"/>
+      <c r="BC28" s="62"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="118"/>
-      <c r="AG29" s="118"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="214"/>
-      <c r="AL29" s="201"/>
-      <c r="AM29" s="162"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="162"/>
-      <c r="AP29" s="162"/>
-      <c r="AQ29" s="162"/>
-      <c r="AR29" s="162"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="162"/>
-      <c r="AU29" s="162"/>
-      <c r="AV29" s="162"/>
-      <c r="AW29" s="162"/>
-      <c r="AX29" s="162"/>
-      <c r="AY29" s="162"/>
-      <c r="AZ29" s="162"/>
-      <c r="BA29" s="162"/>
-      <c r="BB29" s="162"/>
-      <c r="BC29" s="162"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="62"/>
+      <c r="AY29" s="62"/>
+      <c r="AZ29" s="62"/>
+      <c r="BA29" s="62"/>
+      <c r="BB29" s="62"/>
+      <c r="BC29" s="62"/>
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="169"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
-      <c r="T30" s="169" t="s">
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="169"/>
-      <c r="V30" s="169"/>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="169"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="169" t="s">
+      <c r="AC30" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" s="169"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="169"/>
-      <c r="AJ30" s="169"/>
-      <c r="AK30" s="215"/>
-      <c r="AL30" s="201"/>
-      <c r="AM30" s="162"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="162"/>
-      <c r="AP30" s="162"/>
-      <c r="AQ30" s="162"/>
-      <c r="AR30" s="162"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="162"/>
-      <c r="AU30" s="162"/>
-      <c r="AV30" s="162"/>
-      <c r="AW30" s="162"/>
-      <c r="AX30" s="162"/>
-      <c r="AY30" s="162"/>
-      <c r="AZ30" s="162"/>
-      <c r="BA30" s="162"/>
-      <c r="BB30" s="162"/>
-      <c r="BC30" s="162"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="83"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="83"/>
+      <c r="AJ30" s="83"/>
+      <c r="AK30" s="84"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="62"/>
+      <c r="AV30" s="62"/>
+      <c r="AW30" s="62"/>
+      <c r="AX30" s="62"/>
+      <c r="AY30" s="62"/>
+      <c r="AZ30" s="62"/>
+      <c r="BA30" s="62"/>
+      <c r="BB30" s="62"/>
+      <c r="BC30" s="62"/>
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -5774,24 +5769,24 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="201"/>
-      <c r="AM31" s="162"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="162"/>
-      <c r="AP31" s="162"/>
-      <c r="AQ31" s="162"/>
-      <c r="AR31" s="162"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="162"/>
-      <c r="AU31" s="162"/>
-      <c r="AV31" s="162"/>
-      <c r="AW31" s="162"/>
-      <c r="AX31" s="162"/>
-      <c r="AY31" s="162"/>
-      <c r="AZ31" s="162"/>
-      <c r="BA31" s="162"/>
-      <c r="BB31" s="162"/>
-      <c r="BC31" s="162"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="62"/>
+      <c r="BA31" s="62"/>
+      <c r="BB31" s="62"/>
+      <c r="BC31" s="62"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -5812,242 +5807,240 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="120" t="s">
+      <c r="S32" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="121">
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="65">
         <v>0</v>
       </c>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="201"/>
-      <c r="AM32" s="162"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="162"/>
-      <c r="AP32" s="162"/>
-      <c r="AQ32" s="162"/>
-      <c r="AR32" s="162"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="162"/>
-      <c r="AU32" s="162"/>
-      <c r="AV32" s="162"/>
-      <c r="AW32" s="162"/>
-      <c r="AX32" s="162"/>
-      <c r="AY32" s="162"/>
-      <c r="AZ32" s="162"/>
-      <c r="BA32" s="162"/>
-      <c r="BB32" s="162"/>
-      <c r="BC32" s="162"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="62"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="62"/>
+      <c r="BA32" s="62"/>
+      <c r="BB32" s="62"/>
+      <c r="BC32" s="62"/>
     </row>
     <row r="33" spans="1:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="190"/>
-      <c r="Q33" s="190"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="190"/>
-      <c r="AB33" s="190"/>
-      <c r="AC33" s="190"/>
-      <c r="AD33" s="190"/>
-      <c r="AE33" s="190"/>
-      <c r="AF33" s="190"/>
-      <c r="AG33" s="190"/>
-      <c r="AH33" s="190"/>
-      <c r="AI33" s="190"/>
-      <c r="AJ33" s="190"/>
-      <c r="AK33" s="190"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="102"/>
+      <c r="AF33" s="102"/>
+      <c r="AG33" s="102"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="102"/>
+      <c r="AJ33" s="102"/>
+      <c r="AK33" s="102"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="200"/>
-      <c r="AN33" s="200"/>
-      <c r="AO33" s="200"/>
-      <c r="AP33" s="200"/>
-      <c r="AQ33" s="200"/>
-      <c r="AR33" s="200"/>
-      <c r="AS33" s="200"/>
-      <c r="AT33" s="200"/>
-      <c r="AU33" s="200"/>
-      <c r="AV33" s="200"/>
-      <c r="AW33" s="200"/>
-      <c r="AX33" s="200"/>
-      <c r="AY33" s="200"/>
-      <c r="AZ33" s="200"/>
-      <c r="BA33" s="200"/>
-      <c r="BB33" s="200"/>
-      <c r="BC33" s="200"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="63"/>
+      <c r="BC33" s="63"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="202" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="203"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203"/>
-      <c r="N34" s="203"/>
-      <c r="O34" s="203"/>
-      <c r="P34" s="203"/>
-      <c r="Q34" s="203"/>
-      <c r="R34" s="203"/>
-      <c r="S34" s="203"/>
-      <c r="T34" s="203"/>
-      <c r="U34" s="203"/>
-      <c r="V34" s="203"/>
-      <c r="W34" s="203"/>
-      <c r="X34" s="203"/>
-      <c r="Y34" s="203"/>
-      <c r="Z34" s="203"/>
-      <c r="AA34" s="203"/>
-      <c r="AB34" s="203"/>
-      <c r="AC34" s="203"/>
-      <c r="AD34" s="203"/>
-      <c r="AE34" s="203"/>
-      <c r="AF34" s="203"/>
-      <c r="AG34" s="203"/>
-      <c r="AH34" s="203"/>
-      <c r="AI34" s="203"/>
-      <c r="AJ34" s="203"/>
-      <c r="AK34" s="204"/>
-      <c r="AM34" s="191" t="s">
+      <c r="A34" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="71"/>
+      <c r="AM34" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="AN34" s="192"/>
-      <c r="AO34" s="192"/>
-      <c r="AP34" s="192"/>
-      <c r="AQ34" s="192"/>
-      <c r="AR34" s="192"/>
-      <c r="AS34" s="192"/>
-      <c r="AT34" s="192"/>
-      <c r="AU34" s="192"/>
-      <c r="AV34" s="192"/>
-      <c r="AW34" s="192"/>
-      <c r="AX34" s="192"/>
-      <c r="AY34" s="192"/>
-      <c r="AZ34" s="192"/>
-      <c r="BA34" s="192"/>
-      <c r="BB34" s="192"/>
-      <c r="BC34" s="193"/>
+      <c r="AN34" s="104"/>
+      <c r="AO34" s="104"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="104"/>
+      <c r="AR34" s="104"/>
+      <c r="AS34" s="104"/>
+      <c r="AT34" s="104"/>
+      <c r="AU34" s="104"/>
+      <c r="AV34" s="104"/>
+      <c r="AW34" s="104"/>
+      <c r="AX34" s="104"/>
+      <c r="AY34" s="104"/>
+      <c r="AZ34" s="104"/>
+      <c r="BA34" s="104"/>
+      <c r="BB34" s="104"/>
+      <c r="BC34" s="105"/>
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="183" t="s">
+      <c r="A35" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184" t="s">
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="184"/>
-      <c r="V35" s="184"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="184"/>
-      <c r="Y35" s="184"/>
-      <c r="Z35" s="184"/>
-      <c r="AA35" s="184"/>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
-      <c r="AD35" s="184"/>
-      <c r="AE35" s="184"/>
-      <c r="AF35" s="184"/>
-      <c r="AG35" s="184"/>
-      <c r="AH35" s="184"/>
-      <c r="AI35" s="184"/>
-      <c r="AJ35" s="184"/>
-      <c r="AK35" s="189"/>
-      <c r="AM35" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="50"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="101"/>
+      <c r="AM35" s="206"/>
+      <c r="AN35" s="207"/>
+      <c r="AO35" s="207"/>
+      <c r="AP35" s="207"/>
+      <c r="AQ35" s="207"/>
+      <c r="AR35" s="207"/>
+      <c r="AS35" s="207"/>
+      <c r="AT35" s="207"/>
+      <c r="AU35" s="207"/>
+      <c r="AV35" s="207"/>
+      <c r="AW35" s="207"/>
+      <c r="AX35" s="207"/>
+      <c r="AY35" s="207"/>
+      <c r="AZ35" s="207"/>
+      <c r="BA35" s="207"/>
+      <c r="BB35" s="207"/>
+      <c r="BC35" s="208"/>
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="187">
-        <f>316.4+A40</f>
-        <v>346.4</v>
-      </c>
-      <c r="B36" s="188"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
+      <c r="A36" s="96">
+        <f>Hoja1!D1</f>
+        <v>220</v>
+      </c>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="Q36" s="40"/>
@@ -6071,36 +6064,36 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="24"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="52"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
-      <c r="AQ36" s="52"/>
-      <c r="AR36" s="52"/>
-      <c r="AS36" s="52"/>
-      <c r="AT36" s="52"/>
-      <c r="AU36" s="52"/>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
-      <c r="BB36" s="52"/>
-      <c r="BC36" s="53"/>
+      <c r="AM36" s="209"/>
+      <c r="AN36" s="210"/>
+      <c r="AO36" s="210"/>
+      <c r="AP36" s="210"/>
+      <c r="AQ36" s="210"/>
+      <c r="AR36" s="210"/>
+      <c r="AS36" s="210"/>
+      <c r="AT36" s="210"/>
+      <c r="AU36" s="210"/>
+      <c r="AV36" s="210"/>
+      <c r="AW36" s="210"/>
+      <c r="AX36" s="210"/>
+      <c r="AY36" s="210"/>
+      <c r="AZ36" s="210"/>
+      <c r="BA36" s="210"/>
+      <c r="BB36" s="210"/>
+      <c r="BC36" s="211"/>
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="185" t="s">
+      <c r="A37" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="Q37" s="41"/>
@@ -6125,37 +6118,37 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="24"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="52"/>
-      <c r="AO37" s="52"/>
-      <c r="AP37" s="52"/>
-      <c r="AQ37" s="52"/>
-      <c r="AR37" s="52"/>
-      <c r="AS37" s="52"/>
-      <c r="AT37" s="52"/>
-      <c r="AU37" s="52"/>
-      <c r="AV37" s="52"/>
-      <c r="AW37" s="52"/>
-      <c r="AX37" s="52"/>
-      <c r="AY37" s="52"/>
-      <c r="AZ37" s="52"/>
-      <c r="BA37" s="52"/>
-      <c r="BB37" s="52"/>
-      <c r="BC37" s="53"/>
+      <c r="AM37" s="209"/>
+      <c r="AN37" s="210"/>
+      <c r="AO37" s="210"/>
+      <c r="AP37" s="210"/>
+      <c r="AQ37" s="210"/>
+      <c r="AR37" s="210"/>
+      <c r="AS37" s="210"/>
+      <c r="AT37" s="210"/>
+      <c r="AU37" s="210"/>
+      <c r="AV37" s="210"/>
+      <c r="AW37" s="210"/>
+      <c r="AX37" s="210"/>
+      <c r="AY37" s="210"/>
+      <c r="AZ37" s="210"/>
+      <c r="BA37" s="210"/>
+      <c r="BB37" s="210"/>
+      <c r="BC37" s="211"/>
     </row>
     <row r="38" spans="1:55" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76">
+      <c r="A38" s="98">
         <f>A36-A40</f>
-        <v>316.39999999999998</v>
-      </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
+        <v>190</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="Q38" s="41"/>
@@ -6180,36 +6173,36 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="52"/>
-      <c r="AO38" s="52"/>
-      <c r="AP38" s="52"/>
-      <c r="AQ38" s="52"/>
-      <c r="AR38" s="52"/>
-      <c r="AS38" s="52"/>
-      <c r="AT38" s="52"/>
-      <c r="AU38" s="52"/>
-      <c r="AV38" s="52"/>
-      <c r="AW38" s="52"/>
-      <c r="AX38" s="52"/>
-      <c r="AY38" s="52"/>
-      <c r="AZ38" s="52"/>
-      <c r="BA38" s="52"/>
-      <c r="BB38" s="52"/>
-      <c r="BC38" s="53"/>
+      <c r="AM38" s="209"/>
+      <c r="AN38" s="210"/>
+      <c r="AO38" s="210"/>
+      <c r="AP38" s="210"/>
+      <c r="AQ38" s="210"/>
+      <c r="AR38" s="210"/>
+      <c r="AS38" s="210"/>
+      <c r="AT38" s="210"/>
+      <c r="AU38" s="210"/>
+      <c r="AV38" s="210"/>
+      <c r="AW38" s="210"/>
+      <c r="AX38" s="210"/>
+      <c r="AY38" s="210"/>
+      <c r="AZ38" s="210"/>
+      <c r="BA38" s="210"/>
+      <c r="BB38" s="210"/>
+      <c r="BC38" s="211"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="185" t="s">
+      <c r="A39" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="Q39" s="41"/>
@@ -6233,36 +6226,36 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="24"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52"/>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52"/>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BA39" s="52"/>
-      <c r="BB39" s="52"/>
-      <c r="BC39" s="53"/>
+      <c r="AM39" s="209"/>
+      <c r="AN39" s="210"/>
+      <c r="AO39" s="210"/>
+      <c r="AP39" s="210"/>
+      <c r="AQ39" s="210"/>
+      <c r="AR39" s="210"/>
+      <c r="AS39" s="210"/>
+      <c r="AT39" s="210"/>
+      <c r="AU39" s="210"/>
+      <c r="AV39" s="210"/>
+      <c r="AW39" s="210"/>
+      <c r="AX39" s="210"/>
+      <c r="AY39" s="210"/>
+      <c r="AZ39" s="210"/>
+      <c r="BA39" s="210"/>
+      <c r="BB39" s="210"/>
+      <c r="BC39" s="211"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76">
+      <c r="A40" s="98">
         <v>30</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="Q40" s="41"/>
@@ -6286,36 +6279,36 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="24"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="52"/>
-      <c r="AO40" s="52"/>
-      <c r="AP40" s="52"/>
-      <c r="AQ40" s="52"/>
-      <c r="AR40" s="52"/>
-      <c r="AS40" s="52"/>
-      <c r="AT40" s="52"/>
-      <c r="AU40" s="52"/>
-      <c r="AV40" s="52"/>
-      <c r="AW40" s="52"/>
-      <c r="AX40" s="52"/>
-      <c r="AY40" s="52"/>
-      <c r="AZ40" s="52"/>
-      <c r="BA40" s="52"/>
-      <c r="BB40" s="52"/>
-      <c r="BC40" s="53"/>
+      <c r="AM40" s="209"/>
+      <c r="AN40" s="210"/>
+      <c r="AO40" s="210"/>
+      <c r="AP40" s="210"/>
+      <c r="AQ40" s="210"/>
+      <c r="AR40" s="210"/>
+      <c r="AS40" s="210"/>
+      <c r="AT40" s="210"/>
+      <c r="AU40" s="210"/>
+      <c r="AV40" s="210"/>
+      <c r="AW40" s="210"/>
+      <c r="AX40" s="210"/>
+      <c r="AY40" s="210"/>
+      <c r="AZ40" s="210"/>
+      <c r="BA40" s="210"/>
+      <c r="BB40" s="210"/>
+      <c r="BC40" s="211"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="185" t="s">
+      <c r="A41" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="R41" s="23"/>
@@ -6338,37 +6331,37 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="24"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="52"/>
-      <c r="AO41" s="52"/>
-      <c r="AP41" s="52"/>
-      <c r="AQ41" s="52"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
-      <c r="AT41" s="52"/>
-      <c r="AU41" s="52"/>
-      <c r="AV41" s="52"/>
-      <c r="AW41" s="52"/>
-      <c r="AX41" s="52"/>
-      <c r="AY41" s="52"/>
-      <c r="AZ41" s="52"/>
-      <c r="BA41" s="52"/>
-      <c r="BB41" s="52"/>
-      <c r="BC41" s="53"/>
+      <c r="AM41" s="209"/>
+      <c r="AN41" s="210"/>
+      <c r="AO41" s="210"/>
+      <c r="AP41" s="210"/>
+      <c r="AQ41" s="210"/>
+      <c r="AR41" s="210"/>
+      <c r="AS41" s="210"/>
+      <c r="AT41" s="210"/>
+      <c r="AU41" s="210"/>
+      <c r="AV41" s="210"/>
+      <c r="AW41" s="210"/>
+      <c r="AX41" s="210"/>
+      <c r="AY41" s="210"/>
+      <c r="AZ41" s="210"/>
+      <c r="BA41" s="210"/>
+      <c r="BB41" s="210"/>
+      <c r="BC41" s="211"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="76">
-        <f>AVERAGE(Hoja1!B2:B7)</f>
-        <v>31.283333333333335</v>
-      </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="A42" s="98">
+        <f>Hoja1!B9</f>
+        <v>31.150000000000006</v>
+      </c>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="Q42" s="25"/>
@@ -6376,11 +6369,11 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="75"/>
-      <c r="X42" s="75"/>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="75"/>
+      <c r="V42" s="233"/>
+      <c r="W42" s="233"/>
+      <c r="X42" s="233"/>
+      <c r="Y42" s="233"/>
+      <c r="Z42" s="233"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -6392,784 +6385,784 @@
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="52"/>
-      <c r="AO42" s="52"/>
-      <c r="AP42" s="52"/>
-      <c r="AQ42" s="52"/>
-      <c r="AR42" s="52"/>
-      <c r="AS42" s="52"/>
-      <c r="AT42" s="52"/>
-      <c r="AU42" s="52"/>
-      <c r="AV42" s="52"/>
-      <c r="AW42" s="52"/>
-      <c r="AX42" s="52"/>
-      <c r="AY42" s="52"/>
-      <c r="AZ42" s="52"/>
-      <c r="BA42" s="52"/>
-      <c r="BB42" s="52"/>
-      <c r="BC42" s="53"/>
+      <c r="AM42" s="209"/>
+      <c r="AN42" s="210"/>
+      <c r="AO42" s="210"/>
+      <c r="AP42" s="210"/>
+      <c r="AQ42" s="210"/>
+      <c r="AR42" s="210"/>
+      <c r="AS42" s="210"/>
+      <c r="AT42" s="210"/>
+      <c r="AU42" s="210"/>
+      <c r="AV42" s="210"/>
+      <c r="AW42" s="210"/>
+      <c r="AX42" s="210"/>
+      <c r="AY42" s="210"/>
+      <c r="AZ42" s="210"/>
+      <c r="BA42" s="210"/>
+      <c r="BB42" s="210"/>
+      <c r="BC42" s="211"/>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-      <c r="AF43" s="73"/>
-      <c r="AG43" s="73"/>
-      <c r="AH43" s="73"/>
-      <c r="AI43" s="73"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="73"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="231"/>
+      <c r="K43" s="231"/>
+      <c r="L43" s="231"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="231"/>
+      <c r="O43" s="231"/>
+      <c r="P43" s="231"/>
+      <c r="Q43" s="231"/>
+      <c r="R43" s="231"/>
+      <c r="S43" s="231"/>
+      <c r="T43" s="231"/>
+      <c r="U43" s="231"/>
+      <c r="V43" s="231"/>
+      <c r="W43" s="231"/>
+      <c r="X43" s="231"/>
+      <c r="Y43" s="231"/>
+      <c r="Z43" s="231"/>
+      <c r="AA43" s="231"/>
+      <c r="AB43" s="231"/>
+      <c r="AC43" s="231"/>
+      <c r="AD43" s="231"/>
+      <c r="AE43" s="231"/>
+      <c r="AF43" s="231"/>
+      <c r="AG43" s="231"/>
+      <c r="AH43" s="231"/>
+      <c r="AI43" s="231"/>
+      <c r="AJ43" s="231"/>
+      <c r="AK43" s="231"/>
       <c r="AL43" s="11"/>
-      <c r="AM43" s="51"/>
-      <c r="AN43" s="52"/>
-      <c r="AO43" s="52"/>
-      <c r="AP43" s="52"/>
-      <c r="AQ43" s="52"/>
-      <c r="AR43" s="52"/>
-      <c r="AS43" s="52"/>
-      <c r="AT43" s="52"/>
-      <c r="AU43" s="52"/>
-      <c r="AV43" s="52"/>
-      <c r="AW43" s="52"/>
-      <c r="AX43" s="52"/>
-      <c r="AY43" s="52"/>
-      <c r="AZ43" s="52"/>
-      <c r="BA43" s="52"/>
-      <c r="BB43" s="52"/>
-      <c r="BC43" s="53"/>
+      <c r="AM43" s="209"/>
+      <c r="AN43" s="210"/>
+      <c r="AO43" s="210"/>
+      <c r="AP43" s="210"/>
+      <c r="AQ43" s="210"/>
+      <c r="AR43" s="210"/>
+      <c r="AS43" s="210"/>
+      <c r="AT43" s="210"/>
+      <c r="AU43" s="210"/>
+      <c r="AV43" s="210"/>
+      <c r="AW43" s="210"/>
+      <c r="AX43" s="210"/>
+      <c r="AY43" s="210"/>
+      <c r="AZ43" s="210"/>
+      <c r="BA43" s="210"/>
+      <c r="BB43" s="210"/>
+      <c r="BC43" s="211"/>
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="74"/>
-      <c r="AF44" s="74"/>
-      <c r="AG44" s="74"/>
-      <c r="AH44" s="74"/>
-      <c r="AI44" s="74"/>
-      <c r="AJ44" s="74"/>
-      <c r="AK44" s="74"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="232"/>
+      <c r="C44" s="232"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="232"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="232"/>
+      <c r="L44" s="232"/>
+      <c r="M44" s="232"/>
+      <c r="N44" s="232"/>
+      <c r="O44" s="232"/>
+      <c r="P44" s="232"/>
+      <c r="Q44" s="232"/>
+      <c r="R44" s="232"/>
+      <c r="S44" s="232"/>
+      <c r="T44" s="232"/>
+      <c r="U44" s="232"/>
+      <c r="V44" s="232"/>
+      <c r="W44" s="232"/>
+      <c r="X44" s="232"/>
+      <c r="Y44" s="232"/>
+      <c r="Z44" s="232"/>
+      <c r="AA44" s="232"/>
+      <c r="AB44" s="232"/>
+      <c r="AC44" s="232"/>
+      <c r="AD44" s="232"/>
+      <c r="AE44" s="232"/>
+      <c r="AF44" s="232"/>
+      <c r="AG44" s="232"/>
+      <c r="AH44" s="232"/>
+      <c r="AI44" s="232"/>
+      <c r="AJ44" s="232"/>
+      <c r="AK44" s="232"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="51"/>
-      <c r="AN44" s="52"/>
-      <c r="AO44" s="52"/>
-      <c r="AP44" s="52"/>
-      <c r="AQ44" s="52"/>
-      <c r="AR44" s="52"/>
-      <c r="AS44" s="52"/>
-      <c r="AT44" s="52"/>
-      <c r="AU44" s="52"/>
-      <c r="AV44" s="52"/>
-      <c r="AW44" s="52"/>
-      <c r="AX44" s="52"/>
-      <c r="AY44" s="52"/>
-      <c r="AZ44" s="52"/>
-      <c r="BA44" s="52"/>
-      <c r="BB44" s="52"/>
-      <c r="BC44" s="53"/>
+      <c r="AM44" s="209"/>
+      <c r="AN44" s="210"/>
+      <c r="AO44" s="210"/>
+      <c r="AP44" s="210"/>
+      <c r="AQ44" s="210"/>
+      <c r="AR44" s="210"/>
+      <c r="AS44" s="210"/>
+      <c r="AT44" s="210"/>
+      <c r="AU44" s="210"/>
+      <c r="AV44" s="210"/>
+      <c r="AW44" s="210"/>
+      <c r="AX44" s="210"/>
+      <c r="AY44" s="210"/>
+      <c r="AZ44" s="210"/>
+      <c r="BA44" s="210"/>
+      <c r="BB44" s="210"/>
+      <c r="BC44" s="211"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="63"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="63"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="63"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="63"/>
-      <c r="AI45" s="63"/>
-      <c r="AJ45" s="63"/>
-      <c r="AK45" s="64"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="221"/>
+      <c r="P45" s="221"/>
+      <c r="Q45" s="221"/>
+      <c r="R45" s="221"/>
+      <c r="S45" s="221"/>
+      <c r="T45" s="221"/>
+      <c r="U45" s="221"/>
+      <c r="V45" s="221"/>
+      <c r="W45" s="221"/>
+      <c r="X45" s="221"/>
+      <c r="Y45" s="221"/>
+      <c r="Z45" s="221"/>
+      <c r="AA45" s="221"/>
+      <c r="AB45" s="221"/>
+      <c r="AC45" s="221"/>
+      <c r="AD45" s="221"/>
+      <c r="AE45" s="221"/>
+      <c r="AF45" s="221"/>
+      <c r="AG45" s="221"/>
+      <c r="AH45" s="221"/>
+      <c r="AI45" s="221"/>
+      <c r="AJ45" s="221"/>
+      <c r="AK45" s="222"/>
       <c r="AL45" s="11"/>
-      <c r="AM45" s="51"/>
-      <c r="AN45" s="52"/>
-      <c r="AO45" s="52"/>
-      <c r="AP45" s="52"/>
-      <c r="AQ45" s="52"/>
-      <c r="AR45" s="52"/>
-      <c r="AS45" s="52"/>
-      <c r="AT45" s="52"/>
-      <c r="AU45" s="52"/>
-      <c r="AV45" s="52"/>
-      <c r="AW45" s="52"/>
-      <c r="AX45" s="52"/>
-      <c r="AY45" s="52"/>
-      <c r="AZ45" s="52"/>
-      <c r="BA45" s="52"/>
-      <c r="BB45" s="52"/>
-      <c r="BC45" s="53"/>
+      <c r="AM45" s="209"/>
+      <c r="AN45" s="210"/>
+      <c r="AO45" s="210"/>
+      <c r="AP45" s="210"/>
+      <c r="AQ45" s="210"/>
+      <c r="AR45" s="210"/>
+      <c r="AS45" s="210"/>
+      <c r="AT45" s="210"/>
+      <c r="AU45" s="210"/>
+      <c r="AV45" s="210"/>
+      <c r="AW45" s="210"/>
+      <c r="AX45" s="210"/>
+      <c r="AY45" s="210"/>
+      <c r="AZ45" s="210"/>
+      <c r="BA45" s="210"/>
+      <c r="BB45" s="210"/>
+      <c r="BC45" s="211"/>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46" t="s">
+      <c r="B46" s="204"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46" t="s">
+      <c r="K46" s="204"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="204"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="46" t="s">
+      <c r="U46" s="204"/>
+      <c r="V46" s="204"/>
+      <c r="W46" s="204"/>
+      <c r="X46" s="204"/>
+      <c r="Y46" s="204"/>
+      <c r="Z46" s="204"/>
+      <c r="AA46" s="204"/>
+      <c r="AB46" s="204"/>
+      <c r="AC46" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
-      <c r="AH46" s="46"/>
-      <c r="AI46" s="46"/>
-      <c r="AJ46" s="46"/>
-      <c r="AK46" s="47"/>
-      <c r="AM46" s="51"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="52"/>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52"/>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52"/>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52"/>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="52"/>
-      <c r="AX46" s="52"/>
-      <c r="AY46" s="52"/>
-      <c r="AZ46" s="52"/>
-      <c r="BA46" s="52"/>
-      <c r="BB46" s="52"/>
-      <c r="BC46" s="53"/>
+      <c r="AD46" s="204"/>
+      <c r="AE46" s="204"/>
+      <c r="AF46" s="204"/>
+      <c r="AG46" s="204"/>
+      <c r="AH46" s="204"/>
+      <c r="AI46" s="204"/>
+      <c r="AJ46" s="204"/>
+      <c r="AK46" s="205"/>
+      <c r="AM46" s="209"/>
+      <c r="AN46" s="210"/>
+      <c r="AO46" s="210"/>
+      <c r="AP46" s="210"/>
+      <c r="AQ46" s="210"/>
+      <c r="AR46" s="210"/>
+      <c r="AS46" s="210"/>
+      <c r="AT46" s="210"/>
+      <c r="AU46" s="210"/>
+      <c r="AV46" s="210"/>
+      <c r="AW46" s="210"/>
+      <c r="AX46" s="210"/>
+      <c r="AY46" s="210"/>
+      <c r="AZ46" s="210"/>
+      <c r="BA46" s="210"/>
+      <c r="BB46" s="210"/>
+      <c r="BC46" s="211"/>
     </row>
     <row r="47" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
-      <c r="B47" s="45">
+      <c r="B47" s="203">
         <v>100000</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="45">
+      <c r="J47" s="203">
         <v>3000</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45">
+      <c r="K47" s="203"/>
+      <c r="L47" s="203"/>
+      <c r="M47" s="203"/>
+      <c r="N47" s="203"/>
+      <c r="O47" s="203"/>
+      <c r="P47" s="203"/>
+      <c r="Q47" s="203"/>
+      <c r="R47" s="203"/>
+      <c r="S47" s="203"/>
+      <c r="T47" s="203">
         <v>8000</v>
       </c>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="71">
+      <c r="U47" s="203"/>
+      <c r="V47" s="203"/>
+      <c r="W47" s="203"/>
+      <c r="X47" s="203"/>
+      <c r="Y47" s="203"/>
+      <c r="Z47" s="203"/>
+      <c r="AA47" s="203"/>
+      <c r="AB47" s="203"/>
+      <c r="AC47" s="229">
         <v>8000</v>
       </c>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71"/>
-      <c r="AJ47" s="71"/>
-      <c r="AK47" s="72"/>
-      <c r="AM47" s="51"/>
-      <c r="AN47" s="52"/>
-      <c r="AO47" s="52"/>
-      <c r="AP47" s="52"/>
-      <c r="AQ47" s="52"/>
-      <c r="AR47" s="52"/>
-      <c r="AS47" s="52"/>
-      <c r="AT47" s="52"/>
-      <c r="AU47" s="52"/>
-      <c r="AV47" s="52"/>
-      <c r="AW47" s="52"/>
-      <c r="AX47" s="52"/>
-      <c r="AY47" s="52"/>
-      <c r="AZ47" s="52"/>
-      <c r="BA47" s="52"/>
-      <c r="BB47" s="52"/>
-      <c r="BC47" s="53"/>
+      <c r="AD47" s="229"/>
+      <c r="AE47" s="229"/>
+      <c r="AF47" s="229"/>
+      <c r="AG47" s="229"/>
+      <c r="AH47" s="229"/>
+      <c r="AI47" s="229"/>
+      <c r="AJ47" s="229"/>
+      <c r="AK47" s="230"/>
+      <c r="AM47" s="209"/>
+      <c r="AN47" s="210"/>
+      <c r="AO47" s="210"/>
+      <c r="AP47" s="210"/>
+      <c r="AQ47" s="210"/>
+      <c r="AR47" s="210"/>
+      <c r="AS47" s="210"/>
+      <c r="AT47" s="210"/>
+      <c r="AU47" s="210"/>
+      <c r="AV47" s="210"/>
+      <c r="AW47" s="210"/>
+      <c r="AX47" s="210"/>
+      <c r="AY47" s="210"/>
+      <c r="AZ47" s="210"/>
+      <c r="BA47" s="210"/>
+      <c r="BB47" s="210"/>
+      <c r="BC47" s="211"/>
     </row>
     <row r="48" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="46" t="s">
+      <c r="B48" s="217"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="217"/>
+      <c r="I48" s="217"/>
+      <c r="J48" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46" t="s">
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="204"/>
+      <c r="O48" s="204"/>
+      <c r="P48" s="204"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
+      <c r="S48" s="204"/>
+      <c r="T48" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46" t="s">
+      <c r="U48" s="204"/>
+      <c r="V48" s="204"/>
+      <c r="W48" s="204"/>
+      <c r="X48" s="204"/>
+      <c r="Y48" s="204"/>
+      <c r="Z48" s="204"/>
+      <c r="AA48" s="204"/>
+      <c r="AB48" s="204"/>
+      <c r="AC48" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="47"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="52"/>
-      <c r="AO48" s="52"/>
-      <c r="AP48" s="52"/>
-      <c r="AQ48" s="52"/>
-      <c r="AR48" s="52"/>
-      <c r="AS48" s="52"/>
-      <c r="AT48" s="52"/>
-      <c r="AU48" s="52"/>
-      <c r="AV48" s="52"/>
-      <c r="AW48" s="52"/>
-      <c r="AX48" s="52"/>
-      <c r="AY48" s="52"/>
-      <c r="AZ48" s="52"/>
-      <c r="BA48" s="52"/>
-      <c r="BB48" s="52"/>
-      <c r="BC48" s="53"/>
+      <c r="AD48" s="204"/>
+      <c r="AE48" s="204"/>
+      <c r="AF48" s="204"/>
+      <c r="AG48" s="204"/>
+      <c r="AH48" s="204"/>
+      <c r="AI48" s="204"/>
+      <c r="AJ48" s="204"/>
+      <c r="AK48" s="205"/>
+      <c r="AM48" s="209"/>
+      <c r="AN48" s="210"/>
+      <c r="AO48" s="210"/>
+      <c r="AP48" s="210"/>
+      <c r="AQ48" s="210"/>
+      <c r="AR48" s="210"/>
+      <c r="AS48" s="210"/>
+      <c r="AT48" s="210"/>
+      <c r="AU48" s="210"/>
+      <c r="AV48" s="210"/>
+      <c r="AW48" s="210"/>
+      <c r="AX48" s="210"/>
+      <c r="AY48" s="210"/>
+      <c r="AZ48" s="210"/>
+      <c r="BA48" s="210"/>
+      <c r="BB48" s="210"/>
+      <c r="BC48" s="211"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="60">
+      <c r="A49" s="218">
         <v>500</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45">
+      <c r="B49" s="203"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="203">
         <v>8000</v>
       </c>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45">
+      <c r="K49" s="203"/>
+      <c r="L49" s="203"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="203"/>
+      <c r="O49" s="203"/>
+      <c r="P49" s="203"/>
+      <c r="Q49" s="203"/>
+      <c r="R49" s="203"/>
+      <c r="S49" s="203"/>
+      <c r="T49" s="203">
         <v>16000</v>
       </c>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45" t="s">
+      <c r="U49" s="203"/>
+      <c r="V49" s="203"/>
+      <c r="W49" s="203"/>
+      <c r="X49" s="203"/>
+      <c r="Y49" s="203"/>
+      <c r="Z49" s="203"/>
+      <c r="AA49" s="203"/>
+      <c r="AB49" s="203"/>
+      <c r="AC49" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="45"/>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="45"/>
-      <c r="AK49" s="57"/>
-      <c r="AM49" s="51"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="52"/>
-      <c r="AP49" s="52"/>
-      <c r="AQ49" s="52"/>
-      <c r="AR49" s="52"/>
-      <c r="AS49" s="52"/>
-      <c r="AT49" s="52"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="52"/>
-      <c r="AW49" s="52"/>
-      <c r="AX49" s="52"/>
-      <c r="AY49" s="52"/>
-      <c r="AZ49" s="52"/>
-      <c r="BA49" s="52"/>
-      <c r="BB49" s="52"/>
-      <c r="BC49" s="53"/>
+      <c r="AD49" s="203"/>
+      <c r="AE49" s="203"/>
+      <c r="AF49" s="203"/>
+      <c r="AG49" s="203"/>
+      <c r="AH49" s="203"/>
+      <c r="AI49" s="203"/>
+      <c r="AJ49" s="203"/>
+      <c r="AK49" s="215"/>
+      <c r="AM49" s="209"/>
+      <c r="AN49" s="210"/>
+      <c r="AO49" s="210"/>
+      <c r="AP49" s="210"/>
+      <c r="AQ49" s="210"/>
+      <c r="AR49" s="210"/>
+      <c r="AS49" s="210"/>
+      <c r="AT49" s="210"/>
+      <c r="AU49" s="210"/>
+      <c r="AV49" s="210"/>
+      <c r="AW49" s="210"/>
+      <c r="AX49" s="210"/>
+      <c r="AY49" s="210"/>
+      <c r="AZ49" s="210"/>
+      <c r="BA49" s="210"/>
+      <c r="BB49" s="210"/>
+      <c r="BC49" s="211"/>
     </row>
     <row r="50" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
-      <c r="R50" s="66"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="66"/>
-      <c r="U50" s="66"/>
-      <c r="V50" s="66"/>
-      <c r="W50" s="66"/>
-      <c r="X50" s="66"/>
-      <c r="Y50" s="66"/>
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="66"/>
-      <c r="AB50" s="66"/>
-      <c r="AC50" s="66"/>
-      <c r="AD50" s="66"/>
-      <c r="AE50" s="66"/>
-      <c r="AF50" s="66"/>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="66"/>
-      <c r="AK50" s="67"/>
-      <c r="AM50" s="51"/>
-      <c r="AN50" s="52"/>
-      <c r="AO50" s="52"/>
-      <c r="AP50" s="52"/>
-      <c r="AQ50" s="52"/>
-      <c r="AR50" s="52"/>
-      <c r="AS50" s="52"/>
-      <c r="AT50" s="52"/>
-      <c r="AU50" s="52"/>
-      <c r="AV50" s="52"/>
-      <c r="AW50" s="52"/>
-      <c r="AX50" s="52"/>
-      <c r="AY50" s="52"/>
-      <c r="AZ50" s="52"/>
-      <c r="BA50" s="52"/>
-      <c r="BB50" s="52"/>
-      <c r="BC50" s="53"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="224"/>
+      <c r="G50" s="224"/>
+      <c r="H50" s="224"/>
+      <c r="I50" s="224"/>
+      <c r="J50" s="224"/>
+      <c r="K50" s="224"/>
+      <c r="L50" s="224"/>
+      <c r="M50" s="224"/>
+      <c r="N50" s="224"/>
+      <c r="O50" s="224"/>
+      <c r="P50" s="224"/>
+      <c r="Q50" s="224"/>
+      <c r="R50" s="224"/>
+      <c r="S50" s="224"/>
+      <c r="T50" s="224"/>
+      <c r="U50" s="224"/>
+      <c r="V50" s="224"/>
+      <c r="W50" s="224"/>
+      <c r="X50" s="224"/>
+      <c r="Y50" s="224"/>
+      <c r="Z50" s="224"/>
+      <c r="AA50" s="224"/>
+      <c r="AB50" s="224"/>
+      <c r="AC50" s="224"/>
+      <c r="AD50" s="224"/>
+      <c r="AE50" s="224"/>
+      <c r="AF50" s="224"/>
+      <c r="AG50" s="224"/>
+      <c r="AH50" s="224"/>
+      <c r="AI50" s="224"/>
+      <c r="AJ50" s="224"/>
+      <c r="AK50" s="225"/>
+      <c r="AM50" s="209"/>
+      <c r="AN50" s="210"/>
+      <c r="AO50" s="210"/>
+      <c r="AP50" s="210"/>
+      <c r="AQ50" s="210"/>
+      <c r="AR50" s="210"/>
+      <c r="AS50" s="210"/>
+      <c r="AT50" s="210"/>
+      <c r="AU50" s="210"/>
+      <c r="AV50" s="210"/>
+      <c r="AW50" s="210"/>
+      <c r="AX50" s="210"/>
+      <c r="AY50" s="210"/>
+      <c r="AZ50" s="210"/>
+      <c r="BA50" s="210"/>
+      <c r="BB50" s="210"/>
+      <c r="BC50" s="211"/>
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="69"/>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="69"/>
-      <c r="AG51" s="69"/>
-      <c r="AH51" s="69"/>
-      <c r="AI51" s="69"/>
-      <c r="AJ51" s="69"/>
-      <c r="AK51" s="70"/>
-      <c r="AM51" s="54"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="55"/>
-      <c r="AS51" s="55"/>
-      <c r="AT51" s="55"/>
-      <c r="AU51" s="55"/>
-      <c r="AV51" s="55"/>
-      <c r="AW51" s="55"/>
-      <c r="AX51" s="55"/>
-      <c r="AY51" s="55"/>
-      <c r="AZ51" s="55"/>
-      <c r="BA51" s="55"/>
-      <c r="BB51" s="55"/>
-      <c r="BC51" s="56"/>
+      <c r="A51" s="226"/>
+      <c r="B51" s="227"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="227"/>
+      <c r="I51" s="227"/>
+      <c r="J51" s="227"/>
+      <c r="K51" s="227"/>
+      <c r="L51" s="227"/>
+      <c r="M51" s="227"/>
+      <c r="N51" s="227"/>
+      <c r="O51" s="227"/>
+      <c r="P51" s="227"/>
+      <c r="Q51" s="227"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="227"/>
+      <c r="T51" s="227"/>
+      <c r="U51" s="227"/>
+      <c r="V51" s="227"/>
+      <c r="W51" s="227"/>
+      <c r="X51" s="227"/>
+      <c r="Y51" s="227"/>
+      <c r="Z51" s="227"/>
+      <c r="AA51" s="227"/>
+      <c r="AB51" s="227"/>
+      <c r="AC51" s="227"/>
+      <c r="AD51" s="227"/>
+      <c r="AE51" s="227"/>
+      <c r="AF51" s="227"/>
+      <c r="AG51" s="227"/>
+      <c r="AH51" s="227"/>
+      <c r="AI51" s="227"/>
+      <c r="AJ51" s="227"/>
+      <c r="AK51" s="228"/>
+      <c r="AM51" s="212"/>
+      <c r="AN51" s="213"/>
+      <c r="AO51" s="213"/>
+      <c r="AP51" s="213"/>
+      <c r="AQ51" s="213"/>
+      <c r="AR51" s="213"/>
+      <c r="AS51" s="213"/>
+      <c r="AT51" s="213"/>
+      <c r="AU51" s="213"/>
+      <c r="AV51" s="213"/>
+      <c r="AW51" s="213"/>
+      <c r="AX51" s="213"/>
+      <c r="AY51" s="213"/>
+      <c r="AZ51" s="213"/>
+      <c r="BA51" s="213"/>
+      <c r="BB51" s="213"/>
+      <c r="BC51" s="214"/>
     </row>
     <row r="52" spans="1:55" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="112"/>
-      <c r="N52" s="112"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="112"/>
-      <c r="R52" s="112"/>
-      <c r="S52" s="112"/>
-      <c r="T52" s="112"/>
-      <c r="U52" s="112"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="196"/>
+      <c r="M52" s="196"/>
+      <c r="N52" s="196"/>
+      <c r="O52" s="196"/>
+      <c r="P52" s="196"/>
+      <c r="Q52" s="196"/>
+      <c r="R52" s="196"/>
+      <c r="S52" s="196"/>
+      <c r="T52" s="196"/>
+      <c r="U52" s="196"/>
       <c r="V52" s="34"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
-      <c r="S53" s="113"/>
-      <c r="T53" s="113"/>
-      <c r="U53" s="113"/>
+      <c r="A53" s="197"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="197"/>
+      <c r="L53" s="197"/>
+      <c r="M53" s="197"/>
+      <c r="N53" s="197"/>
+      <c r="O53" s="197"/>
+      <c r="P53" s="197"/>
+      <c r="Q53" s="197"/>
+      <c r="R53" s="197"/>
+      <c r="S53" s="197"/>
+      <c r="T53" s="197"/>
+      <c r="U53" s="197"/>
       <c r="V53" s="35"/>
-      <c r="W53" s="114" t="s">
+      <c r="W53" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="X53" s="115"/>
-      <c r="Y53" s="115"/>
-      <c r="Z53" s="115"/>
-      <c r="AA53" s="115"/>
-      <c r="AB53" s="115"/>
-      <c r="AC53" s="115"/>
-      <c r="AD53" s="115"/>
-      <c r="AE53" s="115"/>
-      <c r="AF53" s="115"/>
-      <c r="AG53" s="116"/>
-      <c r="AI53" s="117" t="s">
+      <c r="X53" s="199"/>
+      <c r="Y53" s="199"/>
+      <c r="Z53" s="199"/>
+      <c r="AA53" s="199"/>
+      <c r="AB53" s="199"/>
+      <c r="AC53" s="199"/>
+      <c r="AD53" s="199"/>
+      <c r="AE53" s="199"/>
+      <c r="AF53" s="199"/>
+      <c r="AG53" s="200"/>
+      <c r="AI53" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="AJ53" s="118"/>
-      <c r="AK53" s="118"/>
-      <c r="AL53" s="118"/>
-      <c r="AM53" s="118"/>
-      <c r="AN53" s="118"/>
-      <c r="AO53" s="118"/>
-      <c r="AP53" s="118"/>
-      <c r="AQ53" s="118"/>
-      <c r="AR53" s="118"/>
-      <c r="AS53" s="118"/>
-      <c r="AT53" s="118"/>
-      <c r="AU53" s="118"/>
-      <c r="AV53" s="118"/>
-      <c r="AW53" s="118"/>
-      <c r="AX53" s="118"/>
-      <c r="AY53" s="118"/>
-      <c r="AZ53" s="118"/>
-      <c r="BA53" s="118"/>
-      <c r="BB53" s="118"/>
-      <c r="BC53" s="119"/>
+      <c r="AJ53" s="81"/>
+      <c r="AK53" s="81"/>
+      <c r="AL53" s="81"/>
+      <c r="AM53" s="81"/>
+      <c r="AN53" s="81"/>
+      <c r="AO53" s="81"/>
+      <c r="AP53" s="81"/>
+      <c r="AQ53" s="81"/>
+      <c r="AR53" s="81"/>
+      <c r="AS53" s="81"/>
+      <c r="AT53" s="81"/>
+      <c r="AU53" s="81"/>
+      <c r="AV53" s="81"/>
+      <c r="AW53" s="81"/>
+      <c r="AX53" s="81"/>
+      <c r="AY53" s="81"/>
+      <c r="AZ53" s="81"/>
+      <c r="BA53" s="81"/>
+      <c r="BB53" s="81"/>
+      <c r="BC53" s="202"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="113"/>
-      <c r="R54" s="113"/>
-      <c r="S54" s="113"/>
-      <c r="T54" s="113"/>
-      <c r="U54" s="113"/>
+      <c r="A54" s="197"/>
+      <c r="B54" s="197"/>
+      <c r="C54" s="197"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="197"/>
+      <c r="F54" s="197"/>
+      <c r="G54" s="197"/>
+      <c r="H54" s="197"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="197"/>
+      <c r="M54" s="197"/>
+      <c r="N54" s="197"/>
+      <c r="O54" s="197"/>
+      <c r="P54" s="197"/>
+      <c r="Q54" s="197"/>
+      <c r="R54" s="197"/>
+      <c r="S54" s="197"/>
+      <c r="T54" s="197"/>
+      <c r="U54" s="197"/>
       <c r="V54" s="35"/>
-      <c r="W54" s="93"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="94"/>
-      <c r="AB54" s="94"/>
-      <c r="AC54" s="94"/>
-      <c r="AD54" s="94"/>
-      <c r="AE54" s="94"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="95"/>
-      <c r="AI54" s="102" t="s">
+      <c r="W54" s="177"/>
+      <c r="X54" s="178"/>
+      <c r="Y54" s="178"/>
+      <c r="Z54" s="178"/>
+      <c r="AA54" s="178"/>
+      <c r="AB54" s="178"/>
+      <c r="AC54" s="178"/>
+      <c r="AD54" s="178"/>
+      <c r="AE54" s="178"/>
+      <c r="AF54" s="178"/>
+      <c r="AG54" s="179"/>
+      <c r="AI54" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="103"/>
-      <c r="AK54" s="103"/>
-      <c r="AL54" s="103"/>
-      <c r="AM54" s="103"/>
-      <c r="AN54" s="103"/>
-      <c r="AO54" s="103"/>
-      <c r="AP54" s="103"/>
-      <c r="AQ54" s="103"/>
-      <c r="AR54" s="103"/>
-      <c r="AS54" s="103"/>
-      <c r="AT54" s="103"/>
-      <c r="AU54" s="103"/>
-      <c r="AV54" s="103"/>
-      <c r="AW54" s="103"/>
-      <c r="AX54" s="103"/>
-      <c r="AY54" s="103"/>
-      <c r="AZ54" s="103"/>
-      <c r="BA54" s="103"/>
-      <c r="BB54" s="103"/>
-      <c r="BC54" s="104"/>
+      <c r="AJ54" s="187"/>
+      <c r="AK54" s="187"/>
+      <c r="AL54" s="187"/>
+      <c r="AM54" s="187"/>
+      <c r="AN54" s="187"/>
+      <c r="AO54" s="187"/>
+      <c r="AP54" s="187"/>
+      <c r="AQ54" s="187"/>
+      <c r="AR54" s="187"/>
+      <c r="AS54" s="187"/>
+      <c r="AT54" s="187"/>
+      <c r="AU54" s="187"/>
+      <c r="AV54" s="187"/>
+      <c r="AW54" s="187"/>
+      <c r="AX54" s="187"/>
+      <c r="AY54" s="187"/>
+      <c r="AZ54" s="187"/>
+      <c r="BA54" s="187"/>
+      <c r="BB54" s="187"/>
+      <c r="BC54" s="188"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
-      <c r="W55" s="96"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="97"/>
-      <c r="AE55" s="97"/>
-      <c r="AF55" s="97"/>
-      <c r="AG55" s="98"/>
-      <c r="AI55" s="105"/>
-      <c r="AJ55" s="106"/>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106"/>
-      <c r="AM55" s="106"/>
-      <c r="AN55" s="106"/>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="106"/>
-      <c r="AQ55" s="106"/>
-      <c r="AR55" s="106"/>
-      <c r="AS55" s="106"/>
-      <c r="AT55" s="106"/>
-      <c r="AU55" s="106"/>
-      <c r="AV55" s="106"/>
-      <c r="AW55" s="106"/>
-      <c r="AX55" s="106"/>
-      <c r="AY55" s="106"/>
-      <c r="AZ55" s="106"/>
-      <c r="BA55" s="106"/>
-      <c r="BB55" s="106"/>
-      <c r="BC55" s="107"/>
+      <c r="W55" s="180"/>
+      <c r="X55" s="181"/>
+      <c r="Y55" s="181"/>
+      <c r="Z55" s="181"/>
+      <c r="AA55" s="181"/>
+      <c r="AB55" s="181"/>
+      <c r="AC55" s="181"/>
+      <c r="AD55" s="181"/>
+      <c r="AE55" s="181"/>
+      <c r="AF55" s="181"/>
+      <c r="AG55" s="182"/>
+      <c r="AI55" s="189"/>
+      <c r="AJ55" s="190"/>
+      <c r="AK55" s="190"/>
+      <c r="AL55" s="190"/>
+      <c r="AM55" s="190"/>
+      <c r="AN55" s="190"/>
+      <c r="AO55" s="190"/>
+      <c r="AP55" s="190"/>
+      <c r="AQ55" s="190"/>
+      <c r="AR55" s="190"/>
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="191"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="W56" s="96"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="97"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="97"/>
-      <c r="AE56" s="97"/>
-      <c r="AF56" s="97"/>
-      <c r="AG56" s="98"/>
-      <c r="AI56" s="108" t="s">
+      <c r="W56" s="180"/>
+      <c r="X56" s="181"/>
+      <c r="Y56" s="181"/>
+      <c r="Z56" s="181"/>
+      <c r="AA56" s="181"/>
+      <c r="AB56" s="181"/>
+      <c r="AC56" s="181"/>
+      <c r="AD56" s="181"/>
+      <c r="AE56" s="181"/>
+      <c r="AF56" s="181"/>
+      <c r="AG56" s="182"/>
+      <c r="AI56" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="AJ56" s="109"/>
-      <c r="AK56" s="109"/>
-      <c r="AL56" s="109"/>
-      <c r="AM56" s="109"/>
-      <c r="AN56" s="109"/>
-      <c r="AO56" s="109"/>
-      <c r="AP56" s="109"/>
-      <c r="AQ56" s="109"/>
-      <c r="AR56" s="109"/>
-      <c r="AS56" s="109"/>
-      <c r="AT56" s="109"/>
-      <c r="AU56" s="109"/>
-      <c r="AV56" s="109"/>
-      <c r="AW56" s="109"/>
-      <c r="AX56" s="109"/>
-      <c r="AY56" s="109"/>
-      <c r="AZ56" s="109"/>
-      <c r="BA56" s="109"/>
-      <c r="BB56" s="109"/>
-      <c r="BC56" s="110"/>
+      <c r="AJ56" s="193"/>
+      <c r="AK56" s="193"/>
+      <c r="AL56" s="193"/>
+      <c r="AM56" s="193"/>
+      <c r="AN56" s="193"/>
+      <c r="AO56" s="193"/>
+      <c r="AP56" s="193"/>
+      <c r="AQ56" s="193"/>
+      <c r="AR56" s="193"/>
+      <c r="AS56" s="193"/>
+      <c r="AT56" s="193"/>
+      <c r="AU56" s="193"/>
+      <c r="AV56" s="193"/>
+      <c r="AW56" s="193"/>
+      <c r="AX56" s="193"/>
+      <c r="AY56" s="193"/>
+      <c r="AZ56" s="193"/>
+      <c r="BA56" s="193"/>
+      <c r="BB56" s="193"/>
+      <c r="BC56" s="194"/>
     </row>
     <row r="57" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
@@ -7186,343 +7179,331 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="W57" s="96"/>
-      <c r="X57" s="97"/>
-      <c r="Y57" s="97"/>
-      <c r="Z57" s="97"/>
-      <c r="AA57" s="97"/>
-      <c r="AB57" s="97"/>
-      <c r="AC57" s="97"/>
-      <c r="AD57" s="97"/>
-      <c r="AE57" s="97"/>
-      <c r="AF57" s="97"/>
-      <c r="AG57" s="98"/>
-      <c r="AI57" s="105"/>
-      <c r="AJ57" s="106"/>
-      <c r="AK57" s="106"/>
-      <c r="AL57" s="106"/>
-      <c r="AM57" s="106"/>
-      <c r="AN57" s="106"/>
-      <c r="AO57" s="106"/>
-      <c r="AP57" s="106"/>
-      <c r="AQ57" s="106"/>
-      <c r="AR57" s="106"/>
-      <c r="AS57" s="106"/>
-      <c r="AT57" s="106"/>
-      <c r="AU57" s="106"/>
-      <c r="AV57" s="106"/>
-      <c r="AW57" s="106"/>
-      <c r="AX57" s="106"/>
-      <c r="AY57" s="106"/>
-      <c r="AZ57" s="106"/>
-      <c r="BA57" s="106"/>
-      <c r="BB57" s="106"/>
-      <c r="BC57" s="107"/>
+      <c r="W57" s="180"/>
+      <c r="X57" s="181"/>
+      <c r="Y57" s="181"/>
+      <c r="Z57" s="181"/>
+      <c r="AA57" s="181"/>
+      <c r="AB57" s="181"/>
+      <c r="AC57" s="181"/>
+      <c r="AD57" s="181"/>
+      <c r="AE57" s="181"/>
+      <c r="AF57" s="181"/>
+      <c r="AG57" s="182"/>
+      <c r="AI57" s="189"/>
+      <c r="AJ57" s="190"/>
+      <c r="AK57" s="190"/>
+      <c r="AL57" s="190"/>
+      <c r="AM57" s="190"/>
+      <c r="AN57" s="190"/>
+      <c r="AO57" s="190"/>
+      <c r="AP57" s="190"/>
+      <c r="AQ57" s="190"/>
+      <c r="AR57" s="190"/>
+      <c r="AS57" s="190"/>
+      <c r="AT57" s="190"/>
+      <c r="AU57" s="190"/>
+      <c r="AV57" s="190"/>
+      <c r="AW57" s="190"/>
+      <c r="AX57" s="190"/>
+      <c r="AY57" s="190"/>
+      <c r="AZ57" s="190"/>
+      <c r="BA57" s="190"/>
+      <c r="BB57" s="190"/>
+      <c r="BC57" s="191"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="111" t="s">
+      <c r="B58" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="111"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="111"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="111"/>
-      <c r="W58" s="99"/>
-      <c r="X58" s="100"/>
-      <c r="Y58" s="100"/>
-      <c r="Z58" s="100"/>
-      <c r="AA58" s="100"/>
-      <c r="AB58" s="100"/>
-      <c r="AC58" s="100"/>
-      <c r="AD58" s="100"/>
-      <c r="AE58" s="100"/>
-      <c r="AF58" s="100"/>
-      <c r="AG58" s="101"/>
-      <c r="AI58" s="108" t="s">
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="195"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="195"/>
+      <c r="W58" s="183"/>
+      <c r="X58" s="184"/>
+      <c r="Y58" s="184"/>
+      <c r="Z58" s="184"/>
+      <c r="AA58" s="184"/>
+      <c r="AB58" s="184"/>
+      <c r="AC58" s="184"/>
+      <c r="AD58" s="184"/>
+      <c r="AE58" s="184"/>
+      <c r="AF58" s="184"/>
+      <c r="AG58" s="185"/>
+      <c r="AI58" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="AJ58" s="109"/>
-      <c r="AK58" s="109"/>
-      <c r="AL58" s="109"/>
-      <c r="AM58" s="109"/>
-      <c r="AN58" s="109"/>
-      <c r="AO58" s="109"/>
-      <c r="AP58" s="109"/>
-      <c r="AQ58" s="109"/>
-      <c r="AR58" s="109"/>
-      <c r="AS58" s="109"/>
-      <c r="AT58" s="109"/>
-      <c r="AU58" s="109"/>
-      <c r="AV58" s="109"/>
-      <c r="AW58" s="109"/>
-      <c r="AX58" s="109"/>
-      <c r="AY58" s="109"/>
-      <c r="AZ58" s="109"/>
-      <c r="BA58" s="109"/>
-      <c r="BB58" s="109"/>
-      <c r="BC58" s="110"/>
+      <c r="AJ58" s="193"/>
+      <c r="AK58" s="193"/>
+      <c r="AL58" s="193"/>
+      <c r="AM58" s="193"/>
+      <c r="AN58" s="193"/>
+      <c r="AO58" s="193"/>
+      <c r="AP58" s="193"/>
+      <c r="AQ58" s="193"/>
+      <c r="AR58" s="193"/>
+      <c r="AS58" s="193"/>
+      <c r="AT58" s="193"/>
+      <c r="AU58" s="193"/>
+      <c r="AV58" s="193"/>
+      <c r="AW58" s="193"/>
+      <c r="AX58" s="193"/>
+      <c r="AY58" s="193"/>
+      <c r="AZ58" s="193"/>
+      <c r="BA58" s="193"/>
+      <c r="BB58" s="193"/>
+      <c r="BC58" s="194"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="162"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="162"/>
+      <c r="M59" s="162"/>
+      <c r="N59" s="162"/>
       <c r="O59" s="12"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="S59" s="79" t="s">
+      <c r="S59" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-      <c r="AA59" s="79"/>
-      <c r="AB59" s="79"/>
-      <c r="AC59" s="79"/>
-      <c r="AD59" s="79"/>
-      <c r="AE59" s="79"/>
-      <c r="AI59" s="80"/>
-      <c r="AJ59" s="81"/>
-      <c r="AK59" s="81"/>
-      <c r="AL59" s="81"/>
-      <c r="AM59" s="81"/>
-      <c r="AN59" s="81"/>
-      <c r="AO59" s="81"/>
-      <c r="AP59" s="81"/>
-      <c r="AQ59" s="81"/>
-      <c r="AR59" s="81"/>
-      <c r="AS59" s="81"/>
-      <c r="AT59" s="81"/>
-      <c r="AU59" s="81"/>
-      <c r="AV59" s="81"/>
-      <c r="AW59" s="81"/>
-      <c r="AX59" s="81"/>
-      <c r="AY59" s="81"/>
-      <c r="AZ59" s="81"/>
-      <c r="BA59" s="81"/>
-      <c r="BB59" s="81"/>
-      <c r="BC59" s="82"/>
+      <c r="T59" s="163"/>
+      <c r="U59" s="163"/>
+      <c r="V59" s="163"/>
+      <c r="W59" s="163"/>
+      <c r="X59" s="163"/>
+      <c r="Y59" s="163"/>
+      <c r="Z59" s="163"/>
+      <c r="AA59" s="163"/>
+      <c r="AB59" s="163"/>
+      <c r="AC59" s="163"/>
+      <c r="AD59" s="163"/>
+      <c r="AE59" s="163"/>
+      <c r="AI59" s="164"/>
+      <c r="AJ59" s="165"/>
+      <c r="AK59" s="165"/>
+      <c r="AL59" s="165"/>
+      <c r="AM59" s="165"/>
+      <c r="AN59" s="165"/>
+      <c r="AO59" s="165"/>
+      <c r="AP59" s="165"/>
+      <c r="AQ59" s="165"/>
+      <c r="AR59" s="165"/>
+      <c r="AS59" s="165"/>
+      <c r="AT59" s="165"/>
+      <c r="AU59" s="165"/>
+      <c r="AV59" s="165"/>
+      <c r="AW59" s="165"/>
+      <c r="AX59" s="165"/>
+      <c r="AY59" s="165"/>
+      <c r="AZ59" s="165"/>
+      <c r="BA59" s="165"/>
+      <c r="BB59" s="165"/>
+      <c r="BC59" s="166"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="162"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="79"/>
-      <c r="V60" s="79"/>
-      <c r="W60" s="79"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="79"/>
-      <c r="Z60" s="79"/>
-      <c r="AA60" s="79"/>
-      <c r="AB60" s="79"/>
-      <c r="AC60" s="79"/>
-      <c r="AD60" s="79"/>
-      <c r="AE60" s="79"/>
+      <c r="S60" s="163"/>
+      <c r="T60" s="163"/>
+      <c r="U60" s="163"/>
+      <c r="V60" s="163"/>
+      <c r="W60" s="163"/>
+      <c r="X60" s="163"/>
+      <c r="Y60" s="163"/>
+      <c r="Z60" s="163"/>
+      <c r="AA60" s="163"/>
+      <c r="AB60" s="163"/>
+      <c r="AC60" s="163"/>
+      <c r="AD60" s="163"/>
+      <c r="AE60" s="163"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="S61" s="79"/>
-      <c r="T61" s="79"/>
-      <c r="U61" s="79"/>
-      <c r="V61" s="79"/>
-      <c r="W61" s="79"/>
-      <c r="X61" s="79"/>
-      <c r="Y61" s="79"/>
-      <c r="Z61" s="79"/>
-      <c r="AA61" s="79"/>
-      <c r="AB61" s="79"/>
-      <c r="AC61" s="79"/>
-      <c r="AD61" s="79"/>
-      <c r="AE61" s="79"/>
-      <c r="AI61" s="83" t="s">
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="162"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="162"/>
+      <c r="M61" s="162"/>
+      <c r="N61" s="162"/>
+      <c r="S61" s="163"/>
+      <c r="T61" s="163"/>
+      <c r="U61" s="163"/>
+      <c r="V61" s="163"/>
+      <c r="W61" s="163"/>
+      <c r="X61" s="163"/>
+      <c r="Y61" s="163"/>
+      <c r="Z61" s="163"/>
+      <c r="AA61" s="163"/>
+      <c r="AB61" s="163"/>
+      <c r="AC61" s="163"/>
+      <c r="AD61" s="163"/>
+      <c r="AE61" s="163"/>
+      <c r="AI61" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="83"/>
-      <c r="AK61" s="83"/>
-      <c r="AL61" s="83"/>
-      <c r="AM61" s="83"/>
-      <c r="AN61" s="83"/>
-      <c r="AO61" s="83"/>
-      <c r="AP61" s="83"/>
-      <c r="AQ61" s="83"/>
-      <c r="AR61" s="83"/>
-      <c r="AS61" s="83"/>
-      <c r="AT61" s="83"/>
-      <c r="AU61" s="85">
+      <c r="AJ61" s="167"/>
+      <c r="AK61" s="167"/>
+      <c r="AL61" s="167"/>
+      <c r="AM61" s="167"/>
+      <c r="AN61" s="167"/>
+      <c r="AO61" s="167"/>
+      <c r="AP61" s="167"/>
+      <c r="AQ61" s="167"/>
+      <c r="AR61" s="167"/>
+      <c r="AS61" s="167"/>
+      <c r="AT61" s="167"/>
+      <c r="AU61" s="169">
         <v>0</v>
       </c>
-      <c r="AV61" s="86"/>
-      <c r="AW61" s="86"/>
-      <c r="AX61" s="86"/>
-      <c r="AY61" s="86"/>
-      <c r="AZ61" s="86"/>
-      <c r="BA61" s="86"/>
-      <c r="BB61" s="86"/>
-      <c r="BC61" s="87"/>
+      <c r="AV61" s="170"/>
+      <c r="AW61" s="170"/>
+      <c r="AX61" s="170"/>
+      <c r="AY61" s="170"/>
+      <c r="AZ61" s="170"/>
+      <c r="BA61" s="170"/>
+      <c r="BB61" s="170"/>
+      <c r="BC61" s="171"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91"/>
-      <c r="N62" s="91"/>
-      <c r="S62" s="92" t="s">
+      <c r="C62" s="175"/>
+      <c r="D62" s="175"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="175"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="175"/>
+      <c r="M62" s="175"/>
+      <c r="N62" s="175"/>
+      <c r="S62" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="92"/>
-      <c r="U62" s="92"/>
-      <c r="V62" s="92"/>
-      <c r="W62" s="92"/>
-      <c r="X62" s="92"/>
-      <c r="Y62" s="92"/>
-      <c r="Z62" s="92"/>
-      <c r="AA62" s="92"/>
-      <c r="AB62" s="92"/>
-      <c r="AC62" s="92"/>
-      <c r="AD62" s="92"/>
-      <c r="AE62" s="92"/>
-      <c r="AI62" s="84"/>
-      <c r="AJ62" s="84"/>
-      <c r="AK62" s="84"/>
-      <c r="AL62" s="84"/>
-      <c r="AM62" s="84"/>
-      <c r="AN62" s="84"/>
-      <c r="AO62" s="84"/>
-      <c r="AP62" s="84"/>
-      <c r="AQ62" s="84"/>
-      <c r="AR62" s="84"/>
-      <c r="AS62" s="84"/>
-      <c r="AT62" s="84"/>
-      <c r="AU62" s="88"/>
-      <c r="AV62" s="89"/>
-      <c r="AW62" s="89"/>
-      <c r="AX62" s="89"/>
-      <c r="AY62" s="89"/>
-      <c r="AZ62" s="89"/>
-      <c r="BA62" s="89"/>
-      <c r="BB62" s="89"/>
-      <c r="BC62" s="90"/>
+      <c r="T62" s="176"/>
+      <c r="U62" s="176"/>
+      <c r="V62" s="176"/>
+      <c r="W62" s="176"/>
+      <c r="X62" s="176"/>
+      <c r="Y62" s="176"/>
+      <c r="Z62" s="176"/>
+      <c r="AA62" s="176"/>
+      <c r="AB62" s="176"/>
+      <c r="AC62" s="176"/>
+      <c r="AD62" s="176"/>
+      <c r="AE62" s="176"/>
+      <c r="AI62" s="168"/>
+      <c r="AJ62" s="168"/>
+      <c r="AK62" s="168"/>
+      <c r="AL62" s="168"/>
+      <c r="AM62" s="168"/>
+      <c r="AN62" s="168"/>
+      <c r="AO62" s="168"/>
+      <c r="AP62" s="168"/>
+      <c r="AQ62" s="168"/>
+      <c r="AR62" s="168"/>
+      <c r="AS62" s="168"/>
+      <c r="AT62" s="168"/>
+      <c r="AU62" s="172"/>
+      <c r="AV62" s="173"/>
+      <c r="AW62" s="173"/>
+      <c r="AX62" s="173"/>
+      <c r="AY62" s="173"/>
+      <c r="AZ62" s="173"/>
+      <c r="BA62" s="173"/>
+      <c r="BB62" s="173"/>
+      <c r="BC62" s="174"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="AW6:BC6"/>
-    <mergeCell ref="AG2:BC2"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="AM8:AV8"/>
-    <mergeCell ref="AM6:AV6"/>
-    <mergeCell ref="AM4:AV4"/>
-    <mergeCell ref="AY25:BC26"/>
-    <mergeCell ref="AT14:BC14"/>
-    <mergeCell ref="AM27:BC33"/>
-    <mergeCell ref="AL24:AL32"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="A34:AK34"/>
-    <mergeCell ref="AM20:BC21"/>
-    <mergeCell ref="AY24:BC24"/>
-    <mergeCell ref="A29:AK29"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AT15:BC15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="I15:AA15"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="J35:AK35"/>
-    <mergeCell ref="A33:AK33"/>
-    <mergeCell ref="AM34:BC34"/>
-    <mergeCell ref="AM25:AQ26"/>
-    <mergeCell ref="AR25:AX26"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="AO16:BC16"/>
-    <mergeCell ref="AO17:BC17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="A19:AK19"/>
+    <mergeCell ref="J49:S49"/>
+    <mergeCell ref="T48:AB48"/>
+    <mergeCell ref="T49:AB49"/>
+    <mergeCell ref="AC48:AK48"/>
+    <mergeCell ref="AM35:BC51"/>
+    <mergeCell ref="AC46:AK46"/>
+    <mergeCell ref="AC49:AK49"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="J46:S46"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="A45:AK45"/>
+    <mergeCell ref="A50:AK51"/>
+    <mergeCell ref="AC47:AK47"/>
+    <mergeCell ref="A43:AK44"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="B59:N61"/>
+    <mergeCell ref="S59:AE61"/>
+    <mergeCell ref="AI59:BC59"/>
+    <mergeCell ref="AI61:AT62"/>
+    <mergeCell ref="AU61:BC62"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="S62:AE62"/>
+    <mergeCell ref="W54:AG58"/>
+    <mergeCell ref="AI54:BC54"/>
+    <mergeCell ref="AI55:BC55"/>
+    <mergeCell ref="AI56:BC56"/>
+    <mergeCell ref="AI57:BC57"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="AI58:BC58"/>
+    <mergeCell ref="A52:U54"/>
+    <mergeCell ref="W53:AG53"/>
+    <mergeCell ref="AI53:BC53"/>
     <mergeCell ref="Z1:BC1"/>
     <mergeCell ref="AG14:AK14"/>
     <mergeCell ref="A17:K17"/>
@@ -7547,71 +7528,83 @@
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A13:AR13"/>
     <mergeCell ref="I14:AA14"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J35:AK35"/>
+    <mergeCell ref="A33:AK33"/>
+    <mergeCell ref="AM34:BC34"/>
+    <mergeCell ref="AM25:AQ26"/>
+    <mergeCell ref="AR25:AX26"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="W26:AB26"/>
     <mergeCell ref="S32:AB32"/>
     <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="A27:R28"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="I15:AA15"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="AO16:BC16"/>
+    <mergeCell ref="AO17:BC17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="A19:AK19"/>
     <mergeCell ref="W20:AB20"/>
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="AC22:AK22"/>
     <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AM27:BC33"/>
+    <mergeCell ref="AL24:AL32"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="A34:AK34"/>
+    <mergeCell ref="AM20:BC21"/>
+    <mergeCell ref="AY24:BC24"/>
+    <mergeCell ref="A29:AK29"/>
+    <mergeCell ref="AC30:AK30"/>
     <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="A27:R28"/>
     <mergeCell ref="N21:V21"/>
     <mergeCell ref="N22:V22"/>
     <mergeCell ref="N23:V23"/>
     <mergeCell ref="N24:V24"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="N26:V26"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A23:M23"/>
     <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
     <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="S27:AB27"/>
-    <mergeCell ref="B59:N61"/>
-    <mergeCell ref="S59:AE61"/>
-    <mergeCell ref="AI59:BC59"/>
-    <mergeCell ref="AI61:AT62"/>
-    <mergeCell ref="AU61:BC62"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="S62:AE62"/>
-    <mergeCell ref="W54:AG58"/>
-    <mergeCell ref="AI54:BC54"/>
-    <mergeCell ref="AI55:BC55"/>
-    <mergeCell ref="AI56:BC56"/>
-    <mergeCell ref="AI57:BC57"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="AI58:BC58"/>
-    <mergeCell ref="A52:U54"/>
-    <mergeCell ref="W53:AG53"/>
-    <mergeCell ref="AI53:BC53"/>
-    <mergeCell ref="J49:S49"/>
-    <mergeCell ref="T48:AB48"/>
-    <mergeCell ref="T49:AB49"/>
-    <mergeCell ref="AC48:AK48"/>
-    <mergeCell ref="AM35:BC51"/>
-    <mergeCell ref="AC46:AK46"/>
-    <mergeCell ref="AC49:AK49"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="J46:S46"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="A45:AK45"/>
-    <mergeCell ref="A50:AK51"/>
-    <mergeCell ref="AC47:AK47"/>
-    <mergeCell ref="A43:AK44"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="AW6:BC6"/>
+    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="AM8:AV8"/>
+    <mergeCell ref="AM6:AV6"/>
+    <mergeCell ref="AM4:AV4"/>
+    <mergeCell ref="AY25:BC26"/>
+    <mergeCell ref="AT14:BC14"/>
+    <mergeCell ref="AT15:BC15"/>
+    <mergeCell ref="AG15:AK15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S62" r:id="rId1"/>
@@ -7624,47 +7617,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1">
-        <v>287.89999999999998</v>
+        <v>72</v>
+      </c>
+      <c r="D1" s="44">
+        <f>SUM(B2:B8)</f>
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="42">
         <v>33.1</v>
       </c>
       <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <v>316.39999999999998</v>
+      <c r="D2" s="42">
+        <f>D1-B8</f>
+        <v>187.7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="42">
         <v>36.200000000000003</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="42">
         <v>30.2</v>
@@ -7672,9 +7673,9 @@
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="42">
         <v>29.7</v>
@@ -7682,9 +7683,9 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="42">
         <v>28.5</v>
@@ -7692,21 +7693,35 @@
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="42">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
-        <f>AVERAGE(B2:B7)</f>
-        <v>31.283333333333335</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="42">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="44">
+        <f>AVERAGE(B3:B8)</f>
+        <v>31.150000000000006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>